--- a/SenkoMicro-SKCS-GUI - auto/Programming Discription/LABtest_公式_v1.2 (自动保存的).xlsx
+++ b/SenkoMicro-SKCS-GUI - auto/Programming Discription/LABtest_公式_v1.2 (自动保存的).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="1185" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="实验室测试项目" sheetId="7" r:id="rId1"/>
@@ -3040,6 +3040,99 @@
     <xf numFmtId="10" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3112,12 +3205,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3126,93 +3213,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4050,11 +4050,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="290763680"/>
-        <c:axId val="290764240"/>
+        <c:axId val="200488000"/>
+        <c:axId val="200488560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="290763680"/>
+        <c:axId val="200488000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4063,7 +4063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="290764240"/>
+        <c:crossAx val="200488560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4071,7 +4071,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="290764240"/>
+        <c:axId val="200488560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4082,7 +4082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="290763680"/>
+        <c:crossAx val="200488000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4523,11 +4523,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="291967232"/>
-        <c:axId val="291967792"/>
+        <c:axId val="201141408"/>
+        <c:axId val="201141968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="291967232"/>
+        <c:axId val="201141408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4536,7 +4536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291967792"/>
+        <c:crossAx val="201141968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4544,7 +4544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291967792"/>
+        <c:axId val="201141968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4555,7 +4555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291967232"/>
+        <c:crossAx val="201141408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4996,11 +4996,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="291973392"/>
-        <c:axId val="291973952"/>
+        <c:axId val="201306224"/>
+        <c:axId val="201306784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="291973392"/>
+        <c:axId val="201306224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5009,7 +5009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291973952"/>
+        <c:crossAx val="201306784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5017,7 +5017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="291973952"/>
+        <c:axId val="201306784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5028,13 +5028,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="291973392"/>
+        <c:crossAx val="201306224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5482,11 +5483,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="292170864"/>
-        <c:axId val="292171424"/>
+        <c:axId val="201335232"/>
+        <c:axId val="201335792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="292170864"/>
+        <c:axId val="201335232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5495,7 +5496,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292171424"/>
+        <c:crossAx val="201335792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5503,7 +5504,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292171424"/>
+        <c:axId val="201335792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5518,7 +5519,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="292170864"/>
+        <c:crossAx val="201335232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5645,11 +5646,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="292174784"/>
-        <c:axId val="292175344"/>
+        <c:axId val="201468176"/>
+        <c:axId val="201468736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="292174784"/>
+        <c:axId val="201468176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5692,7 +5693,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292175344"/>
+        <c:crossAx val="201468736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5700,7 +5701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="292175344"/>
+        <c:axId val="201468736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5751,7 +5752,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="292174784"/>
+        <c:crossAx val="201468176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6827,50 +6828,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="48" customHeight="1" thickBot="1">
-      <c r="A1" s="635" t="s">
+      <c r="A1" s="666" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="636"/>
-      <c r="C1" s="636"/>
-      <c r="D1" s="636"/>
-      <c r="E1" s="636"/>
-      <c r="F1" s="636"/>
-      <c r="G1" s="636"/>
-      <c r="H1" s="636"/>
-      <c r="I1" s="636"/>
-      <c r="J1" s="636"/>
-      <c r="K1" s="636"/>
-      <c r="L1" s="637"/>
+      <c r="B1" s="667"/>
+      <c r="C1" s="667"/>
+      <c r="D1" s="667"/>
+      <c r="E1" s="667"/>
+      <c r="F1" s="667"/>
+      <c r="G1" s="667"/>
+      <c r="H1" s="667"/>
+      <c r="I1" s="667"/>
+      <c r="J1" s="667"/>
+      <c r="K1" s="667"/>
+      <c r="L1" s="668"/>
     </row>
     <row r="2" spans="1:12" ht="39" customHeight="1" thickBot="1">
-      <c r="A2" s="649"/>
-      <c r="B2" s="649"/>
-      <c r="C2" s="649"/>
-      <c r="D2" s="649"/>
-      <c r="E2" s="649"/>
-      <c r="F2" s="649"/>
-      <c r="G2" s="649"/>
-      <c r="H2" s="649"/>
-      <c r="I2" s="649"/>
-      <c r="J2" s="649"/>
-      <c r="K2" s="649"/>
-      <c r="L2" s="649"/>
+      <c r="A2" s="680"/>
+      <c r="B2" s="680"/>
+      <c r="C2" s="680"/>
+      <c r="D2" s="680"/>
+      <c r="E2" s="680"/>
+      <c r="F2" s="680"/>
+      <c r="G2" s="680"/>
+      <c r="H2" s="680"/>
+      <c r="I2" s="680"/>
+      <c r="J2" s="680"/>
+      <c r="K2" s="680"/>
+      <c r="L2" s="680"/>
     </row>
     <row r="3" spans="1:12" ht="27" customHeight="1" thickBot="1">
-      <c r="A3" s="661" t="s">
+      <c r="A3" s="690" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="662"/>
-      <c r="C3" s="662"/>
-      <c r="D3" s="662"/>
-      <c r="E3" s="662"/>
-      <c r="F3" s="662"/>
-      <c r="G3" s="662"/>
-      <c r="H3" s="662"/>
-      <c r="I3" s="662"/>
-      <c r="J3" s="662"/>
-      <c r="K3" s="662"/>
-      <c r="L3" s="663"/>
+      <c r="B3" s="691"/>
+      <c r="C3" s="691"/>
+      <c r="D3" s="691"/>
+      <c r="E3" s="691"/>
+      <c r="F3" s="691"/>
+      <c r="G3" s="691"/>
+      <c r="H3" s="691"/>
+      <c r="I3" s="691"/>
+      <c r="J3" s="691"/>
+      <c r="K3" s="691"/>
+      <c r="L3" s="692"/>
     </row>
     <row r="4" spans="1:12" ht="89.25" customHeight="1" thickBot="1">
       <c r="A4" s="151" t="s">
@@ -6891,11 +6892,11 @@
       <c r="F4" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="638" t="s">
+      <c r="G4" s="669" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="638"/>
-      <c r="I4" s="638"/>
+      <c r="H4" s="669"/>
+      <c r="I4" s="669"/>
       <c r="J4" s="155" t="s">
         <v>164</v>
       </c>
@@ -6903,21 +6904,21 @@
       <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A5" s="650"/>
-      <c r="B5" s="651"/>
-      <c r="C5" s="651"/>
-      <c r="D5" s="651"/>
-      <c r="E5" s="651"/>
-      <c r="F5" s="651"/>
-      <c r="G5" s="651"/>
-      <c r="H5" s="651"/>
-      <c r="I5" s="651"/>
-      <c r="J5" s="651"/>
-      <c r="K5" s="651"/>
-      <c r="L5" s="652"/>
+      <c r="A5" s="681"/>
+      <c r="B5" s="682"/>
+      <c r="C5" s="682"/>
+      <c r="D5" s="682"/>
+      <c r="E5" s="682"/>
+      <c r="F5" s="682"/>
+      <c r="G5" s="682"/>
+      <c r="H5" s="682"/>
+      <c r="I5" s="682"/>
+      <c r="J5" s="682"/>
+      <c r="K5" s="682"/>
+      <c r="L5" s="683"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
-      <c r="A6" s="639">
+      <c r="A6" s="670">
         <v>1</v>
       </c>
       <c r="B6" s="86" t="s">
@@ -6938,7 +6939,7 @@
       <c r="G6" s="88">
         <v>5.5</v>
       </c>
-      <c r="H6" s="676" t="s">
+      <c r="H6" s="639" t="s">
         <v>165</v>
       </c>
       <c r="I6" s="90"/>
@@ -6947,7 +6948,7 @@
       <c r="L6" s="170"/>
     </row>
     <row r="7" spans="1:12" ht="15.75">
-      <c r="A7" s="640"/>
+      <c r="A7" s="671"/>
       <c r="B7" s="91" t="s">
         <v>31</v>
       </c>
@@ -6956,14 +6957,14 @@
       <c r="E7" s="93"/>
       <c r="F7" s="94"/>
       <c r="G7" s="95"/>
-      <c r="H7" s="676"/>
+      <c r="H7" s="639"/>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
       <c r="L7" s="170"/>
     </row>
     <row r="8" spans="1:12" ht="15.75">
-      <c r="A8" s="640"/>
+      <c r="A8" s="671"/>
       <c r="B8" s="91" t="s">
         <v>32</v>
       </c>
@@ -6972,14 +6973,14 @@
       <c r="E8" s="166"/>
       <c r="F8" s="96"/>
       <c r="G8" s="97"/>
-      <c r="H8" s="676"/>
+      <c r="H8" s="639"/>
       <c r="I8" s="98"/>
       <c r="J8" s="98"/>
       <c r="K8" s="98"/>
       <c r="L8" s="171"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A9" s="641"/>
+      <c r="A9" s="672"/>
       <c r="B9" s="99" t="s">
         <v>33</v>
       </c>
@@ -6988,28 +6989,28 @@
       <c r="E9" s="101"/>
       <c r="F9" s="100"/>
       <c r="G9" s="102"/>
-      <c r="H9" s="676"/>
+      <c r="H9" s="639"/>
       <c r="I9" s="89"/>
       <c r="J9" s="89"/>
       <c r="K9" s="89"/>
       <c r="L9" s="170"/>
     </row>
     <row r="10" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A10" s="653"/>
-      <c r="B10" s="654"/>
-      <c r="C10" s="654"/>
-      <c r="D10" s="654"/>
-      <c r="E10" s="654"/>
-      <c r="F10" s="654"/>
-      <c r="G10" s="654"/>
-      <c r="H10" s="654"/>
-      <c r="I10" s="655"/>
-      <c r="J10" s="655"/>
-      <c r="K10" s="655"/>
-      <c r="L10" s="656"/>
+      <c r="A10" s="684"/>
+      <c r="B10" s="685"/>
+      <c r="C10" s="685"/>
+      <c r="D10" s="685"/>
+      <c r="E10" s="685"/>
+      <c r="F10" s="685"/>
+      <c r="G10" s="685"/>
+      <c r="H10" s="685"/>
+      <c r="I10" s="686"/>
+      <c r="J10" s="686"/>
+      <c r="K10" s="686"/>
+      <c r="L10" s="687"/>
     </row>
     <row r="11" spans="1:12" ht="72.75" customHeight="1">
-      <c r="A11" s="646">
+      <c r="A11" s="677">
         <v>2</v>
       </c>
       <c r="B11" s="103" t="s">
@@ -7031,7 +7032,7 @@
         <v>96</v>
       </c>
       <c r="H11" s="105"/>
-      <c r="I11" s="676" t="s">
+      <c r="I11" s="639" t="s">
         <v>170</v>
       </c>
       <c r="J11" s="89"/>
@@ -7039,11 +7040,11 @@
       <c r="L11" s="172"/>
     </row>
     <row r="12" spans="1:12" ht="15.75">
-      <c r="A12" s="647"/>
-      <c r="B12" s="659">
-        <v>1</v>
-      </c>
-      <c r="C12" s="659">
+      <c r="A12" s="678"/>
+      <c r="B12" s="648">
+        <v>1</v>
+      </c>
+      <c r="C12" s="648">
         <v>1</v>
       </c>
       <c r="D12" s="106">
@@ -7055,15 +7056,15 @@
       <c r="F12" s="93"/>
       <c r="G12" s="93"/>
       <c r="H12" s="108"/>
-      <c r="I12" s="676"/>
+      <c r="I12" s="639"/>
       <c r="J12" s="109"/>
       <c r="K12" s="109"/>
       <c r="L12" s="173"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A13" s="647"/>
-      <c r="B13" s="659"/>
-      <c r="C13" s="659"/>
+      <c r="A13" s="678"/>
+      <c r="B13" s="648"/>
+      <c r="C13" s="648"/>
       <c r="D13" s="106">
         <v>0</v>
       </c>
@@ -7073,15 +7074,15 @@
       <c r="F13" s="94"/>
       <c r="G13" s="94"/>
       <c r="H13" s="95"/>
-      <c r="I13" s="676"/>
+      <c r="I13" s="639"/>
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
       <c r="L13" s="170"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="647"/>
-      <c r="B14" s="659"/>
-      <c r="C14" s="659"/>
+      <c r="A14" s="678"/>
+      <c r="B14" s="648"/>
+      <c r="C14" s="648"/>
       <c r="D14" s="106">
         <v>1</v>
       </c>
@@ -7091,15 +7092,15 @@
       <c r="F14" s="94"/>
       <c r="G14" s="94"/>
       <c r="H14" s="95"/>
-      <c r="I14" s="676"/>
+      <c r="I14" s="639"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
       <c r="L14" s="170"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A15" s="648"/>
-      <c r="B15" s="660"/>
-      <c r="C15" s="660"/>
+      <c r="A15" s="679"/>
+      <c r="B15" s="649"/>
+      <c r="C15" s="649"/>
       <c r="D15" s="100">
         <v>1</v>
       </c>
@@ -7109,36 +7110,36 @@
       <c r="F15" s="111"/>
       <c r="G15" s="111"/>
       <c r="H15" s="112"/>
-      <c r="I15" s="676"/>
+      <c r="I15" s="639"/>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
       <c r="L15" s="170"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A16" s="647"/>
-      <c r="B16" s="657"/>
-      <c r="C16" s="657"/>
-      <c r="D16" s="657"/>
-      <c r="E16" s="657"/>
-      <c r="F16" s="657"/>
-      <c r="G16" s="657"/>
-      <c r="H16" s="657"/>
-      <c r="I16" s="657"/>
-      <c r="J16" s="657"/>
-      <c r="K16" s="657"/>
-      <c r="L16" s="658"/>
+      <c r="A16" s="678"/>
+      <c r="B16" s="688"/>
+      <c r="C16" s="688"/>
+      <c r="D16" s="688"/>
+      <c r="E16" s="688"/>
+      <c r="F16" s="688"/>
+      <c r="G16" s="688"/>
+      <c r="H16" s="688"/>
+      <c r="I16" s="688"/>
+      <c r="J16" s="688"/>
+      <c r="K16" s="688"/>
+      <c r="L16" s="689"/>
     </row>
     <row r="17" spans="1:12" ht="15.75">
-      <c r="A17" s="642">
+      <c r="A17" s="673">
         <v>3</v>
       </c>
       <c r="B17" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="645" t="s">
+      <c r="C17" s="676" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="645"/>
+      <c r="D17" s="676"/>
       <c r="E17" s="64" t="s">
         <v>34</v>
       </c>
@@ -7158,19 +7159,19 @@
         <v>5.5</v>
       </c>
       <c r="K17" s="84"/>
-      <c r="L17" s="677" t="s">
+      <c r="L17" s="640" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75">
-      <c r="A18" s="643"/>
-      <c r="B18" s="659">
-        <v>0</v>
-      </c>
-      <c r="C18" s="659">
-        <v>1</v>
-      </c>
-      <c r="D18" s="659"/>
+      <c r="A18" s="674"/>
+      <c r="B18" s="648">
+        <v>0</v>
+      </c>
+      <c r="C18" s="648">
+        <v>1</v>
+      </c>
+      <c r="D18" s="648"/>
       <c r="E18" s="59" t="s">
         <v>36</v>
       </c>
@@ -7180,13 +7181,13 @@
       <c r="I18" s="93"/>
       <c r="J18" s="93"/>
       <c r="K18" s="108"/>
-      <c r="L18" s="677"/>
+      <c r="L18" s="640"/>
     </row>
     <row r="19" spans="1:12" ht="15.75">
-      <c r="A19" s="643"/>
-      <c r="B19" s="659"/>
-      <c r="C19" s="659"/>
-      <c r="D19" s="659"/>
+      <c r="A19" s="674"/>
+      <c r="B19" s="648"/>
+      <c r="C19" s="648"/>
+      <c r="D19" s="648"/>
       <c r="E19" s="59" t="s">
         <v>37</v>
       </c>
@@ -7196,13 +7197,13 @@
       <c r="I19" s="93"/>
       <c r="J19" s="93"/>
       <c r="K19" s="108"/>
-      <c r="L19" s="677"/>
+      <c r="L19" s="640"/>
     </row>
     <row r="20" spans="1:12" ht="15.75">
-      <c r="A20" s="643"/>
-      <c r="B20" s="659"/>
-      <c r="C20" s="659"/>
-      <c r="D20" s="659"/>
+      <c r="A20" s="674"/>
+      <c r="B20" s="648"/>
+      <c r="C20" s="648"/>
+      <c r="D20" s="648"/>
       <c r="E20" s="59" t="s">
         <v>38</v>
       </c>
@@ -7212,13 +7213,13 @@
       <c r="I20" s="93"/>
       <c r="J20" s="93"/>
       <c r="K20" s="108"/>
-      <c r="L20" s="677"/>
+      <c r="L20" s="640"/>
     </row>
     <row r="21" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A21" s="644"/>
-      <c r="B21" s="660"/>
-      <c r="C21" s="660"/>
-      <c r="D21" s="660"/>
+      <c r="A21" s="675"/>
+      <c r="B21" s="649"/>
+      <c r="C21" s="649"/>
+      <c r="D21" s="649"/>
       <c r="E21" s="85" t="s">
         <v>35</v>
       </c>
@@ -7243,24 +7244,24 @@
         <v>0</v>
       </c>
       <c r="K21" s="114"/>
-      <c r="L21" s="677"/>
+      <c r="L21" s="640"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A22" s="672"/>
-      <c r="B22" s="673"/>
-      <c r="C22" s="673"/>
-      <c r="D22" s="673"/>
-      <c r="E22" s="673"/>
-      <c r="F22" s="673"/>
-      <c r="G22" s="673"/>
-      <c r="H22" s="673"/>
-      <c r="I22" s="673"/>
-      <c r="J22" s="673"/>
-      <c r="K22" s="673"/>
-      <c r="L22" s="674"/>
+      <c r="A22" s="635"/>
+      <c r="B22" s="636"/>
+      <c r="C22" s="636"/>
+      <c r="D22" s="636"/>
+      <c r="E22" s="636"/>
+      <c r="F22" s="636"/>
+      <c r="G22" s="636"/>
+      <c r="H22" s="636"/>
+      <c r="I22" s="636"/>
+      <c r="J22" s="636"/>
+      <c r="K22" s="636"/>
+      <c r="L22" s="637"/>
     </row>
     <row r="23" spans="1:12" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A23" s="665">
+      <c r="A23" s="660">
         <v>4</v>
       </c>
       <c r="B23" s="161" t="s">
@@ -7290,7 +7291,7 @@
       <c r="L23" s="174"/>
     </row>
     <row r="24" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A24" s="666"/>
+      <c r="A24" s="661"/>
       <c r="B24" s="162">
         <v>0</v>
       </c>
@@ -7307,13 +7308,13 @@
       </c>
       <c r="I24" s="93"/>
       <c r="J24" s="108"/>
-      <c r="K24" s="678" t="s">
+      <c r="K24" s="641" t="s">
         <v>172</v>
       </c>
       <c r="L24" s="174"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1">
-      <c r="A25" s="666"/>
+      <c r="A25" s="661"/>
       <c r="B25" s="162">
         <v>0</v>
       </c>
@@ -7330,11 +7331,11 @@
       </c>
       <c r="I25" s="93"/>
       <c r="J25" s="108"/>
-      <c r="K25" s="678"/>
+      <c r="K25" s="641"/>
       <c r="L25" s="174"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="A26" s="666"/>
+      <c r="A26" s="661"/>
       <c r="B26" s="162">
         <v>1</v>
       </c>
@@ -7351,11 +7352,11 @@
       </c>
       <c r="I26" s="93"/>
       <c r="J26" s="108"/>
-      <c r="K26" s="678"/>
+      <c r="K26" s="641"/>
       <c r="L26" s="174"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A27" s="667"/>
+      <c r="A27" s="662"/>
       <c r="B27" s="163">
         <v>1</v>
       </c>
@@ -7372,7 +7373,7 @@
       </c>
       <c r="I27" s="113"/>
       <c r="J27" s="114"/>
-      <c r="K27" s="678"/>
+      <c r="K27" s="641"/>
       <c r="L27" s="175"/>
     </row>
     <row r="28" spans="1:12" ht="18.75" customHeight="1">
@@ -7390,7 +7391,7 @@
       <c r="L28" s="175"/>
     </row>
     <row r="29" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A29" s="669">
+      <c r="A29" s="655">
         <v>5</v>
       </c>
       <c r="B29" s="106" t="s">
@@ -7406,7 +7407,7 @@
         <v>174</v>
       </c>
       <c r="F29" s="160"/>
-      <c r="G29" s="670" t="s">
+      <c r="G29" s="664" t="s">
         <v>175</v>
       </c>
       <c r="H29" s="109"/>
@@ -7416,8 +7417,8 @@
       <c r="L29" s="175"/>
     </row>
     <row r="30" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A30" s="669"/>
-      <c r="B30" s="668">
+      <c r="A30" s="655"/>
+      <c r="B30" s="663">
         <v>1</v>
       </c>
       <c r="C30" s="107">
@@ -7426,7 +7427,7 @@
       <c r="D30" s="164"/>
       <c r="E30" s="165"/>
       <c r="F30" s="160"/>
-      <c r="G30" s="670"/>
+      <c r="G30" s="664"/>
       <c r="H30" s="109"/>
       <c r="I30" s="160"/>
       <c r="J30" s="160"/>
@@ -7434,15 +7435,15 @@
       <c r="L30" s="175"/>
     </row>
     <row r="31" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A31" s="669"/>
-      <c r="B31" s="668"/>
+      <c r="A31" s="655"/>
+      <c r="B31" s="663"/>
       <c r="C31" s="107">
         <v>1</v>
       </c>
       <c r="D31" s="164"/>
       <c r="E31" s="165"/>
       <c r="F31" s="160"/>
-      <c r="G31" s="670"/>
+      <c r="G31" s="664"/>
       <c r="H31" s="109"/>
       <c r="I31" s="160"/>
       <c r="J31" s="160"/>
@@ -7450,50 +7451,50 @@
       <c r="L31" s="175"/>
     </row>
     <row r="32" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A32" s="680" t="s">
+      <c r="A32" s="643" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="679"/>
-      <c r="C32" s="679"/>
-      <c r="D32" s="679"/>
-      <c r="E32" s="679"/>
-      <c r="F32" s="679"/>
-      <c r="G32" s="679"/>
-      <c r="H32" s="679"/>
-      <c r="I32" s="679"/>
-      <c r="J32" s="679"/>
-      <c r="K32" s="679"/>
-      <c r="L32" s="681"/>
+      <c r="B32" s="642"/>
+      <c r="C32" s="642"/>
+      <c r="D32" s="642"/>
+      <c r="E32" s="642"/>
+      <c r="F32" s="642"/>
+      <c r="G32" s="642"/>
+      <c r="H32" s="642"/>
+      <c r="I32" s="642"/>
+      <c r="J32" s="642"/>
+      <c r="K32" s="642"/>
+      <c r="L32" s="644"/>
     </row>
     <row r="33" spans="1:31" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A33" s="679"/>
-      <c r="B33" s="679"/>
-      <c r="C33" s="679"/>
-      <c r="D33" s="679"/>
-      <c r="E33" s="679"/>
-      <c r="F33" s="679"/>
-      <c r="G33" s="679"/>
-      <c r="H33" s="679"/>
-      <c r="I33" s="679"/>
-      <c r="J33" s="679"/>
-      <c r="K33" s="679"/>
-      <c r="L33" s="679"/>
+      <c r="A33" s="642"/>
+      <c r="B33" s="642"/>
+      <c r="C33" s="642"/>
+      <c r="D33" s="642"/>
+      <c r="E33" s="642"/>
+      <c r="F33" s="642"/>
+      <c r="G33" s="642"/>
+      <c r="H33" s="642"/>
+      <c r="I33" s="642"/>
+      <c r="J33" s="642"/>
+      <c r="K33" s="642"/>
+      <c r="L33" s="642"/>
     </row>
     <row r="34" spans="1:31" ht="27" customHeight="1" thickBot="1">
-      <c r="A34" s="682" t="s">
+      <c r="A34" s="645" t="s">
         <v>250</v>
       </c>
-      <c r="B34" s="683"/>
-      <c r="C34" s="683"/>
-      <c r="D34" s="683"/>
-      <c r="E34" s="683"/>
-      <c r="F34" s="683"/>
-      <c r="G34" s="683"/>
-      <c r="H34" s="683"/>
-      <c r="I34" s="683"/>
-      <c r="J34" s="683"/>
-      <c r="K34" s="683"/>
-      <c r="L34" s="684"/>
+      <c r="B34" s="646"/>
+      <c r="C34" s="646"/>
+      <c r="D34" s="646"/>
+      <c r="E34" s="646"/>
+      <c r="F34" s="646"/>
+      <c r="G34" s="646"/>
+      <c r="H34" s="646"/>
+      <c r="I34" s="646"/>
+      <c r="J34" s="646"/>
+      <c r="K34" s="646"/>
+      <c r="L34" s="647"/>
     </row>
     <row r="35" spans="1:31" ht="16.5" thickBot="1">
       <c r="A35" s="115"/>
@@ -7534,19 +7535,19 @@
         <v>24</v>
       </c>
       <c r="J36" s="17"/>
-      <c r="K36" s="671" t="s">
+      <c r="K36" s="665" t="s">
         <v>161</v>
       </c>
-      <c r="L36" s="664"/>
-      <c r="M36" s="664"/>
-      <c r="N36" s="664"/>
-      <c r="O36" s="664"/>
-      <c r="P36" s="664"/>
-      <c r="Q36" s="664"/>
-      <c r="R36" s="664"/>
-      <c r="S36" s="664"/>
-      <c r="T36" s="664"/>
-      <c r="U36" s="664"/>
+      <c r="L36" s="659"/>
+      <c r="M36" s="659"/>
+      <c r="N36" s="659"/>
+      <c r="O36" s="659"/>
+      <c r="P36" s="659"/>
+      <c r="Q36" s="659"/>
+      <c r="R36" s="659"/>
+      <c r="S36" s="659"/>
+      <c r="T36" s="659"/>
+      <c r="U36" s="659"/>
       <c r="V36" s="9"/>
       <c r="W36" s="29"/>
       <c r="X36" s="9"/>
@@ -7584,10 +7585,10 @@
       <c r="I37" s="81">
         <v>1</v>
       </c>
-      <c r="J37" s="691" t="s">
+      <c r="J37" s="657" t="s">
         <v>156</v>
       </c>
-      <c r="K37" s="671"/>
+      <c r="K37" s="665"/>
       <c r="N37" s="4"/>
       <c r="O37" s="6"/>
       <c r="R37" s="9"/>
@@ -7630,8 +7631,8 @@
       <c r="I38" s="81">
         <v>0</v>
       </c>
-      <c r="J38" s="692"/>
-      <c r="K38" s="671"/>
+      <c r="J38" s="658"/>
+      <c r="K38" s="665"/>
       <c r="N38" s="5"/>
       <c r="O38" s="6"/>
       <c r="R38" s="9"/>
@@ -7673,8 +7674,8 @@
       <c r="I39" s="81">
         <v>1</v>
       </c>
-      <c r="J39" s="692"/>
-      <c r="K39" s="671"/>
+      <c r="J39" s="658"/>
+      <c r="K39" s="665"/>
       <c r="N39" s="5"/>
       <c r="O39" s="6"/>
       <c r="R39" s="9"/>
@@ -7716,8 +7717,8 @@
       <c r="I40" s="81">
         <v>0</v>
       </c>
-      <c r="J40" s="692"/>
-      <c r="K40" s="671"/>
+      <c r="J40" s="658"/>
+      <c r="K40" s="665"/>
       <c r="N40" s="5"/>
       <c r="O40" s="6"/>
       <c r="R40" s="9"/>
@@ -7759,8 +7760,8 @@
       <c r="I41" s="81">
         <v>1</v>
       </c>
-      <c r="J41" s="692"/>
-      <c r="K41" s="671"/>
+      <c r="J41" s="658"/>
+      <c r="K41" s="665"/>
       <c r="N41" s="5"/>
       <c r="O41" s="6"/>
       <c r="R41" s="9"/>
@@ -7802,8 +7803,8 @@
       <c r="I42" s="81">
         <v>0</v>
       </c>
-      <c r="J42" s="692"/>
-      <c r="K42" s="671"/>
+      <c r="J42" s="658"/>
+      <c r="K42" s="665"/>
       <c r="N42" s="5"/>
       <c r="O42" s="6"/>
       <c r="R42" s="9"/>
@@ -7845,8 +7846,8 @@
       <c r="I43" s="81">
         <v>1</v>
       </c>
-      <c r="J43" s="692"/>
-      <c r="K43" s="671"/>
+      <c r="J43" s="658"/>
+      <c r="K43" s="665"/>
       <c r="N43" s="5"/>
       <c r="O43" s="6"/>
       <c r="R43" s="9"/>
@@ -7888,8 +7889,8 @@
       <c r="I44" s="81">
         <v>0</v>
       </c>
-      <c r="J44" s="692"/>
-      <c r="K44" s="671"/>
+      <c r="J44" s="658"/>
+      <c r="K44" s="665"/>
       <c r="N44" s="5"/>
       <c r="O44" s="6"/>
       <c r="R44" s="9"/>
@@ -7931,8 +7932,8 @@
       <c r="I45" s="81">
         <v>1</v>
       </c>
-      <c r="J45" s="692"/>
-      <c r="K45" s="671"/>
+      <c r="J45" s="658"/>
+      <c r="K45" s="665"/>
       <c r="N45" s="5"/>
       <c r="O45" s="6"/>
       <c r="R45" s="9"/>
@@ -7974,8 +7975,8 @@
       <c r="I46" s="81">
         <v>0</v>
       </c>
-      <c r="J46" s="692"/>
-      <c r="K46" s="671"/>
+      <c r="J46" s="658"/>
+      <c r="K46" s="665"/>
       <c r="N46" s="5"/>
       <c r="O46" s="6"/>
       <c r="R46" s="9"/>
@@ -8017,8 +8018,8 @@
       <c r="I47" s="81">
         <v>1</v>
       </c>
-      <c r="J47" s="692"/>
-      <c r="K47" s="671"/>
+      <c r="J47" s="658"/>
+      <c r="K47" s="665"/>
       <c r="N47" s="5"/>
       <c r="O47" s="6"/>
       <c r="R47" s="9"/>
@@ -8060,8 +8061,8 @@
       <c r="I48" s="81">
         <v>0</v>
       </c>
-      <c r="J48" s="692"/>
-      <c r="K48" s="671"/>
+      <c r="J48" s="658"/>
+      <c r="K48" s="665"/>
       <c r="N48" s="5"/>
       <c r="O48" s="6"/>
       <c r="R48" s="9"/>
@@ -8103,8 +8104,8 @@
       <c r="I49" s="81">
         <v>1</v>
       </c>
-      <c r="J49" s="692"/>
-      <c r="K49" s="671"/>
+      <c r="J49" s="658"/>
+      <c r="K49" s="665"/>
       <c r="N49" s="5"/>
       <c r="O49" s="6"/>
       <c r="X49" s="9"/>
@@ -8136,8 +8137,8 @@
       <c r="I50" s="81">
         <v>0</v>
       </c>
-      <c r="J50" s="692"/>
-      <c r="K50" s="671"/>
+      <c r="J50" s="658"/>
+      <c r="K50" s="665"/>
       <c r="N50" s="5"/>
       <c r="O50" s="6"/>
       <c r="X50" s="9"/>
@@ -8169,8 +8170,8 @@
       <c r="I51" s="81">
         <v>1</v>
       </c>
-      <c r="J51" s="692"/>
-      <c r="K51" s="671"/>
+      <c r="J51" s="658"/>
+      <c r="K51" s="665"/>
       <c r="N51" s="5"/>
       <c r="O51" s="6"/>
       <c r="X51" s="9"/>
@@ -8202,8 +8203,8 @@
       <c r="I52" s="81">
         <v>0</v>
       </c>
-      <c r="J52" s="692"/>
-      <c r="K52" s="671"/>
+      <c r="J52" s="658"/>
+      <c r="K52" s="665"/>
       <c r="N52" s="3"/>
       <c r="O52" s="6"/>
     </row>
@@ -8229,7 +8230,7 @@
         <v>21</v>
       </c>
       <c r="I53" s="128"/>
-      <c r="J53" s="686" t="s">
+      <c r="J53" s="651" t="s">
         <v>177</v>
       </c>
       <c r="K53" s="10"/>
@@ -8293,7 +8294,7 @@
         <v>25</v>
       </c>
       <c r="I54" s="81"/>
-      <c r="J54" s="687"/>
+      <c r="J54" s="652"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8">
         <v>0.5</v>
@@ -8359,7 +8360,7 @@
         <v>45</v>
       </c>
       <c r="I55" s="81"/>
-      <c r="J55" s="687"/>
+      <c r="J55" s="652"/>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="9"/>
@@ -8423,7 +8424,7 @@
         <v>46</v>
       </c>
       <c r="I56" s="81"/>
-      <c r="J56" s="687"/>
+      <c r="J56" s="652"/>
       <c r="K56" s="9"/>
       <c r="L56" s="10"/>
       <c r="M56" s="9"/>
@@ -8486,7 +8487,7 @@
         <v>47</v>
       </c>
       <c r="I57" s="81"/>
-      <c r="J57" s="687"/>
+      <c r="J57" s="652"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
       <c r="M57" s="9"/>
@@ -8549,7 +8550,7 @@
         <v>48</v>
       </c>
       <c r="I58" s="81"/>
-      <c r="J58" s="687"/>
+      <c r="J58" s="652"/>
       <c r="K58" s="10"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
@@ -8610,7 +8611,7 @@
         <v>49</v>
       </c>
       <c r="I59" s="81"/>
-      <c r="J59" s="687"/>
+      <c r="J59" s="652"/>
       <c r="K59" s="10"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -8672,7 +8673,7 @@
         <v>50</v>
       </c>
       <c r="I60" s="81"/>
-      <c r="J60" s="687"/>
+      <c r="J60" s="652"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -8733,7 +8734,7 @@
         <v>51</v>
       </c>
       <c r="I61" s="81"/>
-      <c r="J61" s="687"/>
+      <c r="J61" s="652"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
@@ -8794,7 +8795,7 @@
         <v>52</v>
       </c>
       <c r="I62" s="81"/>
-      <c r="J62" s="687"/>
+      <c r="J62" s="652"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -8854,7 +8855,7 @@
         <v>53</v>
       </c>
       <c r="I63" s="81"/>
-      <c r="J63" s="687"/>
+      <c r="J63" s="652"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="9"/>
@@ -8913,7 +8914,7 @@
         <v>54</v>
       </c>
       <c r="I64" s="81"/>
-      <c r="J64" s="687"/>
+      <c r="J64" s="652"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
@@ -8973,7 +8974,7 @@
         <v>55</v>
       </c>
       <c r="I65" s="81"/>
-      <c r="J65" s="687"/>
+      <c r="J65" s="652"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
@@ -9033,7 +9034,7 @@
         <v>56</v>
       </c>
       <c r="I66" s="81"/>
-      <c r="J66" s="687"/>
+      <c r="J66" s="652"/>
       <c r="K66" s="10"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
@@ -9092,7 +9093,7 @@
         <v>57</v>
       </c>
       <c r="I67" s="81"/>
-      <c r="J67" s="687"/>
+      <c r="J67" s="652"/>
       <c r="K67" s="10"/>
       <c r="L67" s="8"/>
       <c r="M67" s="9"/>
@@ -9151,7 +9152,7 @@
         <v>58</v>
       </c>
       <c r="I68" s="81"/>
-      <c r="J68" s="687"/>
+      <c r="J68" s="652"/>
       <c r="K68" s="9"/>
       <c r="L68" s="8"/>
       <c r="M68" s="9"/>
@@ -9211,7 +9212,7 @@
         <v>59</v>
       </c>
       <c r="I69" s="81"/>
-      <c r="J69" s="687"/>
+      <c r="J69" s="652"/>
       <c r="K69" s="9"/>
       <c r="L69" s="8"/>
       <c r="M69" s="9"/>
@@ -9270,7 +9271,7 @@
         <v>60</v>
       </c>
       <c r="I70" s="81"/>
-      <c r="J70" s="687"/>
+      <c r="J70" s="652"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="9"/>
@@ -10155,24 +10156,24 @@
       <c r="I85" s="23"/>
       <c r="J85" s="7"/>
       <c r="K85" s="9"/>
-      <c r="L85" s="685"/>
-      <c r="M85" s="685"/>
-      <c r="N85" s="685">
-        <v>0</v>
-      </c>
-      <c r="O85" s="685">
-        <v>0</v>
-      </c>
-      <c r="P85" s="685">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="685">
-        <v>0</v>
-      </c>
-      <c r="R85" s="685">
-        <v>0</v>
-      </c>
-      <c r="S85" s="685">
+      <c r="L85" s="650"/>
+      <c r="M85" s="650"/>
+      <c r="N85" s="650">
+        <v>0</v>
+      </c>
+      <c r="O85" s="650">
+        <v>0</v>
+      </c>
+      <c r="P85" s="650">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="650">
+        <v>0</v>
+      </c>
+      <c r="R85" s="650">
+        <v>0</v>
+      </c>
+      <c r="S85" s="650">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -10189,7 +10190,7 @@
       <c r="AF86" s="167"/>
     </row>
     <row r="87" spans="1:32" ht="15.75">
-      <c r="A87" s="689" t="s">
+      <c r="A87" s="654" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="63" t="s">
@@ -10221,7 +10222,7 @@
       <c r="AF87" s="167"/>
     </row>
     <row r="88" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A88" s="669"/>
+      <c r="A88" s="655"/>
       <c r="B88" s="19">
         <v>0</v>
       </c>
@@ -10245,12 +10246,12 @@
         <v>0</v>
       </c>
       <c r="J88" s="58"/>
-      <c r="K88" s="688" t="s">
+      <c r="K88" s="653" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A89" s="669"/>
+      <c r="A89" s="655"/>
       <c r="B89" s="19">
         <v>0</v>
       </c>
@@ -10274,14 +10275,14 @@
         <v>4</v>
       </c>
       <c r="J89" s="13"/>
-      <c r="K89" s="688"/>
+      <c r="K89" s="653"/>
       <c r="L89" s="56"/>
       <c r="N89" s="11"/>
       <c r="O89" s="6"/>
       <c r="S89" s="32"/>
     </row>
     <row r="90" spans="1:32" ht="15.75">
-      <c r="A90" s="669"/>
+      <c r="A90" s="655"/>
       <c r="B90" s="19">
         <v>0</v>
       </c>
@@ -10305,14 +10306,14 @@
         <v>2</v>
       </c>
       <c r="J90" s="13"/>
-      <c r="K90" s="688"/>
+      <c r="K90" s="653"/>
       <c r="L90" s="56"/>
       <c r="N90" s="11"/>
       <c r="O90" s="6"/>
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:32" ht="15.75">
-      <c r="A91" s="669"/>
+      <c r="A91" s="655"/>
       <c r="B91" s="19">
         <v>0</v>
       </c>
@@ -10336,14 +10337,14 @@
         <v>6</v>
       </c>
       <c r="J91" s="13"/>
-      <c r="K91" s="688"/>
+      <c r="K91" s="653"/>
       <c r="L91" s="56"/>
       <c r="N91" s="11"/>
       <c r="O91" s="6"/>
       <c r="S91" s="32"/>
     </row>
     <row r="92" spans="1:32" ht="15.75">
-      <c r="A92" s="669"/>
+      <c r="A92" s="655"/>
       <c r="B92" s="19">
         <v>0</v>
       </c>
@@ -10367,14 +10368,14 @@
         <v>1</v>
       </c>
       <c r="J92" s="13"/>
-      <c r="K92" s="688"/>
+      <c r="K92" s="653"/>
       <c r="L92" s="56"/>
       <c r="N92" s="11"/>
       <c r="O92" s="6"/>
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:32" ht="15.75">
-      <c r="A93" s="669"/>
+      <c r="A93" s="655"/>
       <c r="B93" s="19">
         <v>0</v>
       </c>
@@ -10398,14 +10399,14 @@
         <v>5</v>
       </c>
       <c r="J93" s="13"/>
-      <c r="K93" s="688"/>
+      <c r="K93" s="653"/>
       <c r="L93" s="56"/>
       <c r="N93" s="11"/>
       <c r="O93" s="6"/>
       <c r="S93" s="32"/>
     </row>
     <row r="94" spans="1:32" ht="15.75">
-      <c r="A94" s="669"/>
+      <c r="A94" s="655"/>
       <c r="B94" s="19">
         <v>0</v>
       </c>
@@ -10429,14 +10430,14 @@
         <v>3</v>
       </c>
       <c r="J94" s="13"/>
-      <c r="K94" s="688"/>
+      <c r="K94" s="653"/>
       <c r="L94" s="56"/>
       <c r="N94" s="11"/>
       <c r="O94" s="6"/>
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A95" s="669"/>
+      <c r="A95" s="655"/>
       <c r="B95" s="19">
         <v>0</v>
       </c>
@@ -10460,14 +10461,14 @@
         <v>7</v>
       </c>
       <c r="J95" s="13"/>
-      <c r="K95" s="688"/>
+      <c r="K95" s="653"/>
       <c r="L95" s="56"/>
       <c r="N95" s="11"/>
       <c r="O95" s="6"/>
       <c r="S95" s="32"/>
     </row>
     <row r="96" spans="1:32" ht="15.75">
-      <c r="A96" s="669"/>
+      <c r="A96" s="655"/>
       <c r="B96" s="19">
         <v>1</v>
       </c>
@@ -10493,14 +10494,14 @@
       <c r="J96" s="148">
         <v>13.6</v>
       </c>
-      <c r="K96" s="688"/>
+      <c r="K96" s="653"/>
       <c r="L96" s="56"/>
       <c r="N96" s="11"/>
       <c r="O96" s="6"/>
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="15.75">
-      <c r="A97" s="669"/>
+      <c r="A97" s="655"/>
       <c r="B97" s="19">
         <v>1</v>
       </c>
@@ -10524,14 +10525,14 @@
         <v>4</v>
       </c>
       <c r="J97" s="13"/>
-      <c r="K97" s="688"/>
+      <c r="K97" s="653"/>
       <c r="L97" s="56"/>
       <c r="N97" s="11"/>
       <c r="O97" s="6"/>
       <c r="S97" s="32"/>
     </row>
     <row r="98" spans="1:19" ht="15.75">
-      <c r="A98" s="669"/>
+      <c r="A98" s="655"/>
       <c r="B98" s="19">
         <v>1</v>
       </c>
@@ -10555,14 +10556,14 @@
         <v>2</v>
       </c>
       <c r="J98" s="13"/>
-      <c r="K98" s="688"/>
+      <c r="K98" s="653"/>
       <c r="L98" s="56"/>
       <c r="N98" s="11"/>
       <c r="O98" s="6"/>
       <c r="S98" s="32"/>
     </row>
     <row r="99" spans="1:19" ht="15.75">
-      <c r="A99" s="669"/>
+      <c r="A99" s="655"/>
       <c r="B99" s="19">
         <v>1</v>
       </c>
@@ -10586,14 +10587,14 @@
         <v>6</v>
       </c>
       <c r="J99" s="13"/>
-      <c r="K99" s="688"/>
+      <c r="K99" s="653"/>
       <c r="L99" s="56"/>
       <c r="N99" s="11"/>
       <c r="O99" s="6"/>
       <c r="S99" s="32"/>
     </row>
     <row r="100" spans="1:19" ht="15.75">
-      <c r="A100" s="669"/>
+      <c r="A100" s="655"/>
       <c r="B100" s="19">
         <v>1</v>
       </c>
@@ -10617,14 +10618,14 @@
         <v>1</v>
       </c>
       <c r="J100" s="13"/>
-      <c r="K100" s="688"/>
+      <c r="K100" s="653"/>
       <c r="L100" s="56"/>
       <c r="N100" s="11"/>
       <c r="O100" s="6"/>
       <c r="S100" s="32"/>
     </row>
     <row r="101" spans="1:19" ht="15.75">
-      <c r="A101" s="669"/>
+      <c r="A101" s="655"/>
       <c r="B101" s="19">
         <v>1</v>
       </c>
@@ -10648,14 +10649,14 @@
         <v>5</v>
       </c>
       <c r="J101" s="13"/>
-      <c r="K101" s="688"/>
+      <c r="K101" s="653"/>
       <c r="L101" s="56"/>
       <c r="N101" s="11"/>
       <c r="O101" s="6"/>
       <c r="S101" s="32"/>
     </row>
     <row r="102" spans="1:19" ht="15.75">
-      <c r="A102" s="669"/>
+      <c r="A102" s="655"/>
       <c r="B102" s="19">
         <v>1</v>
       </c>
@@ -10679,14 +10680,14 @@
         <v>3</v>
       </c>
       <c r="J102" s="13"/>
-      <c r="K102" s="688"/>
+      <c r="K102" s="653"/>
       <c r="L102" s="56"/>
       <c r="N102" s="11"/>
       <c r="O102" s="6"/>
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A103" s="669"/>
+      <c r="A103" s="655"/>
       <c r="B103" s="19">
         <v>1</v>
       </c>
@@ -10710,14 +10711,14 @@
         <v>7</v>
       </c>
       <c r="J103" s="13"/>
-      <c r="K103" s="688"/>
+      <c r="K103" s="653"/>
       <c r="L103" s="56"/>
       <c r="N103" s="11"/>
       <c r="O103" s="6"/>
       <c r="S103" s="32"/>
     </row>
     <row r="104" spans="1:19" ht="15.75">
-      <c r="A104" s="669"/>
+      <c r="A104" s="655"/>
       <c r="B104" s="132" t="s">
         <v>149</v>
       </c>
@@ -10745,7 +10746,7 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="15.75">
-      <c r="A105" s="669"/>
+      <c r="A105" s="655"/>
       <c r="B105" s="19">
         <v>0</v>
       </c>
@@ -10769,7 +10770,7 @@
       <c r="J105" s="146">
         <v>1</v>
       </c>
-      <c r="K105" s="675" t="s">
+      <c r="K105" s="638" t="s">
         <v>159</v>
       </c>
       <c r="L105" s="2" t="s">
@@ -10779,7 +10780,7 @@
       <c r="S105" s="32"/>
     </row>
     <row r="106" spans="1:19" ht="15.75">
-      <c r="A106" s="669"/>
+      <c r="A106" s="655"/>
       <c r="B106" s="19">
         <v>0</v>
       </c>
@@ -10803,7 +10804,7 @@
       <c r="J106" s="146">
         <v>0.99719999999999998</v>
       </c>
-      <c r="K106" s="675"/>
+      <c r="K106" s="638"/>
       <c r="L106" t="s">
         <v>157</v>
       </c>
@@ -10812,7 +10813,7 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="15.75">
-      <c r="A107" s="669"/>
+      <c r="A107" s="655"/>
       <c r="B107" s="19">
         <v>0</v>
       </c>
@@ -10836,14 +10837,14 @@
       <c r="J107" s="146">
         <v>0.99429999999999996</v>
       </c>
-      <c r="K107" s="675"/>
+      <c r="K107" s="638"/>
       <c r="L107" s="12"/>
       <c r="O107" s="6"/>
       <c r="Q107" s="11"/>
       <c r="S107" s="32"/>
     </row>
     <row r="108" spans="1:19" ht="15.75">
-      <c r="A108" s="669"/>
+      <c r="A108" s="655"/>
       <c r="B108" s="19">
         <v>0</v>
       </c>
@@ -10867,14 +10868,14 @@
       <c r="J108" s="3">
         <v>0.99139999999999995</v>
       </c>
-      <c r="K108" s="675"/>
+      <c r="K108" s="638"/>
       <c r="L108" s="12"/>
       <c r="O108" s="6"/>
       <c r="Q108" s="11"/>
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="15.75">
-      <c r="A109" s="669"/>
+      <c r="A109" s="655"/>
       <c r="B109" s="19">
         <v>0</v>
       </c>
@@ -10898,14 +10899,14 @@
       <c r="J109" s="3">
         <v>0.98850000000000005</v>
       </c>
-      <c r="K109" s="675"/>
+      <c r="K109" s="638"/>
       <c r="L109" s="12"/>
       <c r="O109" s="6"/>
       <c r="Q109" s="11"/>
       <c r="S109" s="32"/>
     </row>
     <row r="110" spans="1:19" ht="15.75">
-      <c r="A110" s="669"/>
+      <c r="A110" s="655"/>
       <c r="B110" s="19">
         <v>0</v>
       </c>
@@ -10929,14 +10930,14 @@
       <c r="J110" s="3">
         <v>0.98560000000000003</v>
       </c>
-      <c r="K110" s="675"/>
+      <c r="K110" s="638"/>
       <c r="L110" s="57"/>
       <c r="O110" s="6"/>
       <c r="Q110" s="11"/>
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="15.75">
-      <c r="A111" s="669"/>
+      <c r="A111" s="655"/>
       <c r="B111" s="19">
         <v>0</v>
       </c>
@@ -10960,14 +10961,14 @@
       <c r="J111" s="3">
         <v>0.98260000000000003</v>
       </c>
-      <c r="K111" s="675"/>
+      <c r="K111" s="638"/>
       <c r="L111" s="12"/>
       <c r="O111" s="6"/>
       <c r="Q111" s="11"/>
       <c r="S111" s="32"/>
     </row>
     <row r="112" spans="1:19" ht="15.75">
-      <c r="A112" s="669"/>
+      <c r="A112" s="655"/>
       <c r="B112" s="19">
         <v>0</v>
       </c>
@@ -10991,14 +10992,14 @@
       <c r="J112" s="147">
         <v>0.9798</v>
       </c>
-      <c r="K112" s="675"/>
+      <c r="K112" s="638"/>
       <c r="L112" s="12"/>
       <c r="O112" s="6"/>
       <c r="Q112" s="11"/>
       <c r="S112" s="32"/>
     </row>
     <row r="113" spans="1:19" ht="15.75">
-      <c r="A113" s="669"/>
+      <c r="A113" s="655"/>
       <c r="B113" s="19">
         <v>1</v>
       </c>
@@ -11022,14 +11023,14 @@
       <c r="J113" s="147">
         <v>1.0233000000000001</v>
       </c>
-      <c r="K113" s="675"/>
+      <c r="K113" s="638"/>
       <c r="L113" s="12"/>
       <c r="O113" s="6"/>
       <c r="Q113" s="11"/>
       <c r="S113" s="32"/>
     </row>
     <row r="114" spans="1:19" ht="15.75">
-      <c r="A114" s="669"/>
+      <c r="A114" s="655"/>
       <c r="B114" s="19">
         <v>1</v>
       </c>
@@ -11053,14 +11054,14 @@
       <c r="J114" s="3">
         <v>1.0204</v>
       </c>
-      <c r="K114" s="675"/>
+      <c r="K114" s="638"/>
       <c r="L114" s="12"/>
       <c r="O114" s="6"/>
       <c r="Q114" s="11"/>
       <c r="S114" s="32"/>
     </row>
     <row r="115" spans="1:19" ht="15.75">
-      <c r="A115" s="669"/>
+      <c r="A115" s="655"/>
       <c r="B115" s="19">
         <v>1</v>
       </c>
@@ -11084,14 +11085,14 @@
       <c r="J115" s="3">
         <v>1.0175000000000001</v>
       </c>
-      <c r="K115" s="675"/>
+      <c r="K115" s="638"/>
       <c r="L115" s="12"/>
       <c r="O115" s="6"/>
       <c r="Q115" s="11"/>
       <c r="S115" s="32"/>
     </row>
     <row r="116" spans="1:19" ht="15.75">
-      <c r="A116" s="669"/>
+      <c r="A116" s="655"/>
       <c r="B116" s="19">
         <v>1</v>
       </c>
@@ -11115,14 +11116,14 @@
       <c r="J116" s="3">
         <v>1.0145999999999999</v>
       </c>
-      <c r="K116" s="675"/>
+      <c r="K116" s="638"/>
       <c r="L116" s="57"/>
       <c r="O116" s="6"/>
       <c r="Q116" s="11"/>
       <c r="S116" s="32"/>
     </row>
     <row r="117" spans="1:19" ht="15.75">
-      <c r="A117" s="669"/>
+      <c r="A117" s="655"/>
       <c r="B117" s="19">
         <v>1</v>
       </c>
@@ -11146,14 +11147,14 @@
       <c r="J117" s="3">
         <v>1.0117</v>
       </c>
-      <c r="K117" s="675"/>
+      <c r="K117" s="638"/>
       <c r="L117" s="12"/>
       <c r="O117" s="6"/>
       <c r="Q117" s="11"/>
       <c r="S117" s="32"/>
     </row>
     <row r="118" spans="1:19" ht="15.75">
-      <c r="A118" s="669"/>
+      <c r="A118" s="655"/>
       <c r="B118" s="19">
         <v>1</v>
       </c>
@@ -11177,14 +11178,14 @@
       <c r="J118" s="3">
         <v>1.0087999999999999</v>
       </c>
-      <c r="K118" s="675"/>
+      <c r="K118" s="638"/>
       <c r="L118" s="12"/>
       <c r="O118" s="6"/>
       <c r="Q118" s="11"/>
       <c r="S118" s="32"/>
     </row>
     <row r="119" spans="1:19" ht="15.75">
-      <c r="A119" s="669"/>
+      <c r="A119" s="655"/>
       <c r="B119" s="19">
         <v>1</v>
       </c>
@@ -11208,14 +11209,14 @@
       <c r="J119" s="3">
         <v>1.0059</v>
       </c>
-      <c r="K119" s="675"/>
+      <c r="K119" s="638"/>
       <c r="L119" s="12"/>
       <c r="O119" s="6"/>
       <c r="Q119" s="11"/>
       <c r="S119" s="32"/>
     </row>
     <row r="120" spans="1:19" ht="16.5" thickBot="1">
-      <c r="A120" s="690"/>
+      <c r="A120" s="656"/>
       <c r="B120" s="22">
         <v>1</v>
       </c>
@@ -11239,7 +11240,7 @@
       <c r="J120" s="142">
         <v>1.0029999999999999</v>
       </c>
-      <c r="K120" s="675"/>
+      <c r="K120" s="638"/>
       <c r="L120" s="12"/>
       <c r="O120" s="6"/>
       <c r="Q120" s="11"/>
@@ -11846,6 +11847,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="K36:K52"/>
     <mergeCell ref="A22:L22"/>
     <mergeCell ref="K105:K120"/>
     <mergeCell ref="H6:H9"/>
@@ -11862,25 +11882,6 @@
     <mergeCell ref="K88:K103"/>
     <mergeCell ref="A87:A120"/>
     <mergeCell ref="J37:J52"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="K36:K52"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26355,9 +26356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="9" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF52" sqref="AF22:AF52"/>
+      <selection pane="topRight" activeCell="AG90" sqref="AG90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -26538,7 +26539,7 @@
       <c r="I4" s="308">
         <v>1</v>
       </c>
-      <c r="J4" s="691" t="s">
+      <c r="J4" s="657" t="s">
         <v>256</v>
       </c>
       <c r="K4" s="354">
@@ -26654,7 +26655,7 @@
       <c r="I5" s="308">
         <v>0</v>
       </c>
-      <c r="J5" s="691"/>
+      <c r="J5" s="657"/>
       <c r="K5" s="354">
         <v>0.02</v>
       </c>
@@ -26720,7 +26721,7 @@
         <v>0.14100350838113279</v>
       </c>
       <c r="AF5" s="371">
-        <f t="shared" ref="AF5:AF19" si="7">AG5*1.5</f>
+        <f t="shared" ref="AF5:AF18" si="7">AG5*1.5</f>
         <v>0.21197411886552942</v>
       </c>
       <c r="AG5" s="370">
@@ -26767,7 +26768,7 @@
       <c r="I6" s="308">
         <v>1</v>
       </c>
-      <c r="J6" s="691"/>
+      <c r="J6" s="657"/>
       <c r="K6" s="354">
         <v>0.03</v>
       </c>
@@ -26880,7 +26881,7 @@
       <c r="I7" s="308">
         <v>0</v>
       </c>
-      <c r="J7" s="691"/>
+      <c r="J7" s="657"/>
       <c r="K7" s="354">
         <v>0.04</v>
       </c>
@@ -26993,7 +26994,7 @@
       <c r="I8" s="308">
         <v>1</v>
       </c>
-      <c r="J8" s="691"/>
+      <c r="J8" s="657"/>
       <c r="K8" s="354">
         <v>0.05</v>
       </c>
@@ -27106,7 +27107,7 @@
       <c r="I9" s="308">
         <v>0</v>
       </c>
-      <c r="J9" s="691"/>
+      <c r="J9" s="657"/>
       <c r="K9" s="354">
         <v>0.06</v>
       </c>
@@ -27219,7 +27220,7 @@
       <c r="I10" s="308">
         <v>1</v>
       </c>
-      <c r="J10" s="691"/>
+      <c r="J10" s="657"/>
       <c r="K10" s="354">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -27332,7 +27333,7 @@
       <c r="I11" s="614">
         <v>0</v>
       </c>
-      <c r="J11" s="691"/>
+      <c r="J11" s="657"/>
       <c r="K11" s="354">
         <v>0.08</v>
       </c>
@@ -27445,7 +27446,7 @@
       <c r="I12" s="308">
         <v>1</v>
       </c>
-      <c r="J12" s="691"/>
+      <c r="J12" s="657"/>
       <c r="K12" s="354">
         <v>0.09</v>
       </c>
@@ -27558,7 +27559,7 @@
       <c r="I13" s="308">
         <v>0</v>
       </c>
-      <c r="J13" s="691"/>
+      <c r="J13" s="657"/>
       <c r="K13" s="354">
         <v>0.1</v>
       </c>
@@ -27671,7 +27672,7 @@
       <c r="I14" s="308">
         <v>1</v>
       </c>
-      <c r="J14" s="691"/>
+      <c r="J14" s="657"/>
       <c r="K14" s="354">
         <v>0.11</v>
       </c>
@@ -27784,7 +27785,7 @@
       <c r="I15" s="614">
         <v>0</v>
       </c>
-      <c r="J15" s="691"/>
+      <c r="J15" s="657"/>
       <c r="K15" s="354">
         <v>0.12</v>
       </c>
@@ -27897,7 +27898,7 @@
       <c r="I16" s="308">
         <v>1</v>
       </c>
-      <c r="J16" s="691"/>
+      <c r="J16" s="657"/>
       <c r="K16" s="354">
         <v>0.13</v>
       </c>
@@ -28011,7 +28012,7 @@
       <c r="I17" s="614">
         <v>0</v>
       </c>
-      <c r="J17" s="691"/>
+      <c r="J17" s="657"/>
       <c r="K17" s="354">
         <v>0.14000000000000001</v>
       </c>
@@ -28124,7 +28125,7 @@
       <c r="I18" s="614">
         <v>1</v>
       </c>
-      <c r="J18" s="691"/>
+      <c r="J18" s="657"/>
       <c r="K18" s="354">
         <v>0.15</v>
       </c>
@@ -28234,7 +28235,7 @@
       <c r="I19" s="308">
         <v>0</v>
       </c>
-      <c r="J19" s="691"/>
+      <c r="J19" s="657"/>
       <c r="K19" s="354">
         <v>0.16</v>
       </c>
@@ -31769,6 +31770,9 @@
         <f>AVERAGE(N55,Q55,T55,W55,Z55,AC55)</f>
         <v>1</v>
       </c>
+      <c r="AH55" s="5">
+        <v>0</v>
+      </c>
       <c r="AI55" s="335">
         <v>0</v>
       </c>
@@ -31869,6 +31873,9 @@
         <f t="shared" ref="AG56:AG70" si="25">AVERAGE(N56,Q56,T56,W56,Z56,AC56)</f>
         <v>0.98939995367301148</v>
       </c>
+      <c r="AH56" s="605">
+        <v>1</v>
+      </c>
       <c r="AI56" s="599">
         <v>-1.0524209683873544E-2</v>
       </c>
@@ -31969,6 +31976,9 @@
         <f t="shared" si="25"/>
         <v>0.97870009550853476</v>
       </c>
+      <c r="AH57" s="605">
+        <v>2</v>
+      </c>
       <c r="AI57" s="599">
         <v>-2.1128451380552204E-2</v>
       </c>
@@ -32069,6 +32079,9 @@
         <f t="shared" si="25"/>
         <v>0.96779962362987881</v>
       </c>
+      <c r="AH58" s="5">
+        <v>3</v>
+      </c>
       <c r="AI58" s="339">
         <v>-3.1772709083633506E-2</v>
       </c>
@@ -32169,6 +32182,9 @@
         <f t="shared" si="25"/>
         <v>0.95682519681536549</v>
       </c>
+      <c r="AH59" s="605">
+        <v>4</v>
+      </c>
       <c r="AI59" s="599">
         <v>-4.2416966786714812E-2</v>
       </c>
@@ -32269,6 +32285,9 @@
         <f t="shared" si="25"/>
         <v>0.9460199477918686</v>
       </c>
+      <c r="AH60" s="605">
+        <v>5</v>
+      </c>
       <c r="AI60" s="339">
         <v>-5.3021208483393471E-2</v>
       </c>
@@ -32369,6 +32388,9 @@
         <f t="shared" si="25"/>
         <v>0.93495899370953495</v>
       </c>
+      <c r="AH61" s="5">
+        <v>6</v>
+      </c>
       <c r="AI61" s="339">
         <v>-6.3625450180072124E-2</v>
       </c>
@@ -32469,6 +32491,9 @@
         <f t="shared" si="25"/>
         <v>0.92385130661693504</v>
       </c>
+      <c r="AH62" s="605">
+        <v>7</v>
+      </c>
       <c r="AI62" s="339">
         <v>-7.4029611844737914E-2</v>
       </c>
@@ -32567,6 +32592,9 @@
       <c r="AG63" s="606">
         <f t="shared" si="25"/>
         <v>1.0827186302686815</v>
+      </c>
+      <c r="AH63" s="605">
+        <v>8</v>
       </c>
       <c r="AI63" s="599">
         <v>8.2032813125250126E-2</v>
@@ -32664,6 +32692,9 @@
         <f t="shared" si="25"/>
         <v>1.0726595815894693</v>
       </c>
+      <c r="AH64" s="5">
+        <v>9</v>
+      </c>
       <c r="AI64" s="339">
         <v>7.2428971588635468E-2</v>
       </c>
@@ -32760,6 +32791,9 @@
         <f t="shared" si="25"/>
         <v>1.0626148078446687</v>
       </c>
+      <c r="AH65" s="605">
+        <v>10</v>
+      </c>
       <c r="AI65" s="339">
         <v>6.2264905962384848E-2</v>
       </c>
@@ -32856,6 +32890,9 @@
         <f t="shared" si="25"/>
         <v>1.0523160893490928</v>
       </c>
+      <c r="AH66" s="605">
+        <v>11</v>
+      </c>
       <c r="AI66" s="339">
         <v>5.2020808323329289E-2</v>
       </c>
@@ -32952,6 +32989,9 @@
         <f t="shared" si="25"/>
         <v>1.0420157098013625</v>
       </c>
+      <c r="AH67" s="5">
+        <v>12</v>
+      </c>
       <c r="AI67" s="339">
         <v>4.1816726690676195E-2</v>
       </c>
@@ -33048,6 +33088,9 @@
         <f t="shared" si="25"/>
         <v>1.0316226676090801</v>
       </c>
+      <c r="AH68" s="605">
+        <v>13</v>
+      </c>
       <c r="AI68" s="339">
         <v>3.1452581032412878E-2</v>
       </c>
@@ -33144,6 +33187,9 @@
         <f t="shared" si="25"/>
         <v>1.021217343130661</v>
       </c>
+      <c r="AH69" s="605">
+        <v>14</v>
+      </c>
       <c r="AI69" s="339">
         <v>2.1048419367747088E-2</v>
       </c>
@@ -33239,6 +33285,9 @@
       <c r="AG70" s="594">
         <f t="shared" si="25"/>
         <v>1.0106715008575424</v>
+      </c>
+      <c r="AH70" s="5">
+        <v>15</v>
       </c>
       <c r="AI70" s="339">
         <v>1.0564225690276013E-2</v>
@@ -33366,6 +33415,9 @@
         <f>AVERAGE(N72,Q72,T72,W72,Z72,AC72)</f>
         <v>1</v>
       </c>
+      <c r="AH72" s="5">
+        <v>0</v>
+      </c>
       <c r="AI72" s="335">
         <v>0</v>
       </c>
@@ -33462,6 +33514,9 @@
         <f t="shared" ref="AG73:AG87" si="38">AVERAGE(N73,Q73,T73,W73,Z73,AC73)</f>
         <v>0.99717461176181799</v>
       </c>
+      <c r="AH73" s="619">
+        <v>1</v>
+      </c>
       <c r="AI73" s="612">
         <v>-2.8000000000000247E-3</v>
       </c>
@@ -33558,6 +33613,9 @@
         <f t="shared" si="38"/>
         <v>0.99432305875801585</v>
       </c>
+      <c r="AH74" s="5">
+        <v>2</v>
+      </c>
       <c r="AI74" s="612">
         <v>-5.7000000000000384E-3</v>
       </c>
@@ -33653,6 +33711,9 @@
         <f t="shared" si="38"/>
         <v>0.99140215918860575</v>
       </c>
+      <c r="AH75" s="619">
+        <v>3</v>
+      </c>
       <c r="AI75" s="339">
         <v>-8.600000000000052E-3</v>
       </c>
@@ -33749,6 +33810,9 @@
         <f t="shared" si="38"/>
         <v>0.98845268871874314</v>
       </c>
+      <c r="AH76" s="5">
+        <v>4</v>
+      </c>
       <c r="AI76" s="612">
         <v>-1.1499999999999955E-2</v>
       </c>
@@ -33844,6 +33908,9 @@
         <f t="shared" si="38"/>
         <v>0.98562776088527071</v>
       </c>
+      <c r="AH77" s="619">
+        <v>5</v>
+      </c>
       <c r="AI77" s="339">
         <v>-1.4399999999999968E-2</v>
       </c>
@@ -33939,6 +34006,9 @@
         <f t="shared" si="38"/>
         <v>0.98280861965893129</v>
       </c>
+      <c r="AH78" s="5">
+        <v>6</v>
+      </c>
       <c r="AI78" s="339">
         <v>-1.7399999999999971E-2</v>
       </c>
@@ -34034,6 +34104,9 @@
         <f t="shared" si="38"/>
         <v>0.98003123080023602</v>
       </c>
+      <c r="AH79" s="619">
+        <v>7</v>
+      </c>
       <c r="AI79" s="339">
         <v>-2.0199999999999996E-2</v>
       </c>
@@ -34130,6 +34203,9 @@
         <f t="shared" si="38"/>
         <v>1.0239280239047532</v>
       </c>
+      <c r="AH80" s="5">
+        <v>8</v>
+      </c>
       <c r="AI80" s="612">
         <v>2.3300000000000098E-2</v>
       </c>
@@ -34225,6 +34301,9 @@
         <f t="shared" si="38"/>
         <v>1.0209940166804954</v>
       </c>
+      <c r="AH81" s="619">
+        <v>9</v>
+      </c>
       <c r="AI81" s="339">
         <v>2.0399999999999974E-2</v>
       </c>
@@ -34320,6 +34399,9 @@
         <f t="shared" si="38"/>
         <v>1.0179751415776905</v>
       </c>
+      <c r="AH82" s="5">
+        <v>10</v>
+      </c>
       <c r="AI82" s="339">
         <v>1.7500000000000071E-2</v>
       </c>
@@ -34415,6 +34497,9 @@
         <f t="shared" si="38"/>
         <v>1.0147889471244553</v>
       </c>
+      <c r="AH83" s="619">
+        <v>11</v>
+      </c>
       <c r="AI83" s="339">
         <v>1.4599999999999946E-2</v>
       </c>
@@ -34510,6 +34595,9 @@
         <f t="shared" si="38"/>
         <v>1.011916687738043</v>
       </c>
+      <c r="AH84" s="5">
+        <v>12</v>
+      </c>
       <c r="AI84" s="339">
         <v>1.1700000000000044E-2</v>
       </c>
@@ -34605,6 +34693,9 @@
         <f t="shared" si="38"/>
         <v>1.0088917351317892</v>
       </c>
+      <c r="AH85" s="619">
+        <v>13</v>
+      </c>
       <c r="AI85" s="339">
         <v>8.799999999999919E-3</v>
       </c>
@@ -34700,6 +34791,9 @@
         <f t="shared" si="38"/>
         <v>1.0059724501121314</v>
       </c>
+      <c r="AH86" s="5">
+        <v>14</v>
+      </c>
       <c r="AI86" s="339">
         <v>5.9000000000000163E-3</v>
       </c>
@@ -34794,6 +34888,9 @@
       <c r="AG87" s="594">
         <f t="shared" si="38"/>
         <v>1.0030668094445463</v>
+      </c>
+      <c r="AH87" s="619">
+        <v>15</v>
       </c>
       <c r="AI87" s="352">
         <v>2.9999999999998916E-3</v>
@@ -34837,12 +34934,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet4!F11:F11</xm:f>
-              <xm:sqref>BE22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet4!F12:F12</xm:f>
-              <xm:sqref>BE23</xm:sqref>
+              <xm:f>Sheet4!F11:F12</xm:f>
+              <xm:sqref>BA39</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -34857,8 +34950,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet4!F11:F12</xm:f>
-              <xm:sqref>BA39</xm:sqref>
+              <xm:f>Sheet4!F11:F11</xm:f>
+              <xm:sqref>BE22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet4!F12:F12</xm:f>
+              <xm:sqref>BE23</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -41050,6 +41147,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:D22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C23:D26"/>
     <mergeCell ref="B39:B42"/>
@@ -41060,17 +41168,6 @@
     <mergeCell ref="C31:D34"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="C35:D38"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SenkoMicro-SKCS-GUI - auto/Programming Discription/LABtest_公式_v1.2 (自动保存的).xlsx
+++ b/SenkoMicro-SKCS-GUI - auto/Programming Discription/LABtest_公式_v1.2 (自动保存的).xlsx
@@ -2056,7 +2056,7 @@
     </xf>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="716">
+  <cellXfs count="718">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3040,99 +3040,6 @@
     <xf numFmtId="10" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3205,6 +3112,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3213,6 +3126,93 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3283,6 +3283,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="2"/>
@@ -4050,11 +4052,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="200488000"/>
-        <c:axId val="200488560"/>
+        <c:axId val="361583696"/>
+        <c:axId val="361578096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="200488000"/>
+        <c:axId val="361583696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4063,7 +4065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200488560"/>
+        <c:crossAx val="361578096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4071,7 +4073,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200488560"/>
+        <c:axId val="361578096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4082,7 +4084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200488000"/>
+        <c:crossAx val="361583696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4523,11 +4525,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="201141408"/>
-        <c:axId val="201141968"/>
+        <c:axId val="278309632"/>
+        <c:axId val="203417872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201141408"/>
+        <c:axId val="278309632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4536,7 +4538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201141968"/>
+        <c:crossAx val="203417872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4544,7 +4546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201141968"/>
+        <c:axId val="203417872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4555,7 +4557,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201141408"/>
+        <c:crossAx val="278309632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4996,11 +4998,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="201306224"/>
-        <c:axId val="201306784"/>
+        <c:axId val="271175200"/>
+        <c:axId val="271176320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201306224"/>
+        <c:axId val="271175200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5009,7 +5011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201306784"/>
+        <c:crossAx val="271176320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5017,7 +5019,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201306784"/>
+        <c:axId val="271176320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5028,7 +5030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201306224"/>
+        <c:crossAx val="271175200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5483,11 +5485,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="201335232"/>
-        <c:axId val="201335792"/>
+        <c:axId val="270270272"/>
+        <c:axId val="270273072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201335232"/>
+        <c:axId val="270270272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5496,7 +5498,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201335792"/>
+        <c:crossAx val="270273072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5504,7 +5506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201335792"/>
+        <c:axId val="270273072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5519,7 +5521,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201335232"/>
+        <c:crossAx val="270270272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5646,11 +5648,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="201468176"/>
-        <c:axId val="201468736"/>
+        <c:axId val="373300144"/>
+        <c:axId val="373300704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="201468176"/>
+        <c:axId val="373300144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5693,7 +5695,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201468736"/>
+        <c:crossAx val="373300704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5701,7 +5703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201468736"/>
+        <c:axId val="373300704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5752,7 +5754,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201468176"/>
+        <c:crossAx val="373300144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6828,50 +6830,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="48" customHeight="1" thickBot="1">
-      <c r="A1" s="666" t="s">
+      <c r="A1" s="635" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="667"/>
-      <c r="C1" s="667"/>
-      <c r="D1" s="667"/>
-      <c r="E1" s="667"/>
-      <c r="F1" s="667"/>
-      <c r="G1" s="667"/>
-      <c r="H1" s="667"/>
-      <c r="I1" s="667"/>
-      <c r="J1" s="667"/>
-      <c r="K1" s="667"/>
-      <c r="L1" s="668"/>
+      <c r="B1" s="636"/>
+      <c r="C1" s="636"/>
+      <c r="D1" s="636"/>
+      <c r="E1" s="636"/>
+      <c r="F1" s="636"/>
+      <c r="G1" s="636"/>
+      <c r="H1" s="636"/>
+      <c r="I1" s="636"/>
+      <c r="J1" s="636"/>
+      <c r="K1" s="636"/>
+      <c r="L1" s="637"/>
     </row>
     <row r="2" spans="1:12" ht="39" customHeight="1" thickBot="1">
-      <c r="A2" s="680"/>
-      <c r="B2" s="680"/>
-      <c r="C2" s="680"/>
-      <c r="D2" s="680"/>
-      <c r="E2" s="680"/>
-      <c r="F2" s="680"/>
-      <c r="G2" s="680"/>
-      <c r="H2" s="680"/>
-      <c r="I2" s="680"/>
-      <c r="J2" s="680"/>
-      <c r="K2" s="680"/>
-      <c r="L2" s="680"/>
+      <c r="A2" s="649"/>
+      <c r="B2" s="649"/>
+      <c r="C2" s="649"/>
+      <c r="D2" s="649"/>
+      <c r="E2" s="649"/>
+      <c r="F2" s="649"/>
+      <c r="G2" s="649"/>
+      <c r="H2" s="649"/>
+      <c r="I2" s="649"/>
+      <c r="J2" s="649"/>
+      <c r="K2" s="649"/>
+      <c r="L2" s="649"/>
     </row>
     <row r="3" spans="1:12" ht="27" customHeight="1" thickBot="1">
-      <c r="A3" s="690" t="s">
+      <c r="A3" s="661" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="691"/>
-      <c r="C3" s="691"/>
-      <c r="D3" s="691"/>
-      <c r="E3" s="691"/>
-      <c r="F3" s="691"/>
-      <c r="G3" s="691"/>
-      <c r="H3" s="691"/>
-      <c r="I3" s="691"/>
-      <c r="J3" s="691"/>
-      <c r="K3" s="691"/>
-      <c r="L3" s="692"/>
+      <c r="B3" s="662"/>
+      <c r="C3" s="662"/>
+      <c r="D3" s="662"/>
+      <c r="E3" s="662"/>
+      <c r="F3" s="662"/>
+      <c r="G3" s="662"/>
+      <c r="H3" s="662"/>
+      <c r="I3" s="662"/>
+      <c r="J3" s="662"/>
+      <c r="K3" s="662"/>
+      <c r="L3" s="663"/>
     </row>
     <row r="4" spans="1:12" ht="89.25" customHeight="1" thickBot="1">
       <c r="A4" s="151" t="s">
@@ -6892,11 +6894,11 @@
       <c r="F4" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="669" t="s">
+      <c r="G4" s="638" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="669"/>
-      <c r="I4" s="669"/>
+      <c r="H4" s="638"/>
+      <c r="I4" s="638"/>
       <c r="J4" s="155" t="s">
         <v>164</v>
       </c>
@@ -6904,21 +6906,21 @@
       <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A5" s="681"/>
-      <c r="B5" s="682"/>
-      <c r="C5" s="682"/>
-      <c r="D5" s="682"/>
-      <c r="E5" s="682"/>
-      <c r="F5" s="682"/>
-      <c r="G5" s="682"/>
-      <c r="H5" s="682"/>
-      <c r="I5" s="682"/>
-      <c r="J5" s="682"/>
-      <c r="K5" s="682"/>
-      <c r="L5" s="683"/>
+      <c r="A5" s="650"/>
+      <c r="B5" s="651"/>
+      <c r="C5" s="651"/>
+      <c r="D5" s="651"/>
+      <c r="E5" s="651"/>
+      <c r="F5" s="651"/>
+      <c r="G5" s="651"/>
+      <c r="H5" s="651"/>
+      <c r="I5" s="651"/>
+      <c r="J5" s="651"/>
+      <c r="K5" s="651"/>
+      <c r="L5" s="652"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
-      <c r="A6" s="670">
+      <c r="A6" s="639">
         <v>1</v>
       </c>
       <c r="B6" s="86" t="s">
@@ -6939,7 +6941,7 @@
       <c r="G6" s="88">
         <v>5.5</v>
       </c>
-      <c r="H6" s="639" t="s">
+      <c r="H6" s="676" t="s">
         <v>165</v>
       </c>
       <c r="I6" s="90"/>
@@ -6948,7 +6950,7 @@
       <c r="L6" s="170"/>
     </row>
     <row r="7" spans="1:12" ht="15.75">
-      <c r="A7" s="671"/>
+      <c r="A7" s="640"/>
       <c r="B7" s="91" t="s">
         <v>31</v>
       </c>
@@ -6957,14 +6959,14 @@
       <c r="E7" s="93"/>
       <c r="F7" s="94"/>
       <c r="G7" s="95"/>
-      <c r="H7" s="639"/>
+      <c r="H7" s="676"/>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
       <c r="L7" s="170"/>
     </row>
     <row r="8" spans="1:12" ht="15.75">
-      <c r="A8" s="671"/>
+      <c r="A8" s="640"/>
       <c r="B8" s="91" t="s">
         <v>32</v>
       </c>
@@ -6973,14 +6975,14 @@
       <c r="E8" s="166"/>
       <c r="F8" s="96"/>
       <c r="G8" s="97"/>
-      <c r="H8" s="639"/>
+      <c r="H8" s="676"/>
       <c r="I8" s="98"/>
       <c r="J8" s="98"/>
       <c r="K8" s="98"/>
       <c r="L8" s="171"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A9" s="672"/>
+      <c r="A9" s="641"/>
       <c r="B9" s="99" t="s">
         <v>33</v>
       </c>
@@ -6989,28 +6991,28 @@
       <c r="E9" s="101"/>
       <c r="F9" s="100"/>
       <c r="G9" s="102"/>
-      <c r="H9" s="639"/>
+      <c r="H9" s="676"/>
       <c r="I9" s="89"/>
       <c r="J9" s="89"/>
       <c r="K9" s="89"/>
       <c r="L9" s="170"/>
     </row>
     <row r="10" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A10" s="684"/>
-      <c r="B10" s="685"/>
-      <c r="C10" s="685"/>
-      <c r="D10" s="685"/>
-      <c r="E10" s="685"/>
-      <c r="F10" s="685"/>
-      <c r="G10" s="685"/>
-      <c r="H10" s="685"/>
-      <c r="I10" s="686"/>
-      <c r="J10" s="686"/>
-      <c r="K10" s="686"/>
-      <c r="L10" s="687"/>
+      <c r="A10" s="653"/>
+      <c r="B10" s="654"/>
+      <c r="C10" s="654"/>
+      <c r="D10" s="654"/>
+      <c r="E10" s="654"/>
+      <c r="F10" s="654"/>
+      <c r="G10" s="654"/>
+      <c r="H10" s="654"/>
+      <c r="I10" s="655"/>
+      <c r="J10" s="655"/>
+      <c r="K10" s="655"/>
+      <c r="L10" s="656"/>
     </row>
     <row r="11" spans="1:12" ht="72.75" customHeight="1">
-      <c r="A11" s="677">
+      <c r="A11" s="646">
         <v>2</v>
       </c>
       <c r="B11" s="103" t="s">
@@ -7032,7 +7034,7 @@
         <v>96</v>
       </c>
       <c r="H11" s="105"/>
-      <c r="I11" s="639" t="s">
+      <c r="I11" s="676" t="s">
         <v>170</v>
       </c>
       <c r="J11" s="89"/>
@@ -7040,11 +7042,11 @@
       <c r="L11" s="172"/>
     </row>
     <row r="12" spans="1:12" ht="15.75">
-      <c r="A12" s="678"/>
-      <c r="B12" s="648">
-        <v>1</v>
-      </c>
-      <c r="C12" s="648">
+      <c r="A12" s="647"/>
+      <c r="B12" s="659">
+        <v>1</v>
+      </c>
+      <c r="C12" s="659">
         <v>1</v>
       </c>
       <c r="D12" s="106">
@@ -7056,15 +7058,15 @@
       <c r="F12" s="93"/>
       <c r="G12" s="93"/>
       <c r="H12" s="108"/>
-      <c r="I12" s="639"/>
+      <c r="I12" s="676"/>
       <c r="J12" s="109"/>
       <c r="K12" s="109"/>
       <c r="L12" s="173"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A13" s="678"/>
-      <c r="B13" s="648"/>
-      <c r="C13" s="648"/>
+      <c r="A13" s="647"/>
+      <c r="B13" s="659"/>
+      <c r="C13" s="659"/>
       <c r="D13" s="106">
         <v>0</v>
       </c>
@@ -7074,15 +7076,15 @@
       <c r="F13" s="94"/>
       <c r="G13" s="94"/>
       <c r="H13" s="95"/>
-      <c r="I13" s="639"/>
+      <c r="I13" s="676"/>
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
       <c r="L13" s="170"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="678"/>
-      <c r="B14" s="648"/>
-      <c r="C14" s="648"/>
+      <c r="A14" s="647"/>
+      <c r="B14" s="659"/>
+      <c r="C14" s="659"/>
       <c r="D14" s="106">
         <v>1</v>
       </c>
@@ -7092,15 +7094,15 @@
       <c r="F14" s="94"/>
       <c r="G14" s="94"/>
       <c r="H14" s="95"/>
-      <c r="I14" s="639"/>
+      <c r="I14" s="676"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
       <c r="L14" s="170"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A15" s="679"/>
-      <c r="B15" s="649"/>
-      <c r="C15" s="649"/>
+      <c r="A15" s="648"/>
+      <c r="B15" s="660"/>
+      <c r="C15" s="660"/>
       <c r="D15" s="100">
         <v>1</v>
       </c>
@@ -7110,36 +7112,36 @@
       <c r="F15" s="111"/>
       <c r="G15" s="111"/>
       <c r="H15" s="112"/>
-      <c r="I15" s="639"/>
+      <c r="I15" s="676"/>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
       <c r="L15" s="170"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A16" s="678"/>
-      <c r="B16" s="688"/>
-      <c r="C16" s="688"/>
-      <c r="D16" s="688"/>
-      <c r="E16" s="688"/>
-      <c r="F16" s="688"/>
-      <c r="G16" s="688"/>
-      <c r="H16" s="688"/>
-      <c r="I16" s="688"/>
-      <c r="J16" s="688"/>
-      <c r="K16" s="688"/>
-      <c r="L16" s="689"/>
+      <c r="A16" s="647"/>
+      <c r="B16" s="657"/>
+      <c r="C16" s="657"/>
+      <c r="D16" s="657"/>
+      <c r="E16" s="657"/>
+      <c r="F16" s="657"/>
+      <c r="G16" s="657"/>
+      <c r="H16" s="657"/>
+      <c r="I16" s="657"/>
+      <c r="J16" s="657"/>
+      <c r="K16" s="657"/>
+      <c r="L16" s="658"/>
     </row>
     <row r="17" spans="1:12" ht="15.75">
-      <c r="A17" s="673">
+      <c r="A17" s="642">
         <v>3</v>
       </c>
       <c r="B17" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="676" t="s">
+      <c r="C17" s="645" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="676"/>
+      <c r="D17" s="645"/>
       <c r="E17" s="64" t="s">
         <v>34</v>
       </c>
@@ -7159,19 +7161,19 @@
         <v>5.5</v>
       </c>
       <c r="K17" s="84"/>
-      <c r="L17" s="640" t="s">
+      <c r="L17" s="677" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75">
-      <c r="A18" s="674"/>
-      <c r="B18" s="648">
-        <v>0</v>
-      </c>
-      <c r="C18" s="648">
-        <v>1</v>
-      </c>
-      <c r="D18" s="648"/>
+      <c r="A18" s="643"/>
+      <c r="B18" s="659">
+        <v>0</v>
+      </c>
+      <c r="C18" s="659">
+        <v>1</v>
+      </c>
+      <c r="D18" s="659"/>
       <c r="E18" s="59" t="s">
         <v>36</v>
       </c>
@@ -7181,13 +7183,13 @@
       <c r="I18" s="93"/>
       <c r="J18" s="93"/>
       <c r="K18" s="108"/>
-      <c r="L18" s="640"/>
+      <c r="L18" s="677"/>
     </row>
     <row r="19" spans="1:12" ht="15.75">
-      <c r="A19" s="674"/>
-      <c r="B19" s="648"/>
-      <c r="C19" s="648"/>
-      <c r="D19" s="648"/>
+      <c r="A19" s="643"/>
+      <c r="B19" s="659"/>
+      <c r="C19" s="659"/>
+      <c r="D19" s="659"/>
       <c r="E19" s="59" t="s">
         <v>37</v>
       </c>
@@ -7197,13 +7199,13 @@
       <c r="I19" s="93"/>
       <c r="J19" s="93"/>
       <c r="K19" s="108"/>
-      <c r="L19" s="640"/>
+      <c r="L19" s="677"/>
     </row>
     <row r="20" spans="1:12" ht="15.75">
-      <c r="A20" s="674"/>
-      <c r="B20" s="648"/>
-      <c r="C20" s="648"/>
-      <c r="D20" s="648"/>
+      <c r="A20" s="643"/>
+      <c r="B20" s="659"/>
+      <c r="C20" s="659"/>
+      <c r="D20" s="659"/>
       <c r="E20" s="59" t="s">
         <v>38</v>
       </c>
@@ -7213,13 +7215,13 @@
       <c r="I20" s="93"/>
       <c r="J20" s="93"/>
       <c r="K20" s="108"/>
-      <c r="L20" s="640"/>
+      <c r="L20" s="677"/>
     </row>
     <row r="21" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A21" s="675"/>
-      <c r="B21" s="649"/>
-      <c r="C21" s="649"/>
-      <c r="D21" s="649"/>
+      <c r="A21" s="644"/>
+      <c r="B21" s="660"/>
+      <c r="C21" s="660"/>
+      <c r="D21" s="660"/>
       <c r="E21" s="85" t="s">
         <v>35</v>
       </c>
@@ -7244,24 +7246,24 @@
         <v>0</v>
       </c>
       <c r="K21" s="114"/>
-      <c r="L21" s="640"/>
+      <c r="L21" s="677"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A22" s="635"/>
-      <c r="B22" s="636"/>
-      <c r="C22" s="636"/>
-      <c r="D22" s="636"/>
-      <c r="E22" s="636"/>
-      <c r="F22" s="636"/>
-      <c r="G22" s="636"/>
-      <c r="H22" s="636"/>
-      <c r="I22" s="636"/>
-      <c r="J22" s="636"/>
-      <c r="K22" s="636"/>
-      <c r="L22" s="637"/>
+      <c r="A22" s="672"/>
+      <c r="B22" s="673"/>
+      <c r="C22" s="673"/>
+      <c r="D22" s="673"/>
+      <c r="E22" s="673"/>
+      <c r="F22" s="673"/>
+      <c r="G22" s="673"/>
+      <c r="H22" s="673"/>
+      <c r="I22" s="673"/>
+      <c r="J22" s="673"/>
+      <c r="K22" s="673"/>
+      <c r="L22" s="674"/>
     </row>
     <row r="23" spans="1:12" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A23" s="660">
+      <c r="A23" s="665">
         <v>4</v>
       </c>
       <c r="B23" s="161" t="s">
@@ -7291,7 +7293,7 @@
       <c r="L23" s="174"/>
     </row>
     <row r="24" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A24" s="661"/>
+      <c r="A24" s="666"/>
       <c r="B24" s="162">
         <v>0</v>
       </c>
@@ -7308,13 +7310,13 @@
       </c>
       <c r="I24" s="93"/>
       <c r="J24" s="108"/>
-      <c r="K24" s="641" t="s">
+      <c r="K24" s="678" t="s">
         <v>172</v>
       </c>
       <c r="L24" s="174"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1">
-      <c r="A25" s="661"/>
+      <c r="A25" s="666"/>
       <c r="B25" s="162">
         <v>0</v>
       </c>
@@ -7331,11 +7333,11 @@
       </c>
       <c r="I25" s="93"/>
       <c r="J25" s="108"/>
-      <c r="K25" s="641"/>
+      <c r="K25" s="678"/>
       <c r="L25" s="174"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="A26" s="661"/>
+      <c r="A26" s="666"/>
       <c r="B26" s="162">
         <v>1</v>
       </c>
@@ -7352,11 +7354,11 @@
       </c>
       <c r="I26" s="93"/>
       <c r="J26" s="108"/>
-      <c r="K26" s="641"/>
+      <c r="K26" s="678"/>
       <c r="L26" s="174"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A27" s="662"/>
+      <c r="A27" s="667"/>
       <c r="B27" s="163">
         <v>1</v>
       </c>
@@ -7373,7 +7375,7 @@
       </c>
       <c r="I27" s="113"/>
       <c r="J27" s="114"/>
-      <c r="K27" s="641"/>
+      <c r="K27" s="678"/>
       <c r="L27" s="175"/>
     </row>
     <row r="28" spans="1:12" ht="18.75" customHeight="1">
@@ -7391,7 +7393,7 @@
       <c r="L28" s="175"/>
     </row>
     <row r="29" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A29" s="655">
+      <c r="A29" s="669">
         <v>5</v>
       </c>
       <c r="B29" s="106" t="s">
@@ -7407,7 +7409,7 @@
         <v>174</v>
       </c>
       <c r="F29" s="160"/>
-      <c r="G29" s="664" t="s">
+      <c r="G29" s="670" t="s">
         <v>175</v>
       </c>
       <c r="H29" s="109"/>
@@ -7417,8 +7419,8 @@
       <c r="L29" s="175"/>
     </row>
     <row r="30" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A30" s="655"/>
-      <c r="B30" s="663">
+      <c r="A30" s="669"/>
+      <c r="B30" s="668">
         <v>1</v>
       </c>
       <c r="C30" s="107">
@@ -7427,7 +7429,7 @@
       <c r="D30" s="164"/>
       <c r="E30" s="165"/>
       <c r="F30" s="160"/>
-      <c r="G30" s="664"/>
+      <c r="G30" s="670"/>
       <c r="H30" s="109"/>
       <c r="I30" s="160"/>
       <c r="J30" s="160"/>
@@ -7435,15 +7437,15 @@
       <c r="L30" s="175"/>
     </row>
     <row r="31" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A31" s="655"/>
-      <c r="B31" s="663"/>
+      <c r="A31" s="669"/>
+      <c r="B31" s="668"/>
       <c r="C31" s="107">
         <v>1</v>
       </c>
       <c r="D31" s="164"/>
       <c r="E31" s="165"/>
       <c r="F31" s="160"/>
-      <c r="G31" s="664"/>
+      <c r="G31" s="670"/>
       <c r="H31" s="109"/>
       <c r="I31" s="160"/>
       <c r="J31" s="160"/>
@@ -7451,50 +7453,50 @@
       <c r="L31" s="175"/>
     </row>
     <row r="32" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A32" s="643" t="s">
+      <c r="A32" s="680" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="642"/>
-      <c r="C32" s="642"/>
-      <c r="D32" s="642"/>
-      <c r="E32" s="642"/>
-      <c r="F32" s="642"/>
-      <c r="G32" s="642"/>
-      <c r="H32" s="642"/>
-      <c r="I32" s="642"/>
-      <c r="J32" s="642"/>
-      <c r="K32" s="642"/>
-      <c r="L32" s="644"/>
+      <c r="B32" s="679"/>
+      <c r="C32" s="679"/>
+      <c r="D32" s="679"/>
+      <c r="E32" s="679"/>
+      <c r="F32" s="679"/>
+      <c r="G32" s="679"/>
+      <c r="H32" s="679"/>
+      <c r="I32" s="679"/>
+      <c r="J32" s="679"/>
+      <c r="K32" s="679"/>
+      <c r="L32" s="681"/>
     </row>
     <row r="33" spans="1:31" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A33" s="642"/>
-      <c r="B33" s="642"/>
-      <c r="C33" s="642"/>
-      <c r="D33" s="642"/>
-      <c r="E33" s="642"/>
-      <c r="F33" s="642"/>
-      <c r="G33" s="642"/>
-      <c r="H33" s="642"/>
-      <c r="I33" s="642"/>
-      <c r="J33" s="642"/>
-      <c r="K33" s="642"/>
-      <c r="L33" s="642"/>
+      <c r="A33" s="679"/>
+      <c r="B33" s="679"/>
+      <c r="C33" s="679"/>
+      <c r="D33" s="679"/>
+      <c r="E33" s="679"/>
+      <c r="F33" s="679"/>
+      <c r="G33" s="679"/>
+      <c r="H33" s="679"/>
+      <c r="I33" s="679"/>
+      <c r="J33" s="679"/>
+      <c r="K33" s="679"/>
+      <c r="L33" s="679"/>
     </row>
     <row r="34" spans="1:31" ht="27" customHeight="1" thickBot="1">
-      <c r="A34" s="645" t="s">
+      <c r="A34" s="682" t="s">
         <v>250</v>
       </c>
-      <c r="B34" s="646"/>
-      <c r="C34" s="646"/>
-      <c r="D34" s="646"/>
-      <c r="E34" s="646"/>
-      <c r="F34" s="646"/>
-      <c r="G34" s="646"/>
-      <c r="H34" s="646"/>
-      <c r="I34" s="646"/>
-      <c r="J34" s="646"/>
-      <c r="K34" s="646"/>
-      <c r="L34" s="647"/>
+      <c r="B34" s="683"/>
+      <c r="C34" s="683"/>
+      <c r="D34" s="683"/>
+      <c r="E34" s="683"/>
+      <c r="F34" s="683"/>
+      <c r="G34" s="683"/>
+      <c r="H34" s="683"/>
+      <c r="I34" s="683"/>
+      <c r="J34" s="683"/>
+      <c r="K34" s="683"/>
+      <c r="L34" s="684"/>
     </row>
     <row r="35" spans="1:31" ht="16.5" thickBot="1">
       <c r="A35" s="115"/>
@@ -7535,19 +7537,19 @@
         <v>24</v>
       </c>
       <c r="J36" s="17"/>
-      <c r="K36" s="665" t="s">
+      <c r="K36" s="671" t="s">
         <v>161</v>
       </c>
-      <c r="L36" s="659"/>
-      <c r="M36" s="659"/>
-      <c r="N36" s="659"/>
-      <c r="O36" s="659"/>
-      <c r="P36" s="659"/>
-      <c r="Q36" s="659"/>
-      <c r="R36" s="659"/>
-      <c r="S36" s="659"/>
-      <c r="T36" s="659"/>
-      <c r="U36" s="659"/>
+      <c r="L36" s="664"/>
+      <c r="M36" s="664"/>
+      <c r="N36" s="664"/>
+      <c r="O36" s="664"/>
+      <c r="P36" s="664"/>
+      <c r="Q36" s="664"/>
+      <c r="R36" s="664"/>
+      <c r="S36" s="664"/>
+      <c r="T36" s="664"/>
+      <c r="U36" s="664"/>
       <c r="V36" s="9"/>
       <c r="W36" s="29"/>
       <c r="X36" s="9"/>
@@ -7585,10 +7587,10 @@
       <c r="I37" s="81">
         <v>1</v>
       </c>
-      <c r="J37" s="657" t="s">
+      <c r="J37" s="691" t="s">
         <v>156</v>
       </c>
-      <c r="K37" s="665"/>
+      <c r="K37" s="671"/>
       <c r="N37" s="4"/>
       <c r="O37" s="6"/>
       <c r="R37" s="9"/>
@@ -7631,8 +7633,8 @@
       <c r="I38" s="81">
         <v>0</v>
       </c>
-      <c r="J38" s="658"/>
-      <c r="K38" s="665"/>
+      <c r="J38" s="692"/>
+      <c r="K38" s="671"/>
       <c r="N38" s="5"/>
       <c r="O38" s="6"/>
       <c r="R38" s="9"/>
@@ -7674,8 +7676,8 @@
       <c r="I39" s="81">
         <v>1</v>
       </c>
-      <c r="J39" s="658"/>
-      <c r="K39" s="665"/>
+      <c r="J39" s="692"/>
+      <c r="K39" s="671"/>
       <c r="N39" s="5"/>
       <c r="O39" s="6"/>
       <c r="R39" s="9"/>
@@ -7717,8 +7719,8 @@
       <c r="I40" s="81">
         <v>0</v>
       </c>
-      <c r="J40" s="658"/>
-      <c r="K40" s="665"/>
+      <c r="J40" s="692"/>
+      <c r="K40" s="671"/>
       <c r="N40" s="5"/>
       <c r="O40" s="6"/>
       <c r="R40" s="9"/>
@@ -7760,8 +7762,8 @@
       <c r="I41" s="81">
         <v>1</v>
       </c>
-      <c r="J41" s="658"/>
-      <c r="K41" s="665"/>
+      <c r="J41" s="692"/>
+      <c r="K41" s="671"/>
       <c r="N41" s="5"/>
       <c r="O41" s="6"/>
       <c r="R41" s="9"/>
@@ -7803,8 +7805,8 @@
       <c r="I42" s="81">
         <v>0</v>
       </c>
-      <c r="J42" s="658"/>
-      <c r="K42" s="665"/>
+      <c r="J42" s="692"/>
+      <c r="K42" s="671"/>
       <c r="N42" s="5"/>
       <c r="O42" s="6"/>
       <c r="R42" s="9"/>
@@ -7846,8 +7848,8 @@
       <c r="I43" s="81">
         <v>1</v>
       </c>
-      <c r="J43" s="658"/>
-      <c r="K43" s="665"/>
+      <c r="J43" s="692"/>
+      <c r="K43" s="671"/>
       <c r="N43" s="5"/>
       <c r="O43" s="6"/>
       <c r="R43" s="9"/>
@@ -7889,8 +7891,8 @@
       <c r="I44" s="81">
         <v>0</v>
       </c>
-      <c r="J44" s="658"/>
-      <c r="K44" s="665"/>
+      <c r="J44" s="692"/>
+      <c r="K44" s="671"/>
       <c r="N44" s="5"/>
       <c r="O44" s="6"/>
       <c r="R44" s="9"/>
@@ -7932,8 +7934,8 @@
       <c r="I45" s="81">
         <v>1</v>
       </c>
-      <c r="J45" s="658"/>
-      <c r="K45" s="665"/>
+      <c r="J45" s="692"/>
+      <c r="K45" s="671"/>
       <c r="N45" s="5"/>
       <c r="O45" s="6"/>
       <c r="R45" s="9"/>
@@ -7975,8 +7977,8 @@
       <c r="I46" s="81">
         <v>0</v>
       </c>
-      <c r="J46" s="658"/>
-      <c r="K46" s="665"/>
+      <c r="J46" s="692"/>
+      <c r="K46" s="671"/>
       <c r="N46" s="5"/>
       <c r="O46" s="6"/>
       <c r="R46" s="9"/>
@@ -8018,8 +8020,8 @@
       <c r="I47" s="81">
         <v>1</v>
       </c>
-      <c r="J47" s="658"/>
-      <c r="K47" s="665"/>
+      <c r="J47" s="692"/>
+      <c r="K47" s="671"/>
       <c r="N47" s="5"/>
       <c r="O47" s="6"/>
       <c r="R47" s="9"/>
@@ -8061,8 +8063,8 @@
       <c r="I48" s="81">
         <v>0</v>
       </c>
-      <c r="J48" s="658"/>
-      <c r="K48" s="665"/>
+      <c r="J48" s="692"/>
+      <c r="K48" s="671"/>
       <c r="N48" s="5"/>
       <c r="O48" s="6"/>
       <c r="R48" s="9"/>
@@ -8104,8 +8106,8 @@
       <c r="I49" s="81">
         <v>1</v>
       </c>
-      <c r="J49" s="658"/>
-      <c r="K49" s="665"/>
+      <c r="J49" s="692"/>
+      <c r="K49" s="671"/>
       <c r="N49" s="5"/>
       <c r="O49" s="6"/>
       <c r="X49" s="9"/>
@@ -8137,8 +8139,8 @@
       <c r="I50" s="81">
         <v>0</v>
       </c>
-      <c r="J50" s="658"/>
-      <c r="K50" s="665"/>
+      <c r="J50" s="692"/>
+      <c r="K50" s="671"/>
       <c r="N50" s="5"/>
       <c r="O50" s="6"/>
       <c r="X50" s="9"/>
@@ -8170,8 +8172,8 @@
       <c r="I51" s="81">
         <v>1</v>
       </c>
-      <c r="J51" s="658"/>
-      <c r="K51" s="665"/>
+      <c r="J51" s="692"/>
+      <c r="K51" s="671"/>
       <c r="N51" s="5"/>
       <c r="O51" s="6"/>
       <c r="X51" s="9"/>
@@ -8203,8 +8205,8 @@
       <c r="I52" s="81">
         <v>0</v>
       </c>
-      <c r="J52" s="658"/>
-      <c r="K52" s="665"/>
+      <c r="J52" s="692"/>
+      <c r="K52" s="671"/>
       <c r="N52" s="3"/>
       <c r="O52" s="6"/>
     </row>
@@ -8230,7 +8232,7 @@
         <v>21</v>
       </c>
       <c r="I53" s="128"/>
-      <c r="J53" s="651" t="s">
+      <c r="J53" s="686" t="s">
         <v>177</v>
       </c>
       <c r="K53" s="10"/>
@@ -8294,7 +8296,7 @@
         <v>25</v>
       </c>
       <c r="I54" s="81"/>
-      <c r="J54" s="652"/>
+      <c r="J54" s="687"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8">
         <v>0.5</v>
@@ -8360,7 +8362,7 @@
         <v>45</v>
       </c>
       <c r="I55" s="81"/>
-      <c r="J55" s="652"/>
+      <c r="J55" s="687"/>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="9"/>
@@ -8424,7 +8426,7 @@
         <v>46</v>
       </c>
       <c r="I56" s="81"/>
-      <c r="J56" s="652"/>
+      <c r="J56" s="687"/>
       <c r="K56" s="9"/>
       <c r="L56" s="10"/>
       <c r="M56" s="9"/>
@@ -8487,7 +8489,7 @@
         <v>47</v>
       </c>
       <c r="I57" s="81"/>
-      <c r="J57" s="652"/>
+      <c r="J57" s="687"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
       <c r="M57" s="9"/>
@@ -8550,7 +8552,7 @@
         <v>48</v>
       </c>
       <c r="I58" s="81"/>
-      <c r="J58" s="652"/>
+      <c r="J58" s="687"/>
       <c r="K58" s="10"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
@@ -8611,7 +8613,7 @@
         <v>49</v>
       </c>
       <c r="I59" s="81"/>
-      <c r="J59" s="652"/>
+      <c r="J59" s="687"/>
       <c r="K59" s="10"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -8673,7 +8675,7 @@
         <v>50</v>
       </c>
       <c r="I60" s="81"/>
-      <c r="J60" s="652"/>
+      <c r="J60" s="687"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -8734,7 +8736,7 @@
         <v>51</v>
       </c>
       <c r="I61" s="81"/>
-      <c r="J61" s="652"/>
+      <c r="J61" s="687"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
@@ -8795,7 +8797,7 @@
         <v>52</v>
       </c>
       <c r="I62" s="81"/>
-      <c r="J62" s="652"/>
+      <c r="J62" s="687"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -8855,7 +8857,7 @@
         <v>53</v>
       </c>
       <c r="I63" s="81"/>
-      <c r="J63" s="652"/>
+      <c r="J63" s="687"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="9"/>
@@ -8914,7 +8916,7 @@
         <v>54</v>
       </c>
       <c r="I64" s="81"/>
-      <c r="J64" s="652"/>
+      <c r="J64" s="687"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
@@ -8974,7 +8976,7 @@
         <v>55</v>
       </c>
       <c r="I65" s="81"/>
-      <c r="J65" s="652"/>
+      <c r="J65" s="687"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
@@ -9034,7 +9036,7 @@
         <v>56</v>
       </c>
       <c r="I66" s="81"/>
-      <c r="J66" s="652"/>
+      <c r="J66" s="687"/>
       <c r="K66" s="10"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
@@ -9093,7 +9095,7 @@
         <v>57</v>
       </c>
       <c r="I67" s="81"/>
-      <c r="J67" s="652"/>
+      <c r="J67" s="687"/>
       <c r="K67" s="10"/>
       <c r="L67" s="8"/>
       <c r="M67" s="9"/>
@@ -9152,7 +9154,7 @@
         <v>58</v>
       </c>
       <c r="I68" s="81"/>
-      <c r="J68" s="652"/>
+      <c r="J68" s="687"/>
       <c r="K68" s="9"/>
       <c r="L68" s="8"/>
       <c r="M68" s="9"/>
@@ -9212,7 +9214,7 @@
         <v>59</v>
       </c>
       <c r="I69" s="81"/>
-      <c r="J69" s="652"/>
+      <c r="J69" s="687"/>
       <c r="K69" s="9"/>
       <c r="L69" s="8"/>
       <c r="M69" s="9"/>
@@ -9271,7 +9273,7 @@
         <v>60</v>
       </c>
       <c r="I70" s="81"/>
-      <c r="J70" s="652"/>
+      <c r="J70" s="687"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="9"/>
@@ -10156,24 +10158,24 @@
       <c r="I85" s="23"/>
       <c r="J85" s="7"/>
       <c r="K85" s="9"/>
-      <c r="L85" s="650"/>
-      <c r="M85" s="650"/>
-      <c r="N85" s="650">
-        <v>0</v>
-      </c>
-      <c r="O85" s="650">
-        <v>0</v>
-      </c>
-      <c r="P85" s="650">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="650">
-        <v>0</v>
-      </c>
-      <c r="R85" s="650">
-        <v>0</v>
-      </c>
-      <c r="S85" s="650">
+      <c r="L85" s="685"/>
+      <c r="M85" s="685"/>
+      <c r="N85" s="685">
+        <v>0</v>
+      </c>
+      <c r="O85" s="685">
+        <v>0</v>
+      </c>
+      <c r="P85" s="685">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="685">
+        <v>0</v>
+      </c>
+      <c r="R85" s="685">
+        <v>0</v>
+      </c>
+      <c r="S85" s="685">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -10190,7 +10192,7 @@
       <c r="AF86" s="167"/>
     </row>
     <row r="87" spans="1:32" ht="15.75">
-      <c r="A87" s="654" t="s">
+      <c r="A87" s="689" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="63" t="s">
@@ -10222,7 +10224,7 @@
       <c r="AF87" s="167"/>
     </row>
     <row r="88" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A88" s="655"/>
+      <c r="A88" s="669"/>
       <c r="B88" s="19">
         <v>0</v>
       </c>
@@ -10246,12 +10248,12 @@
         <v>0</v>
       </c>
       <c r="J88" s="58"/>
-      <c r="K88" s="653" t="s">
+      <c r="K88" s="688" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A89" s="655"/>
+      <c r="A89" s="669"/>
       <c r="B89" s="19">
         <v>0</v>
       </c>
@@ -10275,14 +10277,14 @@
         <v>4</v>
       </c>
       <c r="J89" s="13"/>
-      <c r="K89" s="653"/>
+      <c r="K89" s="688"/>
       <c r="L89" s="56"/>
       <c r="N89" s="11"/>
       <c r="O89" s="6"/>
       <c r="S89" s="32"/>
     </row>
     <row r="90" spans="1:32" ht="15.75">
-      <c r="A90" s="655"/>
+      <c r="A90" s="669"/>
       <c r="B90" s="19">
         <v>0</v>
       </c>
@@ -10306,14 +10308,14 @@
         <v>2</v>
       </c>
       <c r="J90" s="13"/>
-      <c r="K90" s="653"/>
+      <c r="K90" s="688"/>
       <c r="L90" s="56"/>
       <c r="N90" s="11"/>
       <c r="O90" s="6"/>
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:32" ht="15.75">
-      <c r="A91" s="655"/>
+      <c r="A91" s="669"/>
       <c r="B91" s="19">
         <v>0</v>
       </c>
@@ -10337,14 +10339,14 @@
         <v>6</v>
       </c>
       <c r="J91" s="13"/>
-      <c r="K91" s="653"/>
+      <c r="K91" s="688"/>
       <c r="L91" s="56"/>
       <c r="N91" s="11"/>
       <c r="O91" s="6"/>
       <c r="S91" s="32"/>
     </row>
     <row r="92" spans="1:32" ht="15.75">
-      <c r="A92" s="655"/>
+      <c r="A92" s="669"/>
       <c r="B92" s="19">
         <v>0</v>
       </c>
@@ -10368,14 +10370,14 @@
         <v>1</v>
       </c>
       <c r="J92" s="13"/>
-      <c r="K92" s="653"/>
+      <c r="K92" s="688"/>
       <c r="L92" s="56"/>
       <c r="N92" s="11"/>
       <c r="O92" s="6"/>
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:32" ht="15.75">
-      <c r="A93" s="655"/>
+      <c r="A93" s="669"/>
       <c r="B93" s="19">
         <v>0</v>
       </c>
@@ -10399,14 +10401,14 @@
         <v>5</v>
       </c>
       <c r="J93" s="13"/>
-      <c r="K93" s="653"/>
+      <c r="K93" s="688"/>
       <c r="L93" s="56"/>
       <c r="N93" s="11"/>
       <c r="O93" s="6"/>
       <c r="S93" s="32"/>
     </row>
     <row r="94" spans="1:32" ht="15.75">
-      <c r="A94" s="655"/>
+      <c r="A94" s="669"/>
       <c r="B94" s="19">
         <v>0</v>
       </c>
@@ -10430,14 +10432,14 @@
         <v>3</v>
       </c>
       <c r="J94" s="13"/>
-      <c r="K94" s="653"/>
+      <c r="K94" s="688"/>
       <c r="L94" s="56"/>
       <c r="N94" s="11"/>
       <c r="O94" s="6"/>
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A95" s="655"/>
+      <c r="A95" s="669"/>
       <c r="B95" s="19">
         <v>0</v>
       </c>
@@ -10461,14 +10463,14 @@
         <v>7</v>
       </c>
       <c r="J95" s="13"/>
-      <c r="K95" s="653"/>
+      <c r="K95" s="688"/>
       <c r="L95" s="56"/>
       <c r="N95" s="11"/>
       <c r="O95" s="6"/>
       <c r="S95" s="32"/>
     </row>
     <row r="96" spans="1:32" ht="15.75">
-      <c r="A96" s="655"/>
+      <c r="A96" s="669"/>
       <c r="B96" s="19">
         <v>1</v>
       </c>
@@ -10494,14 +10496,14 @@
       <c r="J96" s="148">
         <v>13.6</v>
       </c>
-      <c r="K96" s="653"/>
+      <c r="K96" s="688"/>
       <c r="L96" s="56"/>
       <c r="N96" s="11"/>
       <c r="O96" s="6"/>
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="15.75">
-      <c r="A97" s="655"/>
+      <c r="A97" s="669"/>
       <c r="B97" s="19">
         <v>1</v>
       </c>
@@ -10525,14 +10527,14 @@
         <v>4</v>
       </c>
       <c r="J97" s="13"/>
-      <c r="K97" s="653"/>
+      <c r="K97" s="688"/>
       <c r="L97" s="56"/>
       <c r="N97" s="11"/>
       <c r="O97" s="6"/>
       <c r="S97" s="32"/>
     </row>
     <row r="98" spans="1:19" ht="15.75">
-      <c r="A98" s="655"/>
+      <c r="A98" s="669"/>
       <c r="B98" s="19">
         <v>1</v>
       </c>
@@ -10556,14 +10558,14 @@
         <v>2</v>
       </c>
       <c r="J98" s="13"/>
-      <c r="K98" s="653"/>
+      <c r="K98" s="688"/>
       <c r="L98" s="56"/>
       <c r="N98" s="11"/>
       <c r="O98" s="6"/>
       <c r="S98" s="32"/>
     </row>
     <row r="99" spans="1:19" ht="15.75">
-      <c r="A99" s="655"/>
+      <c r="A99" s="669"/>
       <c r="B99" s="19">
         <v>1</v>
       </c>
@@ -10587,14 +10589,14 @@
         <v>6</v>
       </c>
       <c r="J99" s="13"/>
-      <c r="K99" s="653"/>
+      <c r="K99" s="688"/>
       <c r="L99" s="56"/>
       <c r="N99" s="11"/>
       <c r="O99" s="6"/>
       <c r="S99" s="32"/>
     </row>
     <row r="100" spans="1:19" ht="15.75">
-      <c r="A100" s="655"/>
+      <c r="A100" s="669"/>
       <c r="B100" s="19">
         <v>1</v>
       </c>
@@ -10618,14 +10620,14 @@
         <v>1</v>
       </c>
       <c r="J100" s="13"/>
-      <c r="K100" s="653"/>
+      <c r="K100" s="688"/>
       <c r="L100" s="56"/>
       <c r="N100" s="11"/>
       <c r="O100" s="6"/>
       <c r="S100" s="32"/>
     </row>
     <row r="101" spans="1:19" ht="15.75">
-      <c r="A101" s="655"/>
+      <c r="A101" s="669"/>
       <c r="B101" s="19">
         <v>1</v>
       </c>
@@ -10649,14 +10651,14 @@
         <v>5</v>
       </c>
       <c r="J101" s="13"/>
-      <c r="K101" s="653"/>
+      <c r="K101" s="688"/>
       <c r="L101" s="56"/>
       <c r="N101" s="11"/>
       <c r="O101" s="6"/>
       <c r="S101" s="32"/>
     </row>
     <row r="102" spans="1:19" ht="15.75">
-      <c r="A102" s="655"/>
+      <c r="A102" s="669"/>
       <c r="B102" s="19">
         <v>1</v>
       </c>
@@ -10680,14 +10682,14 @@
         <v>3</v>
       </c>
       <c r="J102" s="13"/>
-      <c r="K102" s="653"/>
+      <c r="K102" s="688"/>
       <c r="L102" s="56"/>
       <c r="N102" s="11"/>
       <c r="O102" s="6"/>
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A103" s="655"/>
+      <c r="A103" s="669"/>
       <c r="B103" s="19">
         <v>1</v>
       </c>
@@ -10711,14 +10713,14 @@
         <v>7</v>
       </c>
       <c r="J103" s="13"/>
-      <c r="K103" s="653"/>
+      <c r="K103" s="688"/>
       <c r="L103" s="56"/>
       <c r="N103" s="11"/>
       <c r="O103" s="6"/>
       <c r="S103" s="32"/>
     </row>
     <row r="104" spans="1:19" ht="15.75">
-      <c r="A104" s="655"/>
+      <c r="A104" s="669"/>
       <c r="B104" s="132" t="s">
         <v>149</v>
       </c>
@@ -10746,7 +10748,7 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="15.75">
-      <c r="A105" s="655"/>
+      <c r="A105" s="669"/>
       <c r="B105" s="19">
         <v>0</v>
       </c>
@@ -10770,7 +10772,7 @@
       <c r="J105" s="146">
         <v>1</v>
       </c>
-      <c r="K105" s="638" t="s">
+      <c r="K105" s="675" t="s">
         <v>159</v>
       </c>
       <c r="L105" s="2" t="s">
@@ -10780,7 +10782,7 @@
       <c r="S105" s="32"/>
     </row>
     <row r="106" spans="1:19" ht="15.75">
-      <c r="A106" s="655"/>
+      <c r="A106" s="669"/>
       <c r="B106" s="19">
         <v>0</v>
       </c>
@@ -10804,7 +10806,7 @@
       <c r="J106" s="146">
         <v>0.99719999999999998</v>
       </c>
-      <c r="K106" s="638"/>
+      <c r="K106" s="675"/>
       <c r="L106" t="s">
         <v>157</v>
       </c>
@@ -10813,7 +10815,7 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="15.75">
-      <c r="A107" s="655"/>
+      <c r="A107" s="669"/>
       <c r="B107" s="19">
         <v>0</v>
       </c>
@@ -10837,14 +10839,14 @@
       <c r="J107" s="146">
         <v>0.99429999999999996</v>
       </c>
-      <c r="K107" s="638"/>
+      <c r="K107" s="675"/>
       <c r="L107" s="12"/>
       <c r="O107" s="6"/>
       <c r="Q107" s="11"/>
       <c r="S107" s="32"/>
     </row>
     <row r="108" spans="1:19" ht="15.75">
-      <c r="A108" s="655"/>
+      <c r="A108" s="669"/>
       <c r="B108" s="19">
         <v>0</v>
       </c>
@@ -10868,14 +10870,14 @@
       <c r="J108" s="3">
         <v>0.99139999999999995</v>
       </c>
-      <c r="K108" s="638"/>
+      <c r="K108" s="675"/>
       <c r="L108" s="12"/>
       <c r="O108" s="6"/>
       <c r="Q108" s="11"/>
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="15.75">
-      <c r="A109" s="655"/>
+      <c r="A109" s="669"/>
       <c r="B109" s="19">
         <v>0</v>
       </c>
@@ -10899,14 +10901,14 @@
       <c r="J109" s="3">
         <v>0.98850000000000005</v>
       </c>
-      <c r="K109" s="638"/>
+      <c r="K109" s="675"/>
       <c r="L109" s="12"/>
       <c r="O109" s="6"/>
       <c r="Q109" s="11"/>
       <c r="S109" s="32"/>
     </row>
     <row r="110" spans="1:19" ht="15.75">
-      <c r="A110" s="655"/>
+      <c r="A110" s="669"/>
       <c r="B110" s="19">
         <v>0</v>
       </c>
@@ -10930,14 +10932,14 @@
       <c r="J110" s="3">
         <v>0.98560000000000003</v>
       </c>
-      <c r="K110" s="638"/>
+      <c r="K110" s="675"/>
       <c r="L110" s="57"/>
       <c r="O110" s="6"/>
       <c r="Q110" s="11"/>
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="15.75">
-      <c r="A111" s="655"/>
+      <c r="A111" s="669"/>
       <c r="B111" s="19">
         <v>0</v>
       </c>
@@ -10961,14 +10963,14 @@
       <c r="J111" s="3">
         <v>0.98260000000000003</v>
       </c>
-      <c r="K111" s="638"/>
+      <c r="K111" s="675"/>
       <c r="L111" s="12"/>
       <c r="O111" s="6"/>
       <c r="Q111" s="11"/>
       <c r="S111" s="32"/>
     </row>
     <row r="112" spans="1:19" ht="15.75">
-      <c r="A112" s="655"/>
+      <c r="A112" s="669"/>
       <c r="B112" s="19">
         <v>0</v>
       </c>
@@ -10992,14 +10994,14 @@
       <c r="J112" s="147">
         <v>0.9798</v>
       </c>
-      <c r="K112" s="638"/>
+      <c r="K112" s="675"/>
       <c r="L112" s="12"/>
       <c r="O112" s="6"/>
       <c r="Q112" s="11"/>
       <c r="S112" s="32"/>
     </row>
     <row r="113" spans="1:19" ht="15.75">
-      <c r="A113" s="655"/>
+      <c r="A113" s="669"/>
       <c r="B113" s="19">
         <v>1</v>
       </c>
@@ -11023,14 +11025,14 @@
       <c r="J113" s="147">
         <v>1.0233000000000001</v>
       </c>
-      <c r="K113" s="638"/>
+      <c r="K113" s="675"/>
       <c r="L113" s="12"/>
       <c r="O113" s="6"/>
       <c r="Q113" s="11"/>
       <c r="S113" s="32"/>
     </row>
     <row r="114" spans="1:19" ht="15.75">
-      <c r="A114" s="655"/>
+      <c r="A114" s="669"/>
       <c r="B114" s="19">
         <v>1</v>
       </c>
@@ -11054,14 +11056,14 @@
       <c r="J114" s="3">
         <v>1.0204</v>
       </c>
-      <c r="K114" s="638"/>
+      <c r="K114" s="675"/>
       <c r="L114" s="12"/>
       <c r="O114" s="6"/>
       <c r="Q114" s="11"/>
       <c r="S114" s="32"/>
     </row>
     <row r="115" spans="1:19" ht="15.75">
-      <c r="A115" s="655"/>
+      <c r="A115" s="669"/>
       <c r="B115" s="19">
         <v>1</v>
       </c>
@@ -11085,14 +11087,14 @@
       <c r="J115" s="3">
         <v>1.0175000000000001</v>
       </c>
-      <c r="K115" s="638"/>
+      <c r="K115" s="675"/>
       <c r="L115" s="12"/>
       <c r="O115" s="6"/>
       <c r="Q115" s="11"/>
       <c r="S115" s="32"/>
     </row>
     <row r="116" spans="1:19" ht="15.75">
-      <c r="A116" s="655"/>
+      <c r="A116" s="669"/>
       <c r="B116" s="19">
         <v>1</v>
       </c>
@@ -11116,14 +11118,14 @@
       <c r="J116" s="3">
         <v>1.0145999999999999</v>
       </c>
-      <c r="K116" s="638"/>
+      <c r="K116" s="675"/>
       <c r="L116" s="57"/>
       <c r="O116" s="6"/>
       <c r="Q116" s="11"/>
       <c r="S116" s="32"/>
     </row>
     <row r="117" spans="1:19" ht="15.75">
-      <c r="A117" s="655"/>
+      <c r="A117" s="669"/>
       <c r="B117" s="19">
         <v>1</v>
       </c>
@@ -11147,14 +11149,14 @@
       <c r="J117" s="3">
         <v>1.0117</v>
       </c>
-      <c r="K117" s="638"/>
+      <c r="K117" s="675"/>
       <c r="L117" s="12"/>
       <c r="O117" s="6"/>
       <c r="Q117" s="11"/>
       <c r="S117" s="32"/>
     </row>
     <row r="118" spans="1:19" ht="15.75">
-      <c r="A118" s="655"/>
+      <c r="A118" s="669"/>
       <c r="B118" s="19">
         <v>1</v>
       </c>
@@ -11178,14 +11180,14 @@
       <c r="J118" s="3">
         <v>1.0087999999999999</v>
       </c>
-      <c r="K118" s="638"/>
+      <c r="K118" s="675"/>
       <c r="L118" s="12"/>
       <c r="O118" s="6"/>
       <c r="Q118" s="11"/>
       <c r="S118" s="32"/>
     </row>
     <row r="119" spans="1:19" ht="15.75">
-      <c r="A119" s="655"/>
+      <c r="A119" s="669"/>
       <c r="B119" s="19">
         <v>1</v>
       </c>
@@ -11209,14 +11211,14 @@
       <c r="J119" s="3">
         <v>1.0059</v>
       </c>
-      <c r="K119" s="638"/>
+      <c r="K119" s="675"/>
       <c r="L119" s="12"/>
       <c r="O119" s="6"/>
       <c r="Q119" s="11"/>
       <c r="S119" s="32"/>
     </row>
     <row r="120" spans="1:19" ht="16.5" thickBot="1">
-      <c r="A120" s="656"/>
+      <c r="A120" s="690"/>
       <c r="B120" s="22">
         <v>1</v>
       </c>
@@ -11240,7 +11242,7 @@
       <c r="J120" s="142">
         <v>1.0029999999999999</v>
       </c>
-      <c r="K120" s="638"/>
+      <c r="K120" s="675"/>
       <c r="L120" s="12"/>
       <c r="O120" s="6"/>
       <c r="Q120" s="11"/>
@@ -11847,25 +11849,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="K36:K52"/>
     <mergeCell ref="A22:L22"/>
     <mergeCell ref="K105:K120"/>
     <mergeCell ref="H6:H9"/>
@@ -11882,6 +11865,25 @@
     <mergeCell ref="K88:K103"/>
     <mergeCell ref="A87:A120"/>
     <mergeCell ref="J37:J52"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="K36:K52"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26356,9 +26358,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="AF1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG90" sqref="AG90"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="9" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I21" sqref="I21:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -26385,7 +26387,7 @@
     <col min="29" max="29" width="11.28515625" style="214" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.28515625" style="214" customWidth="1"/>
     <col min="31" max="31" width="9.140625" style="214"/>
-    <col min="32" max="32" width="12.5703125" style="371" customWidth="1"/>
+    <col min="32" max="32" width="8.7109375" style="371" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="10.7109375" style="214" customWidth="1"/>
     <col min="34" max="37" width="9.140625" style="214"/>
     <col min="38" max="38" width="11.140625" style="214" customWidth="1"/>
@@ -26539,7 +26541,7 @@
       <c r="I4" s="308">
         <v>1</v>
       </c>
-      <c r="J4" s="657" t="s">
+      <c r="J4" s="691" t="s">
         <v>256</v>
       </c>
       <c r="K4" s="354">
@@ -26655,7 +26657,7 @@
       <c r="I5" s="308">
         <v>0</v>
       </c>
-      <c r="J5" s="657"/>
+      <c r="J5" s="691"/>
       <c r="K5" s="354">
         <v>0.02</v>
       </c>
@@ -26768,7 +26770,7 @@
       <c r="I6" s="308">
         <v>1</v>
       </c>
-      <c r="J6" s="657"/>
+      <c r="J6" s="691"/>
       <c r="K6" s="354">
         <v>0.03</v>
       </c>
@@ -26881,7 +26883,7 @@
       <c r="I7" s="308">
         <v>0</v>
       </c>
-      <c r="J7" s="657"/>
+      <c r="J7" s="691"/>
       <c r="K7" s="354">
         <v>0.04</v>
       </c>
@@ -26994,7 +26996,7 @@
       <c r="I8" s="308">
         <v>1</v>
       </c>
-      <c r="J8" s="657"/>
+      <c r="J8" s="691"/>
       <c r="K8" s="354">
         <v>0.05</v>
       </c>
@@ -27107,7 +27109,7 @@
       <c r="I9" s="308">
         <v>0</v>
       </c>
-      <c r="J9" s="657"/>
+      <c r="J9" s="691"/>
       <c r="K9" s="354">
         <v>0.06</v>
       </c>
@@ -27220,7 +27222,7 @@
       <c r="I10" s="308">
         <v>1</v>
       </c>
-      <c r="J10" s="657"/>
+      <c r="J10" s="691"/>
       <c r="K10" s="354">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -27333,7 +27335,7 @@
       <c r="I11" s="614">
         <v>0</v>
       </c>
-      <c r="J11" s="657"/>
+      <c r="J11" s="691"/>
       <c r="K11" s="354">
         <v>0.08</v>
       </c>
@@ -27446,7 +27448,7 @@
       <c r="I12" s="308">
         <v>1</v>
       </c>
-      <c r="J12" s="657"/>
+      <c r="J12" s="691"/>
       <c r="K12" s="354">
         <v>0.09</v>
       </c>
@@ -27559,7 +27561,7 @@
       <c r="I13" s="308">
         <v>0</v>
       </c>
-      <c r="J13" s="657"/>
+      <c r="J13" s="691"/>
       <c r="K13" s="354">
         <v>0.1</v>
       </c>
@@ -27672,7 +27674,7 @@
       <c r="I14" s="308">
         <v>1</v>
       </c>
-      <c r="J14" s="657"/>
+      <c r="J14" s="691"/>
       <c r="K14" s="354">
         <v>0.11</v>
       </c>
@@ -27785,7 +27787,7 @@
       <c r="I15" s="614">
         <v>0</v>
       </c>
-      <c r="J15" s="657"/>
+      <c r="J15" s="691"/>
       <c r="K15" s="354">
         <v>0.12</v>
       </c>
@@ -27898,7 +27900,7 @@
       <c r="I16" s="308">
         <v>1</v>
       </c>
-      <c r="J16" s="657"/>
+      <c r="J16" s="691"/>
       <c r="K16" s="354">
         <v>0.13</v>
       </c>
@@ -28012,7 +28014,7 @@
       <c r="I17" s="614">
         <v>0</v>
       </c>
-      <c r="J17" s="657"/>
+      <c r="J17" s="691"/>
       <c r="K17" s="354">
         <v>0.14000000000000001</v>
       </c>
@@ -28125,7 +28127,7 @@
       <c r="I18" s="614">
         <v>1</v>
       </c>
-      <c r="J18" s="657"/>
+      <c r="J18" s="691"/>
       <c r="K18" s="354">
         <v>0.15</v>
       </c>
@@ -28235,7 +28237,7 @@
       <c r="I19" s="308">
         <v>0</v>
       </c>
-      <c r="J19" s="657"/>
+      <c r="J19" s="691"/>
       <c r="K19" s="354">
         <v>0.16</v>
       </c>
@@ -28384,7 +28386,10 @@
       <c r="H21" s="307" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="308"/>
+      <c r="I21" s="717">
+        <f>F21-AF21</f>
+        <v>0</v>
+      </c>
       <c r="J21" s="700"/>
       <c r="K21" s="355"/>
       <c r="L21" s="355"/>
@@ -28448,6 +28453,9 @@
         <f>(AC21-AC$21)/(AC$21-AB$21)</f>
         <v>0</v>
       </c>
+      <c r="AF21" s="716">
+        <v>1</v>
+      </c>
       <c r="AG21" s="369">
         <f>AVERAGE(O21,R21,U21,X21,AA21,AD21)</f>
         <v>0</v>
@@ -28489,7 +28497,10 @@
       <c r="H22" s="613" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="614"/>
+      <c r="I22" s="717">
+        <f t="shared" ref="I22:I52" si="10">F22-AF22</f>
+        <v>-5.1399824966746888E-4</v>
+      </c>
       <c r="J22" s="700"/>
       <c r="K22" s="624"/>
       <c r="L22" s="624"/>
@@ -28553,9 +28564,11 @@
         <f>(AC22-AB22)/(AC$21-AB$21)</f>
         <v>0.99444598722577071</v>
       </c>
-      <c r="AF22" s="371"/>
+      <c r="AF22" s="716">
+        <v>0.99562069581128321</v>
+      </c>
       <c r="AG22" s="618">
-        <f t="shared" ref="AG22:AG52" si="10">AVERAGE(O22,R22,U22,X22,AA22,AD22)</f>
+        <f t="shared" ref="AG22:AG52" si="11">AVERAGE(O22,R22,U22,X22,AA22,AD22)</f>
         <v>0.99510669756161574</v>
       </c>
       <c r="AH22" s="619">
@@ -28565,7 +28578,7 @@
         <v>-4.5200172191132591E-3</v>
       </c>
       <c r="AJ22" s="620">
-        <f t="shared" ref="AJ22:AJ52" si="11">AG22-AI22</f>
+        <f t="shared" ref="AJ22:AJ52" si="12">AG22-AI22</f>
         <v>0.99962671478072895</v>
       </c>
     </row>
@@ -28592,7 +28605,10 @@
       <c r="H23" s="613" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="614"/>
+      <c r="I23" s="717">
+        <f t="shared" si="10"/>
+        <v>2.6618497437902455E-5</v>
+      </c>
       <c r="J23" s="700"/>
       <c r="K23" s="624"/>
       <c r="L23" s="624"/>
@@ -28603,7 +28619,7 @@
         <v>4.2279999999999998</v>
       </c>
       <c r="O23" s="618">
-        <f t="shared" ref="O23:O52" si="12">(N23-M23)/(N$21-M$21)</f>
+        <f t="shared" ref="O23:O52" si="13">(N23-M23)/(N$21-M$21)</f>
         <v>0.98992556109027829</v>
       </c>
       <c r="P23" s="616">
@@ -28613,7 +28629,7 @@
         <v>4.26</v>
       </c>
       <c r="R23" s="618">
-        <f t="shared" ref="R23:R52" si="13">(Q23-P23)/(Q$21-P$21)</f>
+        <f t="shared" ref="R23:R52" si="14">(Q23-P23)/(Q$21-P$21)</f>
         <v>0.99139444035554514</v>
       </c>
       <c r="S23" s="616">
@@ -28623,7 +28639,7 @@
         <v>4.2785000000000002</v>
       </c>
       <c r="U23" s="618">
-        <f t="shared" ref="U23:U52" si="14">(T23-S23)/(T$21-S$21)</f>
+        <f t="shared" ref="U23:U52" si="15">(T23-S23)/(T$21-S$21)</f>
         <v>0.99209530800067769</v>
       </c>
       <c r="V23" s="616">
@@ -28633,7 +28649,7 @@
         <v>4.4039999999999999</v>
       </c>
       <c r="X23" s="618">
-        <f t="shared" ref="X23:X52" si="15">(W23-V23)/(W$21-V$21)</f>
+        <f t="shared" ref="X23:X52" si="16">(W23-V23)/(W$21-V$21)</f>
         <v>0.99133875106929004</v>
       </c>
       <c r="Y23" s="616">
@@ -28643,7 +28659,7 @@
         <v>4.2396000000000003</v>
       </c>
       <c r="AA23" s="618">
-        <f t="shared" ref="AA23:AA52" si="16">(Z23-Y23)/(Z$21-Y$21)</f>
+        <f t="shared" ref="AA23:AA52" si="17">(Z23-Y23)/(Z$21-Y$21)</f>
         <v>0.99108724534986725</v>
       </c>
       <c r="AB23" s="616">
@@ -28653,12 +28669,14 @@
         <v>4.2619999999999996</v>
       </c>
       <c r="AD23" s="618">
-        <f t="shared" ref="AD23:AD52" si="17">(AC23-AB23)/(AC$21-AB$21)</f>
+        <f t="shared" ref="AD23:AD52" si="18">(AC23-AB23)/(AC$21-AB$21)</f>
         <v>0.98961399611219081</v>
       </c>
-      <c r="AF23" s="371"/>
+      <c r="AF23" s="716">
+        <v>0.99088259849887039</v>
+      </c>
       <c r="AG23" s="618">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.9909092169963083</v>
       </c>
       <c r="AH23" s="5">
@@ -28668,7 +28686,7 @@
         <v>-9.0041612856938298E-3</v>
       </c>
       <c r="AJ23" s="620">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99991337828200211</v>
       </c>
     </row>
@@ -28695,7 +28713,10 @@
       <c r="H24" s="307" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="308"/>
+      <c r="I24" s="717">
+        <f t="shared" si="10"/>
+        <v>-1.3444598745537828E-4</v>
+      </c>
       <c r="J24" s="700"/>
       <c r="K24" s="355"/>
       <c r="L24" s="355"/>
@@ -28706,7 +28727,7 @@
         <v>4.2220000000000004</v>
       </c>
       <c r="O24" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.98634353836682176</v>
       </c>
       <c r="P24" s="359">
@@ -28716,7 +28737,7 @@
         <v>4.2519999999999998</v>
       </c>
       <c r="R24" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98703504500934136</v>
       </c>
       <c r="S24" s="359">
@@ -28726,7 +28747,7 @@
         <v>4.2706</v>
       </c>
       <c r="U24" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.98718310654395547</v>
       </c>
       <c r="V24" s="359">
@@ -28736,7 +28757,7 @@
         <v>4.3959999999999999</v>
       </c>
       <c r="X24" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98711505560307944</v>
       </c>
       <c r="Y24" s="359">
@@ -28746,7 +28767,7 @@
         <v>4.2310999999999996</v>
       </c>
       <c r="AA24" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.98638175376439308</v>
       </c>
       <c r="AB24" s="359">
@@ -28756,11 +28777,14 @@
         <v>4.2526999999999999</v>
       </c>
       <c r="AD24" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.98455984448764233</v>
       </c>
+      <c r="AF24" s="716">
+        <v>0.98657083661666101</v>
+      </c>
       <c r="AG24" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.98643639062920563</v>
       </c>
       <c r="AH24" s="619">
@@ -28770,7 +28794,7 @@
         <v>-1.3488305352274401E-2</v>
       </c>
       <c r="AJ24" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99992469598148004</v>
       </c>
     </row>
@@ -28797,7 +28821,10 @@
       <c r="H25" s="613" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="614"/>
+      <c r="I25" s="717">
+        <f t="shared" si="10"/>
+        <v>-5.0576784536515706E-4</v>
+      </c>
       <c r="J25" s="700"/>
       <c r="K25" s="624"/>
       <c r="L25" s="624"/>
@@ -28808,7 +28835,7 @@
         <v>4.2126000000000001</v>
       </c>
       <c r="O25" s="618">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.98119438070185294</v>
       </c>
       <c r="P25" s="616">
@@ -28818,7 +28845,7 @@
         <v>4.2439999999999998</v>
       </c>
       <c r="R25" s="618">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98244918756723065</v>
       </c>
       <c r="S25" s="616">
@@ -28828,7 +28855,7 @@
         <v>4.2625000000000002</v>
       </c>
       <c r="U25" s="618">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.98306137428716633</v>
       </c>
       <c r="V25" s="616">
@@ -28838,7 +28865,7 @@
         <v>4.3890000000000002</v>
       </c>
       <c r="X25" s="618">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98321214713430305</v>
       </c>
       <c r="Y25" s="616">
@@ -28848,7 +28875,7 @@
         <v>4.2225000000000001</v>
       </c>
       <c r="AA25" s="618">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.98162090345438446</v>
       </c>
       <c r="AB25" s="616">
@@ -28858,12 +28885,14 @@
         <v>4.2443999999999997</v>
       </c>
       <c r="AD25" s="618">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.97995001388503178</v>
       </c>
-      <c r="AF25" s="371"/>
+      <c r="AF25" s="716">
+        <v>0.98242043568369319</v>
+      </c>
       <c r="AG25" s="618">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.98191466783832804</v>
       </c>
       <c r="AH25" s="5">
@@ -28873,7 +28902,7 @@
         <v>-1.7972449418854973E-2</v>
       </c>
       <c r="AJ25" s="620">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99988711725718304</v>
       </c>
     </row>
@@ -28900,7 +28929,10 @@
       <c r="H26" s="307" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="308"/>
+      <c r="I26" s="717">
+        <f t="shared" si="10"/>
+        <v>-7.5937057615194092E-4</v>
+      </c>
       <c r="J26" s="700"/>
       <c r="K26" s="355"/>
       <c r="L26" s="355"/>
@@ -28911,7 +28943,7 @@
         <v>4.2054999999999998</v>
       </c>
       <c r="O26" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.97638103766720785</v>
       </c>
       <c r="P26" s="359">
@@ -28921,7 +28953,7 @@
         <v>4.2370000000000001</v>
       </c>
       <c r="R26" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97837286984091021</v>
       </c>
       <c r="S26" s="359">
@@ -28931,7 +28963,7 @@
         <v>4.2549999999999999</v>
       </c>
       <c r="U26" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.97877025577324805</v>
       </c>
       <c r="V26" s="359">
@@ -28941,7 +28973,7 @@
         <v>4.3781999999999996</v>
       </c>
       <c r="X26" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.97743798118049607</v>
       </c>
       <c r="Y26" s="359">
@@ -28951,7 +28983,7 @@
         <v>4.2145000000000001</v>
       </c>
       <c r="AA26" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.97719220549158547</v>
       </c>
       <c r="AB26" s="359">
@@ -28961,11 +28993,14 @@
         <v>4.2362000000000002</v>
       </c>
       <c r="AD26" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.97539572341016401</v>
       </c>
+      <c r="AF26" s="716">
+        <v>0.97801771613675392</v>
+      </c>
       <c r="AG26" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.97725834556060198</v>
       </c>
       <c r="AH26" s="619">
@@ -28975,7 +29010,7 @@
         <v>-2.2456593485435671E-2</v>
       </c>
       <c r="AJ26" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9997149390460377</v>
       </c>
     </row>
@@ -29002,7 +29037,10 @@
       <c r="H27" s="307" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="308"/>
+      <c r="I27" s="717">
+        <f t="shared" si="10"/>
+        <v>-1.4952004289141563E-3</v>
+      </c>
       <c r="J27" s="700"/>
       <c r="K27" s="355"/>
       <c r="L27" s="355"/>
@@ -29013,7 +29051,7 @@
         <v>4.1959999999999997</v>
       </c>
       <c r="O27" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.97167963284267078</v>
       </c>
       <c r="P27" s="359">
@@ -29023,7 +29061,7 @@
         <v>4.2220000000000004</v>
       </c>
       <c r="R27" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97095623619996607</v>
       </c>
       <c r="S27" s="359">
@@ -29033,7 +29071,7 @@
         <v>4.2460000000000004</v>
       </c>
       <c r="U27" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.97385805431652672</v>
       </c>
       <c r="V27" s="359">
@@ -29043,7 +29081,7 @@
         <v>4.37</v>
       </c>
       <c r="X27" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.97305389221556893</v>
       </c>
       <c r="Y27" s="359">
@@ -29053,7 +29091,7 @@
         <v>4.2076000000000002</v>
       </c>
       <c r="AA27" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.97309565987599644</v>
       </c>
       <c r="AB27" s="359">
@@ -29063,11 +29101,14 @@
         <v>4.2279</v>
       </c>
       <c r="AD27" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.97078589280755345</v>
       </c>
+      <c r="AF27" s="716">
+        <v>0.9737334284719612</v>
+      </c>
       <c r="AG27" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.97223822804304705</v>
       </c>
       <c r="AH27" s="5">
@@ -29077,7 +29118,7 @@
         <v>-2.6940737552016113E-2</v>
       </c>
       <c r="AJ27" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99917896559506314</v>
       </c>
     </row>
@@ -29104,7 +29145,10 @@
       <c r="H28" s="307" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="308"/>
+      <c r="I28" s="717">
+        <f t="shared" si="10"/>
+        <v>-1.1738102556733132E-3</v>
+      </c>
       <c r="J28" s="700"/>
       <c r="K28" s="355"/>
       <c r="L28" s="355"/>
@@ -29115,7 +29159,7 @@
         <v>4.1879999999999997</v>
       </c>
       <c r="O28" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.96725807354340398</v>
       </c>
       <c r="P28" s="359">
@@ -29125,7 +29169,7 @@
         <v>4.2161999999999997</v>
       </c>
       <c r="R28" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.9673328426654586</v>
       </c>
       <c r="S28" s="359">
@@ -29135,7 +29179,7 @@
         <v>4.2375999999999996</v>
       </c>
       <c r="U28" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.96905877703122323</v>
       </c>
       <c r="V28" s="359">
@@ -29145,7 +29189,7 @@
         <v>4.3620000000000001</v>
       </c>
       <c r="X28" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.96893712574850299</v>
       </c>
       <c r="Y28" s="359">
@@ -29155,7 +29199,7 @@
         <v>4.1999000000000004</v>
       </c>
       <c r="AA28" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.96883303808680254</v>
       </c>
       <c r="AB28" s="359">
@@ -29165,11 +29209,14 @@
         <v>4.2198000000000002</v>
       </c>
       <c r="AD28" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.96617606220494323</v>
       </c>
+      <c r="AF28" s="716">
+        <v>0.96910646346906237</v>
+      </c>
       <c r="AG28" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.96793265321338906</v>
       </c>
       <c r="AH28" s="619">
@@ -29179,7 +29226,7 @@
         <v>-3.1424881618596683E-2</v>
       </c>
       <c r="AJ28" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99935753483198575</v>
       </c>
     </row>
@@ -29206,7 +29253,10 @@
       <c r="H29" s="613" t="s">
         <v>52</v>
       </c>
-      <c r="I29" s="614"/>
+      <c r="I29" s="717">
+        <f t="shared" si="10"/>
+        <v>-1.9524247340800827E-3</v>
+      </c>
       <c r="J29" s="700"/>
       <c r="K29" s="624"/>
       <c r="L29" s="624"/>
@@ -29217,7 +29267,7 @@
         <v>4.1797000000000004</v>
       </c>
       <c r="O29" s="618">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.96222085408854341</v>
       </c>
       <c r="P29" s="616">
@@ -29227,7 +29277,7 @@
         <v>4.2089999999999996</v>
       </c>
       <c r="R29" s="618">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.96314329389118458</v>
       </c>
       <c r="S29" s="616">
@@ -29237,7 +29287,7 @@
         <v>4.2291999999999996</v>
       </c>
       <c r="U29" s="618">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.96403365140308261</v>
       </c>
       <c r="V29" s="616">
@@ -29247,7 +29297,7 @@
         <v>4.3520000000000003</v>
       </c>
       <c r="X29" s="618">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.96369760479041922</v>
       </c>
       <c r="Y29" s="616">
@@ -29257,7 +29307,7 @@
         <v>4.1920000000000002</v>
       </c>
       <c r="AA29" s="618">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.96407218777679382</v>
       </c>
       <c r="AB29" s="616">
@@ -29267,12 +29317,14 @@
         <v>4.2131999999999996</v>
       </c>
       <c r="AD29" s="618">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.96234379339072451</v>
       </c>
-      <c r="AF29" s="371"/>
+      <c r="AF29" s="716">
+        <v>0.96520432229087139</v>
+      </c>
       <c r="AG29" s="618">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.9632518975567913</v>
       </c>
       <c r="AH29" s="5">
@@ -29282,7 +29334,7 @@
         <v>-3.5909025685177252E-2</v>
       </c>
       <c r="AJ29" s="620">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99916092324196859</v>
       </c>
     </row>
@@ -29309,7 +29361,10 @@
       <c r="H30" s="307" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="308"/>
+      <c r="I30" s="717">
+        <f t="shared" si="10"/>
+        <v>-1.610871378316836E-3</v>
+      </c>
       <c r="J30" s="700"/>
       <c r="K30" s="355"/>
       <c r="L30" s="355"/>
@@ -29320,7 +29375,7 @@
         <v>4.1711999999999998</v>
       </c>
       <c r="O30" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.95796720210443842</v>
       </c>
       <c r="P30" s="359">
@@ -29330,7 +29385,7 @@
         <v>4.2034000000000002</v>
       </c>
       <c r="R30" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.95946328483270105</v>
       </c>
       <c r="S30" s="359">
@@ -29340,7 +29395,7 @@
         <v>4.2210000000000001</v>
       </c>
       <c r="U30" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.95962960871774605</v>
       </c>
       <c r="V30" s="359">
@@ -29350,7 +29405,7 @@
         <v>4.3448000000000002</v>
       </c>
       <c r="X30" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.95984816082121471</v>
       </c>
       <c r="Y30" s="359">
@@ -29360,7 +29415,7 @@
         <v>4.1833999999999998</v>
       </c>
       <c r="AA30" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.95969884853852949</v>
       </c>
       <c r="AB30" s="359">
@@ -29370,11 +29425,14 @@
         <v>4.2050000000000001</v>
       </c>
       <c r="AD30" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.95773396278811451</v>
       </c>
+      <c r="AF30" s="716">
+        <v>0.96066771601210754</v>
+      </c>
       <c r="AG30" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.95905684463379071</v>
       </c>
       <c r="AH30" s="619">
@@ -29384,7 +29442,7 @@
         <v>-4.0393169751757829E-2</v>
       </c>
       <c r="AJ30" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99945001438554848</v>
       </c>
     </row>
@@ -29411,7 +29469,10 @@
       <c r="H31" s="307" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="308"/>
+      <c r="I31" s="717">
+        <f t="shared" si="10"/>
+        <v>-1.2732673442243936E-3</v>
+      </c>
       <c r="J31" s="700"/>
       <c r="K31" s="355"/>
       <c r="L31" s="355"/>
@@ -29422,7 +29483,7 @@
         <v>4.1630000000000003</v>
       </c>
       <c r="O31" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.95332176638495569</v>
       </c>
       <c r="P31" s="359">
@@ -29432,7 +29493,7 @@
         <v>4.1950000000000003</v>
       </c>
       <c r="R31" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.95521712053445063</v>
       </c>
       <c r="S31" s="359">
@@ -29442,7 +29503,7 @@
         <v>4.2126000000000001</v>
       </c>
       <c r="U31" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.95494325560386195</v>
       </c>
       <c r="V31" s="359">
@@ -29452,7 +29513,7 @@
         <v>4.335</v>
       </c>
       <c r="X31" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.95466210436270316</v>
       </c>
       <c r="Y31" s="359">
@@ -29462,7 +29523,7 @@
         <v>4.1779999999999999</v>
       </c>
       <c r="AA31" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.95676483613817531</v>
       </c>
       <c r="AB31" s="359">
@@ -29472,11 +29533,14 @@
         <v>4.1978</v>
       </c>
       <c r="AD31" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.95373507359066934</v>
       </c>
+      <c r="AF31" s="716">
+        <v>0.95604729344669381</v>
+      </c>
       <c r="AG31" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.95477402610246942</v>
       </c>
       <c r="AH31" s="5">
@@ -29486,7 +29550,7 @@
         <v>-4.4877313818338399E-2</v>
       </c>
       <c r="AJ31" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99965133992080779</v>
       </c>
     </row>
@@ -29513,7 +29577,10 @@
       <c r="H32" s="307" t="s">
         <v>55</v>
       </c>
-      <c r="I32" s="308"/>
+      <c r="I32" s="717">
+        <f t="shared" si="10"/>
+        <v>-1.7315077096254905E-3</v>
+      </c>
       <c r="J32" s="700"/>
       <c r="K32" s="355"/>
       <c r="L32" s="355"/>
@@ -29524,7 +29591,7 @@
         <v>4.1562000000000001</v>
       </c>
       <c r="O32" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.949459898136229</v>
       </c>
       <c r="P32" s="359">
@@ -29534,7 +29601,7 @@
         <v>4.1866000000000003</v>
       </c>
       <c r="R32" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.9501783389005265</v>
       </c>
       <c r="S32" s="359">
@@ -29544,7 +29611,7 @@
         <v>4.2045000000000003</v>
       </c>
       <c r="U32" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.95042628874710655</v>
       </c>
       <c r="V32" s="359">
@@ -29554,7 +29621,7 @@
         <v>4.3262</v>
       </c>
       <c r="X32" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.94995722840034225</v>
       </c>
       <c r="Y32" s="359">
@@ -29564,7 +29631,7 @@
         <v>4.1680000000000001</v>
       </c>
       <c r="AA32" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.95117360496014169</v>
       </c>
       <c r="AB32" s="359">
@@ -29574,11 +29641,14 @@
         <v>4.1885000000000003</v>
       </c>
       <c r="AD32" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.94856984171063619</v>
       </c>
+      <c r="AF32" s="716">
+        <v>0.95169237451878907</v>
+      </c>
       <c r="AG32" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94996086680916358</v>
       </c>
       <c r="AH32" s="619">
@@ -29588,7 +29658,7 @@
         <v>-4.9361457884918969E-2</v>
       </c>
       <c r="AJ32" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99932232469408255</v>
       </c>
     </row>
@@ -29615,7 +29685,10 @@
       <c r="H33" s="307" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="308"/>
+      <c r="I33" s="717">
+        <f t="shared" si="10"/>
+        <v>-1.7919761333747841E-3</v>
+      </c>
       <c r="J33" s="700"/>
       <c r="K33" s="355"/>
       <c r="L33" s="355"/>
@@ -29626,7 +29699,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="O33" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.94604578272793438</v>
       </c>
       <c r="P33" s="359">
@@ -29636,7 +29709,7 @@
         <v>4.1790000000000003</v>
       </c>
       <c r="R33" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.94559248145841601</v>
       </c>
       <c r="S33" s="359">
@@ -29646,7 +29719,7 @@
         <v>4.1974999999999998</v>
       </c>
       <c r="U33" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.94658686691886385</v>
       </c>
       <c r="V33" s="359">
@@ -29656,7 +29729,7 @@
         <v>4.32</v>
       </c>
       <c r="X33" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.94632164242942707</v>
       </c>
       <c r="Y33" s="359">
@@ -29666,7 +29739,7 @@
         <v>4.1586999999999996</v>
       </c>
       <c r="AA33" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.94619131975199267</v>
       </c>
       <c r="AB33" s="359">
@@ -29676,11 +29749,14 @@
         <v>4.181</v>
       </c>
       <c r="AD33" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.944404332129964</v>
       </c>
+      <c r="AF33" s="716">
+        <v>0.94764904703614117</v>
+      </c>
       <c r="AG33" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94585707090276638</v>
       </c>
       <c r="AH33" s="5">
@@ -29690,7 +29766,7 @@
         <v>-5.3845601951499539E-2</v>
       </c>
       <c r="AJ33" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99970267285426595</v>
       </c>
     </row>
@@ -29717,7 +29793,10 @@
       <c r="H34" s="307" t="s">
         <v>57</v>
       </c>
-      <c r="I34" s="308"/>
+      <c r="I34" s="717">
+        <f t="shared" si="10"/>
+        <v>-9.6377193979113596E-4</v>
+      </c>
       <c r="J34" s="700"/>
       <c r="K34" s="355"/>
       <c r="L34" s="355"/>
@@ -29728,7 +29807,7 @@
         <v>4.1449999999999996</v>
       </c>
       <c r="O34" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.94251972910953152</v>
       </c>
       <c r="P34" s="359">
@@ -29738,7 +29817,7 @@
         <v>4.1710000000000003</v>
       </c>
       <c r="R34" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.94151616373209535</v>
       </c>
       <c r="S34" s="359">
@@ -29748,7 +29827,7 @@
         <v>4.1897000000000002</v>
       </c>
       <c r="U34" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.94206990006210845</v>
       </c>
       <c r="V34" s="359">
@@ -29758,7 +29837,7 @@
         <v>4.3127000000000004</v>
       </c>
       <c r="X34" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.94241873396065046</v>
       </c>
       <c r="Y34" s="359">
@@ -29768,7 +29847,7 @@
         <v>4.1520000000000001</v>
       </c>
       <c r="AA34" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.94231620903454383</v>
       </c>
       <c r="AB34" s="359">
@@ -29778,11 +29857,14 @@
         <v>4.1760000000000002</v>
       </c>
       <c r="AD34" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.94251596778672597</v>
       </c>
+      <c r="AF34" s="716">
+        <v>0.94318988922073366</v>
+      </c>
       <c r="AG34" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94222611728094252</v>
       </c>
       <c r="AH34" s="619">
@@ -29792,7 +29874,7 @@
         <v>-5.8329746018080109E-2</v>
       </c>
       <c r="AJ34" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0005558632990226</v>
       </c>
     </row>
@@ -29819,7 +29901,10 @@
       <c r="H35" s="307" t="s">
         <v>58</v>
       </c>
-      <c r="I35" s="308"/>
+      <c r="I35" s="717">
+        <f t="shared" si="10"/>
+        <v>-1.6556290894264025E-3</v>
+      </c>
       <c r="J35" s="700"/>
       <c r="K35" s="355"/>
       <c r="L35" s="355"/>
@@ -29830,7 +29915,7 @@
         <v>4.1314000000000002</v>
       </c>
       <c r="O35" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.93563552918788839</v>
       </c>
       <c r="P35" s="359">
@@ -29840,7 +29925,7 @@
         <v>4.1630000000000003</v>
       </c>
       <c r="R35" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.93670384419407793</v>
       </c>
       <c r="S35" s="359">
@@ -29850,7 +29935,7 @@
         <v>4.1816000000000004</v>
       </c>
       <c r="U35" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.9374964711196434</v>
       </c>
       <c r="V35" s="359">
@@ -29860,7 +29945,7 @@
         <v>4.3041</v>
       </c>
       <c r="X35" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.93787425149700598</v>
       </c>
       <c r="Y35" s="359">
@@ -29870,7 +29955,7 @@
         <v>4.1440000000000001</v>
       </c>
       <c r="AA35" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.93794286979627994</v>
       </c>
       <c r="AB35" s="359">
@@ -29880,11 +29965,14 @@
         <v>4.165</v>
       </c>
       <c r="AD35" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.93585115245765071</v>
       </c>
+      <c r="AF35" s="716">
+        <v>0.93857298213151741</v>
+      </c>
       <c r="AG35" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93691735304209101</v>
       </c>
       <c r="AH35" s="5">
@@ -29894,7 +29982,7 @@
         <v>-6.2813890084660678E-2</v>
       </c>
       <c r="AJ35" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99973124312675166</v>
       </c>
     </row>
@@ -29921,7 +30009,10 @@
       <c r="H36" s="307" t="s">
         <v>59</v>
       </c>
-      <c r="I36" s="308"/>
+      <c r="I36" s="717">
+        <f t="shared" si="10"/>
+        <v>-1.84796735898618E-3</v>
+      </c>
       <c r="J36" s="700"/>
       <c r="K36" s="355"/>
       <c r="L36" s="355"/>
@@ -29932,7 +30023,7 @@
         <v>4.1245000000000003</v>
       </c>
       <c r="O36" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.93154978451894577</v>
       </c>
       <c r="P36" s="359">
@@ -29942,7 +30033,7 @@
         <v>4.1562000000000001</v>
       </c>
       <c r="R36" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.93240106437185066</v>
       </c>
       <c r="S36" s="359">
@@ -29952,7 +30043,7 @@
         <v>4.1722999999999999</v>
       </c>
       <c r="U36" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93218903506295503</v>
       </c>
       <c r="V36" s="359">
@@ -29962,7 +30053,7 @@
         <v>4.2939999999999996</v>
       </c>
       <c r="X36" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.93242087254063288</v>
       </c>
       <c r="Y36" s="359">
@@ -29972,7 +30063,7 @@
         <v>4.1369999999999996</v>
       </c>
       <c r="AA36" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.93406775907883055</v>
       </c>
       <c r="AB36" s="359">
@@ -29982,11 +30073,14 @@
         <v>4.1589999999999998</v>
       </c>
       <c r="AD36" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.93251874479311292</v>
       </c>
+      <c r="AF36" s="716">
+        <v>0.93437251075337424</v>
+      </c>
       <c r="AG36" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93252454339438806</v>
       </c>
       <c r="AH36" s="619">
@@ -29996,7 +30090,7 @@
         <v>-6.7298034151241248E-2</v>
       </c>
       <c r="AJ36" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99982257754562931</v>
       </c>
     </row>
@@ -30023,7 +30117,10 @@
       <c r="H37" s="613" t="s">
         <v>60</v>
       </c>
-      <c r="I37" s="614"/>
+      <c r="I37" s="717">
+        <f t="shared" si="10"/>
+        <v>-1.9506252030119242E-3</v>
+      </c>
       <c r="J37" s="700"/>
       <c r="K37" s="624"/>
       <c r="L37" s="624"/>
@@ -30034,7 +30131,7 @@
         <v>4.1158000000000001</v>
       </c>
       <c r="O37" s="618">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.92684837969440892</v>
       </c>
       <c r="P37" s="616">
@@ -30044,7 +30141,7 @@
         <v>4.1496000000000004</v>
       </c>
       <c r="R37" s="618">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.92883428636132048</v>
       </c>
       <c r="S37" s="616">
@@ -30054,7 +30151,7 @@
         <v>4.1653000000000002</v>
       </c>
       <c r="U37" s="618">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.92823668906329404</v>
       </c>
       <c r="V37" s="616">
@@ -30064,7 +30161,7 @@
         <v>4.2869999999999999</v>
       </c>
       <c r="X37" s="618">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.92873182207014537</v>
       </c>
       <c r="Y37" s="616">
@@ -30074,7 +30171,7 @@
         <v>4.1265999999999998</v>
       </c>
       <c r="AA37" s="618">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.92831045172719207</v>
       </c>
       <c r="AB37" s="616">
@@ -30084,12 +30181,14 @@
         <v>4.1529999999999996</v>
       </c>
       <c r="AD37" s="618">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.92890863648986366</v>
       </c>
-      <c r="AF37" s="371"/>
+      <c r="AF37" s="716">
+        <v>0.93026233610404929</v>
+      </c>
       <c r="AG37" s="618">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.92831171090103737</v>
       </c>
       <c r="AH37" s="5">
@@ -30099,7 +30198,7 @@
         <v>-7.1782178217821818E-2</v>
       </c>
       <c r="AJ37" s="620">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0000938891188591</v>
       </c>
     </row>
@@ -30126,7 +30225,10 @@
       <c r="H38" s="307" t="s">
         <v>61</v>
       </c>
-      <c r="I38" s="308"/>
+      <c r="I38" s="717">
+        <f t="shared" si="10"/>
+        <v>-2.1564807107939954E-3</v>
+      </c>
       <c r="J38" s="321"/>
       <c r="K38" s="321"/>
       <c r="L38" s="321"/>
@@ -30137,7 +30239,7 @@
         <v>4.1074999999999999</v>
       </c>
       <c r="O38" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.92209100576481795</v>
       </c>
       <c r="P38" s="359">
@@ -30147,7 +30249,7 @@
         <v>4.1394000000000002</v>
       </c>
       <c r="R38" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.92339919605955956</v>
       </c>
       <c r="S38" s="359">
@@ -30157,7 +30259,7 @@
         <v>4.1567999999999996</v>
       </c>
       <c r="U38" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.92360679803511914</v>
       </c>
       <c r="V38" s="359">
@@ -30167,7 +30269,7 @@
         <v>4.2779999999999996</v>
       </c>
       <c r="X38" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.92397348160821202</v>
       </c>
       <c r="Y38" s="359">
@@ -30177,7 +30279,7 @@
         <v>4.1219999999999999</v>
       </c>
       <c r="AA38" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.92548715677590776</v>
       </c>
       <c r="AB38" s="359">
@@ -30187,11 +30289,14 @@
         <v>4.1440000000000001</v>
       </c>
       <c r="AD38" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.92396556512079986</v>
       </c>
+      <c r="AF38" s="716">
+        <v>0.92591034793819682</v>
+      </c>
       <c r="AG38" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.92375386722740283</v>
       </c>
       <c r="AH38" s="619">
@@ -30201,7 +30306,7 @@
         <v>-7.6266322284402388E-2</v>
       </c>
       <c r="AJ38" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0000201895118053</v>
       </c>
     </row>
@@ -30228,7 +30333,10 @@
       <c r="H39" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="I39" s="308"/>
+      <c r="I39" s="717">
+        <f t="shared" si="10"/>
+        <v>-2.2637776336473792E-3</v>
+      </c>
       <c r="J39" s="322"/>
       <c r="K39" s="322"/>
       <c r="L39" s="322"/>
@@ -30239,7 +30347,7 @@
         <v>4.0997000000000003</v>
       </c>
       <c r="O39" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.9178933228857673</v>
       </c>
       <c r="P39" s="359">
@@ -30249,7 +30357,7 @@
         <v>4.1317000000000004</v>
       </c>
       <c r="R39" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.91898318518937894</v>
       </c>
       <c r="S39" s="359">
@@ -30259,7 +30367,7 @@
         <v>4.149</v>
       </c>
       <c r="U39" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.91903336909265421</v>
       </c>
       <c r="V39" s="359">
@@ -30269,7 +30377,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="X39" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.91958939264328465</v>
       </c>
       <c r="Y39" s="359">
@@ -30279,7 +30387,7 @@
         <v>4.1108000000000002</v>
       </c>
       <c r="AA39" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.91956377325066441</v>
       </c>
       <c r="AB39" s="359">
@@ -30289,11 +30397,14 @@
         <v>4.1345000000000001</v>
       </c>
       <c r="AD39" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.91891141349625105</v>
       </c>
+      <c r="AF39" s="716">
+        <v>0.92125952039331416</v>
+      </c>
       <c r="AG39" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.91899574275966678</v>
       </c>
       <c r="AH39" s="5">
@@ -30303,7 +30414,7 @@
         <v>-8.0750466350982958E-2</v>
       </c>
       <c r="AJ39" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99974620911064971</v>
       </c>
     </row>
@@ -30330,7 +30441,10 @@
       <c r="H40" s="307" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="308"/>
+      <c r="I40" s="717">
+        <f t="shared" si="10"/>
+        <v>-2.1248657448409425E-3</v>
+      </c>
       <c r="J40" s="321"/>
       <c r="K40" s="321"/>
       <c r="L40" s="321"/>
@@ -30341,7 +30455,7 @@
         <v>4.093</v>
       </c>
       <c r="O40" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.91386354732187847</v>
       </c>
       <c r="P40" s="359">
@@ -30351,7 +30465,7 @@
         <v>4.1239999999999997</v>
       </c>
       <c r="R40" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.91462378984317461</v>
       </c>
       <c r="S40" s="359">
@@ -30361,7 +30475,7 @@
         <v>4.1429999999999998</v>
       </c>
       <c r="U40" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.91581503020721577</v>
       </c>
       <c r="V40" s="359">
@@ -30371,7 +30485,7 @@
         <v>4.2626999999999997</v>
       </c>
       <c r="X40" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.91557955517536349</v>
       </c>
       <c r="Y40" s="359">
@@ -30381,7 +30495,7 @@
         <v>4.1032999999999999</v>
       </c>
       <c r="AA40" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.91546722763507515</v>
       </c>
       <c r="AB40" s="359">
@@ -30391,11 +30505,14 @@
         <v>4.1269999999999998</v>
       </c>
       <c r="AD40" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.91474590391557886</v>
       </c>
+      <c r="AF40" s="716">
+        <v>0.91714070809455528</v>
+      </c>
       <c r="AG40" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.91501584234971434</v>
       </c>
       <c r="AH40" s="619">
@@ -30405,7 +30522,7 @@
         <v>-8.5234610417563542E-2</v>
       </c>
       <c r="AJ40" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.000250452767278</v>
       </c>
     </row>
@@ -30432,7 +30549,10 @@
       <c r="H41" s="307" t="s">
         <v>64</v>
       </c>
-      <c r="I41" s="308"/>
+      <c r="I41" s="717">
+        <f t="shared" si="10"/>
+        <v>-2.6185392475860381E-3</v>
+      </c>
       <c r="J41" s="322"/>
       <c r="K41" s="322"/>
       <c r="L41" s="322"/>
@@ -30443,7 +30563,7 @@
         <v>4.0839999999999996</v>
       </c>
       <c r="O41" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.90893826607712536</v>
       </c>
       <c r="P41" s="359">
@@ -30453,7 +30573,7 @@
         <v>4.1180000000000003</v>
       </c>
       <c r="R41" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.9113967049765046</v>
       </c>
       <c r="S41" s="359">
@@ -30463,7 +30583,7 @@
         <v>4.1340000000000003</v>
       </c>
       <c r="U41" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.91056405623623748</v>
       </c>
       <c r="V41" s="359">
@@ -30473,7 +30593,7 @@
         <v>4.2530999999999999</v>
       </c>
       <c r="X41" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.91066082121471337</v>
       </c>
       <c r="Y41" s="359">
@@ -30483,7 +30603,7 @@
         <v>4.0937000000000001</v>
       </c>
       <c r="AA41" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.90998671390611163</v>
       </c>
       <c r="AB41" s="359">
@@ -30493,11 +30613,14 @@
         <v>4.1192000000000002</v>
       </c>
       <c r="AD41" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.91013607331296864</v>
       </c>
+      <c r="AF41" s="716">
+        <v>0.9128989785348629</v>
+      </c>
       <c r="AG41" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.91028043928727687</v>
       </c>
       <c r="AH41" s="5">
@@ -30507,7 +30630,7 @@
         <v>-8.9718754484144111E-2</v>
       </c>
       <c r="AJ41" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99999919377142099</v>
       </c>
     </row>
@@ -30534,7 +30657,10 @@
       <c r="H42" s="307" t="s">
         <v>65</v>
       </c>
-      <c r="I42" s="308"/>
+      <c r="I42" s="717">
+        <f t="shared" si="10"/>
+        <v>-2.8175908391646631E-3</v>
+      </c>
       <c r="J42" s="322"/>
       <c r="K42" s="322"/>
       <c r="L42" s="322"/>
@@ -30545,7 +30671,7 @@
         <v>4.0759999999999996</v>
       </c>
       <c r="O42" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.90446073767280455</v>
       </c>
       <c r="P42" s="359">
@@ -30555,7 +30681,7 @@
         <v>4.109</v>
       </c>
       <c r="R42" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.90647115439053394</v>
       </c>
       <c r="S42" s="359">
@@ -30565,7 +30691,7 @@
         <v>4.1260000000000003</v>
       </c>
       <c r="U42" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.90599062729377244</v>
       </c>
       <c r="V42" s="359">
@@ -30575,7 +30701,7 @@
         <v>4.2432999999999996</v>
       </c>
       <c r="X42" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.90542130025662948</v>
       </c>
       <c r="Y42" s="359">
@@ -30585,7 +30711,7 @@
         <v>4.0861000000000001</v>
       </c>
       <c r="AA42" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.9058901682905226</v>
       </c>
       <c r="AB42" s="359">
@@ -30595,11 +30721,14 @@
         <v>4.1093000000000002</v>
       </c>
       <c r="AD42" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.90491530130519315</v>
       </c>
+      <c r="AF42" s="716">
+        <v>0.90834247237407395</v>
+      </c>
       <c r="AG42" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.90552488153490929</v>
       </c>
       <c r="AH42" s="619">
@@ -30609,7 +30738,7 @@
         <v>-9.4202898550724681E-2</v>
       </c>
       <c r="AJ42" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99972778008563401</v>
       </c>
     </row>
@@ -30636,7 +30765,10 @@
       <c r="H43" s="307" t="s">
         <v>66</v>
       </c>
-      <c r="I43" s="308"/>
+      <c r="I43" s="717">
+        <f t="shared" si="10"/>
+        <v>-3.0623785387856595E-3</v>
+      </c>
       <c r="J43" s="322"/>
       <c r="K43" s="322"/>
       <c r="L43" s="322"/>
@@ -30647,7 +30779,7 @@
         <v>4.0670000000000002</v>
       </c>
       <c r="O43" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.89942351821794397</v>
       </c>
       <c r="P43" s="359">
@@ -30657,7 +30789,7 @@
         <v>4.1003999999999996</v>
       </c>
       <c r="R43" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.90182868142444639</v>
       </c>
       <c r="S43" s="359">
@@ -30667,7 +30799,7 @@
         <v>4.1181999999999999</v>
       </c>
       <c r="U43" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.90164304669414463</v>
       </c>
       <c r="V43" s="359">
@@ -30677,7 +30809,7 @@
         <v>4.2359</v>
       </c>
       <c r="X43" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.9013579982891361</v>
       </c>
       <c r="Y43" s="359">
@@ -30687,7 +30819,7 @@
         <v>4.0776000000000003</v>
       </c>
       <c r="AA43" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.90112931798051377</v>
       </c>
       <c r="AB43" s="359">
@@ -30697,11 +30829,14 @@
         <v>4.101</v>
       </c>
       <c r="AD43" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.9003054707025826</v>
       </c>
+      <c r="AF43" s="716">
+        <v>0.90401038409024681</v>
+      </c>
       <c r="AG43" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.90094800555146115</v>
       </c>
       <c r="AH43" s="5">
@@ -30711,7 +30846,7 @@
         <v>-9.8687042617305251E-2</v>
       </c>
       <c r="AJ43" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99963504816876636</v>
       </c>
     </row>
@@ -30738,7 +30873,10 @@
       <c r="H44" s="307" t="s">
         <v>67</v>
       </c>
-      <c r="I44" s="308"/>
+      <c r="I44" s="717">
+        <f t="shared" si="10"/>
+        <v>-2.6893789751877284E-3</v>
+      </c>
       <c r="J44" s="322"/>
       <c r="K44" s="322"/>
       <c r="L44" s="322"/>
@@ -30749,7 +30887,7 @@
         <v>4.0595999999999997</v>
       </c>
       <c r="O44" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.89528180444394689</v>
       </c>
       <c r="P44" s="359">
@@ -30759,7 +30897,7 @@
         <v>4.093</v>
       </c>
       <c r="R44" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89758251712619586</v>
       </c>
       <c r="S44" s="359">
@@ -30769,7 +30907,7 @@
         <v>4.1105</v>
       </c>
       <c r="U44" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.89729546609451749</v>
       </c>
       <c r="V44" s="359">
@@ -30779,7 +30917,7 @@
         <v>4.2267999999999999</v>
       </c>
       <c r="X44" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.89659965782720275</v>
       </c>
       <c r="Y44" s="359">
@@ -30789,7 +30927,7 @@
         <v>4.0693000000000001</v>
       </c>
       <c r="AA44" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.89664526129317978</v>
       </c>
       <c r="AB44" s="359">
@@ -30799,11 +30937,14 @@
         <v>4.0934999999999997</v>
       </c>
       <c r="AD44" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.8959733407386834</v>
       </c>
+      <c r="AF44" s="716">
+        <v>0.89925238689580866</v>
+      </c>
       <c r="AG44" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.89656300792062094</v>
       </c>
       <c r="AH44" s="619">
@@ -30813,7 +30954,7 @@
         <v>-0.10317118668388582</v>
       </c>
       <c r="AJ44" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99973419460450674</v>
       </c>
     </row>
@@ -30840,7 +30981,10 @@
       <c r="H45" s="307" t="s">
         <v>68</v>
       </c>
-      <c r="I45" s="308"/>
+      <c r="I45" s="717">
+        <f t="shared" si="10"/>
+        <v>-2.5733927639415288E-3</v>
+      </c>
       <c r="J45" s="321"/>
       <c r="K45" s="321"/>
       <c r="L45" s="321"/>
@@ -30851,7 +30995,7 @@
         <v>4.0510999999999999</v>
       </c>
       <c r="O45" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.89058039961941005</v>
       </c>
       <c r="P45" s="359">
@@ -30861,7 +31005,7 @@
         <v>4.0854999999999997</v>
       </c>
       <c r="R45" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89305327520806166</v>
       </c>
       <c r="S45" s="359">
@@ -30871,7 +31015,7 @@
         <v>4.1020000000000003</v>
       </c>
       <c r="U45" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.89243972672350536</v>
       </c>
       <c r="V45" s="359">
@@ -30881,7 +31025,7 @@
         <v>4.218</v>
       </c>
       <c r="X45" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.89152053036783574</v>
       </c>
       <c r="Y45" s="359">
@@ -30891,7 +31035,7 @@
         <v>4.0646000000000004</v>
       </c>
       <c r="AA45" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.89376660761736082</v>
       </c>
       <c r="AB45" s="359">
@@ -30901,11 +31045,14 @@
         <v>4.085</v>
       </c>
       <c r="AD45" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.89125242988058861</v>
       </c>
+      <c r="AF45" s="716">
+        <v>0.89467555433340196</v>
+      </c>
       <c r="AG45" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.89210216156946043</v>
       </c>
       <c r="AH45" s="5">
@@ -30915,7 +31062,7 @@
         <v>-0.10765533075046639</v>
       </c>
       <c r="AJ45" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99975749231992683</v>
       </c>
     </row>
@@ -30942,7 +31089,10 @@
       <c r="H46" s="307" t="s">
         <v>69</v>
       </c>
-      <c r="I46" s="308"/>
+      <c r="I46" s="717">
+        <f t="shared" si="10"/>
+        <v>-2.765898294169733E-3</v>
+      </c>
       <c r="J46" s="321"/>
       <c r="K46" s="321"/>
       <c r="L46" s="321"/>
@@ -30953,7 +31103,7 @@
         <v>4.0434999999999999</v>
       </c>
       <c r="O46" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.88632674763530528</v>
       </c>
       <c r="P46" s="359">
@@ -30963,7 +31113,7 @@
         <v>4.077</v>
       </c>
       <c r="R46" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.88846741776595139</v>
       </c>
       <c r="S46" s="359">
@@ -30973,7 +31123,7 @@
         <v>4.093</v>
       </c>
       <c r="U46" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.88747106318107394</v>
       </c>
       <c r="V46" s="359">
@@ -30983,7 +31133,7 @@
         <v>4.2111999999999998</v>
       </c>
       <c r="X46" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.88815226689478188</v>
       </c>
       <c r="Y46" s="359">
@@ -30993,7 +31143,7 @@
         <v>4.0547000000000004</v>
       </c>
       <c r="AA46" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.88834145261293196</v>
       </c>
       <c r="AB46" s="359">
@@ -31003,11 +31153,14 @@
         <v>4.0765000000000002</v>
       </c>
       <c r="AD46" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.88658705915023617</v>
       </c>
+      <c r="AF46" s="716">
+        <v>0.89032356616754971</v>
+      </c>
       <c r="AG46" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.88755766787337997</v>
       </c>
       <c r="AH46" s="619">
@@ -31017,7 +31170,7 @@
         <v>-0.11213947481704696</v>
       </c>
       <c r="AJ46" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99969714269042698</v>
       </c>
     </row>
@@ -31044,7 +31197,10 @@
       <c r="H47" s="307" t="s">
         <v>70</v>
       </c>
-      <c r="I47" s="308"/>
+      <c r="I47" s="717">
+        <f t="shared" si="10"/>
+        <v>-3.0577971214587052E-3</v>
+      </c>
       <c r="J47" s="321"/>
       <c r="K47" s="321"/>
       <c r="L47" s="321"/>
@@ -31055,7 +31211,7 @@
         <v>4.0350000000000001</v>
       </c>
       <c r="O47" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.88162534281076865</v>
       </c>
       <c r="P47" s="359">
@@ -31065,7 +31221,7 @@
         <v>4.0685000000000002</v>
       </c>
       <c r="R47" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.88359848270395747</v>
       </c>
       <c r="S47" s="359">
@@ -31075,7 +31231,7 @@
         <v>4.0850999999999997</v>
       </c>
       <c r="U47" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.88255886172435205</v>
       </c>
       <c r="V47" s="359">
@@ -31085,7 +31241,7 @@
         <v>4.2022000000000004</v>
       </c>
       <c r="X47" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.88334046193327653</v>
       </c>
       <c r="Y47" s="359">
@@ -31095,7 +31251,7 @@
         <v>4.0465</v>
       </c>
       <c r="AA47" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.88380203720106276</v>
       </c>
       <c r="AB47" s="359">
@@ -31105,11 +31261,14 @@
         <v>4.0690999999999997</v>
       </c>
       <c r="AD47" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.88242154956956376</v>
       </c>
+      <c r="AF47" s="716">
+        <v>0.88594891977862222</v>
+      </c>
       <c r="AG47" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.88289112265716352</v>
       </c>
       <c r="AH47" s="5">
@@ -31119,7 +31278,7 @@
         <v>-0.11662361888362753</v>
       </c>
       <c r="AJ47" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99951474154079101</v>
       </c>
     </row>
@@ -31146,7 +31305,10 @@
       <c r="H48" s="307" t="s">
         <v>71</v>
       </c>
-      <c r="I48" s="308"/>
+      <c r="I48" s="717">
+        <f t="shared" si="10"/>
+        <v>-3.0478696450755294E-3</v>
+      </c>
       <c r="J48" s="321"/>
       <c r="K48" s="321"/>
       <c r="L48" s="321"/>
@@ -31157,7 +31319,7 @@
         <v>4.0270000000000001</v>
       </c>
       <c r="O48" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.87703587619633983</v>
       </c>
       <c r="P48" s="359">
@@ -31167,7 +31329,7 @@
         <v>4.0620000000000003</v>
       </c>
       <c r="R48" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.87963539602559015</v>
       </c>
       <c r="S48" s="359">
@@ -31177,7 +31339,7 @@
         <v>4.0759999999999996</v>
       </c>
       <c r="U48" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.87798543278188679</v>
       </c>
       <c r="V48" s="359">
@@ -31187,7 +31349,7 @@
         <v>4.1951000000000001</v>
       </c>
       <c r="X48" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.87933062446535515</v>
       </c>
       <c r="Y48" s="359">
@@ -31197,7 +31359,7 @@
         <v>4.0385999999999997</v>
       </c>
       <c r="AA48" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.87948405668733376</v>
       </c>
       <c r="AB48" s="359">
@@ -31207,11 +31369,14 @@
         <v>4.0605000000000002</v>
       </c>
       <c r="AD48" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.87764509858372675</v>
       </c>
+      <c r="AF48" s="716">
+        <v>0.88156728376844773</v>
+      </c>
       <c r="AG48" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.8785194141233722</v>
       </c>
       <c r="AH48" s="619">
@@ -31221,7 +31386,7 @@
         <v>-0.1211077629502081</v>
       </c>
       <c r="AJ48" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99962717707358029</v>
       </c>
     </row>
@@ -31248,7 +31413,10 @@
       <c r="H49" s="307" t="s">
         <v>72</v>
       </c>
-      <c r="I49" s="308"/>
+      <c r="I49" s="717">
+        <f t="shared" si="10"/>
+        <v>-3.0366542982562805E-3</v>
+      </c>
       <c r="J49" s="322"/>
       <c r="K49" s="322"/>
       <c r="L49" s="322"/>
@@ -31259,7 +31427,7 @@
         <v>4.0186999999999999</v>
       </c>
       <c r="O49" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.87227850226674886</v>
       </c>
       <c r="P49" s="359">
@@ -31269,7 +31437,7 @@
         <v>4.0496999999999996</v>
       </c>
       <c r="R49" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.87340768838815563</v>
       </c>
       <c r="S49" s="359">
@@ -31279,7 +31447,7 @@
         <v>4.07</v>
       </c>
       <c r="U49" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.87459770763932032</v>
       </c>
       <c r="V49" s="359">
@@ -31289,7 +31457,7 @@
         <v>4.1863999999999999</v>
       </c>
       <c r="X49" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.875</v>
       </c>
       <c r="Y49" s="359">
@@ -31299,7 +31467,7 @@
         <v>4.0312999999999999</v>
       </c>
       <c r="AA49" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.87544286979627983</v>
       </c>
       <c r="AB49" s="359">
@@ -31309,11 +31477,14 @@
         <v>4.0525000000000002</v>
       </c>
       <c r="AD49" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.87303526798111653</v>
       </c>
+      <c r="AF49" s="716">
+        <v>0.87699699364352635</v>
+      </c>
       <c r="AG49" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.87396033934527007</v>
       </c>
       <c r="AH49" s="5">
@@ -31323,7 +31494,7 @@
         <v>-0.12559190701678868</v>
       </c>
       <c r="AJ49" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99955224636205875</v>
       </c>
     </row>
@@ -31350,7 +31521,10 @@
       <c r="H50" s="307" t="s">
         <v>73</v>
       </c>
-      <c r="I50" s="308"/>
+      <c r="I50" s="717">
+        <f t="shared" si="10"/>
+        <v>-3.0400293187605731E-3</v>
+      </c>
       <c r="J50" s="322"/>
       <c r="K50" s="322"/>
       <c r="L50" s="322"/>
@@ -31361,7 +31535,7 @@
         <v>4.0119999999999996</v>
       </c>
       <c r="O50" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.86852857222812996</v>
       </c>
       <c r="P50" s="359">
@@ -31371,7 +31545,7 @@
         <v>4.0431999999999997</v>
       </c>
       <c r="R50" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.86961444828171852</v>
       </c>
       <c r="S50" s="359">
@@ -31381,7 +31555,7 @@
         <v>4.0609999999999999</v>
       </c>
       <c r="U50" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.86934673366834159</v>
       </c>
       <c r="V50" s="359">
@@ -31391,7 +31565,7 @@
         <v>4.1792999999999996</v>
       </c>
       <c r="X50" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.87104362703165072</v>
       </c>
       <c r="Y50" s="359">
@@ -31401,7 +31575,7 @@
         <v>4.0223000000000004</v>
       </c>
       <c r="AA50" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.87046058458813136</v>
       </c>
       <c r="AB50" s="359">
@@ -31411,11 +31585,14 @@
         <v>4.0449999999999999</v>
       </c>
       <c r="AD50" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.86881421827270189</v>
       </c>
+      <c r="AF50" s="716">
+        <v>0.87267472666387291</v>
+      </c>
       <c r="AG50" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.86963469734511234</v>
       </c>
       <c r="AH50" s="619">
@@ -31425,7 +31602,7 @@
         <v>-0.13007605108336925</v>
       </c>
       <c r="AJ50" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99971074842848162</v>
       </c>
     </row>
@@ -31452,7 +31629,10 @@
       <c r="H51" s="307" t="s">
         <v>74</v>
       </c>
-      <c r="I51" s="308"/>
+      <c r="I51" s="717">
+        <f t="shared" si="10"/>
+        <v>-3.4034801410931514E-3</v>
+      </c>
       <c r="J51" s="322"/>
       <c r="K51" s="322"/>
       <c r="L51" s="322"/>
@@ -31463,7 +31643,7 @@
         <v>4.0039999999999996</v>
       </c>
       <c r="O51" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.86393910561370113</v>
       </c>
       <c r="P51" s="359">
@@ -31473,7 +31653,7 @@
         <v>4.0353000000000003</v>
       </c>
       <c r="R51" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.86497197531563175</v>
       </c>
       <c r="S51" s="359">
@@ -31483,7 +31663,7 @@
         <v>4.0522</v>
       </c>
       <c r="U51" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.86449099429732923</v>
       </c>
       <c r="V51" s="359">
@@ -31493,7 +31673,7 @@
         <v>4.1715999999999998</v>
       </c>
       <c r="X51" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.86681993156544035</v>
       </c>
       <c r="Y51" s="359">
@@ -31503,7 +31683,7 @@
         <v>4.0137</v>
       </c>
       <c r="AA51" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.86558901682905232</v>
       </c>
       <c r="AB51" s="359">
@@ -31513,11 +31693,14 @@
         <v>4.0355999999999996</v>
       </c>
       <c r="AD51" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.86370452652041074</v>
       </c>
+      <c r="AF51" s="716">
+        <v>0.86832273849802066</v>
+      </c>
       <c r="AG51" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.86491925835692751</v>
       </c>
       <c r="AH51" s="5">
@@ -31527,7 +31710,7 @@
         <v>-0.13456019514994982</v>
       </c>
       <c r="AJ51" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99947945350687739</v>
       </c>
     </row>
@@ -31554,7 +31737,10 @@
       <c r="H52" s="327" t="s">
         <v>75</v>
       </c>
-      <c r="I52" s="328"/>
+      <c r="I52" s="717">
+        <f t="shared" si="10"/>
+        <v>-3.1519113916049779E-3</v>
+      </c>
       <c r="J52" s="322"/>
       <c r="K52" s="322"/>
       <c r="L52" s="322"/>
@@ -31565,7 +31751,7 @@
         <v>3.9956</v>
       </c>
       <c r="O52" s="372">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.85934963899927264</v>
       </c>
       <c r="P52" s="361">
@@ -31575,7 +31761,7 @@
         <v>4.0275999999999996</v>
       </c>
       <c r="R52" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.86066919549340393</v>
       </c>
       <c r="S52" s="361">
@@ -31585,7 +31771,7 @@
         <v>4.0449999999999999</v>
       </c>
       <c r="U52" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.86042572412624907</v>
       </c>
       <c r="V52" s="361">
@@ -31595,7 +31781,7 @@
         <v>4.1639999999999997</v>
       </c>
       <c r="X52" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.86264970059880219</v>
       </c>
       <c r="Y52" s="361">
@@ -31605,7 +31791,7 @@
         <v>4.0060000000000002</v>
       </c>
       <c r="AA52" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.86149247121346328</v>
       </c>
       <c r="AB52" s="361">
@@ -31615,11 +31801,14 @@
         <v>4.0278</v>
       </c>
       <c r="AD52" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.85942793668425443</v>
       </c>
+      <c r="AF52" s="716">
+        <v>0.8638210225775127</v>
+      </c>
       <c r="AG52" s="369">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.86066911118590772</v>
       </c>
       <c r="AH52" s="619">
@@ -31629,7 +31818,7 @@
         <v>-0.13904433921653039</v>
       </c>
       <c r="AJ52" s="371">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99971345040243809</v>
       </c>
     </row>
@@ -31827,50 +32016,50 @@
         <v>2.4350000000000001</v>
       </c>
       <c r="N56" s="603">
-        <f t="shared" ref="N56:N70" si="18">M56/M$55</f>
+        <f t="shared" ref="N56:N70" si="19">M56/M$55</f>
         <v>0.98983739837398377</v>
       </c>
       <c r="P56" s="604">
         <v>2.4813999999999998</v>
       </c>
       <c r="Q56" s="603">
-        <f t="shared" ref="Q56:Q70" si="19">P56/P$55</f>
+        <f t="shared" ref="Q56:Q70" si="20">P56/P$55</f>
         <v>0.98978859194256075</v>
       </c>
       <c r="S56" s="604">
         <v>2.4944999999999999</v>
       </c>
       <c r="T56" s="603">
-        <f t="shared" ref="T56:T70" si="20">S56/S$55</f>
+        <f t="shared" ref="T56:T70" si="21">S56/S$55</f>
         <v>0.98929208804283164</v>
       </c>
       <c r="V56" s="604">
         <v>2.5232000000000001</v>
       </c>
       <c r="W56" s="603">
-        <f t="shared" ref="W56:W70" si="21">V56/V$55</f>
+        <f t="shared" ref="W56:W70" si="22">V56/V$55</f>
         <v>0.98925742962440211</v>
       </c>
       <c r="Y56" s="604">
         <v>2.4239999999999999</v>
       </c>
       <c r="Z56" s="603">
-        <f t="shared" ref="Z56:Z70" si="22">Y56/Y$55</f>
+        <f t="shared" ref="Z56:Z70" si="23">Y56/Y$55</f>
         <v>0.98874204601076843</v>
       </c>
       <c r="AB56" s="604">
         <v>2.4554</v>
       </c>
       <c r="AC56" s="603">
-        <f t="shared" ref="AC56:AC70" si="23">AB56/AB$55</f>
+        <f t="shared" ref="AC56:AC70" si="24">AB56/AB$55</f>
         <v>0.98948216804352207</v>
       </c>
       <c r="AF56" s="371">
-        <f t="shared" ref="AF56:AF62" si="24">AG56-AG64</f>
+        <f t="shared" ref="AF56:AF62" si="25">AG56-AG64</f>
         <v>-8.3259627916457801E-2</v>
       </c>
       <c r="AG56" s="606">
-        <f t="shared" ref="AG56:AG70" si="25">AVERAGE(N56,Q56,T56,W56,Z56,AC56)</f>
+        <f t="shared" ref="AG56:AG70" si="26">AVERAGE(N56,Q56,T56,W56,Z56,AC56)</f>
         <v>0.98939995367301148</v>
       </c>
       <c r="AH56" s="605">
@@ -31880,7 +32069,7 @@
         <v>-1.0524209683873544E-2</v>
       </c>
       <c r="AJ56" s="606">
-        <f t="shared" ref="AJ56:AJ70" si="26">AG56-AI56</f>
+        <f t="shared" ref="AJ56:AJ70" si="27">AG56-AI56</f>
         <v>0.99992416335688505</v>
       </c>
       <c r="AL56" s="606">
@@ -31914,7 +32103,7 @@
         <v>-2.1128451380552204E-2</v>
       </c>
       <c r="G57" s="600">
-        <f t="shared" ref="G57:G62" si="27">G56+1.05%</f>
+        <f t="shared" ref="G57:G62" si="28">G56+1.05%</f>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="H57" s="601" t="s">
@@ -31930,50 +32119,50 @@
         <v>2.407</v>
       </c>
       <c r="N57" s="603">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.97845528455284558</v>
       </c>
       <c r="P57" s="604">
         <v>2.4557000000000002</v>
       </c>
       <c r="Q57" s="603">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.97953729557239733</v>
       </c>
       <c r="S57" s="604">
         <v>2.4676999999999998</v>
       </c>
       <c r="T57" s="603">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.97866349395201258</v>
       </c>
       <c r="V57" s="604">
         <v>2.4954999999999998</v>
       </c>
       <c r="W57" s="603">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.97839723986512961</v>
       </c>
       <c r="Y57" s="604">
         <v>2.3992</v>
       </c>
       <c r="Z57" s="603">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.97862620329580685</v>
       </c>
       <c r="AB57" s="604">
         <v>2.4281999999999999</v>
       </c>
       <c r="AC57" s="603">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.97852105581301629</v>
       </c>
       <c r="AF57" s="371">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8.3914712336133901E-2</v>
       </c>
       <c r="AG57" s="606">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.97870009550853476</v>
       </c>
       <c r="AH57" s="605">
@@ -31983,18 +32172,18 @@
         <v>-2.1128451380552204E-2</v>
       </c>
       <c r="AJ57" s="606">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.99982854688908696</v>
       </c>
       <c r="AL57" s="606">
         <v>0.97870009550853476</v>
       </c>
       <c r="AM57" s="606">
-        <f t="shared" ref="AM57:AM70" si="28">AG57-AL57</f>
+        <f t="shared" ref="AM57:AM70" si="29">AG57-AL57</f>
         <v>0</v>
       </c>
       <c r="AN57" s="607">
-        <f t="shared" ref="AN57:AN62" si="29">ABS(AL57/1.05%)</f>
+        <f t="shared" ref="AN57:AN62" si="30">ABS(AL57/1.05%)</f>
         <v>93.209532905574733</v>
       </c>
       <c r="AO57" s="606"/>
@@ -32017,7 +32206,7 @@
         <v>-3.1772709083633506E-2</v>
       </c>
       <c r="G58" s="375">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3.15E-2</v>
       </c>
       <c r="H58" s="341" t="s">
@@ -32033,50 +32222,50 @@
         <v>2.3807999999999998</v>
       </c>
       <c r="N58" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.96780487804878046</v>
       </c>
       <c r="P58" s="230">
         <v>2.4272</v>
       </c>
       <c r="Q58" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.96816912644595132</v>
       </c>
       <c r="S58" s="230">
         <v>2.4405999999999999</v>
       </c>
       <c r="T58" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.96791592306166951</v>
       </c>
       <c r="V58" s="230">
         <v>2.468</v>
       </c>
       <c r="W58" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.96761546302830703</v>
       </c>
       <c r="Y58" s="230">
         <v>2.3719000000000001</v>
       </c>
       <c r="Z58" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.96749061837167571</v>
       </c>
       <c r="AB58" s="230">
         <v>2.4016000000000002</v>
       </c>
       <c r="AC58" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.96780173282288939</v>
       </c>
       <c r="AF58" s="371">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8.4516465719214007E-2</v>
       </c>
       <c r="AG58" s="594">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.96779962362987881</v>
       </c>
       <c r="AH58" s="5">
@@ -32086,18 +32275,18 @@
         <v>-3.1772709083633506E-2</v>
       </c>
       <c r="AJ58" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.99957233271351231</v>
       </c>
       <c r="AL58" s="594">
         <v>0.96779962362987881</v>
       </c>
       <c r="AM58" s="371">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN58" s="379">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>92.171392726655114</v>
       </c>
       <c r="AO58" s="371"/>
@@ -32120,7 +32309,7 @@
         <v>-4.2416966786714812E-2</v>
       </c>
       <c r="G59" s="600">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="H59" s="601" t="s">
@@ -32136,50 +32325,50 @@
         <v>2.3546</v>
       </c>
       <c r="N59" s="603">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.95715447154471545</v>
       </c>
       <c r="P59" s="604">
         <v>2.4</v>
       </c>
       <c r="Q59" s="603">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.95731950538492216</v>
       </c>
       <c r="S59" s="604">
         <v>2.4125999999999999</v>
       </c>
       <c r="T59" s="603">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.95681142177275424</v>
       </c>
       <c r="V59" s="604">
         <v>2.4403999999999999</v>
       </c>
       <c r="W59" s="603">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.95679447973025944</v>
       </c>
       <c r="Y59" s="604">
         <v>2.3441999999999998</v>
       </c>
       <c r="Z59" s="603">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.95619187469407729</v>
       </c>
       <c r="AB59" s="604">
         <v>2.3740000000000001</v>
       </c>
       <c r="AC59" s="603">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.95667942776546444</v>
       </c>
       <c r="AF59" s="371">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8.5190512985997002E-2</v>
       </c>
       <c r="AG59" s="606">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.95682519681536549</v>
       </c>
       <c r="AH59" s="605">
@@ -32189,18 +32378,18 @@
         <v>-4.2416966786714812E-2</v>
       </c>
       <c r="AJ59" s="606">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.99924216360208029</v>
       </c>
       <c r="AL59" s="606">
         <v>0.95682519681536549</v>
       </c>
       <c r="AM59" s="606">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN59" s="607">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>91.126209220510987</v>
       </c>
       <c r="AO59" s="606"/>
@@ -32223,7 +32412,7 @@
         <v>-5.3021208483393471E-2</v>
       </c>
       <c r="G60" s="375">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>5.2500000000000005E-2</v>
       </c>
       <c r="H60" s="341" t="s">
@@ -32239,50 +32428,50 @@
         <v>2.3285999999999998</v>
       </c>
       <c r="N60" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.94658536585365849</v>
       </c>
       <c r="P60" s="230">
         <v>2.3723999999999998</v>
       </c>
       <c r="Q60" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.94631033107299556</v>
       </c>
       <c r="S60" s="230">
         <v>2.3851</v>
       </c>
       <c r="T60" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.94590521514971249</v>
       </c>
       <c r="V60" s="230">
         <v>2.4127000000000001</v>
       </c>
       <c r="W60" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.94593428997098716</v>
       </c>
       <c r="Y60" s="230">
         <v>2.3180000000000001</v>
       </c>
       <c r="Z60" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.94550497634198072</v>
       </c>
       <c r="AB60" s="230">
         <v>2.3472</v>
       </c>
       <c r="AC60" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.94587950836187784</v>
       </c>
       <c r="AF60" s="371">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8.5602719817211459E-2</v>
       </c>
       <c r="AG60" s="594">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.9460199477918686</v>
       </c>
       <c r="AH60" s="605">
@@ -32292,18 +32481,18 @@
         <v>-5.3021208483393471E-2</v>
       </c>
       <c r="AJ60" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.99904115627526202</v>
       </c>
       <c r="AL60" s="594">
         <v>0.9460199477918686</v>
       </c>
       <c r="AM60" s="371">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN60" s="379">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>90.097137884939855</v>
       </c>
       <c r="AO60" s="371"/>
@@ -32326,7 +32515,7 @@
         <v>-6.3625450180072124E-2</v>
       </c>
       <c r="G61" s="375">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6.3E-2</v>
       </c>
       <c r="H61" s="341" t="s">
@@ -32342,50 +32531,50 @@
         <v>2.3006000000000002</v>
       </c>
       <c r="N61" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.93520325203252042</v>
       </c>
       <c r="P61" s="230">
         <v>2.3452000000000002</v>
       </c>
       <c r="Q61" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.93546071001196651</v>
       </c>
       <c r="S61" s="230">
         <v>2.3576000000000001</v>
       </c>
       <c r="T61" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.93499900852667062</v>
       </c>
       <c r="V61" s="230">
         <v>2.3841999999999999</v>
       </c>
       <c r="W61" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.93476044852191631</v>
       </c>
       <c r="Y61" s="230">
         <v>2.2911999999999999</v>
       </c>
       <c r="Z61" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.93457333985968338</v>
       </c>
       <c r="AB61" s="230">
         <v>2.3195999999999999</v>
       </c>
       <c r="AC61" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.93475720330445289</v>
       </c>
       <c r="AF61" s="371">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8.625834942112609E-2</v>
       </c>
       <c r="AG61" s="594">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.93495899370953495</v>
       </c>
       <c r="AH61" s="5">
@@ -32395,18 +32584,18 @@
         <v>-6.3625450180072124E-2</v>
       </c>
       <c r="AJ61" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.9985844438896071</v>
       </c>
       <c r="AL61" s="594">
         <v>0.93495899370953495</v>
       </c>
       <c r="AM61" s="371">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN61" s="379">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>89.043713686622368</v>
       </c>
       <c r="AO61" s="371"/>
@@ -32429,7 +32618,7 @@
         <v>-7.4029611844737914E-2</v>
       </c>
       <c r="G62" s="375">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>7.3499999999999996E-2</v>
       </c>
       <c r="H62" s="341" t="s">
@@ -32445,50 +32634,50 @@
         <v>2.274</v>
       </c>
       <c r="N62" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.92439024390243907</v>
       </c>
       <c r="P62" s="230">
         <v>2.3168000000000002</v>
       </c>
       <c r="Q62" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.9241324291982449</v>
       </c>
       <c r="S62" s="230">
         <v>2.3296000000000001</v>
       </c>
       <c r="T62" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.92389450723775535</v>
       </c>
       <c r="V62" s="230">
         <v>2.3561999999999999</v>
       </c>
       <c r="W62" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.92378263937896954</v>
       </c>
       <c r="Y62" s="230">
         <v>2.2631999999999999</v>
       </c>
       <c r="Z62" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.92315222711698475</v>
       </c>
       <c r="AB62" s="230">
         <v>2.2923</v>
       </c>
       <c r="AC62" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.92375579286721743</v>
       </c>
       <c r="AF62" s="371">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-8.6820194240607385E-2</v>
       </c>
       <c r="AG62" s="594">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0.92385130661693504</v>
       </c>
       <c r="AH62" s="605">
@@ -32498,18 +32687,18 @@
         <v>-7.4029611844737914E-2</v>
       </c>
       <c r="AJ62" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.99788091846167293</v>
       </c>
       <c r="AL62" s="594">
         <v>0.92385130661693504</v>
       </c>
       <c r="AM62" s="371">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN62" s="379">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>87.985838725422383</v>
       </c>
       <c r="AO62" s="371"/>
@@ -32550,47 +32739,47 @@
         <v>2.6616</v>
       </c>
       <c r="N63" s="603">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0819512195121952</v>
       </c>
       <c r="P63" s="604">
         <v>2.7149999999999999</v>
       </c>
       <c r="Q63" s="603">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0829676904666932</v>
       </c>
       <c r="S63" s="604">
         <v>2.7307999999999999</v>
       </c>
       <c r="T63" s="603">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0830061471346419</v>
       </c>
       <c r="V63" s="604">
         <v>2.7606999999999999</v>
       </c>
       <c r="W63" s="603">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0823727750333254</v>
       </c>
       <c r="Y63" s="604">
         <v>2.6536</v>
       </c>
       <c r="Z63" s="603">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0823951705008974</v>
       </c>
       <c r="AB63" s="604">
         <v>2.6890000000000001</v>
       </c>
       <c r="AC63" s="603">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0836187789643361</v>
       </c>
       <c r="AF63" s="606"/>
       <c r="AG63" s="606">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.0827186302686815</v>
       </c>
       <c r="AH63" s="605">
@@ -32600,14 +32789,14 @@
         <v>8.2032813125250126E-2</v>
       </c>
       <c r="AJ63" s="606">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0006858171434314</v>
       </c>
       <c r="AL63" s="606">
         <v>1.0827186302686815</v>
       </c>
       <c r="AM63" s="606">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN63" s="607">
@@ -32634,7 +32823,7 @@
         <v>7.2428971588635468E-2</v>
       </c>
       <c r="G64" s="375">
-        <f t="shared" ref="G64:G70" si="30">F64-8.4%</f>
+        <f t="shared" ref="G64:G70" si="31">F64-8.4%</f>
         <v>-1.1571028411364537E-2</v>
       </c>
       <c r="H64" s="341" t="s">
@@ -32650,46 +32839,46 @@
         <v>2.6368</v>
       </c>
       <c r="N64" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0718699186991871</v>
       </c>
       <c r="P64" s="230">
         <v>2.69</v>
       </c>
       <c r="Q64" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0729956122856001</v>
       </c>
       <c r="S64" s="230">
         <v>2.7056</v>
       </c>
       <c r="T64" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0730120959746183</v>
       </c>
       <c r="V64" s="230">
         <v>2.7351000000000001</v>
       </c>
       <c r="W64" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.072335920959774</v>
       </c>
       <c r="Y64" s="230">
         <v>2.629</v>
       </c>
       <c r="Z64" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0723609071626692</v>
       </c>
       <c r="AB64" s="230">
         <v>2.6636000000000002</v>
       </c>
       <c r="AC64" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0733830344549669</v>
       </c>
       <c r="AG64" s="594">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.0726595815894693</v>
       </c>
       <c r="AH64" s="5">
@@ -32699,18 +32888,18 @@
         <v>7.2428971588635468E-2</v>
       </c>
       <c r="AJ64" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0002306100008338</v>
       </c>
       <c r="AL64" s="594">
         <v>1.0726595815894693</v>
       </c>
       <c r="AM64" s="371">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN64" s="379">
-        <f t="shared" ref="AN64:AN70" si="31">16-ABS(AL64/1.05%)</f>
+        <f t="shared" ref="AN64:AN70" si="32">16-ABS(AL64/1.05%)</f>
         <v>-86.158055389473262</v>
       </c>
       <c r="AO64" s="371"/>
@@ -32733,7 +32922,7 @@
         <v>6.2264905962384848E-2</v>
       </c>
       <c r="G65" s="375">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-2.1735094037615157E-2</v>
       </c>
       <c r="H65" s="341" t="s">
@@ -32749,46 +32938,46 @@
         <v>2.6122000000000001</v>
       </c>
       <c r="N65" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0618699186991871</v>
       </c>
       <c r="P65" s="230">
         <v>2.6654</v>
       </c>
       <c r="Q65" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0631830873554049</v>
       </c>
       <c r="S65" s="230">
         <v>2.6796000000000002</v>
       </c>
       <c r="T65" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0627007733491969</v>
       </c>
       <c r="V65" s="230">
         <v>2.7096</v>
       </c>
       <c r="W65" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0623382733474476</v>
       </c>
       <c r="Y65" s="230">
         <v>2.6048</v>
       </c>
       <c r="Z65" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0624898025779084</v>
       </c>
       <c r="AB65" s="230">
         <v>2.6381000000000001</v>
       </c>
       <c r="AC65" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0631069917388676</v>
       </c>
       <c r="AG65" s="594">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.0626148078446687</v>
       </c>
       <c r="AH65" s="605">
@@ -32798,18 +32987,18 @@
         <v>6.2264905962384848E-2</v>
       </c>
       <c r="AJ65" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0003499018822839</v>
       </c>
       <c r="AL65" s="594">
         <v>1.0626148078446687</v>
       </c>
       <c r="AM65" s="371">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN65" s="379">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-85.201410270920817</v>
       </c>
       <c r="AO65" s="371"/>
@@ -32832,7 +33021,7 @@
         <v>5.2020808323329289E-2</v>
       </c>
       <c r="G66" s="375">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-3.1979191676670717E-2</v>
       </c>
       <c r="H66" s="341" t="s">
@@ -32848,46 +33037,46 @@
         <v>2.5874000000000001</v>
       </c>
       <c r="N66" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0517886178861788</v>
       </c>
       <c r="P66" s="230">
         <v>2.64</v>
       </c>
       <c r="Q66" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0530514559234145</v>
       </c>
       <c r="S66" s="230">
         <v>2.653</v>
       </c>
       <c r="T66" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0521514971247272</v>
       </c>
       <c r="V66" s="230">
         <v>2.6833999999999998</v>
       </c>
       <c r="W66" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0520661805065472</v>
       </c>
       <c r="Y66" s="230">
         <v>2.5792999999999999</v>
       </c>
       <c r="Z66" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0520884320443791</v>
       </c>
       <c r="AB66" s="230">
         <v>2.6124000000000001</v>
       </c>
       <c r="AC66" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0527503526093089</v>
       </c>
       <c r="AG66" s="594">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.0523160893490928</v>
       </c>
       <c r="AH66" s="605">
@@ -32897,18 +33086,18 @@
         <v>5.2020808323329289E-2</v>
       </c>
       <c r="AJ66" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0002952810257635</v>
       </c>
       <c r="AL66" s="594">
         <v>1.0523160893490928</v>
       </c>
       <c r="AM66" s="371">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN66" s="379">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-84.220579938008839</v>
       </c>
       <c r="AO66" s="371"/>
@@ -32931,7 +33120,7 @@
         <v>4.1816726690676195E-2</v>
       </c>
       <c r="G67" s="375">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-4.218327330932381E-2</v>
       </c>
       <c r="H67" s="341" t="s">
@@ -32947,46 +33136,46 @@
         <v>2.5623</v>
       </c>
       <c r="N67" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0415853658536585</v>
       </c>
       <c r="P67" s="230">
         <v>2.6139999999999999</v>
       </c>
       <c r="Q67" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0426804946150776</v>
       </c>
       <c r="S67" s="230">
         <v>2.6269999999999998</v>
       </c>
       <c r="T67" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0418401744993058</v>
       </c>
       <c r="V67" s="230">
         <v>2.6577999999999999</v>
       </c>
       <c r="W67" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0420293264329961</v>
       </c>
       <c r="Y67" s="230">
         <v>2.5535999999999999</v>
       </c>
       <c r="Z67" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0416054821341165</v>
       </c>
       <c r="AB67" s="230">
         <v>2.5865999999999998</v>
       </c>
       <c r="AC67" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0423534152730203</v>
       </c>
       <c r="AG67" s="594">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.0420157098013625</v>
       </c>
       <c r="AH67" s="5">
@@ -32996,18 +33185,18 @@
         <v>4.1816726690676195E-2</v>
       </c>
       <c r="AJ67" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0001989831106863</v>
       </c>
       <c r="AL67" s="594">
         <v>1.0420157098013625</v>
       </c>
       <c r="AM67" s="371">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN67" s="379">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-83.239591409653571</v>
       </c>
       <c r="AO67" s="371"/>
@@ -33030,7 +33219,7 @@
         <v>3.1452581032412878E-2</v>
       </c>
       <c r="G68" s="375">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-5.2547418967587127E-2</v>
       </c>
       <c r="H68" s="341" t="s">
@@ -33046,46 +33235,46 @@
         <v>2.5369999999999999</v>
       </c>
       <c r="N68" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.03130081300813</v>
       </c>
       <c r="P68" s="230">
         <v>2.5884</v>
       </c>
       <c r="Q68" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0324690865576385</v>
       </c>
       <c r="S68" s="230">
         <v>2.6006999999999998</v>
       </c>
       <c r="T68" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0314098750743603</v>
       </c>
       <c r="V68" s="230">
         <v>2.6315</v>
       </c>
       <c r="W68" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.031718027130871</v>
       </c>
       <c r="Y68" s="230">
         <v>2.5280999999999998</v>
       </c>
       <c r="Z68" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0312041116005872</v>
       </c>
       <c r="AB68" s="230">
         <v>2.56</v>
       </c>
       <c r="AC68" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0316340922828935</v>
       </c>
       <c r="AG68" s="594">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.0316226676090801</v>
       </c>
       <c r="AH68" s="605">
@@ -33095,18 +33284,18 @@
         <v>3.1452581032412878E-2</v>
       </c>
       <c r="AJ68" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0001700865766672</v>
       </c>
       <c r="AL68" s="594">
         <v>1.0316226676090801</v>
       </c>
       <c r="AM68" s="371">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN68" s="379">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-82.249777867531421</v>
       </c>
       <c r="AO68" s="371"/>
@@ -33129,7 +33318,7 @@
         <v>2.1048419367747088E-2</v>
       </c>
       <c r="G69" s="375">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-6.2951580632252924E-2</v>
       </c>
       <c r="H69" s="341" t="s">
@@ -33145,46 +33334,46 @@
         <v>2.5112999999999999</v>
       </c>
       <c r="N69" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0208536585365853</v>
       </c>
       <c r="P69" s="230">
         <v>2.5625</v>
       </c>
       <c r="Q69" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0221380135620264</v>
       </c>
       <c r="S69" s="230">
         <v>2.5750000000000002</v>
       </c>
       <c r="T69" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0212175292484633</v>
       </c>
       <c r="V69" s="230">
         <v>2.6042000000000001</v>
       </c>
       <c r="W69" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.021014663216498</v>
       </c>
       <c r="Y69" s="230">
         <v>2.5026000000000002</v>
       </c>
       <c r="Z69" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0208027410670584</v>
       </c>
       <c r="AB69" s="230">
         <v>2.5343</v>
       </c>
       <c r="AC69" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0212774531533346</v>
       </c>
       <c r="AG69" s="594">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.021217343130661</v>
       </c>
       <c r="AH69" s="605">
@@ -33194,18 +33383,18 @@
         <v>2.1048419367747088E-2</v>
       </c>
       <c r="AJ69" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0001689237629139</v>
       </c>
       <c r="AL69" s="594">
         <v>1.021217343130661</v>
       </c>
       <c r="AM69" s="371">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN69" s="379">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-81.258794583872472</v>
       </c>
       <c r="AO69" s="371"/>
@@ -33228,7 +33417,7 @@
         <v>1.0564225690276013E-2</v>
       </c>
       <c r="G70" s="375">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>-7.3435774309723992E-2</v>
       </c>
       <c r="H70" s="341" t="s">
@@ -33244,46 +33433,46 @@
         <v>2.4862000000000002</v>
       </c>
       <c r="N70" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.0106504065040651</v>
       </c>
       <c r="P70" s="230">
         <v>2.5350000000000001</v>
       </c>
       <c r="Q70" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0111687275628241</v>
       </c>
       <c r="S70" s="230">
         <v>2.5486</v>
       </c>
       <c r="T70" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0107475708903431</v>
       </c>
       <c r="V70" s="230">
         <v>2.5775000000000001</v>
       </c>
       <c r="W70" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0105465380694738</v>
       </c>
       <c r="Y70" s="230">
         <v>2.4763999999999999</v>
       </c>
       <c r="Z70" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0101158427149617</v>
       </c>
       <c r="AB70" s="230">
         <v>2.5083000000000002</v>
       </c>
       <c r="AC70" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0107999194035866</v>
       </c>
       <c r="AG70" s="594">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>1.0106715008575424</v>
       </c>
       <c r="AH70" s="5">
@@ -33293,18 +33482,18 @@
         <v>1.0564225690276013E-2</v>
       </c>
       <c r="AJ70" s="371">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0001072751672664</v>
       </c>
       <c r="AL70" s="594">
         <v>1.0106715008575424</v>
       </c>
       <c r="AM70" s="371">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AN70" s="379">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-80.254428653099268</v>
       </c>
       <c r="AO70" s="371"/>
@@ -33471,47 +33660,47 @@
         <v>2.4527999999999999</v>
       </c>
       <c r="N73" s="618">
-        <f t="shared" ref="N73:N87" si="32">M73/M$72</f>
+        <f t="shared" ref="N73:N87" si="33">M73/M$72</f>
         <v>0.99707317073170731</v>
       </c>
       <c r="P73" s="628">
         <v>2.5024999999999999</v>
       </c>
       <c r="Q73" s="618">
-        <f t="shared" ref="Q73:Q87" si="33">P73/P$72</f>
+        <f t="shared" ref="Q73:Q87" si="34">P73/P$72</f>
         <v>0.99740932642487046</v>
       </c>
       <c r="S73" s="628">
         <v>2.5129999999999999</v>
       </c>
       <c r="T73" s="618">
-        <f t="shared" ref="T73:T87" si="34">S73/S$72</f>
+        <f t="shared" ref="T73:T87" si="35">S73/S$72</f>
         <v>0.99722222222222212</v>
       </c>
       <c r="V73" s="628">
         <v>2.5432999999999999</v>
       </c>
       <c r="W73" s="618">
-        <f t="shared" ref="W73:W87" si="35">V73/V$72</f>
+        <f t="shared" ref="W73:W87" si="36">V73/V$72</f>
         <v>0.99705974596205105</v>
       </c>
       <c r="Y73" s="628">
         <v>2.4430000000000001</v>
       </c>
       <c r="Z73" s="618">
-        <f t="shared" ref="Z73:Z87" si="36">Y73/Y$72</f>
+        <f t="shared" ref="Z73:Z87" si="37">Y73/Y$72</f>
         <v>0.99722426320515956</v>
       </c>
       <c r="AB73" s="628">
         <v>2.4748000000000001</v>
       </c>
       <c r="AC73" s="618">
-        <f t="shared" ref="AC73:AC87" si="37">AB73/AB$72</f>
+        <f t="shared" ref="AC73:AC87" si="38">AB73/AB$72</f>
         <v>0.99705894202489831</v>
       </c>
       <c r="AF73" s="620"/>
       <c r="AG73" s="620">
-        <f t="shared" ref="AG73:AG87" si="38">AVERAGE(N73,Q73,T73,W73,Z73,AC73)</f>
+        <f t="shared" ref="AG73:AG87" si="39">AVERAGE(N73,Q73,T73,W73,Z73,AC73)</f>
         <v>0.99717461176181799</v>
       </c>
       <c r="AH73" s="619">
@@ -33521,7 +33710,7 @@
         <v>-2.8000000000000247E-3</v>
       </c>
       <c r="AJ73" s="620">
-        <f t="shared" ref="AJ73:AJ87" si="39">AG73-AI73</f>
+        <f t="shared" ref="AJ73:AJ87" si="40">AG73-AI73</f>
         <v>0.99997461176181801</v>
       </c>
       <c r="AL73" s="620">
@@ -33532,7 +33721,7 @@
         <v>0</v>
       </c>
       <c r="AN73" s="629">
-        <f t="shared" ref="AN73:AN79" si="40">ABS(AL73/0.29%)</f>
+        <f t="shared" ref="AN73:AN79" si="41">ABS(AL73/0.29%)</f>
         <v>343.85331440062691</v>
       </c>
     </row>
@@ -33554,7 +33743,7 @@
         <v>-5.7000000000000384E-3</v>
       </c>
       <c r="G74" s="626">
-        <f t="shared" ref="G74:G80" si="41">F74-F73</f>
+        <f t="shared" ref="G74:G80" si="42">F74-F73</f>
         <v>-2.9000000000000137E-3</v>
       </c>
       <c r="H74" s="613" t="s">
@@ -33570,47 +33759,47 @@
         <v>2.4462000000000002</v>
       </c>
       <c r="N74" s="618">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.99439024390243913</v>
       </c>
       <c r="P74" s="628">
         <v>2.4950999999999999</v>
       </c>
       <c r="Q74" s="618">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.9944599442008768</v>
       </c>
       <c r="S74" s="628">
         <v>2.5055999999999998</v>
       </c>
       <c r="T74" s="618">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.99428571428571422</v>
       </c>
       <c r="V74" s="628">
         <v>2.5360999999999998</v>
       </c>
       <c r="W74" s="618">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.99423710208561999</v>
       </c>
       <c r="Y74" s="628">
         <v>2.4359999999999999</v>
       </c>
       <c r="Z74" s="618">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.99436688709282384</v>
       </c>
       <c r="AB74" s="628">
         <v>2.4676999999999998</v>
       </c>
       <c r="AC74" s="618">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.99419846098062115</v>
       </c>
       <c r="AF74" s="620"/>
       <c r="AG74" s="620">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.99432305875801585</v>
       </c>
       <c r="AH74" s="5">
@@ -33620,18 +33809,18 @@
         <v>-5.7000000000000384E-3</v>
       </c>
       <c r="AJ74" s="620">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0000230587580159</v>
       </c>
       <c r="AL74" s="620">
         <v>0.99432305875801585</v>
       </c>
       <c r="AM74" s="620">
-        <f t="shared" ref="AM74:AM87" si="42">AG74-AL74</f>
+        <f t="shared" ref="AM74:AM87" si="43">AG74-AL74</f>
         <v>0</v>
       </c>
       <c r="AN74" s="629">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>342.87002026138481</v>
       </c>
     </row>
@@ -33653,7 +33842,7 @@
         <v>-8.600000000000052E-3</v>
       </c>
       <c r="G75" s="375">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-2.9000000000000137E-3</v>
       </c>
       <c r="H75" s="307" t="s">
@@ -33669,46 +33858,46 @@
         <v>2.4382000000000001</v>
       </c>
       <c r="N75" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.99113821138211389</v>
       </c>
       <c r="P75" s="230">
         <v>2.4874999999999998</v>
       </c>
       <c r="Q75" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.99143084894380229</v>
       </c>
       <c r="S75" s="230">
         <v>2.4996</v>
       </c>
       <c r="T75" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.99190476190476196</v>
       </c>
       <c r="V75" s="230">
         <v>2.5287999999999999</v>
       </c>
       <c r="W75" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.99137525482201649</v>
       </c>
       <c r="Y75" s="230">
         <v>2.4287000000000001</v>
       </c>
       <c r="Z75" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.99138705200424515</v>
       </c>
       <c r="AB75" s="230">
         <v>2.4601999999999999</v>
       </c>
       <c r="AC75" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.99117682607469482</v>
       </c>
       <c r="AG75" s="594">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.99140215918860575</v>
       </c>
       <c r="AH75" s="619">
@@ -33718,18 +33907,18 @@
         <v>-8.600000000000052E-3</v>
       </c>
       <c r="AJ75" s="371">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0000021591886057</v>
       </c>
       <c r="AL75" s="594">
         <v>0.99140215918860575</v>
       </c>
       <c r="AM75" s="371">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AN75" s="379">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>341.86281351331235</v>
       </c>
     </row>
@@ -33751,7 +33940,7 @@
         <v>-1.1499999999999955E-2</v>
       </c>
       <c r="G76" s="626">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-2.8999999999999027E-3</v>
       </c>
       <c r="H76" s="613" t="s">
@@ -33767,47 +33956,47 @@
         <v>2.4319999999999999</v>
       </c>
       <c r="N76" s="618">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.98861788617886182</v>
       </c>
       <c r="P76" s="628">
         <v>2.4794</v>
       </c>
       <c r="Q76" s="618">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.98820247110402559</v>
       </c>
       <c r="S76" s="628">
         <v>2.4906000000000001</v>
       </c>
       <c r="T76" s="618">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.9883333333333334</v>
       </c>
       <c r="V76" s="628">
         <v>2.5215999999999998</v>
       </c>
       <c r="W76" s="618">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.98855261094558555</v>
       </c>
       <c r="Y76" s="628">
         <v>2.4222000000000001</v>
       </c>
       <c r="Z76" s="618">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.98873377418564778</v>
       </c>
       <c r="AB76" s="628">
         <v>2.4529999999999998</v>
       </c>
       <c r="AC76" s="618">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.98827605656500539</v>
       </c>
       <c r="AF76" s="620"/>
       <c r="AG76" s="620">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.98845268871874314</v>
       </c>
       <c r="AH76" s="5">
@@ -33817,18 +34006,18 @@
         <v>-1.1499999999999955E-2</v>
       </c>
       <c r="AJ76" s="620">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.9999526887187431</v>
       </c>
       <c r="AL76" s="620">
         <v>0.98845268871874314</v>
       </c>
       <c r="AM76" s="620">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AN76" s="629">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>340.84575473060113</v>
       </c>
     </row>
@@ -33850,7 +34039,7 @@
         <v>-1.4399999999999968E-2</v>
       </c>
       <c r="G77" s="375">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-2.9000000000000137E-3</v>
       </c>
       <c r="H77" s="307" t="s">
@@ -33866,46 +34055,46 @@
         <v>2.4249999999999998</v>
       </c>
       <c r="N77" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.98577235772357719</v>
       </c>
       <c r="P77" s="230">
         <v>2.4729999999999999</v>
       </c>
       <c r="Q77" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.98565165404543642</v>
       </c>
       <c r="S77" s="230">
         <v>2.484</v>
       </c>
       <c r="T77" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.98571428571428565</v>
       </c>
       <c r="V77" s="230">
         <v>2.5135999999999998</v>
       </c>
       <c r="W77" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.98541633997177347</v>
       </c>
       <c r="Y77" s="230">
         <v>2.4152999999999998</v>
       </c>
       <c r="Z77" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.98591721773205954</v>
       </c>
       <c r="AB77" s="230">
         <v>2.4456000000000002</v>
       </c>
       <c r="AC77" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.98529471012449144</v>
       </c>
       <c r="AG77" s="594">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.98562776088527071</v>
       </c>
       <c r="AH77" s="619">
@@ -33915,18 +34104,18 @@
         <v>-1.4399999999999968E-2</v>
       </c>
       <c r="AJ77" s="371">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0000277608852706</v>
       </c>
       <c r="AL77" s="594">
         <v>0.98562776088527071</v>
       </c>
       <c r="AM77" s="371">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AN77" s="379">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>339.8716416845761</v>
       </c>
     </row>
@@ -33948,7 +34137,7 @@
         <v>-1.7399999999999971E-2</v>
       </c>
       <c r="G78" s="375">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="H78" s="307" t="s">
@@ -33964,46 +34153,46 @@
         <v>2.4180000000000001</v>
       </c>
       <c r="N78" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.98292682926829278</v>
       </c>
       <c r="P78" s="230">
         <v>2.4662000000000002</v>
       </c>
       <c r="Q78" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.98294141092068565</v>
       </c>
       <c r="S78" s="230">
         <v>2.4769999999999999</v>
       </c>
       <c r="T78" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.98293650793650789</v>
       </c>
       <c r="V78" s="230">
         <v>2.5063</v>
       </c>
       <c r="W78" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.98255449270816986</v>
       </c>
       <c r="Y78" s="230">
         <v>2.4079999999999999</v>
       </c>
       <c r="Z78" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.98293738264348096</v>
       </c>
       <c r="AB78" s="230">
         <v>2.4388000000000001</v>
       </c>
       <c r="AC78" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.9825550944764514</v>
       </c>
       <c r="AG78" s="594">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.98280861965893129</v>
       </c>
       <c r="AH78" s="5">
@@ -34013,18 +34202,18 @@
         <v>-1.7399999999999971E-2</v>
       </c>
       <c r="AJ78" s="371">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0002086196589313</v>
       </c>
       <c r="AL78" s="594">
         <v>0.98280861965893129</v>
       </c>
       <c r="AM78" s="371">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AN78" s="379">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>338.89952402032117</v>
       </c>
     </row>
@@ -34046,7 +34235,7 @@
         <v>-2.0199999999999996E-2</v>
       </c>
       <c r="G79" s="375">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>-2.8000000000000247E-3</v>
       </c>
       <c r="H79" s="307" t="s">
@@ -34062,46 +34251,46 @@
         <v>2.4117000000000002</v>
       </c>
       <c r="N79" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.98036585365853668</v>
       </c>
       <c r="P79" s="230">
         <v>2.4584999999999999</v>
       </c>
       <c r="Q79" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.97987245914707055</v>
       </c>
       <c r="S79" s="230">
         <v>2.4695</v>
       </c>
       <c r="T79" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.97996031746031742</v>
       </c>
       <c r="V79" s="230">
         <v>2.4996</v>
       </c>
       <c r="W79" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.97992786576760227</v>
       </c>
       <c r="Y79" s="230">
         <v>2.4018000000000002</v>
       </c>
       <c r="Z79" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.98040656380112656</v>
       </c>
       <c r="AB79" s="230">
         <v>2.4316</v>
       </c>
       <c r="AC79" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.97965432496676197</v>
       </c>
       <c r="AG79" s="594">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.98003123080023602</v>
       </c>
       <c r="AH79" s="619">
@@ -34111,18 +34300,18 @@
         <v>-2.0199999999999996E-2</v>
       </c>
       <c r="AJ79" s="371">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0002312308002361</v>
       </c>
       <c r="AL79" s="594">
         <v>0.98003123080023602</v>
       </c>
       <c r="AM79" s="371">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AN79" s="379">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>337.94180372421931</v>
       </c>
     </row>
@@ -34144,7 +34333,7 @@
         <v>2.3300000000000098E-2</v>
       </c>
       <c r="G80" s="626">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>4.3500000000000094E-2</v>
       </c>
       <c r="H80" s="613" t="s">
@@ -34160,47 +34349,47 @@
         <v>2.52</v>
       </c>
       <c r="N80" s="618">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.024390243902439</v>
       </c>
       <c r="P80" s="628">
         <v>2.5687000000000002</v>
       </c>
       <c r="Q80" s="618">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0237943403746514</v>
       </c>
       <c r="S80" s="628">
         <v>2.58</v>
       </c>
       <c r="T80" s="618">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0238095238095237</v>
       </c>
       <c r="V80" s="628">
         <v>2.6110000000000002</v>
       </c>
       <c r="W80" s="618">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0236004390779363</v>
       </c>
       <c r="Y80" s="628">
         <v>2.5085999999999999</v>
       </c>
       <c r="Z80" s="618">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0240019593436198</v>
       </c>
       <c r="AB80" s="628">
         <v>2.5415999999999999</v>
       </c>
       <c r="AC80" s="618">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.0239716369203498</v>
       </c>
       <c r="AF80" s="620"/>
       <c r="AG80" s="620">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.0239280239047532</v>
       </c>
       <c r="AH80" s="5">
@@ -34210,14 +34399,14 @@
         <v>2.3300000000000098E-2</v>
       </c>
       <c r="AJ80" s="620">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0006280239047531</v>
       </c>
       <c r="AL80" s="620">
         <v>1.0239280239047532</v>
       </c>
       <c r="AM80" s="620">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AN80" s="629">
@@ -34259,46 +34448,46 @@
         <v>2.5118</v>
       </c>
       <c r="N81" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0210569105691056</v>
       </c>
       <c r="P81" s="230">
         <v>2.5617000000000001</v>
       </c>
       <c r="Q81" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0210043842168195</v>
       </c>
       <c r="S81" s="230">
         <v>2.5743</v>
       </c>
       <c r="T81" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0215476190476191</v>
       </c>
       <c r="V81" s="230">
         <v>2.6030000000000002</v>
       </c>
       <c r="W81" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0204641681041242</v>
       </c>
       <c r="Y81" s="230">
         <v>2.5011999999999999</v>
       </c>
       <c r="Z81" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0209813045962934</v>
       </c>
       <c r="AB81" s="230">
         <v>2.5339999999999998</v>
       </c>
       <c r="AC81" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.0209097135490108</v>
       </c>
       <c r="AG81" s="594">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.0209940166804954</v>
       </c>
       <c r="AH81" s="619">
@@ -34308,18 +34497,18 @@
         <v>2.0399999999999974E-2</v>
       </c>
       <c r="AJ81" s="371">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0005940166804954</v>
       </c>
       <c r="AL81" s="594">
         <v>1.0209940166804954</v>
       </c>
       <c r="AM81" s="371">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AN81" s="379">
-        <f t="shared" ref="AN81:AN87" si="43">16-ABS(AL81/0.29%)</f>
+        <f t="shared" ref="AN81:AN87" si="44">16-ABS(AL81/0.29%)</f>
         <v>-336.06690230361914</v>
       </c>
     </row>
@@ -34341,7 +34530,7 @@
         <v>1.7500000000000071E-2</v>
       </c>
       <c r="G82" s="375">
-        <f t="shared" ref="G82:G87" si="44">F82-F81</f>
+        <f t="shared" ref="G82:G87" si="45">F82-F81</f>
         <v>-2.8999999999999027E-3</v>
       </c>
       <c r="H82" s="307" t="s">
@@ -34357,46 +34546,46 @@
         <v>2.5045999999999999</v>
       </c>
       <c r="N82" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.018130081300813</v>
       </c>
       <c r="P82" s="230">
         <v>2.5539999999999998</v>
       </c>
       <c r="Q82" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0179354324432044</v>
       </c>
       <c r="S82" s="230">
         <v>2.5672999999999999</v>
       </c>
       <c r="T82" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0187698412698412</v>
       </c>
       <c r="V82" s="230">
         <v>2.5949</v>
       </c>
       <c r="W82" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0172886937431393</v>
       </c>
       <c r="Y82" s="230">
         <v>2.4935999999999998</v>
       </c>
       <c r="Z82" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0178790105314719</v>
       </c>
       <c r="AB82" s="230">
         <v>2.5264000000000002</v>
       </c>
       <c r="AC82" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.0178477901776721</v>
       </c>
       <c r="AG82" s="594">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.0179751415776905</v>
       </c>
       <c r="AH82" s="5">
@@ -34406,18 +34595,18 @@
         <v>1.7500000000000071E-2</v>
       </c>
       <c r="AJ82" s="371">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0004751415776905</v>
       </c>
       <c r="AL82" s="594">
         <v>1.0179751415776905</v>
       </c>
       <c r="AM82" s="371">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AN82" s="379">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-335.02591088885885</v>
       </c>
     </row>
@@ -34439,7 +34628,7 @@
         <v>1.4599999999999946E-2</v>
       </c>
       <c r="G83" s="375">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-2.9000000000001247E-3</v>
       </c>
       <c r="H83" s="307" t="s">
@@ -34455,46 +34644,46 @@
         <v>2.4971000000000001</v>
       </c>
       <c r="N83" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0150813008130082</v>
       </c>
       <c r="P83" s="230">
         <v>2.5459999999999998</v>
       </c>
       <c r="Q83" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0147469111199681</v>
       </c>
       <c r="S83" s="230">
         <v>2.5579999999999998</v>
       </c>
       <c r="T83" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.015079365079365</v>
       </c>
       <c r="V83" s="230">
         <v>2.5878000000000001</v>
       </c>
       <c r="W83" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0145052532538812</v>
       </c>
       <c r="Y83" s="230">
         <v>2.4860000000000002</v>
       </c>
       <c r="Z83" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0147767164666504</v>
       </c>
       <c r="AB83" s="230">
         <v>2.5182000000000002</v>
       </c>
       <c r="AC83" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.0145441360138594</v>
       </c>
       <c r="AG83" s="594">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.0147889471244553</v>
       </c>
       <c r="AH83" s="619">
@@ -34504,18 +34693,18 @@
         <v>1.4599999999999946E-2</v>
       </c>
       <c r="AJ83" s="371">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0001889471244554</v>
       </c>
       <c r="AL83" s="594">
         <v>1.0147889471244553</v>
       </c>
       <c r="AM83" s="371">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AN83" s="379">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-333.92722314636393</v>
       </c>
     </row>
@@ -34537,7 +34726,7 @@
         <v>1.1700000000000044E-2</v>
       </c>
       <c r="G84" s="375">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-2.8999999999999027E-3</v>
       </c>
       <c r="H84" s="307" t="s">
@@ -34553,46 +34742,46 @@
         <v>2.4901</v>
       </c>
       <c r="N84" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0122357723577236</v>
       </c>
       <c r="P84" s="230">
         <v>2.5396000000000001</v>
       </c>
       <c r="Q84" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.012196094061379</v>
       </c>
       <c r="S84" s="230">
         <v>2.5503</v>
       </c>
       <c r="T84" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0120238095238094</v>
       </c>
       <c r="V84" s="230">
         <v>2.5804</v>
       </c>
       <c r="W84" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0116042026031049</v>
       </c>
       <c r="Y84" s="230">
         <v>2.4786999999999999</v>
       </c>
       <c r="Z84" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0117968813780716</v>
       </c>
       <c r="AB84" s="230">
         <v>2.5110000000000001</v>
       </c>
       <c r="AC84" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.01164336650417</v>
       </c>
       <c r="AG84" s="594">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.011916687738043</v>
       </c>
       <c r="AH84" s="5">
@@ -34602,18 +34791,18 @@
         <v>1.1700000000000044E-2</v>
       </c>
       <c r="AJ84" s="371">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.000216687738043</v>
       </c>
       <c r="AL84" s="594">
         <v>1.011916687738043</v>
       </c>
       <c r="AM84" s="371">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AN84" s="379">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-332.93678887518729</v>
       </c>
     </row>
@@ -34635,7 +34824,7 @@
         <v>8.799999999999919E-3</v>
       </c>
       <c r="G85" s="375">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-2.9000000000001247E-3</v>
       </c>
       <c r="H85" s="307" t="s">
@@ -34651,46 +34840,46 @@
         <v>2.4826999999999999</v>
       </c>
       <c r="N85" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0092276422764228</v>
       </c>
       <c r="P85" s="230">
         <v>2.5310999999999999</v>
       </c>
       <c r="Q85" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0088082901554405</v>
       </c>
       <c r="S85" s="230">
         <v>2.5432000000000001</v>
       </c>
       <c r="T85" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0092063492063492</v>
       </c>
       <c r="V85" s="230">
         <v>2.5724999999999998</v>
       </c>
       <c r="W85" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0085071350164652</v>
       </c>
       <c r="Y85" s="230">
         <v>2.4716</v>
       </c>
       <c r="Z85" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0088986856069881</v>
       </c>
       <c r="AB85" s="230">
         <v>2.5036999999999998</v>
       </c>
       <c r="AC85" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.0087023085290681</v>
       </c>
       <c r="AG85" s="594">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.0088917351317892</v>
       </c>
       <c r="AH85" s="619">
@@ -34700,18 +34889,18 @@
         <v>8.799999999999919E-3</v>
       </c>
       <c r="AJ85" s="371">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0000917351317893</v>
       </c>
       <c r="AL85" s="594">
         <v>1.0088917351317892</v>
       </c>
       <c r="AM85" s="371">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AN85" s="379">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-331.89370176958249</v>
       </c>
     </row>
@@ -34733,7 +34922,7 @@
         <v>5.9000000000000163E-3</v>
       </c>
       <c r="G86" s="375">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-2.8999999999999027E-3</v>
       </c>
       <c r="H86" s="307" t="s">
@@ -34749,46 +34938,46 @@
         <v>2.4752999999999998</v>
       </c>
       <c r="N86" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0062195121951218</v>
       </c>
       <c r="P86" s="230">
         <v>2.5230000000000001</v>
       </c>
       <c r="Q86" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0055799123156637</v>
       </c>
       <c r="S86" s="230">
         <v>2.5364</v>
       </c>
       <c r="T86" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0065079365079366</v>
       </c>
       <c r="V86" s="230">
         <v>2.5653000000000001</v>
       </c>
       <c r="W86" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0056844911400344</v>
       </c>
       <c r="Y86" s="230">
         <v>2.4645999999999999</v>
       </c>
       <c r="Z86" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0060413094946525</v>
       </c>
       <c r="AB86" s="230">
         <v>2.4965000000000002</v>
       </c>
       <c r="AC86" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.0058015390193789</v>
       </c>
       <c r="AG86" s="594">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.0059724501121314</v>
       </c>
       <c r="AH86" s="5">
@@ -34798,18 +34987,18 @@
         <v>5.9000000000000163E-3</v>
       </c>
       <c r="AJ86" s="371">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0000724501121314</v>
       </c>
       <c r="AL86" s="594">
         <v>1.0059724501121314</v>
       </c>
       <c r="AM86" s="371">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AN86" s="379">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-330.88705176280399</v>
       </c>
     </row>
@@ -34831,7 +35020,7 @@
         <v>2.9999999999998916E-3</v>
       </c>
       <c r="G87" s="375">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-2.9000000000001247E-3</v>
       </c>
       <c r="H87" s="327" t="s">
@@ -34847,46 +35036,46 @@
         <v>2.468</v>
       </c>
       <c r="N87" s="372">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.0032520325203251</v>
       </c>
       <c r="P87" s="235">
         <v>2.5167999999999999</v>
       </c>
       <c r="Q87" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0031088082901554</v>
       </c>
       <c r="S87" s="235">
         <v>2.5280999999999998</v>
       </c>
       <c r="T87" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0032142857142856</v>
       </c>
       <c r="V87" s="235">
         <v>2.5579000000000001</v>
       </c>
       <c r="W87" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0027834404892582</v>
       </c>
       <c r="Y87" s="235">
         <v>2.4571999999999998</v>
       </c>
       <c r="Z87" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0030206547473262</v>
       </c>
       <c r="AB87" s="235">
         <v>2.4895999999999998</v>
       </c>
       <c r="AC87" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.0030216349059264</v>
       </c>
       <c r="AG87" s="594">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.0030668094445463</v>
       </c>
       <c r="AH87" s="619">
@@ -34896,18 +35085,18 @@
         <v>2.9999999999998916E-3</v>
       </c>
       <c r="AJ87" s="371">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0000668094445464</v>
       </c>
       <c r="AL87" s="594">
         <v>1.0030668094445463</v>
       </c>
       <c r="AM87" s="371">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AN87" s="379">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-329.88510670501597</v>
       </c>
     </row>
@@ -34934,8 +35123,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet4!F11:F12</xm:f>
-              <xm:sqref>BA39</xm:sqref>
+              <xm:f>Sheet4!F11:F11</xm:f>
+              <xm:sqref>BE22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet4!F12:F12</xm:f>
+              <xm:sqref>BE23</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -34950,12 +35143,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet4!F11:F11</xm:f>
-              <xm:sqref>BE22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet4!F12:F12</xm:f>
-              <xm:sqref>BE23</xm:sqref>
+              <xm:f>Sheet4!F11:F12</xm:f>
+              <xm:sqref>BA39</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -41147,17 +41336,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:D10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:D22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C23:D26"/>
     <mergeCell ref="B39:B42"/>
@@ -41168,6 +41346,17 @@
     <mergeCell ref="C31:D34"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="C35:D38"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:D22"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SenkoMicro-SKCS-GUI - auto/Programming Discription/LABtest_公式_v1.2 (自动保存的).xlsx
+++ b/SenkoMicro-SKCS-GUI - auto/Programming Discription/LABtest_公式_v1.2 (自动保存的).xlsx
@@ -1108,11 +1108,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="165" formatCode="0.000_ "/>
     <numFmt numFmtId="166" formatCode="0.00_ "/>
     <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="168" formatCode="0.0000%"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2056,7 +2058,7 @@
     </xf>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="718">
+  <cellXfs count="720">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3040,6 +3042,100 @@
     <xf numFmtId="10" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3112,12 +3208,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3126,93 +3216,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3283,8 +3286,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="2"/>
@@ -4052,11 +4056,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="361583696"/>
-        <c:axId val="361578096"/>
+        <c:axId val="279178064"/>
+        <c:axId val="279178624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="361583696"/>
+        <c:axId val="279178064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4065,7 +4069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="361578096"/>
+        <c:crossAx val="279178624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4073,7 +4077,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361578096"/>
+        <c:axId val="279178624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4084,7 +4088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="361583696"/>
+        <c:crossAx val="279178064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4525,11 +4529,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="278309632"/>
-        <c:axId val="203417872"/>
+        <c:axId val="279326912"/>
+        <c:axId val="279327472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="278309632"/>
+        <c:axId val="279326912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4538,7 +4542,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203417872"/>
+        <c:crossAx val="279327472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4546,7 +4550,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203417872"/>
+        <c:axId val="279327472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4557,7 +4561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="278309632"/>
+        <c:crossAx val="279326912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4998,11 +5002,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="271175200"/>
-        <c:axId val="271176320"/>
+        <c:axId val="279349632"/>
+        <c:axId val="279350192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="271175200"/>
+        <c:axId val="279349632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5011,7 +5015,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="271176320"/>
+        <c:crossAx val="279350192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5019,7 +5023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="271176320"/>
+        <c:axId val="279350192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5030,7 +5034,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="271175200"/>
+        <c:crossAx val="279349632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5485,11 +5489,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="270270272"/>
-        <c:axId val="270273072"/>
+        <c:axId val="279487456"/>
+        <c:axId val="279488016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="270270272"/>
+        <c:axId val="279487456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5498,7 +5502,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270273072"/>
+        <c:crossAx val="279488016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5506,7 +5510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270273072"/>
+        <c:axId val="279488016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5521,7 +5525,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270270272"/>
+        <c:crossAx val="279487456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5648,11 +5652,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="373300144"/>
-        <c:axId val="373300704"/>
+        <c:axId val="279104016"/>
+        <c:axId val="279104576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="373300144"/>
+        <c:axId val="279104016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5695,7 +5699,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373300704"/>
+        <c:crossAx val="279104576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5703,7 +5707,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373300704"/>
+        <c:axId val="279104576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5754,7 +5758,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373300144"/>
+        <c:crossAx val="279104016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6830,50 +6834,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="48" customHeight="1" thickBot="1">
-      <c r="A1" s="635" t="s">
+      <c r="A1" s="667" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="636"/>
-      <c r="C1" s="636"/>
-      <c r="D1" s="636"/>
-      <c r="E1" s="636"/>
-      <c r="F1" s="636"/>
-      <c r="G1" s="636"/>
-      <c r="H1" s="636"/>
-      <c r="I1" s="636"/>
-      <c r="J1" s="636"/>
-      <c r="K1" s="636"/>
-      <c r="L1" s="637"/>
+      <c r="B1" s="668"/>
+      <c r="C1" s="668"/>
+      <c r="D1" s="668"/>
+      <c r="E1" s="668"/>
+      <c r="F1" s="668"/>
+      <c r="G1" s="668"/>
+      <c r="H1" s="668"/>
+      <c r="I1" s="668"/>
+      <c r="J1" s="668"/>
+      <c r="K1" s="668"/>
+      <c r="L1" s="669"/>
     </row>
     <row r="2" spans="1:12" ht="39" customHeight="1" thickBot="1">
-      <c r="A2" s="649"/>
-      <c r="B2" s="649"/>
-      <c r="C2" s="649"/>
-      <c r="D2" s="649"/>
-      <c r="E2" s="649"/>
-      <c r="F2" s="649"/>
-      <c r="G2" s="649"/>
-      <c r="H2" s="649"/>
-      <c r="I2" s="649"/>
-      <c r="J2" s="649"/>
-      <c r="K2" s="649"/>
-      <c r="L2" s="649"/>
+      <c r="A2" s="681"/>
+      <c r="B2" s="681"/>
+      <c r="C2" s="681"/>
+      <c r="D2" s="681"/>
+      <c r="E2" s="681"/>
+      <c r="F2" s="681"/>
+      <c r="G2" s="681"/>
+      <c r="H2" s="681"/>
+      <c r="I2" s="681"/>
+      <c r="J2" s="681"/>
+      <c r="K2" s="681"/>
+      <c r="L2" s="681"/>
     </row>
     <row r="3" spans="1:12" ht="27" customHeight="1" thickBot="1">
-      <c r="A3" s="661" t="s">
+      <c r="A3" s="691" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="662"/>
-      <c r="C3" s="662"/>
-      <c r="D3" s="662"/>
-      <c r="E3" s="662"/>
-      <c r="F3" s="662"/>
-      <c r="G3" s="662"/>
-      <c r="H3" s="662"/>
-      <c r="I3" s="662"/>
-      <c r="J3" s="662"/>
-      <c r="K3" s="662"/>
-      <c r="L3" s="663"/>
+      <c r="B3" s="692"/>
+      <c r="C3" s="692"/>
+      <c r="D3" s="692"/>
+      <c r="E3" s="692"/>
+      <c r="F3" s="692"/>
+      <c r="G3" s="692"/>
+      <c r="H3" s="692"/>
+      <c r="I3" s="692"/>
+      <c r="J3" s="692"/>
+      <c r="K3" s="692"/>
+      <c r="L3" s="693"/>
     </row>
     <row r="4" spans="1:12" ht="89.25" customHeight="1" thickBot="1">
       <c r="A4" s="151" t="s">
@@ -6894,11 +6898,11 @@
       <c r="F4" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="638" t="s">
+      <c r="G4" s="670" t="s">
         <v>163</v>
       </c>
-      <c r="H4" s="638"/>
-      <c r="I4" s="638"/>
+      <c r="H4" s="670"/>
+      <c r="I4" s="670"/>
       <c r="J4" s="155" t="s">
         <v>164</v>
       </c>
@@ -6906,21 +6910,21 @@
       <c r="L4" s="16"/>
     </row>
     <row r="5" spans="1:12" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A5" s="650"/>
-      <c r="B5" s="651"/>
-      <c r="C5" s="651"/>
-      <c r="D5" s="651"/>
-      <c r="E5" s="651"/>
-      <c r="F5" s="651"/>
-      <c r="G5" s="651"/>
-      <c r="H5" s="651"/>
-      <c r="I5" s="651"/>
-      <c r="J5" s="651"/>
-      <c r="K5" s="651"/>
-      <c r="L5" s="652"/>
+      <c r="A5" s="682"/>
+      <c r="B5" s="683"/>
+      <c r="C5" s="683"/>
+      <c r="D5" s="683"/>
+      <c r="E5" s="683"/>
+      <c r="F5" s="683"/>
+      <c r="G5" s="683"/>
+      <c r="H5" s="683"/>
+      <c r="I5" s="683"/>
+      <c r="J5" s="683"/>
+      <c r="K5" s="683"/>
+      <c r="L5" s="684"/>
     </row>
     <row r="6" spans="1:12" ht="15.75">
-      <c r="A6" s="639">
+      <c r="A6" s="671">
         <v>1</v>
       </c>
       <c r="B6" s="86" t="s">
@@ -6941,7 +6945,7 @@
       <c r="G6" s="88">
         <v>5.5</v>
       </c>
-      <c r="H6" s="676" t="s">
+      <c r="H6" s="640" t="s">
         <v>165</v>
       </c>
       <c r="I6" s="90"/>
@@ -6950,7 +6954,7 @@
       <c r="L6" s="170"/>
     </row>
     <row r="7" spans="1:12" ht="15.75">
-      <c r="A7" s="640"/>
+      <c r="A7" s="672"/>
       <c r="B7" s="91" t="s">
         <v>31</v>
       </c>
@@ -6959,14 +6963,14 @@
       <c r="E7" s="93"/>
       <c r="F7" s="94"/>
       <c r="G7" s="95"/>
-      <c r="H7" s="676"/>
+      <c r="H7" s="640"/>
       <c r="I7" s="90"/>
       <c r="J7" s="90"/>
       <c r="K7" s="90"/>
       <c r="L7" s="170"/>
     </row>
     <row r="8" spans="1:12" ht="15.75">
-      <c r="A8" s="640"/>
+      <c r="A8" s="672"/>
       <c r="B8" s="91" t="s">
         <v>32</v>
       </c>
@@ -6975,14 +6979,14 @@
       <c r="E8" s="166"/>
       <c r="F8" s="96"/>
       <c r="G8" s="97"/>
-      <c r="H8" s="676"/>
+      <c r="H8" s="640"/>
       <c r="I8" s="98"/>
       <c r="J8" s="98"/>
       <c r="K8" s="98"/>
       <c r="L8" s="171"/>
     </row>
     <row r="9" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A9" s="641"/>
+      <c r="A9" s="673"/>
       <c r="B9" s="99" t="s">
         <v>33</v>
       </c>
@@ -6991,28 +6995,28 @@
       <c r="E9" s="101"/>
       <c r="F9" s="100"/>
       <c r="G9" s="102"/>
-      <c r="H9" s="676"/>
+      <c r="H9" s="640"/>
       <c r="I9" s="89"/>
       <c r="J9" s="89"/>
       <c r="K9" s="89"/>
       <c r="L9" s="170"/>
     </row>
     <row r="10" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A10" s="653"/>
-      <c r="B10" s="654"/>
-      <c r="C10" s="654"/>
-      <c r="D10" s="654"/>
-      <c r="E10" s="654"/>
-      <c r="F10" s="654"/>
-      <c r="G10" s="654"/>
-      <c r="H10" s="654"/>
-      <c r="I10" s="655"/>
-      <c r="J10" s="655"/>
-      <c r="K10" s="655"/>
-      <c r="L10" s="656"/>
+      <c r="A10" s="685"/>
+      <c r="B10" s="686"/>
+      <c r="C10" s="686"/>
+      <c r="D10" s="686"/>
+      <c r="E10" s="686"/>
+      <c r="F10" s="686"/>
+      <c r="G10" s="686"/>
+      <c r="H10" s="686"/>
+      <c r="I10" s="687"/>
+      <c r="J10" s="687"/>
+      <c r="K10" s="687"/>
+      <c r="L10" s="688"/>
     </row>
     <row r="11" spans="1:12" ht="72.75" customHeight="1">
-      <c r="A11" s="646">
+      <c r="A11" s="678">
         <v>2</v>
       </c>
       <c r="B11" s="103" t="s">
@@ -7034,7 +7038,7 @@
         <v>96</v>
       </c>
       <c r="H11" s="105"/>
-      <c r="I11" s="676" t="s">
+      <c r="I11" s="640" t="s">
         <v>170</v>
       </c>
       <c r="J11" s="89"/>
@@ -7042,11 +7046,11 @@
       <c r="L11" s="172"/>
     </row>
     <row r="12" spans="1:12" ht="15.75">
-      <c r="A12" s="647"/>
-      <c r="B12" s="659">
-        <v>1</v>
-      </c>
-      <c r="C12" s="659">
+      <c r="A12" s="679"/>
+      <c r="B12" s="649">
+        <v>1</v>
+      </c>
+      <c r="C12" s="649">
         <v>1</v>
       </c>
       <c r="D12" s="106">
@@ -7058,15 +7062,15 @@
       <c r="F12" s="93"/>
       <c r="G12" s="93"/>
       <c r="H12" s="108"/>
-      <c r="I12" s="676"/>
+      <c r="I12" s="640"/>
       <c r="J12" s="109"/>
       <c r="K12" s="109"/>
       <c r="L12" s="173"/>
     </row>
     <row r="13" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A13" s="647"/>
-      <c r="B13" s="659"/>
-      <c r="C13" s="659"/>
+      <c r="A13" s="679"/>
+      <c r="B13" s="649"/>
+      <c r="C13" s="649"/>
       <c r="D13" s="106">
         <v>0</v>
       </c>
@@ -7076,15 +7080,15 @@
       <c r="F13" s="94"/>
       <c r="G13" s="94"/>
       <c r="H13" s="95"/>
-      <c r="I13" s="676"/>
+      <c r="I13" s="640"/>
       <c r="J13" s="90"/>
       <c r="K13" s="90"/>
       <c r="L13" s="170"/>
     </row>
     <row r="14" spans="1:12" ht="15.75">
-      <c r="A14" s="647"/>
-      <c r="B14" s="659"/>
-      <c r="C14" s="659"/>
+      <c r="A14" s="679"/>
+      <c r="B14" s="649"/>
+      <c r="C14" s="649"/>
       <c r="D14" s="106">
         <v>1</v>
       </c>
@@ -7094,15 +7098,15 @@
       <c r="F14" s="94"/>
       <c r="G14" s="94"/>
       <c r="H14" s="95"/>
-      <c r="I14" s="676"/>
+      <c r="I14" s="640"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
       <c r="L14" s="170"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A15" s="648"/>
-      <c r="B15" s="660"/>
-      <c r="C15" s="660"/>
+      <c r="A15" s="680"/>
+      <c r="B15" s="650"/>
+      <c r="C15" s="650"/>
       <c r="D15" s="100">
         <v>1</v>
       </c>
@@ -7112,36 +7116,36 @@
       <c r="F15" s="111"/>
       <c r="G15" s="111"/>
       <c r="H15" s="112"/>
-      <c r="I15" s="676"/>
+      <c r="I15" s="640"/>
       <c r="J15" s="90"/>
       <c r="K15" s="90"/>
       <c r="L15" s="170"/>
     </row>
     <row r="16" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A16" s="647"/>
-      <c r="B16" s="657"/>
-      <c r="C16" s="657"/>
-      <c r="D16" s="657"/>
-      <c r="E16" s="657"/>
-      <c r="F16" s="657"/>
-      <c r="G16" s="657"/>
-      <c r="H16" s="657"/>
-      <c r="I16" s="657"/>
-      <c r="J16" s="657"/>
-      <c r="K16" s="657"/>
-      <c r="L16" s="658"/>
+      <c r="A16" s="679"/>
+      <c r="B16" s="689"/>
+      <c r="C16" s="689"/>
+      <c r="D16" s="689"/>
+      <c r="E16" s="689"/>
+      <c r="F16" s="689"/>
+      <c r="G16" s="689"/>
+      <c r="H16" s="689"/>
+      <c r="I16" s="689"/>
+      <c r="J16" s="689"/>
+      <c r="K16" s="689"/>
+      <c r="L16" s="690"/>
     </row>
     <row r="17" spans="1:12" ht="15.75">
-      <c r="A17" s="642">
+      <c r="A17" s="674">
         <v>3</v>
       </c>
       <c r="B17" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="645" t="s">
+      <c r="C17" s="677" t="s">
         <v>148</v>
       </c>
-      <c r="D17" s="645"/>
+      <c r="D17" s="677"/>
       <c r="E17" s="64" t="s">
         <v>34</v>
       </c>
@@ -7161,19 +7165,19 @@
         <v>5.5</v>
       </c>
       <c r="K17" s="84"/>
-      <c r="L17" s="677" t="s">
+      <c r="L17" s="641" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75">
-      <c r="A18" s="643"/>
-      <c r="B18" s="659">
-        <v>0</v>
-      </c>
-      <c r="C18" s="659">
-        <v>1</v>
-      </c>
-      <c r="D18" s="659"/>
+      <c r="A18" s="675"/>
+      <c r="B18" s="649">
+        <v>0</v>
+      </c>
+      <c r="C18" s="649">
+        <v>1</v>
+      </c>
+      <c r="D18" s="649"/>
       <c r="E18" s="59" t="s">
         <v>36</v>
       </c>
@@ -7183,13 +7187,13 @@
       <c r="I18" s="93"/>
       <c r="J18" s="93"/>
       <c r="K18" s="108"/>
-      <c r="L18" s="677"/>
+      <c r="L18" s="641"/>
     </row>
     <row r="19" spans="1:12" ht="15.75">
-      <c r="A19" s="643"/>
-      <c r="B19" s="659"/>
-      <c r="C19" s="659"/>
-      <c r="D19" s="659"/>
+      <c r="A19" s="675"/>
+      <c r="B19" s="649"/>
+      <c r="C19" s="649"/>
+      <c r="D19" s="649"/>
       <c r="E19" s="59" t="s">
         <v>37</v>
       </c>
@@ -7199,13 +7203,13 @@
       <c r="I19" s="93"/>
       <c r="J19" s="93"/>
       <c r="K19" s="108"/>
-      <c r="L19" s="677"/>
+      <c r="L19" s="641"/>
     </row>
     <row r="20" spans="1:12" ht="15.75">
-      <c r="A20" s="643"/>
-      <c r="B20" s="659"/>
-      <c r="C20" s="659"/>
-      <c r="D20" s="659"/>
+      <c r="A20" s="675"/>
+      <c r="B20" s="649"/>
+      <c r="C20" s="649"/>
+      <c r="D20" s="649"/>
       <c r="E20" s="59" t="s">
         <v>38</v>
       </c>
@@ -7215,13 +7219,13 @@
       <c r="I20" s="93"/>
       <c r="J20" s="93"/>
       <c r="K20" s="108"/>
-      <c r="L20" s="677"/>
+      <c r="L20" s="641"/>
     </row>
     <row r="21" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A21" s="644"/>
-      <c r="B21" s="660"/>
-      <c r="C21" s="660"/>
-      <c r="D21" s="660"/>
+      <c r="A21" s="676"/>
+      <c r="B21" s="650"/>
+      <c r="C21" s="650"/>
+      <c r="D21" s="650"/>
       <c r="E21" s="85" t="s">
         <v>35</v>
       </c>
@@ -7246,24 +7250,24 @@
         <v>0</v>
       </c>
       <c r="K21" s="114"/>
-      <c r="L21" s="677"/>
+      <c r="L21" s="641"/>
     </row>
     <row r="22" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A22" s="672"/>
-      <c r="B22" s="673"/>
-      <c r="C22" s="673"/>
-      <c r="D22" s="673"/>
-      <c r="E22" s="673"/>
-      <c r="F22" s="673"/>
-      <c r="G22" s="673"/>
-      <c r="H22" s="673"/>
-      <c r="I22" s="673"/>
-      <c r="J22" s="673"/>
-      <c r="K22" s="673"/>
-      <c r="L22" s="674"/>
+      <c r="A22" s="636"/>
+      <c r="B22" s="637"/>
+      <c r="C22" s="637"/>
+      <c r="D22" s="637"/>
+      <c r="E22" s="637"/>
+      <c r="F22" s="637"/>
+      <c r="G22" s="637"/>
+      <c r="H22" s="637"/>
+      <c r="I22" s="637"/>
+      <c r="J22" s="637"/>
+      <c r="K22" s="637"/>
+      <c r="L22" s="638"/>
     </row>
     <row r="23" spans="1:12" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A23" s="665">
+      <c r="A23" s="661">
         <v>4</v>
       </c>
       <c r="B23" s="161" t="s">
@@ -7293,7 +7297,7 @@
       <c r="L23" s="174"/>
     </row>
     <row r="24" spans="1:12" ht="22.5" customHeight="1">
-      <c r="A24" s="666"/>
+      <c r="A24" s="662"/>
       <c r="B24" s="162">
         <v>0</v>
       </c>
@@ -7310,13 +7314,13 @@
       </c>
       <c r="I24" s="93"/>
       <c r="J24" s="108"/>
-      <c r="K24" s="678" t="s">
+      <c r="K24" s="642" t="s">
         <v>172</v>
       </c>
       <c r="L24" s="174"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1">
-      <c r="A25" s="666"/>
+      <c r="A25" s="662"/>
       <c r="B25" s="162">
         <v>0</v>
       </c>
@@ -7333,11 +7337,11 @@
       </c>
       <c r="I25" s="93"/>
       <c r="J25" s="108"/>
-      <c r="K25" s="678"/>
+      <c r="K25" s="642"/>
       <c r="L25" s="174"/>
     </row>
     <row r="26" spans="1:12" ht="15" customHeight="1">
-      <c r="A26" s="666"/>
+      <c r="A26" s="662"/>
       <c r="B26" s="162">
         <v>1</v>
       </c>
@@ -7354,11 +7358,11 @@
       </c>
       <c r="I26" s="93"/>
       <c r="J26" s="108"/>
-      <c r="K26" s="678"/>
+      <c r="K26" s="642"/>
       <c r="L26" s="174"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A27" s="667"/>
+      <c r="A27" s="663"/>
       <c r="B27" s="163">
         <v>1</v>
       </c>
@@ -7375,7 +7379,7 @@
       </c>
       <c r="I27" s="113"/>
       <c r="J27" s="114"/>
-      <c r="K27" s="678"/>
+      <c r="K27" s="642"/>
       <c r="L27" s="175"/>
     </row>
     <row r="28" spans="1:12" ht="18.75" customHeight="1">
@@ -7393,7 +7397,7 @@
       <c r="L28" s="175"/>
     </row>
     <row r="29" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A29" s="669">
+      <c r="A29" s="656">
         <v>5</v>
       </c>
       <c r="B29" s="106" t="s">
@@ -7409,7 +7413,7 @@
         <v>174</v>
       </c>
       <c r="F29" s="160"/>
-      <c r="G29" s="670" t="s">
+      <c r="G29" s="665" t="s">
         <v>175</v>
       </c>
       <c r="H29" s="109"/>
@@ -7419,8 +7423,8 @@
       <c r="L29" s="175"/>
     </row>
     <row r="30" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A30" s="669"/>
-      <c r="B30" s="668">
+      <c r="A30" s="656"/>
+      <c r="B30" s="664">
         <v>1</v>
       </c>
       <c r="C30" s="107">
@@ -7429,7 +7433,7 @@
       <c r="D30" s="164"/>
       <c r="E30" s="165"/>
       <c r="F30" s="160"/>
-      <c r="G30" s="670"/>
+      <c r="G30" s="665"/>
       <c r="H30" s="109"/>
       <c r="I30" s="160"/>
       <c r="J30" s="160"/>
@@ -7437,15 +7441,15 @@
       <c r="L30" s="175"/>
     </row>
     <row r="31" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A31" s="669"/>
-      <c r="B31" s="668"/>
+      <c r="A31" s="656"/>
+      <c r="B31" s="664"/>
       <c r="C31" s="107">
         <v>1</v>
       </c>
       <c r="D31" s="164"/>
       <c r="E31" s="165"/>
       <c r="F31" s="160"/>
-      <c r="G31" s="670"/>
+      <c r="G31" s="665"/>
       <c r="H31" s="109"/>
       <c r="I31" s="160"/>
       <c r="J31" s="160"/>
@@ -7453,50 +7457,50 @@
       <c r="L31" s="175"/>
     </row>
     <row r="32" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A32" s="680" t="s">
+      <c r="A32" s="644" t="s">
         <v>176</v>
       </c>
-      <c r="B32" s="679"/>
-      <c r="C32" s="679"/>
-      <c r="D32" s="679"/>
-      <c r="E32" s="679"/>
-      <c r="F32" s="679"/>
-      <c r="G32" s="679"/>
-      <c r="H32" s="679"/>
-      <c r="I32" s="679"/>
-      <c r="J32" s="679"/>
-      <c r="K32" s="679"/>
-      <c r="L32" s="681"/>
+      <c r="B32" s="643"/>
+      <c r="C32" s="643"/>
+      <c r="D32" s="643"/>
+      <c r="E32" s="643"/>
+      <c r="F32" s="643"/>
+      <c r="G32" s="643"/>
+      <c r="H32" s="643"/>
+      <c r="I32" s="643"/>
+      <c r="J32" s="643"/>
+      <c r="K32" s="643"/>
+      <c r="L32" s="645"/>
     </row>
     <row r="33" spans="1:31" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A33" s="679"/>
-      <c r="B33" s="679"/>
-      <c r="C33" s="679"/>
-      <c r="D33" s="679"/>
-      <c r="E33" s="679"/>
-      <c r="F33" s="679"/>
-      <c r="G33" s="679"/>
-      <c r="H33" s="679"/>
-      <c r="I33" s="679"/>
-      <c r="J33" s="679"/>
-      <c r="K33" s="679"/>
-      <c r="L33" s="679"/>
+      <c r="A33" s="643"/>
+      <c r="B33" s="643"/>
+      <c r="C33" s="643"/>
+      <c r="D33" s="643"/>
+      <c r="E33" s="643"/>
+      <c r="F33" s="643"/>
+      <c r="G33" s="643"/>
+      <c r="H33" s="643"/>
+      <c r="I33" s="643"/>
+      <c r="J33" s="643"/>
+      <c r="K33" s="643"/>
+      <c r="L33" s="643"/>
     </row>
     <row r="34" spans="1:31" ht="27" customHeight="1" thickBot="1">
-      <c r="A34" s="682" t="s">
+      <c r="A34" s="646" t="s">
         <v>250</v>
       </c>
-      <c r="B34" s="683"/>
-      <c r="C34" s="683"/>
-      <c r="D34" s="683"/>
-      <c r="E34" s="683"/>
-      <c r="F34" s="683"/>
-      <c r="G34" s="683"/>
-      <c r="H34" s="683"/>
-      <c r="I34" s="683"/>
-      <c r="J34" s="683"/>
-      <c r="K34" s="683"/>
-      <c r="L34" s="684"/>
+      <c r="B34" s="647"/>
+      <c r="C34" s="647"/>
+      <c r="D34" s="647"/>
+      <c r="E34" s="647"/>
+      <c r="F34" s="647"/>
+      <c r="G34" s="647"/>
+      <c r="H34" s="647"/>
+      <c r="I34" s="647"/>
+      <c r="J34" s="647"/>
+      <c r="K34" s="647"/>
+      <c r="L34" s="648"/>
     </row>
     <row r="35" spans="1:31" ht="16.5" thickBot="1">
       <c r="A35" s="115"/>
@@ -7537,19 +7541,19 @@
         <v>24</v>
       </c>
       <c r="J36" s="17"/>
-      <c r="K36" s="671" t="s">
+      <c r="K36" s="666" t="s">
         <v>161</v>
       </c>
-      <c r="L36" s="664"/>
-      <c r="M36" s="664"/>
-      <c r="N36" s="664"/>
-      <c r="O36" s="664"/>
-      <c r="P36" s="664"/>
-      <c r="Q36" s="664"/>
-      <c r="R36" s="664"/>
-      <c r="S36" s="664"/>
-      <c r="T36" s="664"/>
-      <c r="U36" s="664"/>
+      <c r="L36" s="660"/>
+      <c r="M36" s="660"/>
+      <c r="N36" s="660"/>
+      <c r="O36" s="660"/>
+      <c r="P36" s="660"/>
+      <c r="Q36" s="660"/>
+      <c r="R36" s="660"/>
+      <c r="S36" s="660"/>
+      <c r="T36" s="660"/>
+      <c r="U36" s="660"/>
       <c r="V36" s="9"/>
       <c r="W36" s="29"/>
       <c r="X36" s="9"/>
@@ -7587,10 +7591,10 @@
       <c r="I37" s="81">
         <v>1</v>
       </c>
-      <c r="J37" s="691" t="s">
+      <c r="J37" s="658" t="s">
         <v>156</v>
       </c>
-      <c r="K37" s="671"/>
+      <c r="K37" s="666"/>
       <c r="N37" s="4"/>
       <c r="O37" s="6"/>
       <c r="R37" s="9"/>
@@ -7633,8 +7637,8 @@
       <c r="I38" s="81">
         <v>0</v>
       </c>
-      <c r="J38" s="692"/>
-      <c r="K38" s="671"/>
+      <c r="J38" s="659"/>
+      <c r="K38" s="666"/>
       <c r="N38" s="5"/>
       <c r="O38" s="6"/>
       <c r="R38" s="9"/>
@@ -7676,8 +7680,8 @@
       <c r="I39" s="81">
         <v>1</v>
       </c>
-      <c r="J39" s="692"/>
-      <c r="K39" s="671"/>
+      <c r="J39" s="659"/>
+      <c r="K39" s="666"/>
       <c r="N39" s="5"/>
       <c r="O39" s="6"/>
       <c r="R39" s="9"/>
@@ -7719,8 +7723,8 @@
       <c r="I40" s="81">
         <v>0</v>
       </c>
-      <c r="J40" s="692"/>
-      <c r="K40" s="671"/>
+      <c r="J40" s="659"/>
+      <c r="K40" s="666"/>
       <c r="N40" s="5"/>
       <c r="O40" s="6"/>
       <c r="R40" s="9"/>
@@ -7762,8 +7766,8 @@
       <c r="I41" s="81">
         <v>1</v>
       </c>
-      <c r="J41" s="692"/>
-      <c r="K41" s="671"/>
+      <c r="J41" s="659"/>
+      <c r="K41" s="666"/>
       <c r="N41" s="5"/>
       <c r="O41" s="6"/>
       <c r="R41" s="9"/>
@@ -7805,8 +7809,8 @@
       <c r="I42" s="81">
         <v>0</v>
       </c>
-      <c r="J42" s="692"/>
-      <c r="K42" s="671"/>
+      <c r="J42" s="659"/>
+      <c r="K42" s="666"/>
       <c r="N42" s="5"/>
       <c r="O42" s="6"/>
       <c r="R42" s="9"/>
@@ -7848,8 +7852,8 @@
       <c r="I43" s="81">
         <v>1</v>
       </c>
-      <c r="J43" s="692"/>
-      <c r="K43" s="671"/>
+      <c r="J43" s="659"/>
+      <c r="K43" s="666"/>
       <c r="N43" s="5"/>
       <c r="O43" s="6"/>
       <c r="R43" s="9"/>
@@ -7891,8 +7895,8 @@
       <c r="I44" s="81">
         <v>0</v>
       </c>
-      <c r="J44" s="692"/>
-      <c r="K44" s="671"/>
+      <c r="J44" s="659"/>
+      <c r="K44" s="666"/>
       <c r="N44" s="5"/>
       <c r="O44" s="6"/>
       <c r="R44" s="9"/>
@@ -7934,8 +7938,8 @@
       <c r="I45" s="81">
         <v>1</v>
       </c>
-      <c r="J45" s="692"/>
-      <c r="K45" s="671"/>
+      <c r="J45" s="659"/>
+      <c r="K45" s="666"/>
       <c r="N45" s="5"/>
       <c r="O45" s="6"/>
       <c r="R45" s="9"/>
@@ -7977,8 +7981,8 @@
       <c r="I46" s="81">
         <v>0</v>
       </c>
-      <c r="J46" s="692"/>
-      <c r="K46" s="671"/>
+      <c r="J46" s="659"/>
+      <c r="K46" s="666"/>
       <c r="N46" s="5"/>
       <c r="O46" s="6"/>
       <c r="R46" s="9"/>
@@ -8020,8 +8024,8 @@
       <c r="I47" s="81">
         <v>1</v>
       </c>
-      <c r="J47" s="692"/>
-      <c r="K47" s="671"/>
+      <c r="J47" s="659"/>
+      <c r="K47" s="666"/>
       <c r="N47" s="5"/>
       <c r="O47" s="6"/>
       <c r="R47" s="9"/>
@@ -8063,8 +8067,8 @@
       <c r="I48" s="81">
         <v>0</v>
       </c>
-      <c r="J48" s="692"/>
-      <c r="K48" s="671"/>
+      <c r="J48" s="659"/>
+      <c r="K48" s="666"/>
       <c r="N48" s="5"/>
       <c r="O48" s="6"/>
       <c r="R48" s="9"/>
@@ -8106,8 +8110,8 @@
       <c r="I49" s="81">
         <v>1</v>
       </c>
-      <c r="J49" s="692"/>
-      <c r="K49" s="671"/>
+      <c r="J49" s="659"/>
+      <c r="K49" s="666"/>
       <c r="N49" s="5"/>
       <c r="O49" s="6"/>
       <c r="X49" s="9"/>
@@ -8139,8 +8143,8 @@
       <c r="I50" s="81">
         <v>0</v>
       </c>
-      <c r="J50" s="692"/>
-      <c r="K50" s="671"/>
+      <c r="J50" s="659"/>
+      <c r="K50" s="666"/>
       <c r="N50" s="5"/>
       <c r="O50" s="6"/>
       <c r="X50" s="9"/>
@@ -8172,8 +8176,8 @@
       <c r="I51" s="81">
         <v>1</v>
       </c>
-      <c r="J51" s="692"/>
-      <c r="K51" s="671"/>
+      <c r="J51" s="659"/>
+      <c r="K51" s="666"/>
       <c r="N51" s="5"/>
       <c r="O51" s="6"/>
       <c r="X51" s="9"/>
@@ -8205,8 +8209,8 @@
       <c r="I52" s="81">
         <v>0</v>
       </c>
-      <c r="J52" s="692"/>
-      <c r="K52" s="671"/>
+      <c r="J52" s="659"/>
+      <c r="K52" s="666"/>
       <c r="N52" s="3"/>
       <c r="O52" s="6"/>
     </row>
@@ -8232,7 +8236,7 @@
         <v>21</v>
       </c>
       <c r="I53" s="128"/>
-      <c r="J53" s="686" t="s">
+      <c r="J53" s="652" t="s">
         <v>177</v>
       </c>
       <c r="K53" s="10"/>
@@ -8296,7 +8300,7 @@
         <v>25</v>
       </c>
       <c r="I54" s="81"/>
-      <c r="J54" s="687"/>
+      <c r="J54" s="653"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8">
         <v>0.5</v>
@@ -8362,7 +8366,7 @@
         <v>45</v>
       </c>
       <c r="I55" s="81"/>
-      <c r="J55" s="687"/>
+      <c r="J55" s="653"/>
       <c r="K55" s="10"/>
       <c r="L55" s="10"/>
       <c r="M55" s="9"/>
@@ -8426,7 +8430,7 @@
         <v>46</v>
       </c>
       <c r="I56" s="81"/>
-      <c r="J56" s="687"/>
+      <c r="J56" s="653"/>
       <c r="K56" s="9"/>
       <c r="L56" s="10"/>
       <c r="M56" s="9"/>
@@ -8489,7 +8493,7 @@
         <v>47</v>
       </c>
       <c r="I57" s="81"/>
-      <c r="J57" s="687"/>
+      <c r="J57" s="653"/>
       <c r="K57" s="10"/>
       <c r="L57" s="10"/>
       <c r="M57" s="9"/>
@@ -8552,7 +8556,7 @@
         <v>48</v>
       </c>
       <c r="I58" s="81"/>
-      <c r="J58" s="687"/>
+      <c r="J58" s="653"/>
       <c r="K58" s="10"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
@@ -8613,7 +8617,7 @@
         <v>49</v>
       </c>
       <c r="I59" s="81"/>
-      <c r="J59" s="687"/>
+      <c r="J59" s="653"/>
       <c r="K59" s="10"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
@@ -8675,7 +8679,7 @@
         <v>50</v>
       </c>
       <c r="I60" s="81"/>
-      <c r="J60" s="687"/>
+      <c r="J60" s="653"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -8736,7 +8740,7 @@
         <v>51</v>
       </c>
       <c r="I61" s="81"/>
-      <c r="J61" s="687"/>
+      <c r="J61" s="653"/>
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
@@ -8797,7 +8801,7 @@
         <v>52</v>
       </c>
       <c r="I62" s="81"/>
-      <c r="J62" s="687"/>
+      <c r="J62" s="653"/>
       <c r="K62" s="9"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
@@ -8857,7 +8861,7 @@
         <v>53</v>
       </c>
       <c r="I63" s="81"/>
-      <c r="J63" s="687"/>
+      <c r="J63" s="653"/>
       <c r="K63" s="10"/>
       <c r="L63" s="10"/>
       <c r="M63" s="9"/>
@@ -8916,7 +8920,7 @@
         <v>54</v>
       </c>
       <c r="I64" s="81"/>
-      <c r="J64" s="687"/>
+      <c r="J64" s="653"/>
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
@@ -8976,7 +8980,7 @@
         <v>55</v>
       </c>
       <c r="I65" s="81"/>
-      <c r="J65" s="687"/>
+      <c r="J65" s="653"/>
       <c r="K65" s="9"/>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
@@ -9036,7 +9040,7 @@
         <v>56</v>
       </c>
       <c r="I66" s="81"/>
-      <c r="J66" s="687"/>
+      <c r="J66" s="653"/>
       <c r="K66" s="10"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
@@ -9095,7 +9099,7 @@
         <v>57</v>
       </c>
       <c r="I67" s="81"/>
-      <c r="J67" s="687"/>
+      <c r="J67" s="653"/>
       <c r="K67" s="10"/>
       <c r="L67" s="8"/>
       <c r="M67" s="9"/>
@@ -9154,7 +9158,7 @@
         <v>58</v>
       </c>
       <c r="I68" s="81"/>
-      <c r="J68" s="687"/>
+      <c r="J68" s="653"/>
       <c r="K68" s="9"/>
       <c r="L68" s="8"/>
       <c r="M68" s="9"/>
@@ -9214,7 +9218,7 @@
         <v>59</v>
       </c>
       <c r="I69" s="81"/>
-      <c r="J69" s="687"/>
+      <c r="J69" s="653"/>
       <c r="K69" s="9"/>
       <c r="L69" s="8"/>
       <c r="M69" s="9"/>
@@ -9273,7 +9277,7 @@
         <v>60</v>
       </c>
       <c r="I70" s="81"/>
-      <c r="J70" s="687"/>
+      <c r="J70" s="653"/>
       <c r="K70" s="8"/>
       <c r="L70" s="8"/>
       <c r="M70" s="9"/>
@@ -10158,24 +10162,24 @@
       <c r="I85" s="23"/>
       <c r="J85" s="7"/>
       <c r="K85" s="9"/>
-      <c r="L85" s="685"/>
-      <c r="M85" s="685"/>
-      <c r="N85" s="685">
-        <v>0</v>
-      </c>
-      <c r="O85" s="685">
-        <v>0</v>
-      </c>
-      <c r="P85" s="685">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="685">
-        <v>0</v>
-      </c>
-      <c r="R85" s="685">
-        <v>0</v>
-      </c>
-      <c r="S85" s="685">
+      <c r="L85" s="651"/>
+      <c r="M85" s="651"/>
+      <c r="N85" s="651">
+        <v>0</v>
+      </c>
+      <c r="O85" s="651">
+        <v>0</v>
+      </c>
+      <c r="P85" s="651">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="651">
+        <v>0</v>
+      </c>
+      <c r="R85" s="651">
+        <v>0</v>
+      </c>
+      <c r="S85" s="651">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
@@ -10192,7 +10196,7 @@
       <c r="AF86" s="167"/>
     </row>
     <row r="87" spans="1:32" ht="15.75">
-      <c r="A87" s="689" t="s">
+      <c r="A87" s="655" t="s">
         <v>87</v>
       </c>
       <c r="B87" s="63" t="s">
@@ -10224,7 +10228,7 @@
       <c r="AF87" s="167"/>
     </row>
     <row r="88" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A88" s="669"/>
+      <c r="A88" s="656"/>
       <c r="B88" s="19">
         <v>0</v>
       </c>
@@ -10248,12 +10252,12 @@
         <v>0</v>
       </c>
       <c r="J88" s="58"/>
-      <c r="K88" s="688" t="s">
+      <c r="K88" s="654" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="15.75" customHeight="1">
-      <c r="A89" s="669"/>
+      <c r="A89" s="656"/>
       <c r="B89" s="19">
         <v>0</v>
       </c>
@@ -10277,14 +10281,14 @@
         <v>4</v>
       </c>
       <c r="J89" s="13"/>
-      <c r="K89" s="688"/>
+      <c r="K89" s="654"/>
       <c r="L89" s="56"/>
       <c r="N89" s="11"/>
       <c r="O89" s="6"/>
       <c r="S89" s="32"/>
     </row>
     <row r="90" spans="1:32" ht="15.75">
-      <c r="A90" s="669"/>
+      <c r="A90" s="656"/>
       <c r="B90" s="19">
         <v>0</v>
       </c>
@@ -10308,14 +10312,14 @@
         <v>2</v>
       </c>
       <c r="J90" s="13"/>
-      <c r="K90" s="688"/>
+      <c r="K90" s="654"/>
       <c r="L90" s="56"/>
       <c r="N90" s="11"/>
       <c r="O90" s="6"/>
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:32" ht="15.75">
-      <c r="A91" s="669"/>
+      <c r="A91" s="656"/>
       <c r="B91" s="19">
         <v>0</v>
       </c>
@@ -10339,14 +10343,14 @@
         <v>6</v>
       </c>
       <c r="J91" s="13"/>
-      <c r="K91" s="688"/>
+      <c r="K91" s="654"/>
       <c r="L91" s="56"/>
       <c r="N91" s="11"/>
       <c r="O91" s="6"/>
       <c r="S91" s="32"/>
     </row>
     <row r="92" spans="1:32" ht="15.75">
-      <c r="A92" s="669"/>
+      <c r="A92" s="656"/>
       <c r="B92" s="19">
         <v>0</v>
       </c>
@@ -10370,14 +10374,14 @@
         <v>1</v>
       </c>
       <c r="J92" s="13"/>
-      <c r="K92" s="688"/>
+      <c r="K92" s="654"/>
       <c r="L92" s="56"/>
       <c r="N92" s="11"/>
       <c r="O92" s="6"/>
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:32" ht="15.75">
-      <c r="A93" s="669"/>
+      <c r="A93" s="656"/>
       <c r="B93" s="19">
         <v>0</v>
       </c>
@@ -10401,14 +10405,14 @@
         <v>5</v>
       </c>
       <c r="J93" s="13"/>
-      <c r="K93" s="688"/>
+      <c r="K93" s="654"/>
       <c r="L93" s="56"/>
       <c r="N93" s="11"/>
       <c r="O93" s="6"/>
       <c r="S93" s="32"/>
     </row>
     <row r="94" spans="1:32" ht="15.75">
-      <c r="A94" s="669"/>
+      <c r="A94" s="656"/>
       <c r="B94" s="19">
         <v>0</v>
       </c>
@@ -10432,14 +10436,14 @@
         <v>3</v>
       </c>
       <c r="J94" s="13"/>
-      <c r="K94" s="688"/>
+      <c r="K94" s="654"/>
       <c r="L94" s="56"/>
       <c r="N94" s="11"/>
       <c r="O94" s="6"/>
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A95" s="669"/>
+      <c r="A95" s="656"/>
       <c r="B95" s="19">
         <v>0</v>
       </c>
@@ -10463,14 +10467,14 @@
         <v>7</v>
       </c>
       <c r="J95" s="13"/>
-      <c r="K95" s="688"/>
+      <c r="K95" s="654"/>
       <c r="L95" s="56"/>
       <c r="N95" s="11"/>
       <c r="O95" s="6"/>
       <c r="S95" s="32"/>
     </row>
     <row r="96" spans="1:32" ht="15.75">
-      <c r="A96" s="669"/>
+      <c r="A96" s="656"/>
       <c r="B96" s="19">
         <v>1</v>
       </c>
@@ -10496,14 +10500,14 @@
       <c r="J96" s="148">
         <v>13.6</v>
       </c>
-      <c r="K96" s="688"/>
+      <c r="K96" s="654"/>
       <c r="L96" s="56"/>
       <c r="N96" s="11"/>
       <c r="O96" s="6"/>
       <c r="S96" s="32"/>
     </row>
     <row r="97" spans="1:19" ht="15.75">
-      <c r="A97" s="669"/>
+      <c r="A97" s="656"/>
       <c r="B97" s="19">
         <v>1</v>
       </c>
@@ -10527,14 +10531,14 @@
         <v>4</v>
       </c>
       <c r="J97" s="13"/>
-      <c r="K97" s="688"/>
+      <c r="K97" s="654"/>
       <c r="L97" s="56"/>
       <c r="N97" s="11"/>
       <c r="O97" s="6"/>
       <c r="S97" s="32"/>
     </row>
     <row r="98" spans="1:19" ht="15.75">
-      <c r="A98" s="669"/>
+      <c r="A98" s="656"/>
       <c r="B98" s="19">
         <v>1</v>
       </c>
@@ -10558,14 +10562,14 @@
         <v>2</v>
       </c>
       <c r="J98" s="13"/>
-      <c r="K98" s="688"/>
+      <c r="K98" s="654"/>
       <c r="L98" s="56"/>
       <c r="N98" s="11"/>
       <c r="O98" s="6"/>
       <c r="S98" s="32"/>
     </row>
     <row r="99" spans="1:19" ht="15.75">
-      <c r="A99" s="669"/>
+      <c r="A99" s="656"/>
       <c r="B99" s="19">
         <v>1</v>
       </c>
@@ -10589,14 +10593,14 @@
         <v>6</v>
       </c>
       <c r="J99" s="13"/>
-      <c r="K99" s="688"/>
+      <c r="K99" s="654"/>
       <c r="L99" s="56"/>
       <c r="N99" s="11"/>
       <c r="O99" s="6"/>
       <c r="S99" s="32"/>
     </row>
     <row r="100" spans="1:19" ht="15.75">
-      <c r="A100" s="669"/>
+      <c r="A100" s="656"/>
       <c r="B100" s="19">
         <v>1</v>
       </c>
@@ -10620,14 +10624,14 @@
         <v>1</v>
       </c>
       <c r="J100" s="13"/>
-      <c r="K100" s="688"/>
+      <c r="K100" s="654"/>
       <c r="L100" s="56"/>
       <c r="N100" s="11"/>
       <c r="O100" s="6"/>
       <c r="S100" s="32"/>
     </row>
     <row r="101" spans="1:19" ht="15.75">
-      <c r="A101" s="669"/>
+      <c r="A101" s="656"/>
       <c r="B101" s="19">
         <v>1</v>
       </c>
@@ -10651,14 +10655,14 @@
         <v>5</v>
       </c>
       <c r="J101" s="13"/>
-      <c r="K101" s="688"/>
+      <c r="K101" s="654"/>
       <c r="L101" s="56"/>
       <c r="N101" s="11"/>
       <c r="O101" s="6"/>
       <c r="S101" s="32"/>
     </row>
     <row r="102" spans="1:19" ht="15.75">
-      <c r="A102" s="669"/>
+      <c r="A102" s="656"/>
       <c r="B102" s="19">
         <v>1</v>
       </c>
@@ -10682,14 +10686,14 @@
         <v>3</v>
       </c>
       <c r="J102" s="13"/>
-      <c r="K102" s="688"/>
+      <c r="K102" s="654"/>
       <c r="L102" s="56"/>
       <c r="N102" s="11"/>
       <c r="O102" s="6"/>
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A103" s="669"/>
+      <c r="A103" s="656"/>
       <c r="B103" s="19">
         <v>1</v>
       </c>
@@ -10713,14 +10717,14 @@
         <v>7</v>
       </c>
       <c r="J103" s="13"/>
-      <c r="K103" s="688"/>
+      <c r="K103" s="654"/>
       <c r="L103" s="56"/>
       <c r="N103" s="11"/>
       <c r="O103" s="6"/>
       <c r="S103" s="32"/>
     </row>
     <row r="104" spans="1:19" ht="15.75">
-      <c r="A104" s="669"/>
+      <c r="A104" s="656"/>
       <c r="B104" s="132" t="s">
         <v>149</v>
       </c>
@@ -10748,7 +10752,7 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="15.75">
-      <c r="A105" s="669"/>
+      <c r="A105" s="656"/>
       <c r="B105" s="19">
         <v>0</v>
       </c>
@@ -10772,7 +10776,7 @@
       <c r="J105" s="146">
         <v>1</v>
       </c>
-      <c r="K105" s="675" t="s">
+      <c r="K105" s="639" t="s">
         <v>159</v>
       </c>
       <c r="L105" s="2" t="s">
@@ -10782,7 +10786,7 @@
       <c r="S105" s="32"/>
     </row>
     <row r="106" spans="1:19" ht="15.75">
-      <c r="A106" s="669"/>
+      <c r="A106" s="656"/>
       <c r="B106" s="19">
         <v>0</v>
       </c>
@@ -10806,7 +10810,7 @@
       <c r="J106" s="146">
         <v>0.99719999999999998</v>
       </c>
-      <c r="K106" s="675"/>
+      <c r="K106" s="639"/>
       <c r="L106" t="s">
         <v>157</v>
       </c>
@@ -10815,7 +10819,7 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="15.75">
-      <c r="A107" s="669"/>
+      <c r="A107" s="656"/>
       <c r="B107" s="19">
         <v>0</v>
       </c>
@@ -10839,14 +10843,14 @@
       <c r="J107" s="146">
         <v>0.99429999999999996</v>
       </c>
-      <c r="K107" s="675"/>
+      <c r="K107" s="639"/>
       <c r="L107" s="12"/>
       <c r="O107" s="6"/>
       <c r="Q107" s="11"/>
       <c r="S107" s="32"/>
     </row>
     <row r="108" spans="1:19" ht="15.75">
-      <c r="A108" s="669"/>
+      <c r="A108" s="656"/>
       <c r="B108" s="19">
         <v>0</v>
       </c>
@@ -10870,14 +10874,14 @@
       <c r="J108" s="3">
         <v>0.99139999999999995</v>
       </c>
-      <c r="K108" s="675"/>
+      <c r="K108" s="639"/>
       <c r="L108" s="12"/>
       <c r="O108" s="6"/>
       <c r="Q108" s="11"/>
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="15.75">
-      <c r="A109" s="669"/>
+      <c r="A109" s="656"/>
       <c r="B109" s="19">
         <v>0</v>
       </c>
@@ -10901,14 +10905,14 @@
       <c r="J109" s="3">
         <v>0.98850000000000005</v>
       </c>
-      <c r="K109" s="675"/>
+      <c r="K109" s="639"/>
       <c r="L109" s="12"/>
       <c r="O109" s="6"/>
       <c r="Q109" s="11"/>
       <c r="S109" s="32"/>
     </row>
     <row r="110" spans="1:19" ht="15.75">
-      <c r="A110" s="669"/>
+      <c r="A110" s="656"/>
       <c r="B110" s="19">
         <v>0</v>
       </c>
@@ -10932,14 +10936,14 @@
       <c r="J110" s="3">
         <v>0.98560000000000003</v>
       </c>
-      <c r="K110" s="675"/>
+      <c r="K110" s="639"/>
       <c r="L110" s="57"/>
       <c r="O110" s="6"/>
       <c r="Q110" s="11"/>
       <c r="S110" s="32"/>
     </row>
     <row r="111" spans="1:19" ht="15.75">
-      <c r="A111" s="669"/>
+      <c r="A111" s="656"/>
       <c r="B111" s="19">
         <v>0</v>
       </c>
@@ -10963,14 +10967,14 @@
       <c r="J111" s="3">
         <v>0.98260000000000003</v>
       </c>
-      <c r="K111" s="675"/>
+      <c r="K111" s="639"/>
       <c r="L111" s="12"/>
       <c r="O111" s="6"/>
       <c r="Q111" s="11"/>
       <c r="S111" s="32"/>
     </row>
     <row r="112" spans="1:19" ht="15.75">
-      <c r="A112" s="669"/>
+      <c r="A112" s="656"/>
       <c r="B112" s="19">
         <v>0</v>
       </c>
@@ -10994,14 +10998,14 @@
       <c r="J112" s="147">
         <v>0.9798</v>
       </c>
-      <c r="K112" s="675"/>
+      <c r="K112" s="639"/>
       <c r="L112" s="12"/>
       <c r="O112" s="6"/>
       <c r="Q112" s="11"/>
       <c r="S112" s="32"/>
     </row>
     <row r="113" spans="1:19" ht="15.75">
-      <c r="A113" s="669"/>
+      <c r="A113" s="656"/>
       <c r="B113" s="19">
         <v>1</v>
       </c>
@@ -11025,14 +11029,14 @@
       <c r="J113" s="147">
         <v>1.0233000000000001</v>
       </c>
-      <c r="K113" s="675"/>
+      <c r="K113" s="639"/>
       <c r="L113" s="12"/>
       <c r="O113" s="6"/>
       <c r="Q113" s="11"/>
       <c r="S113" s="32"/>
     </row>
     <row r="114" spans="1:19" ht="15.75">
-      <c r="A114" s="669"/>
+      <c r="A114" s="656"/>
       <c r="B114" s="19">
         <v>1</v>
       </c>
@@ -11056,14 +11060,14 @@
       <c r="J114" s="3">
         <v>1.0204</v>
       </c>
-      <c r="K114" s="675"/>
+      <c r="K114" s="639"/>
       <c r="L114" s="12"/>
       <c r="O114" s="6"/>
       <c r="Q114" s="11"/>
       <c r="S114" s="32"/>
     </row>
     <row r="115" spans="1:19" ht="15.75">
-      <c r="A115" s="669"/>
+      <c r="A115" s="656"/>
       <c r="B115" s="19">
         <v>1</v>
       </c>
@@ -11087,14 +11091,14 @@
       <c r="J115" s="3">
         <v>1.0175000000000001</v>
       </c>
-      <c r="K115" s="675"/>
+      <c r="K115" s="639"/>
       <c r="L115" s="12"/>
       <c r="O115" s="6"/>
       <c r="Q115" s="11"/>
       <c r="S115" s="32"/>
     </row>
     <row r="116" spans="1:19" ht="15.75">
-      <c r="A116" s="669"/>
+      <c r="A116" s="656"/>
       <c r="B116" s="19">
         <v>1</v>
       </c>
@@ -11118,14 +11122,14 @@
       <c r="J116" s="3">
         <v>1.0145999999999999</v>
       </c>
-      <c r="K116" s="675"/>
+      <c r="K116" s="639"/>
       <c r="L116" s="57"/>
       <c r="O116" s="6"/>
       <c r="Q116" s="11"/>
       <c r="S116" s="32"/>
     </row>
     <row r="117" spans="1:19" ht="15.75">
-      <c r="A117" s="669"/>
+      <c r="A117" s="656"/>
       <c r="B117" s="19">
         <v>1</v>
       </c>
@@ -11149,14 +11153,14 @@
       <c r="J117" s="3">
         <v>1.0117</v>
       </c>
-      <c r="K117" s="675"/>
+      <c r="K117" s="639"/>
       <c r="L117" s="12"/>
       <c r="O117" s="6"/>
       <c r="Q117" s="11"/>
       <c r="S117" s="32"/>
     </row>
     <row r="118" spans="1:19" ht="15.75">
-      <c r="A118" s="669"/>
+      <c r="A118" s="656"/>
       <c r="B118" s="19">
         <v>1</v>
       </c>
@@ -11180,14 +11184,14 @@
       <c r="J118" s="3">
         <v>1.0087999999999999</v>
       </c>
-      <c r="K118" s="675"/>
+      <c r="K118" s="639"/>
       <c r="L118" s="12"/>
       <c r="O118" s="6"/>
       <c r="Q118" s="11"/>
       <c r="S118" s="32"/>
     </row>
     <row r="119" spans="1:19" ht="15.75">
-      <c r="A119" s="669"/>
+      <c r="A119" s="656"/>
       <c r="B119" s="19">
         <v>1</v>
       </c>
@@ -11211,14 +11215,14 @@
       <c r="J119" s="3">
         <v>1.0059</v>
       </c>
-      <c r="K119" s="675"/>
+      <c r="K119" s="639"/>
       <c r="L119" s="12"/>
       <c r="O119" s="6"/>
       <c r="Q119" s="11"/>
       <c r="S119" s="32"/>
     </row>
     <row r="120" spans="1:19" ht="16.5" thickBot="1">
-      <c r="A120" s="690"/>
+      <c r="A120" s="657"/>
       <c r="B120" s="22">
         <v>1</v>
       </c>
@@ -11242,7 +11246,7 @@
       <c r="J120" s="142">
         <v>1.0029999999999999</v>
       </c>
-      <c r="K120" s="675"/>
+      <c r="K120" s="639"/>
       <c r="L120" s="12"/>
       <c r="O120" s="6"/>
       <c r="Q120" s="11"/>
@@ -11849,6 +11853,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="K36:K52"/>
     <mergeCell ref="A22:L22"/>
     <mergeCell ref="K105:K120"/>
     <mergeCell ref="H6:H9"/>
@@ -11865,25 +11888,6 @@
     <mergeCell ref="K88:K103"/>
     <mergeCell ref="A87:A120"/>
     <mergeCell ref="J37:J52"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="K36:K52"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11990,7 +11994,7 @@
       </c>
       <c r="I4" s="253"/>
       <c r="J4" s="254"/>
-      <c r="K4" s="713" t="s">
+      <c r="K4" s="714" t="s">
         <v>235</v>
       </c>
     </row>
@@ -12012,7 +12016,7 @@
       </c>
       <c r="I5" s="228"/>
       <c r="J5" s="229"/>
-      <c r="K5" s="713"/>
+      <c r="K5" s="714"/>
     </row>
     <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="230"/>
@@ -12032,7 +12036,7 @@
       </c>
       <c r="I6" s="228"/>
       <c r="J6" s="229"/>
-      <c r="K6" s="713"/>
+      <c r="K6" s="714"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1">
       <c r="A7" s="235"/>
@@ -12052,7 +12056,7 @@
       </c>
       <c r="I7" s="237"/>
       <c r="J7" s="238"/>
-      <c r="K7" s="713"/>
+      <c r="K7" s="714"/>
     </row>
     <row r="8" spans="1:11" ht="15.75">
       <c r="A8" s="230">
@@ -13039,7 +13043,7 @@
       <c r="A3" s="226">
         <v>1</v>
       </c>
-      <c r="B3" s="714">
+      <c r="B3" s="715">
         <v>1</v>
       </c>
       <c r="C3" s="251">
@@ -13051,7 +13055,7 @@
     </row>
     <row r="4" spans="1:6" ht="16.5" thickBot="1">
       <c r="A4" s="235"/>
-      <c r="B4" s="715"/>
+      <c r="B4" s="716"/>
       <c r="C4" s="260">
         <v>1</v>
       </c>
@@ -13063,7 +13067,7 @@
       <c r="A5" s="226">
         <v>2</v>
       </c>
-      <c r="B5" s="714">
+      <c r="B5" s="715">
         <v>1</v>
       </c>
       <c r="C5" s="251">
@@ -13075,7 +13079,7 @@
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1">
       <c r="A6" s="235"/>
-      <c r="B6" s="715"/>
+      <c r="B6" s="716"/>
       <c r="C6" s="260">
         <v>1</v>
       </c>
@@ -13087,7 +13091,7 @@
       <c r="A7" s="226">
         <v>3</v>
       </c>
-      <c r="B7" s="714">
+      <c r="B7" s="715">
         <v>1</v>
       </c>
       <c r="C7" s="251">
@@ -13099,7 +13103,7 @@
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1">
       <c r="A8" s="235"/>
-      <c r="B8" s="715"/>
+      <c r="B8" s="716"/>
       <c r="C8" s="260">
         <v>1</v>
       </c>
@@ -13111,7 +13115,7 @@
       <c r="A9" s="226">
         <v>4</v>
       </c>
-      <c r="B9" s="714">
+      <c r="B9" s="715">
         <v>1</v>
       </c>
       <c r="C9" s="251">
@@ -13123,7 +13127,7 @@
     </row>
     <row r="10" spans="1:6" ht="16.5" thickBot="1">
       <c r="A10" s="235"/>
-      <c r="B10" s="715"/>
+      <c r="B10" s="716"/>
       <c r="C10" s="260">
         <v>1</v>
       </c>
@@ -13135,7 +13139,7 @@
       <c r="A11" s="226">
         <v>5</v>
       </c>
-      <c r="B11" s="714">
+      <c r="B11" s="715">
         <v>1</v>
       </c>
       <c r="C11" s="251">
@@ -13147,7 +13151,7 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1">
       <c r="A12" s="235"/>
-      <c r="B12" s="715"/>
+      <c r="B12" s="716"/>
       <c r="C12" s="260">
         <v>1</v>
       </c>
@@ -13159,7 +13163,7 @@
       <c r="A13" s="226">
         <v>6</v>
       </c>
-      <c r="B13" s="714">
+      <c r="B13" s="715">
         <v>1</v>
       </c>
       <c r="C13" s="251">
@@ -13173,7 +13177,7 @@
     </row>
     <row r="14" spans="1:6" ht="16.5" thickBot="1">
       <c r="A14" s="235"/>
-      <c r="B14" s="715"/>
+      <c r="B14" s="716"/>
       <c r="C14" s="260">
         <v>1</v>
       </c>
@@ -13187,7 +13191,7 @@
       <c r="A15" s="226">
         <v>7</v>
       </c>
-      <c r="B15" s="714">
+      <c r="B15" s="715">
         <v>1</v>
       </c>
       <c r="C15" s="251">
@@ -13201,7 +13205,7 @@
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1">
       <c r="A16" s="235"/>
-      <c r="B16" s="715"/>
+      <c r="B16" s="716"/>
       <c r="C16" s="260">
         <v>1</v>
       </c>
@@ -13215,7 +13219,7 @@
       <c r="A17" s="226">
         <v>8</v>
       </c>
-      <c r="B17" s="714">
+      <c r="B17" s="715">
         <v>1</v>
       </c>
       <c r="C17" s="251">
@@ -13229,7 +13233,7 @@
     </row>
     <row r="18" spans="1:6" ht="16.5" thickBot="1">
       <c r="A18" s="235"/>
-      <c r="B18" s="715"/>
+      <c r="B18" s="716"/>
       <c r="C18" s="260">
         <v>1</v>
       </c>
@@ -13243,7 +13247,7 @@
       <c r="A19" s="226">
         <v>9</v>
       </c>
-      <c r="B19" s="714">
+      <c r="B19" s="715">
         <v>1</v>
       </c>
       <c r="C19" s="251">
@@ -13257,7 +13261,7 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" thickBot="1">
       <c r="A20" s="235"/>
-      <c r="B20" s="715"/>
+      <c r="B20" s="716"/>
       <c r="C20" s="260">
         <v>1</v>
       </c>
@@ -13271,7 +13275,7 @@
       <c r="A21" s="226">
         <v>10</v>
       </c>
-      <c r="B21" s="714">
+      <c r="B21" s="715">
         <v>1</v>
       </c>
       <c r="C21" s="251">
@@ -13285,7 +13289,7 @@
     </row>
     <row r="22" spans="1:6" ht="16.5" thickBot="1">
       <c r="A22" s="235"/>
-      <c r="B22" s="715"/>
+      <c r="B22" s="716"/>
       <c r="C22" s="260">
         <v>1</v>
       </c>
@@ -13458,22 +13462,22 @@
   <sheetData>
     <row r="3" spans="2:12" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:12" ht="16.5" thickBot="1">
-      <c r="B4" s="693" t="s">
+      <c r="B4" s="694" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="694"/>
-      <c r="D4" s="694"/>
-      <c r="E4" s="694"/>
-      <c r="F4" s="694"/>
-      <c r="G4" s="694"/>
-      <c r="H4" s="694"/>
-      <c r="I4" s="694"/>
-      <c r="J4" s="694"/>
-      <c r="K4" s="694"/>
-      <c r="L4" s="695"/>
+      <c r="C4" s="695"/>
+      <c r="D4" s="695"/>
+      <c r="E4" s="695"/>
+      <c r="F4" s="695"/>
+      <c r="G4" s="695"/>
+      <c r="H4" s="695"/>
+      <c r="I4" s="695"/>
+      <c r="J4" s="695"/>
+      <c r="K4" s="695"/>
+      <c r="L4" s="696"/>
     </row>
     <row r="5" spans="2:12" ht="15.75">
-      <c r="B5" s="696" t="s">
+      <c r="B5" s="697" t="s">
         <v>99</v>
       </c>
       <c r="C5" s="133" t="s">
@@ -13506,7 +13510,7 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="2:12" ht="15.75">
-      <c r="B6" s="697"/>
+      <c r="B6" s="698"/>
       <c r="C6" s="134" t="s">
         <v>109</v>
       </c>
@@ -13539,7 +13543,7 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="15.75">
-      <c r="B7" s="697"/>
+      <c r="B7" s="698"/>
       <c r="C7" s="134" t="s">
         <v>118</v>
       </c>
@@ -13572,7 +13576,7 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.75">
-      <c r="B8" s="697"/>
+      <c r="B8" s="698"/>
       <c r="C8" s="134" t="s">
         <v>122</v>
       </c>
@@ -13605,7 +13609,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75">
-      <c r="B9" s="697"/>
+      <c r="B9" s="698"/>
       <c r="C9" s="134" t="s">
         <v>125</v>
       </c>
@@ -13638,17 +13642,17 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="16.5" thickBot="1">
-      <c r="B10" s="698"/>
+      <c r="B10" s="699"/>
       <c r="C10" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="699" t="s">
+      <c r="D10" s="700" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="699"/>
-      <c r="F10" s="699"/>
-      <c r="G10" s="699"/>
-      <c r="H10" s="699"/>
+      <c r="E10" s="700"/>
+      <c r="F10" s="700"/>
+      <c r="G10" s="700"/>
+      <c r="H10" s="700"/>
       <c r="I10" s="138" t="s">
         <v>129</v>
       </c>
@@ -26358,9 +26362,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="9" topLeftCell="AD1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I21" sqref="I21:I52"/>
+      <selection pane="topRight" activeCell="AF21" sqref="AF21:AF52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -26387,8 +26391,8 @@
     <col min="29" max="29" width="11.28515625" style="214" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.28515625" style="214" customWidth="1"/>
     <col min="31" max="31" width="9.140625" style="214"/>
-    <col min="32" max="32" width="8.7109375" style="371" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" style="214" customWidth="1"/>
+    <col min="32" max="32" width="10.85546875" style="371" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" style="214" bestFit="1" customWidth="1"/>
     <col min="34" max="37" width="9.140625" style="214"/>
     <col min="38" max="38" width="11.140625" style="214" customWidth="1"/>
     <col min="39" max="16384" width="9.140625" style="214"/>
@@ -26541,7 +26545,7 @@
       <c r="I4" s="308">
         <v>1</v>
       </c>
-      <c r="J4" s="691" t="s">
+      <c r="J4" s="658" t="s">
         <v>256</v>
       </c>
       <c r="K4" s="354">
@@ -26612,7 +26616,7 @@
         <f>AG4*1.5</f>
         <v>0.18534722978088949</v>
       </c>
-      <c r="AG4" s="370">
+      <c r="AG4" s="717">
         <f>AVERAGE(O4,R4,U4,X4,AA4,AD4)</f>
         <v>0.12356481985392632</v>
       </c>
@@ -26657,7 +26661,7 @@
       <c r="I5" s="308">
         <v>0</v>
       </c>
-      <c r="J5" s="691"/>
+      <c r="J5" s="658"/>
       <c r="K5" s="354">
         <v>0.02</v>
       </c>
@@ -26726,7 +26730,7 @@
         <f t="shared" ref="AF5:AF18" si="7">AG5*1.5</f>
         <v>0.21197411886552942</v>
       </c>
-      <c r="AG5" s="370">
+      <c r="AG5" s="717">
         <f t="shared" ref="AG5:AG18" si="8">AVERAGE(O5,R5,U5,X5,AA5,AD5)</f>
         <v>0.14131607924368628</v>
       </c>
@@ -26770,7 +26774,7 @@
       <c r="I6" s="308">
         <v>1</v>
       </c>
-      <c r="J6" s="691"/>
+      <c r="J6" s="658"/>
       <c r="K6" s="354">
         <v>0.03</v>
       </c>
@@ -26839,7 +26843,7 @@
         <f t="shared" si="7"/>
         <v>0.24392301943133909</v>
       </c>
-      <c r="AG6" s="370">
+      <c r="AG6" s="717">
         <f t="shared" si="8"/>
         <v>0.16261534628755939</v>
       </c>
@@ -26883,7 +26887,7 @@
       <c r="I7" s="308">
         <v>0</v>
       </c>
-      <c r="J7" s="691"/>
+      <c r="J7" s="658"/>
       <c r="K7" s="354">
         <v>0.04</v>
       </c>
@@ -26952,7 +26956,7 @@
         <f t="shared" si="7"/>
         <v>0.28100883239783075</v>
       </c>
-      <c r="AG7" s="370">
+      <c r="AG7" s="717">
         <f t="shared" si="8"/>
         <v>0.18733922159855385</v>
       </c>
@@ -26996,7 +27000,7 @@
       <c r="I8" s="308">
         <v>1</v>
       </c>
-      <c r="J8" s="691"/>
+      <c r="J8" s="658"/>
       <c r="K8" s="354">
         <v>0.05</v>
       </c>
@@ -27065,7 +27069,7 @@
         <f t="shared" si="7"/>
         <v>0.32287230679142409</v>
       </c>
-      <c r="AG8" s="370">
+      <c r="AG8" s="717">
         <f t="shared" si="8"/>
         <v>0.21524820452761606</v>
       </c>
@@ -27109,7 +27113,7 @@
       <c r="I9" s="308">
         <v>0</v>
       </c>
-      <c r="J9" s="691"/>
+      <c r="J9" s="658"/>
       <c r="K9" s="354">
         <v>0.06</v>
       </c>
@@ -27178,7 +27182,7 @@
         <f t="shared" si="7"/>
         <v>0.37114953085608349</v>
       </c>
-      <c r="AG9" s="370">
+      <c r="AG9" s="717">
         <f t="shared" si="8"/>
         <v>0.24743302057072233</v>
       </c>
@@ -27222,7 +27226,7 @@
       <c r="I10" s="308">
         <v>1</v>
       </c>
-      <c r="J10" s="691"/>
+      <c r="J10" s="658"/>
       <c r="K10" s="354">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -27291,7 +27295,7 @@
         <f t="shared" si="7"/>
         <v>0.42964542739761569</v>
       </c>
-      <c r="AG10" s="370">
+      <c r="AG10" s="717">
         <f t="shared" si="8"/>
         <v>0.28643028493174377</v>
       </c>
@@ -27335,7 +27339,7 @@
       <c r="I11" s="614">
         <v>0</v>
       </c>
-      <c r="J11" s="691"/>
+      <c r="J11" s="658"/>
       <c r="K11" s="354">
         <v>0.08</v>
       </c>
@@ -27404,7 +27408,7 @@
         <f t="shared" si="7"/>
         <v>0.49114942253233562</v>
       </c>
-      <c r="AG11" s="618">
+      <c r="AG11" s="718">
         <f t="shared" si="8"/>
         <v>0.3274329483548904</v>
       </c>
@@ -27448,7 +27452,7 @@
       <c r="I12" s="308">
         <v>1</v>
       </c>
-      <c r="J12" s="691"/>
+      <c r="J12" s="658"/>
       <c r="K12" s="354">
         <v>0.09</v>
       </c>
@@ -27517,7 +27521,7 @@
         <f t="shared" si="7"/>
         <v>0.56639055597430266</v>
       </c>
-      <c r="AG12" s="370">
+      <c r="AG12" s="717">
         <f t="shared" si="8"/>
         <v>0.37759370398286846</v>
       </c>
@@ -27561,7 +27565,7 @@
       <c r="I13" s="308">
         <v>0</v>
       </c>
-      <c r="J13" s="691"/>
+      <c r="J13" s="658"/>
       <c r="K13" s="354">
         <v>0.1</v>
       </c>
@@ -27630,7 +27634,7 @@
         <f t="shared" si="7"/>
         <v>0.65265409052844481</v>
       </c>
-      <c r="AG13" s="370">
+      <c r="AG13" s="717">
         <f t="shared" si="8"/>
         <v>0.43510272701896319</v>
       </c>
@@ -27674,7 +27678,7 @@
       <c r="I14" s="308">
         <v>1</v>
       </c>
-      <c r="J14" s="691"/>
+      <c r="J14" s="658"/>
       <c r="K14" s="354">
         <v>0.11</v>
       </c>
@@ -27743,7 +27747,7 @@
         <f t="shared" si="7"/>
         <v>0.74948207061852867</v>
       </c>
-      <c r="AG14" s="370">
+      <c r="AG14" s="717">
         <f t="shared" si="8"/>
         <v>0.49965471374568576</v>
       </c>
@@ -27787,7 +27791,7 @@
       <c r="I15" s="614">
         <v>0</v>
       </c>
-      <c r="J15" s="691"/>
+      <c r="J15" s="658"/>
       <c r="K15" s="354">
         <v>0.12</v>
       </c>
@@ -27856,7 +27860,7 @@
         <f t="shared" si="7"/>
         <v>0.86343271735060934</v>
       </c>
-      <c r="AG15" s="618">
+      <c r="AG15" s="718">
         <f t="shared" si="8"/>
         <v>0.57562181156707293</v>
       </c>
@@ -27900,7 +27904,7 @@
       <c r="I16" s="308">
         <v>1</v>
       </c>
-      <c r="J16" s="691"/>
+      <c r="J16" s="658"/>
       <c r="K16" s="354">
         <v>0.13</v>
       </c>
@@ -27970,7 +27974,7 @@
         <f t="shared" si="7"/>
         <v>0.99282063475514759</v>
       </c>
-      <c r="AG16" s="370">
+      <c r="AG16" s="717">
         <f t="shared" si="8"/>
         <v>0.66188042317009843</v>
       </c>
@@ -28014,7 +28018,7 @@
       <c r="I17" s="614">
         <v>0</v>
       </c>
-      <c r="J17" s="691"/>
+      <c r="J17" s="658"/>
       <c r="K17" s="354">
         <v>0.14000000000000001</v>
       </c>
@@ -28083,7 +28087,7 @@
         <f t="shared" si="7"/>
         <v>1.1399976429000305</v>
       </c>
-      <c r="AG17" s="618">
+      <c r="AG17" s="718">
         <f t="shared" si="8"/>
         <v>0.75999842860002031</v>
       </c>
@@ -28127,7 +28131,7 @@
       <c r="I18" s="614">
         <v>1</v>
       </c>
-      <c r="J18" s="691"/>
+      <c r="J18" s="658"/>
       <c r="K18" s="354">
         <v>0.15</v>
       </c>
@@ -28196,7 +28200,7 @@
         <f t="shared" si="7"/>
         <v>1.3130695491307596</v>
       </c>
-      <c r="AG18" s="618">
+      <c r="AG18" s="718">
         <f t="shared" si="8"/>
         <v>0.87537969942050642</v>
       </c>
@@ -28237,7 +28241,7 @@
       <c r="I19" s="308">
         <v>0</v>
       </c>
-      <c r="J19" s="691"/>
+      <c r="J19" s="658"/>
       <c r="K19" s="354">
         <v>0.16</v>
       </c>
@@ -28302,7 +28306,7 @@
         <f>(AC19-AC$19)/(AC$19-AB$19)</f>
         <v>0</v>
       </c>
-      <c r="AG19" s="370">
+      <c r="AG19" s="717">
         <v>1</v>
       </c>
       <c r="AH19" s="214">
@@ -28338,7 +28342,7 @@
         <v>21</v>
       </c>
       <c r="I20" s="314"/>
-      <c r="J20" s="700" t="s">
+      <c r="J20" s="701" t="s">
         <v>257</v>
       </c>
       <c r="K20" s="355"/>
@@ -28386,11 +28390,11 @@
       <c r="H21" s="307" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="717">
+      <c r="I21" s="635">
         <f>F21-AF21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="700"/>
+        <v>-99</v>
+      </c>
+      <c r="J21" s="701"/>
       <c r="K21" s="355"/>
       <c r="L21" s="355"/>
       <c r="M21" s="359">
@@ -28453,8 +28457,9 @@
         <f>(AC21-AC$21)/(AC$21-AB$21)</f>
         <v>0</v>
       </c>
-      <c r="AF21" s="716">
-        <v>1</v>
+      <c r="AF21" s="719">
+        <f>F21*100</f>
+        <v>100</v>
       </c>
       <c r="AG21" s="369">
         <f>AVERAGE(O21,R21,U21,X21,AA21,AD21)</f>
@@ -28497,11 +28502,11 @@
       <c r="H22" s="613" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="717">
+      <c r="I22" s="635">
         <f t="shared" ref="I22:I52" si="10">F22-AF22</f>
-        <v>-5.1399824966746888E-4</v>
-      </c>
-      <c r="J22" s="700"/>
+        <v>-98.515563058599966</v>
+      </c>
+      <c r="J22" s="701"/>
       <c r="K22" s="624"/>
       <c r="L22" s="624"/>
       <c r="M22" s="616">
@@ -28564,11 +28569,12 @@
         <f>(AC22-AB22)/(AC$21-AB$21)</f>
         <v>0.99444598722577071</v>
       </c>
-      <c r="AF22" s="716">
-        <v>0.99562069581128321</v>
+      <c r="AF22" s="719">
+        <f t="shared" ref="AF22:AF52" si="11">F22*100</f>
+        <v>99.510669756161576</v>
       </c>
       <c r="AG22" s="618">
-        <f t="shared" ref="AG22:AG52" si="11">AVERAGE(O22,R22,U22,X22,AA22,AD22)</f>
+        <f t="shared" ref="AG22:AG52" si="12">AVERAGE(O22,R22,U22,X22,AA22,AD22)</f>
         <v>0.99510669756161574</v>
       </c>
       <c r="AH22" s="619">
@@ -28578,7 +28584,7 @@
         <v>-4.5200172191132591E-3</v>
       </c>
       <c r="AJ22" s="620">
-        <f t="shared" ref="AJ22:AJ52" si="12">AG22-AI22</f>
+        <f t="shared" ref="AJ22:AJ52" si="13">AG22-AI22</f>
         <v>0.99962671478072895</v>
       </c>
     </row>
@@ -28605,11 +28611,11 @@
       <c r="H23" s="613" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="717">
+      <c r="I23" s="635">
         <f t="shared" si="10"/>
-        <v>2.6618497437902455E-5</v>
-      </c>
-      <c r="J23" s="700"/>
+        <v>-98.100012482634511</v>
+      </c>
+      <c r="J23" s="701"/>
       <c r="K23" s="624"/>
       <c r="L23" s="624"/>
       <c r="M23" s="616">
@@ -28619,7 +28625,7 @@
         <v>4.2279999999999998</v>
       </c>
       <c r="O23" s="618">
-        <f t="shared" ref="O23:O52" si="13">(N23-M23)/(N$21-M$21)</f>
+        <f t="shared" ref="O23:O52" si="14">(N23-M23)/(N$21-M$21)</f>
         <v>0.98992556109027829</v>
       </c>
       <c r="P23" s="616">
@@ -28629,7 +28635,7 @@
         <v>4.26</v>
       </c>
       <c r="R23" s="618">
-        <f t="shared" ref="R23:R52" si="14">(Q23-P23)/(Q$21-P$21)</f>
+        <f t="shared" ref="R23:R52" si="15">(Q23-P23)/(Q$21-P$21)</f>
         <v>0.99139444035554514</v>
       </c>
       <c r="S23" s="616">
@@ -28639,7 +28645,7 @@
         <v>4.2785000000000002</v>
       </c>
       <c r="U23" s="618">
-        <f t="shared" ref="U23:U52" si="15">(T23-S23)/(T$21-S$21)</f>
+        <f t="shared" ref="U23:U52" si="16">(T23-S23)/(T$21-S$21)</f>
         <v>0.99209530800067769</v>
       </c>
       <c r="V23" s="616">
@@ -28649,7 +28655,7 @@
         <v>4.4039999999999999</v>
       </c>
       <c r="X23" s="618">
-        <f t="shared" ref="X23:X52" si="16">(W23-V23)/(W$21-V$21)</f>
+        <f t="shared" ref="X23:X52" si="17">(W23-V23)/(W$21-V$21)</f>
         <v>0.99133875106929004</v>
       </c>
       <c r="Y23" s="616">
@@ -28659,7 +28665,7 @@
         <v>4.2396000000000003</v>
       </c>
       <c r="AA23" s="618">
-        <f t="shared" ref="AA23:AA52" si="17">(Z23-Y23)/(Z$21-Y$21)</f>
+        <f t="shared" ref="AA23:AA52" si="18">(Z23-Y23)/(Z$21-Y$21)</f>
         <v>0.99108724534986725</v>
       </c>
       <c r="AB23" s="616">
@@ -28669,14 +28675,15 @@
         <v>4.2619999999999996</v>
       </c>
       <c r="AD23" s="618">
-        <f t="shared" ref="AD23:AD52" si="18">(AC23-AB23)/(AC$21-AB$21)</f>
+        <f t="shared" ref="AD23:AD52" si="19">(AC23-AB23)/(AC$21-AB$21)</f>
         <v>0.98961399611219081</v>
       </c>
-      <c r="AF23" s="716">
-        <v>0.99088259849887039</v>
+      <c r="AF23" s="719">
+        <f t="shared" si="11"/>
+        <v>99.090921699630826</v>
       </c>
       <c r="AG23" s="618">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9909092169963083</v>
       </c>
       <c r="AH23" s="5">
@@ -28686,7 +28693,7 @@
         <v>-9.0041612856938298E-3</v>
       </c>
       <c r="AJ23" s="620">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99991337828200211</v>
       </c>
     </row>
@@ -28713,11 +28720,11 @@
       <c r="H24" s="307" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="717">
+      <c r="I24" s="635">
         <f t="shared" si="10"/>
-        <v>-1.3444598745537828E-4</v>
-      </c>
-      <c r="J24" s="700"/>
+        <v>-97.657202672291348</v>
+      </c>
+      <c r="J24" s="701"/>
       <c r="K24" s="355"/>
       <c r="L24" s="355"/>
       <c r="M24" s="359">
@@ -28727,7 +28734,7 @@
         <v>4.2220000000000004</v>
       </c>
       <c r="O24" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98634353836682176</v>
       </c>
       <c r="P24" s="359">
@@ -28737,7 +28744,7 @@
         <v>4.2519999999999998</v>
       </c>
       <c r="R24" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.98703504500934136</v>
       </c>
       <c r="S24" s="359">
@@ -28747,7 +28754,7 @@
         <v>4.2706</v>
       </c>
       <c r="U24" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98718310654395547</v>
       </c>
       <c r="V24" s="359">
@@ -28757,7 +28764,7 @@
         <v>4.3959999999999999</v>
       </c>
       <c r="X24" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.98711505560307944</v>
       </c>
       <c r="Y24" s="359">
@@ -28767,7 +28774,7 @@
         <v>4.2310999999999996</v>
       </c>
       <c r="AA24" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.98638175376439308</v>
       </c>
       <c r="AB24" s="359">
@@ -28777,14 +28784,15 @@
         <v>4.2526999999999999</v>
       </c>
       <c r="AD24" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.98455984448764233</v>
       </c>
-      <c r="AF24" s="716">
-        <v>0.98657083661666101</v>
+      <c r="AF24" s="719">
+        <f t="shared" si="11"/>
+        <v>98.643639062920556</v>
       </c>
       <c r="AG24" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.98643639062920563</v>
       </c>
       <c r="AH24" s="619">
@@ -28794,7 +28802,7 @@
         <v>-1.3488305352274401E-2</v>
       </c>
       <c r="AJ24" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99992469598148004</v>
       </c>
     </row>
@@ -28821,11 +28829,11 @@
       <c r="H25" s="613" t="s">
         <v>48</v>
       </c>
-      <c r="I25" s="717">
+      <c r="I25" s="635">
         <f t="shared" si="10"/>
-        <v>-5.0576784536515706E-4</v>
-      </c>
-      <c r="J25" s="700"/>
+        <v>-97.209552115994484</v>
+      </c>
+      <c r="J25" s="701"/>
       <c r="K25" s="624"/>
       <c r="L25" s="624"/>
       <c r="M25" s="616">
@@ -28835,7 +28843,7 @@
         <v>4.2126000000000001</v>
       </c>
       <c r="O25" s="618">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.98119438070185294</v>
       </c>
       <c r="P25" s="616">
@@ -28845,7 +28853,7 @@
         <v>4.2439999999999998</v>
       </c>
       <c r="R25" s="618">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.98244918756723065</v>
       </c>
       <c r="S25" s="616">
@@ -28855,7 +28863,7 @@
         <v>4.2625000000000002</v>
       </c>
       <c r="U25" s="618">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.98306137428716633</v>
       </c>
       <c r="V25" s="616">
@@ -28865,7 +28873,7 @@
         <v>4.3890000000000002</v>
       </c>
       <c r="X25" s="618">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.98321214713430305</v>
       </c>
       <c r="Y25" s="616">
@@ -28875,7 +28883,7 @@
         <v>4.2225000000000001</v>
       </c>
       <c r="AA25" s="618">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.98162090345438446</v>
       </c>
       <c r="AB25" s="616">
@@ -28885,14 +28893,15 @@
         <v>4.2443999999999997</v>
       </c>
       <c r="AD25" s="618">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.97995001388503178</v>
       </c>
-      <c r="AF25" s="716">
-        <v>0.98242043568369319</v>
+      <c r="AF25" s="719">
+        <f t="shared" si="11"/>
+        <v>98.191466783832809</v>
       </c>
       <c r="AG25" s="618">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.98191466783832804</v>
       </c>
       <c r="AH25" s="5">
@@ -28902,7 +28911,7 @@
         <v>-1.7972449418854973E-2</v>
       </c>
       <c r="AJ25" s="620">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99988711725718304</v>
       </c>
     </row>
@@ -28929,11 +28938,11 @@
       <c r="H26" s="307" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="717">
+      <c r="I26" s="635">
         <f t="shared" si="10"/>
-        <v>-7.5937057615194092E-4</v>
-      </c>
-      <c r="J26" s="700"/>
+        <v>-96.748576210499593</v>
+      </c>
+      <c r="J26" s="701"/>
       <c r="K26" s="355"/>
       <c r="L26" s="355"/>
       <c r="M26" s="359">
@@ -28943,7 +28952,7 @@
         <v>4.2054999999999998</v>
       </c>
       <c r="O26" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97638103766720785</v>
       </c>
       <c r="P26" s="359">
@@ -28953,7 +28962,7 @@
         <v>4.2370000000000001</v>
       </c>
       <c r="R26" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.97837286984091021</v>
       </c>
       <c r="S26" s="359">
@@ -28963,7 +28972,7 @@
         <v>4.2549999999999999</v>
       </c>
       <c r="U26" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.97877025577324805</v>
       </c>
       <c r="V26" s="359">
@@ -28973,7 +28982,7 @@
         <v>4.3781999999999996</v>
       </c>
       <c r="X26" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.97743798118049607</v>
       </c>
       <c r="Y26" s="359">
@@ -28983,7 +28992,7 @@
         <v>4.2145000000000001</v>
       </c>
       <c r="AA26" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.97719220549158547</v>
       </c>
       <c r="AB26" s="359">
@@ -28993,14 +29002,15 @@
         <v>4.2362000000000002</v>
       </c>
       <c r="AD26" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.97539572341016401</v>
       </c>
-      <c r="AF26" s="716">
-        <v>0.97801771613675392</v>
+      <c r="AF26" s="719">
+        <f t="shared" si="11"/>
+        <v>97.725834556060192</v>
       </c>
       <c r="AG26" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.97725834556060198</v>
       </c>
       <c r="AH26" s="619">
@@ -29010,7 +29020,7 @@
         <v>-2.2456593485435671E-2</v>
       </c>
       <c r="AJ26" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.9997149390460377</v>
       </c>
     </row>
@@ -29037,11 +29047,11 @@
       <c r="H27" s="307" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="717">
+      <c r="I27" s="635">
         <f t="shared" si="10"/>
-        <v>-1.4952004289141563E-3</v>
-      </c>
-      <c r="J27" s="700"/>
+        <v>-96.251584576261649</v>
+      </c>
+      <c r="J27" s="701"/>
       <c r="K27" s="355"/>
       <c r="L27" s="355"/>
       <c r="M27" s="359">
@@ -29051,7 +29061,7 @@
         <v>4.1959999999999997</v>
       </c>
       <c r="O27" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97167963284267078</v>
       </c>
       <c r="P27" s="359">
@@ -29061,7 +29071,7 @@
         <v>4.2220000000000004</v>
       </c>
       <c r="R27" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.97095623619996607</v>
       </c>
       <c r="S27" s="359">
@@ -29071,7 +29081,7 @@
         <v>4.2460000000000004</v>
       </c>
       <c r="U27" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.97385805431652672</v>
       </c>
       <c r="V27" s="359">
@@ -29081,7 +29091,7 @@
         <v>4.37</v>
       </c>
       <c r="X27" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.97305389221556893</v>
       </c>
       <c r="Y27" s="359">
@@ -29091,7 +29101,7 @@
         <v>4.2076000000000002</v>
       </c>
       <c r="AA27" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.97309565987599644</v>
       </c>
       <c r="AB27" s="359">
@@ -29101,14 +29111,15 @@
         <v>4.2279</v>
       </c>
       <c r="AD27" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.97078589280755345</v>
       </c>
-      <c r="AF27" s="716">
-        <v>0.9737334284719612</v>
+      <c r="AF27" s="719">
+        <f t="shared" si="11"/>
+        <v>97.223822804304703</v>
       </c>
       <c r="AG27" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.97223822804304705</v>
       </c>
       <c r="AH27" s="5">
@@ -29118,7 +29129,7 @@
         <v>-2.6940737552016113E-2</v>
       </c>
       <c r="AJ27" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99917896559506314</v>
       </c>
     </row>
@@ -29145,11 +29156,11 @@
       <c r="H28" s="307" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="717">
+      <c r="I28" s="635">
         <f t="shared" si="10"/>
-        <v>-1.1738102556733132E-3</v>
-      </c>
-      <c r="J28" s="700"/>
+        <v>-95.825332668125512</v>
+      </c>
+      <c r="J28" s="701"/>
       <c r="K28" s="355"/>
       <c r="L28" s="355"/>
       <c r="M28" s="359">
@@ -29159,7 +29170,7 @@
         <v>4.1879999999999997</v>
       </c>
       <c r="O28" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.96725807354340398</v>
       </c>
       <c r="P28" s="359">
@@ -29169,7 +29180,7 @@
         <v>4.2161999999999997</v>
       </c>
       <c r="R28" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.9673328426654586</v>
       </c>
       <c r="S28" s="359">
@@ -29179,7 +29190,7 @@
         <v>4.2375999999999996</v>
       </c>
       <c r="U28" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.96905877703122323</v>
       </c>
       <c r="V28" s="359">
@@ -29189,7 +29200,7 @@
         <v>4.3620000000000001</v>
       </c>
       <c r="X28" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.96893712574850299</v>
       </c>
       <c r="Y28" s="359">
@@ -29199,7 +29210,7 @@
         <v>4.1999000000000004</v>
       </c>
       <c r="AA28" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.96883303808680254</v>
       </c>
       <c r="AB28" s="359">
@@ -29209,14 +29220,15 @@
         <v>4.2198000000000002</v>
       </c>
       <c r="AD28" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.96617606220494323</v>
       </c>
-      <c r="AF28" s="716">
-        <v>0.96910646346906237</v>
+      <c r="AF28" s="719">
+        <f t="shared" si="11"/>
+        <v>96.793265321338907</v>
       </c>
       <c r="AG28" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.96793265321338906</v>
       </c>
       <c r="AH28" s="619">
@@ -29226,7 +29238,7 @@
         <v>-3.1424881618596683E-2</v>
       </c>
       <c r="AJ28" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99935753483198575</v>
       </c>
     </row>
@@ -29253,11 +29265,11 @@
       <c r="H29" s="613" t="s">
         <v>52</v>
       </c>
-      <c r="I29" s="717">
+      <c r="I29" s="635">
         <f t="shared" si="10"/>
-        <v>-1.9524247340800827E-3</v>
-      </c>
-      <c r="J29" s="700"/>
+        <v>-95.361937858122346</v>
+      </c>
+      <c r="J29" s="701"/>
       <c r="K29" s="624"/>
       <c r="L29" s="624"/>
       <c r="M29" s="616">
@@ -29267,7 +29279,7 @@
         <v>4.1797000000000004</v>
       </c>
       <c r="O29" s="618">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.96222085408854341</v>
       </c>
       <c r="P29" s="616">
@@ -29277,7 +29289,7 @@
         <v>4.2089999999999996</v>
       </c>
       <c r="R29" s="618">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.96314329389118458</v>
       </c>
       <c r="S29" s="616">
@@ -29287,7 +29299,7 @@
         <v>4.2291999999999996</v>
       </c>
       <c r="U29" s="618">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.96403365140308261</v>
       </c>
       <c r="V29" s="616">
@@ -29297,7 +29309,7 @@
         <v>4.3520000000000003</v>
       </c>
       <c r="X29" s="618">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.96369760479041922</v>
       </c>
       <c r="Y29" s="616">
@@ -29307,7 +29319,7 @@
         <v>4.1920000000000002</v>
       </c>
       <c r="AA29" s="618">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.96407218777679382</v>
       </c>
       <c r="AB29" s="616">
@@ -29317,14 +29329,15 @@
         <v>4.2131999999999996</v>
       </c>
       <c r="AD29" s="618">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.96234379339072451</v>
       </c>
-      <c r="AF29" s="716">
-        <v>0.96520432229087139</v>
+      <c r="AF29" s="719">
+        <f t="shared" si="11"/>
+        <v>96.325189755679133</v>
       </c>
       <c r="AG29" s="618">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9632518975567913</v>
       </c>
       <c r="AH29" s="5">
@@ -29334,7 +29347,7 @@
         <v>-3.5909025685177252E-2</v>
       </c>
       <c r="AJ29" s="620">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99916092324196859</v>
       </c>
     </row>
@@ -29361,11 +29374,11 @@
       <c r="H30" s="307" t="s">
         <v>53</v>
       </c>
-      <c r="I30" s="717">
+      <c r="I30" s="635">
         <f t="shared" si="10"/>
-        <v>-1.610871378316836E-3</v>
-      </c>
-      <c r="J30" s="700"/>
+        <v>-94.946627618745282</v>
+      </c>
+      <c r="J30" s="701"/>
       <c r="K30" s="355"/>
       <c r="L30" s="355"/>
       <c r="M30" s="359">
@@ -29375,7 +29388,7 @@
         <v>4.1711999999999998</v>
       </c>
       <c r="O30" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.95796720210443842</v>
       </c>
       <c r="P30" s="359">
@@ -29385,7 +29398,7 @@
         <v>4.2034000000000002</v>
       </c>
       <c r="R30" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.95946328483270105</v>
       </c>
       <c r="S30" s="359">
@@ -29395,7 +29408,7 @@
         <v>4.2210000000000001</v>
       </c>
       <c r="U30" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.95962960871774605</v>
       </c>
       <c r="V30" s="359">
@@ -29405,7 +29418,7 @@
         <v>4.3448000000000002</v>
       </c>
       <c r="X30" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.95984816082121471</v>
       </c>
       <c r="Y30" s="359">
@@ -29415,7 +29428,7 @@
         <v>4.1833999999999998</v>
       </c>
       <c r="AA30" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.95969884853852949</v>
       </c>
       <c r="AB30" s="359">
@@ -29425,14 +29438,15 @@
         <v>4.2050000000000001</v>
       </c>
       <c r="AD30" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.95773396278811451</v>
       </c>
-      <c r="AF30" s="716">
-        <v>0.96066771601210754</v>
+      <c r="AF30" s="719">
+        <f t="shared" si="11"/>
+        <v>95.905684463379075</v>
       </c>
       <c r="AG30" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.95905684463379071</v>
       </c>
       <c r="AH30" s="619">
@@ -29442,7 +29456,7 @@
         <v>-4.0393169751757829E-2</v>
       </c>
       <c r="AJ30" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99945001438554848</v>
       </c>
     </row>
@@ -29469,11 +29483,11 @@
       <c r="H31" s="307" t="s">
         <v>54</v>
       </c>
-      <c r="I31" s="717">
+      <c r="I31" s="635">
         <f t="shared" si="10"/>
-        <v>-1.2732673442243936E-3</v>
-      </c>
-      <c r="J31" s="700"/>
+        <v>-94.522628584144471</v>
+      </c>
+      <c r="J31" s="701"/>
       <c r="K31" s="355"/>
       <c r="L31" s="355"/>
       <c r="M31" s="359">
@@ -29483,7 +29497,7 @@
         <v>4.1630000000000003</v>
       </c>
       <c r="O31" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.95332176638495569</v>
       </c>
       <c r="P31" s="359">
@@ -29493,7 +29507,7 @@
         <v>4.1950000000000003</v>
       </c>
       <c r="R31" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.95521712053445063</v>
       </c>
       <c r="S31" s="359">
@@ -29503,7 +29517,7 @@
         <v>4.2126000000000001</v>
       </c>
       <c r="U31" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.95494325560386195</v>
       </c>
       <c r="V31" s="359">
@@ -29513,7 +29527,7 @@
         <v>4.335</v>
       </c>
       <c r="X31" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.95466210436270316</v>
       </c>
       <c r="Y31" s="359">
@@ -29523,7 +29537,7 @@
         <v>4.1779999999999999</v>
       </c>
       <c r="AA31" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.95676483613817531</v>
       </c>
       <c r="AB31" s="359">
@@ -29533,14 +29547,15 @@
         <v>4.1978</v>
       </c>
       <c r="AD31" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.95373507359066934</v>
       </c>
-      <c r="AF31" s="716">
-        <v>0.95604729344669381</v>
+      <c r="AF31" s="719">
+        <f t="shared" si="11"/>
+        <v>95.477402610246941</v>
       </c>
       <c r="AG31" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.95477402610246942</v>
       </c>
       <c r="AH31" s="5">
@@ -29550,7 +29565,7 @@
         <v>-4.4877313818338399E-2</v>
       </c>
       <c r="AJ31" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99965133992080779</v>
       </c>
     </row>
@@ -29577,11 +29592,11 @@
       <c r="H32" s="307" t="s">
         <v>55</v>
       </c>
-      <c r="I32" s="717">
+      <c r="I32" s="635">
         <f t="shared" si="10"/>
-        <v>-1.7315077096254905E-3</v>
-      </c>
-      <c r="J32" s="700"/>
+        <v>-94.046125814107199</v>
+      </c>
+      <c r="J32" s="701"/>
       <c r="K32" s="355"/>
       <c r="L32" s="355"/>
       <c r="M32" s="359">
@@ -29591,7 +29606,7 @@
         <v>4.1562000000000001</v>
       </c>
       <c r="O32" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.949459898136229</v>
       </c>
       <c r="P32" s="359">
@@ -29601,7 +29616,7 @@
         <v>4.1866000000000003</v>
       </c>
       <c r="R32" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.9501783389005265</v>
       </c>
       <c r="S32" s="359">
@@ -29611,7 +29626,7 @@
         <v>4.2045000000000003</v>
       </c>
       <c r="U32" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.95042628874710655</v>
       </c>
       <c r="V32" s="359">
@@ -29621,7 +29636,7 @@
         <v>4.3262</v>
       </c>
       <c r="X32" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.94995722840034225</v>
       </c>
       <c r="Y32" s="359">
@@ -29631,7 +29646,7 @@
         <v>4.1680000000000001</v>
       </c>
       <c r="AA32" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.95117360496014169</v>
       </c>
       <c r="AB32" s="359">
@@ -29641,14 +29656,15 @@
         <v>4.1885000000000003</v>
       </c>
       <c r="AD32" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.94856984171063619</v>
       </c>
-      <c r="AF32" s="716">
-        <v>0.95169237451878907</v>
+      <c r="AF32" s="719">
+        <f t="shared" si="11"/>
+        <v>94.996086680916363</v>
       </c>
       <c r="AG32" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.94996086680916358</v>
       </c>
       <c r="AH32" s="619">
@@ -29658,7 +29674,7 @@
         <v>-4.9361457884918969E-2</v>
       </c>
       <c r="AJ32" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99932232469408255</v>
       </c>
     </row>
@@ -29685,11 +29701,11 @@
       <c r="H33" s="307" t="s">
         <v>56</v>
       </c>
-      <c r="I33" s="717">
+      <c r="I33" s="635">
         <f t="shared" si="10"/>
-        <v>-1.7919761333747841E-3</v>
-      </c>
-      <c r="J33" s="700"/>
+        <v>-93.639850019373881</v>
+      </c>
+      <c r="J33" s="701"/>
       <c r="K33" s="355"/>
       <c r="L33" s="355"/>
       <c r="M33" s="359">
@@ -29699,7 +29715,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="O33" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.94604578272793438</v>
       </c>
       <c r="P33" s="359">
@@ -29709,7 +29725,7 @@
         <v>4.1790000000000003</v>
       </c>
       <c r="R33" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.94559248145841601</v>
       </c>
       <c r="S33" s="359">
@@ -29719,7 +29735,7 @@
         <v>4.1974999999999998</v>
       </c>
       <c r="U33" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.94658686691886385</v>
       </c>
       <c r="V33" s="359">
@@ -29729,7 +29745,7 @@
         <v>4.32</v>
       </c>
       <c r="X33" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.94632164242942707</v>
       </c>
       <c r="Y33" s="359">
@@ -29739,7 +29755,7 @@
         <v>4.1586999999999996</v>
       </c>
       <c r="AA33" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.94619131975199267</v>
       </c>
       <c r="AB33" s="359">
@@ -29749,14 +29765,15 @@
         <v>4.181</v>
       </c>
       <c r="AD33" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.944404332129964</v>
       </c>
-      <c r="AF33" s="716">
-        <v>0.94764904703614117</v>
+      <c r="AF33" s="719">
+        <f t="shared" si="11"/>
+        <v>94.585707090276642</v>
       </c>
       <c r="AG33" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.94585707090276638</v>
       </c>
       <c r="AH33" s="5">
@@ -29766,7 +29783,7 @@
         <v>-5.3845601951499539E-2</v>
       </c>
       <c r="AJ33" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99970267285426595</v>
       </c>
     </row>
@@ -29793,11 +29810,11 @@
       <c r="H34" s="307" t="s">
         <v>57</v>
       </c>
-      <c r="I34" s="717">
+      <c r="I34" s="635">
         <f t="shared" si="10"/>
-        <v>-9.6377193979113596E-4</v>
-      </c>
-      <c r="J34" s="700"/>
+        <v>-93.280385610813312</v>
+      </c>
+      <c r="J34" s="701"/>
       <c r="K34" s="355"/>
       <c r="L34" s="355"/>
       <c r="M34" s="359">
@@ -29807,7 +29824,7 @@
         <v>4.1449999999999996</v>
       </c>
       <c r="O34" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.94251972910953152</v>
       </c>
       <c r="P34" s="359">
@@ -29817,7 +29834,7 @@
         <v>4.1710000000000003</v>
       </c>
       <c r="R34" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.94151616373209535</v>
       </c>
       <c r="S34" s="359">
@@ -29827,7 +29844,7 @@
         <v>4.1897000000000002</v>
       </c>
       <c r="U34" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.94206990006210845</v>
       </c>
       <c r="V34" s="359">
@@ -29837,7 +29854,7 @@
         <v>4.3127000000000004</v>
       </c>
       <c r="X34" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.94241873396065046</v>
       </c>
       <c r="Y34" s="359">
@@ -29847,7 +29864,7 @@
         <v>4.1520000000000001</v>
       </c>
       <c r="AA34" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.94231620903454383</v>
       </c>
       <c r="AB34" s="359">
@@ -29857,14 +29874,15 @@
         <v>4.1760000000000002</v>
       </c>
       <c r="AD34" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.94251596778672597</v>
       </c>
-      <c r="AF34" s="716">
-        <v>0.94318988922073366</v>
+      <c r="AF34" s="719">
+        <f t="shared" si="11"/>
+        <v>94.22261172809425</v>
       </c>
       <c r="AG34" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.94222611728094252</v>
       </c>
       <c r="AH34" s="619">
@@ -29874,7 +29892,7 @@
         <v>-5.8329746018080109E-2</v>
       </c>
       <c r="AJ34" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0005558632990226</v>
       </c>
     </row>
@@ -29901,11 +29919,11 @@
       <c r="H35" s="307" t="s">
         <v>58</v>
       </c>
-      <c r="I35" s="717">
+      <c r="I35" s="635">
         <f t="shared" si="10"/>
-        <v>-1.6556290894264025E-3</v>
-      </c>
-      <c r="J35" s="700"/>
+        <v>-92.754817951167013</v>
+      </c>
+      <c r="J35" s="701"/>
       <c r="K35" s="355"/>
       <c r="L35" s="355"/>
       <c r="M35" s="359">
@@ -29915,7 +29933,7 @@
         <v>4.1314000000000002</v>
       </c>
       <c r="O35" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.93563552918788839</v>
       </c>
       <c r="P35" s="359">
@@ -29925,7 +29943,7 @@
         <v>4.1630000000000003</v>
       </c>
       <c r="R35" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93670384419407793</v>
       </c>
       <c r="S35" s="359">
@@ -29935,7 +29953,7 @@
         <v>4.1816000000000004</v>
       </c>
       <c r="U35" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.9374964711196434</v>
       </c>
       <c r="V35" s="359">
@@ -29945,7 +29963,7 @@
         <v>4.3041</v>
       </c>
       <c r="X35" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.93787425149700598</v>
       </c>
       <c r="Y35" s="359">
@@ -29955,7 +29973,7 @@
         <v>4.1440000000000001</v>
       </c>
       <c r="AA35" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.93794286979627994</v>
       </c>
       <c r="AB35" s="359">
@@ -29965,14 +29983,15 @@
         <v>4.165</v>
       </c>
       <c r="AD35" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.93585115245765071</v>
       </c>
-      <c r="AF35" s="716">
-        <v>0.93857298213151741</v>
+      <c r="AF35" s="719">
+        <f t="shared" si="11"/>
+        <v>93.691735304209104</v>
       </c>
       <c r="AG35" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.93691735304209101</v>
       </c>
       <c r="AH35" s="5">
@@ -29982,7 +30001,7 @@
         <v>-6.2813890084660678E-2</v>
       </c>
       <c r="AJ35" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99973124312675166</v>
       </c>
     </row>
@@ -30009,11 +30028,11 @@
       <c r="H36" s="307" t="s">
         <v>59</v>
       </c>
-      <c r="I36" s="717">
+      <c r="I36" s="635">
         <f t="shared" si="10"/>
-        <v>-1.84796735898618E-3</v>
-      </c>
-      <c r="J36" s="700"/>
+        <v>-92.319929796044406</v>
+      </c>
+      <c r="J36" s="701"/>
       <c r="K36" s="355"/>
       <c r="L36" s="355"/>
       <c r="M36" s="359">
@@ -30023,7 +30042,7 @@
         <v>4.1245000000000003</v>
       </c>
       <c r="O36" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.93154978451894577</v>
       </c>
       <c r="P36" s="359">
@@ -30033,7 +30052,7 @@
         <v>4.1562000000000001</v>
       </c>
       <c r="R36" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.93240106437185066</v>
       </c>
       <c r="S36" s="359">
@@ -30043,7 +30062,7 @@
         <v>4.1722999999999999</v>
       </c>
       <c r="U36" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.93218903506295503</v>
       </c>
       <c r="V36" s="359">
@@ -30053,7 +30072,7 @@
         <v>4.2939999999999996</v>
       </c>
       <c r="X36" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.93242087254063288</v>
       </c>
       <c r="Y36" s="359">
@@ -30063,7 +30082,7 @@
         <v>4.1369999999999996</v>
       </c>
       <c r="AA36" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.93406775907883055</v>
       </c>
       <c r="AB36" s="359">
@@ -30073,14 +30092,15 @@
         <v>4.1589999999999998</v>
       </c>
       <c r="AD36" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.93251874479311292</v>
       </c>
-      <c r="AF36" s="716">
-        <v>0.93437251075337424</v>
+      <c r="AF36" s="719">
+        <f t="shared" si="11"/>
+        <v>93.252454339438799</v>
       </c>
       <c r="AG36" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.93252454339438806</v>
       </c>
       <c r="AH36" s="619">
@@ -30090,7 +30110,7 @@
         <v>-6.7298034151241248E-2</v>
       </c>
       <c r="AJ36" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99982257754562931</v>
       </c>
     </row>
@@ -30117,11 +30137,11 @@
       <c r="H37" s="613" t="s">
         <v>60</v>
       </c>
-      <c r="I37" s="717">
+      <c r="I37" s="635">
         <f t="shared" si="10"/>
-        <v>-1.9506252030119242E-3</v>
-      </c>
-      <c r="J37" s="700"/>
+        <v>-91.902859379202695</v>
+      </c>
+      <c r="J37" s="701"/>
       <c r="K37" s="624"/>
       <c r="L37" s="624"/>
       <c r="M37" s="616">
@@ -30131,7 +30151,7 @@
         <v>4.1158000000000001</v>
       </c>
       <c r="O37" s="618">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.92684837969440892</v>
       </c>
       <c r="P37" s="616">
@@ -30141,7 +30161,7 @@
         <v>4.1496000000000004</v>
       </c>
       <c r="R37" s="618">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.92883428636132048</v>
       </c>
       <c r="S37" s="616">
@@ -30151,7 +30171,7 @@
         <v>4.1653000000000002</v>
       </c>
       <c r="U37" s="618">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.92823668906329404</v>
       </c>
       <c r="V37" s="616">
@@ -30161,7 +30181,7 @@
         <v>4.2869999999999999</v>
       </c>
       <c r="X37" s="618">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.92873182207014537</v>
       </c>
       <c r="Y37" s="616">
@@ -30171,7 +30191,7 @@
         <v>4.1265999999999998</v>
       </c>
       <c r="AA37" s="618">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.92831045172719207</v>
       </c>
       <c r="AB37" s="616">
@@ -30181,14 +30201,15 @@
         <v>4.1529999999999996</v>
       </c>
       <c r="AD37" s="618">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.92890863648986366</v>
       </c>
-      <c r="AF37" s="716">
-        <v>0.93026233610404929</v>
+      <c r="AF37" s="719">
+        <f t="shared" si="11"/>
+        <v>92.831171090103737</v>
       </c>
       <c r="AG37" s="618">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.92831171090103737</v>
       </c>
       <c r="AH37" s="5">
@@ -30198,7 +30219,7 @@
         <v>-7.1782178217821818E-2</v>
       </c>
       <c r="AJ37" s="620">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0000938891188591</v>
       </c>
     </row>
@@ -30225,9 +30246,9 @@
       <c r="H38" s="307" t="s">
         <v>61</v>
       </c>
-      <c r="I38" s="717">
+      <c r="I38" s="635">
         <f t="shared" si="10"/>
-        <v>-2.1564807107939954E-3</v>
+        <v>-91.451632855512884</v>
       </c>
       <c r="J38" s="321"/>
       <c r="K38" s="321"/>
@@ -30239,7 +30260,7 @@
         <v>4.1074999999999999</v>
       </c>
       <c r="O38" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.92209100576481795</v>
       </c>
       <c r="P38" s="359">
@@ -30249,7 +30270,7 @@
         <v>4.1394000000000002</v>
       </c>
       <c r="R38" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.92339919605955956</v>
       </c>
       <c r="S38" s="359">
@@ -30259,7 +30280,7 @@
         <v>4.1567999999999996</v>
       </c>
       <c r="U38" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.92360679803511914</v>
       </c>
       <c r="V38" s="359">
@@ -30269,7 +30290,7 @@
         <v>4.2779999999999996</v>
       </c>
       <c r="X38" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.92397348160821202</v>
       </c>
       <c r="Y38" s="359">
@@ -30279,7 +30300,7 @@
         <v>4.1219999999999999</v>
       </c>
       <c r="AA38" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.92548715677590776</v>
       </c>
       <c r="AB38" s="359">
@@ -30289,14 +30310,15 @@
         <v>4.1440000000000001</v>
       </c>
       <c r="AD38" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.92396556512079986</v>
       </c>
-      <c r="AF38" s="716">
-        <v>0.92591034793819682</v>
+      <c r="AF38" s="719">
+        <f t="shared" si="11"/>
+        <v>92.375386722740288</v>
       </c>
       <c r="AG38" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.92375386722740283</v>
       </c>
       <c r="AH38" s="619">
@@ -30306,7 +30328,7 @@
         <v>-7.6266322284402388E-2</v>
       </c>
       <c r="AJ38" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0000201895118053</v>
       </c>
     </row>
@@ -30333,9 +30355,9 @@
       <c r="H39" s="307" t="s">
         <v>62</v>
       </c>
-      <c r="I39" s="717">
+      <c r="I39" s="635">
         <f t="shared" si="10"/>
-        <v>-2.2637776336473792E-3</v>
+        <v>-90.980578533207009</v>
       </c>
       <c r="J39" s="322"/>
       <c r="K39" s="322"/>
@@ -30347,7 +30369,7 @@
         <v>4.0997000000000003</v>
       </c>
       <c r="O39" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.9178933228857673</v>
       </c>
       <c r="P39" s="359">
@@ -30357,7 +30379,7 @@
         <v>4.1317000000000004</v>
       </c>
       <c r="R39" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.91898318518937894</v>
       </c>
       <c r="S39" s="359">
@@ -30367,7 +30389,7 @@
         <v>4.149</v>
       </c>
       <c r="U39" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.91903336909265421</v>
       </c>
       <c r="V39" s="359">
@@ -30377,7 +30399,7 @@
         <v>4.2699999999999996</v>
       </c>
       <c r="X39" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.91958939264328465</v>
       </c>
       <c r="Y39" s="359">
@@ -30387,7 +30409,7 @@
         <v>4.1108000000000002</v>
       </c>
       <c r="AA39" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.91956377325066441</v>
       </c>
       <c r="AB39" s="359">
@@ -30397,14 +30419,15 @@
         <v>4.1345000000000001</v>
       </c>
       <c r="AD39" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.91891141349625105</v>
       </c>
-      <c r="AF39" s="716">
-        <v>0.92125952039331416</v>
+      <c r="AF39" s="719">
+        <f t="shared" si="11"/>
+        <v>91.899574275966671</v>
       </c>
       <c r="AG39" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.91899574275966678</v>
       </c>
       <c r="AH39" s="5">
@@ -30414,7 +30437,7 @@
         <v>-8.0750466350982958E-2</v>
       </c>
       <c r="AJ39" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99974620911064971</v>
       </c>
     </row>
@@ -30441,9 +30464,9 @@
       <c r="H40" s="307" t="s">
         <v>63</v>
       </c>
-      <c r="I40" s="717">
+      <c r="I40" s="635">
         <f t="shared" si="10"/>
-        <v>-2.1248657448409425E-3</v>
+        <v>-90.586568392621714</v>
       </c>
       <c r="J40" s="321"/>
       <c r="K40" s="321"/>
@@ -30455,7 +30478,7 @@
         <v>4.093</v>
       </c>
       <c r="O40" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.91386354732187847</v>
       </c>
       <c r="P40" s="359">
@@ -30465,7 +30488,7 @@
         <v>4.1239999999999997</v>
       </c>
       <c r="R40" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.91462378984317461</v>
       </c>
       <c r="S40" s="359">
@@ -30475,7 +30498,7 @@
         <v>4.1429999999999998</v>
       </c>
       <c r="U40" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.91581503020721577</v>
       </c>
       <c r="V40" s="359">
@@ -30485,7 +30508,7 @@
         <v>4.2626999999999997</v>
       </c>
       <c r="X40" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.91557955517536349</v>
       </c>
       <c r="Y40" s="359">
@@ -30495,7 +30518,7 @@
         <v>4.1032999999999999</v>
       </c>
       <c r="AA40" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.91546722763507515</v>
       </c>
       <c r="AB40" s="359">
@@ -30505,14 +30528,15 @@
         <v>4.1269999999999998</v>
       </c>
       <c r="AD40" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.91474590391557886</v>
       </c>
-      <c r="AF40" s="716">
-        <v>0.91714070809455528</v>
+      <c r="AF40" s="719">
+        <f t="shared" si="11"/>
+        <v>91.501584234971432</v>
       </c>
       <c r="AG40" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.91501584234971434</v>
       </c>
       <c r="AH40" s="619">
@@ -30522,7 +30546,7 @@
         <v>-8.5234610417563542E-2</v>
       </c>
       <c r="AJ40" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.000250452767278</v>
       </c>
     </row>
@@ -30549,9 +30573,9 @@
       <c r="H41" s="307" t="s">
         <v>64</v>
       </c>
-      <c r="I41" s="717">
+      <c r="I41" s="635">
         <f t="shared" si="10"/>
-        <v>-2.6185392475860381E-3</v>
+        <v>-90.117763489440406</v>
       </c>
       <c r="J41" s="322"/>
       <c r="K41" s="322"/>
@@ -30563,7 +30587,7 @@
         <v>4.0839999999999996</v>
       </c>
       <c r="O41" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.90893826607712536</v>
       </c>
       <c r="P41" s="359">
@@ -30573,7 +30597,7 @@
         <v>4.1180000000000003</v>
       </c>
       <c r="R41" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.9113967049765046</v>
       </c>
       <c r="S41" s="359">
@@ -30583,7 +30607,7 @@
         <v>4.1340000000000003</v>
       </c>
       <c r="U41" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.91056405623623748</v>
       </c>
       <c r="V41" s="359">
@@ -30593,7 +30617,7 @@
         <v>4.2530999999999999</v>
       </c>
       <c r="X41" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.91066082121471337</v>
       </c>
       <c r="Y41" s="359">
@@ -30603,7 +30627,7 @@
         <v>4.0937000000000001</v>
       </c>
       <c r="AA41" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.90998671390611163</v>
       </c>
       <c r="AB41" s="359">
@@ -30613,14 +30637,15 @@
         <v>4.1192000000000002</v>
       </c>
       <c r="AD41" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.91013607331296864</v>
       </c>
-      <c r="AF41" s="716">
-        <v>0.9128989785348629</v>
+      <c r="AF41" s="719">
+        <f t="shared" si="11"/>
+        <v>91.028043928727683</v>
       </c>
       <c r="AG41" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.91028043928727687</v>
       </c>
       <c r="AH41" s="5">
@@ -30630,7 +30655,7 @@
         <v>-8.9718754484144111E-2</v>
       </c>
       <c r="AJ41" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99999919377142099</v>
       </c>
     </row>
@@ -30657,9 +30682,9 @@
       <c r="H42" s="307" t="s">
         <v>65</v>
       </c>
-      <c r="I42" s="717">
+      <c r="I42" s="635">
         <f t="shared" si="10"/>
-        <v>-2.8175908391646631E-3</v>
+        <v>-89.646963271956011</v>
       </c>
       <c r="J42" s="322"/>
       <c r="K42" s="322"/>
@@ -30671,7 +30696,7 @@
         <v>4.0759999999999996</v>
       </c>
       <c r="O42" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.90446073767280455</v>
       </c>
       <c r="P42" s="359">
@@ -30681,7 +30706,7 @@
         <v>4.109</v>
       </c>
       <c r="R42" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.90647115439053394</v>
       </c>
       <c r="S42" s="359">
@@ -30691,7 +30716,7 @@
         <v>4.1260000000000003</v>
       </c>
       <c r="U42" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.90599062729377244</v>
       </c>
       <c r="V42" s="359">
@@ -30701,7 +30726,7 @@
         <v>4.2432999999999996</v>
       </c>
       <c r="X42" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.90542130025662948</v>
       </c>
       <c r="Y42" s="359">
@@ -30711,7 +30736,7 @@
         <v>4.0861000000000001</v>
       </c>
       <c r="AA42" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.9058901682905226</v>
       </c>
       <c r="AB42" s="359">
@@ -30721,14 +30746,15 @@
         <v>4.1093000000000002</v>
       </c>
       <c r="AD42" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.90491530130519315</v>
       </c>
-      <c r="AF42" s="716">
-        <v>0.90834247237407395</v>
+      <c r="AF42" s="719">
+        <f t="shared" si="11"/>
+        <v>90.552488153490927</v>
       </c>
       <c r="AG42" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.90552488153490929</v>
       </c>
       <c r="AH42" s="619">
@@ -30738,7 +30764,7 @@
         <v>-9.4202898550724681E-2</v>
       </c>
       <c r="AJ42" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99972778008563401</v>
       </c>
     </row>
@@ -30765,9 +30791,9 @@
       <c r="H43" s="307" t="s">
         <v>66</v>
       </c>
-      <c r="I43" s="717">
+      <c r="I43" s="635">
         <f t="shared" si="10"/>
-        <v>-3.0623785387856595E-3</v>
+        <v>-89.193852549594666</v>
       </c>
       <c r="J43" s="322"/>
       <c r="K43" s="322"/>
@@ -30779,7 +30805,7 @@
         <v>4.0670000000000002</v>
       </c>
       <c r="O43" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89942351821794397</v>
       </c>
       <c r="P43" s="359">
@@ -30789,7 +30815,7 @@
         <v>4.1003999999999996</v>
       </c>
       <c r="R43" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.90182868142444639</v>
       </c>
       <c r="S43" s="359">
@@ -30799,7 +30825,7 @@
         <v>4.1181999999999999</v>
       </c>
       <c r="U43" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.90164304669414463</v>
       </c>
       <c r="V43" s="359">
@@ -30809,7 +30835,7 @@
         <v>4.2359</v>
       </c>
       <c r="X43" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.9013579982891361</v>
       </c>
       <c r="Y43" s="359">
@@ -30819,7 +30845,7 @@
         <v>4.0776000000000003</v>
       </c>
       <c r="AA43" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.90112931798051377</v>
       </c>
       <c r="AB43" s="359">
@@ -30829,14 +30855,15 @@
         <v>4.101</v>
       </c>
       <c r="AD43" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.9003054707025826</v>
       </c>
-      <c r="AF43" s="716">
-        <v>0.90401038409024681</v>
+      <c r="AF43" s="719">
+        <f t="shared" si="11"/>
+        <v>90.094800555146122</v>
       </c>
       <c r="AG43" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.90094800555146115</v>
       </c>
       <c r="AH43" s="5">
@@ -30846,7 +30873,7 @@
         <v>-9.8687042617305251E-2</v>
       </c>
       <c r="AJ43" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99963504816876636</v>
       </c>
     </row>
@@ -30873,9 +30900,9 @@
       <c r="H44" s="307" t="s">
         <v>67</v>
       </c>
-      <c r="I44" s="717">
+      <c r="I44" s="635">
         <f t="shared" si="10"/>
-        <v>-2.6893789751877284E-3</v>
+        <v>-88.759737784141478</v>
       </c>
       <c r="J44" s="322"/>
       <c r="K44" s="322"/>
@@ -30887,7 +30914,7 @@
         <v>4.0595999999999997</v>
       </c>
       <c r="O44" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89528180444394689</v>
       </c>
       <c r="P44" s="359">
@@ -30897,7 +30924,7 @@
         <v>4.093</v>
       </c>
       <c r="R44" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.89758251712619586</v>
       </c>
       <c r="S44" s="359">
@@ -30907,7 +30934,7 @@
         <v>4.1105</v>
       </c>
       <c r="U44" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.89729546609451749</v>
       </c>
       <c r="V44" s="359">
@@ -30917,7 +30944,7 @@
         <v>4.2267999999999999</v>
       </c>
       <c r="X44" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.89659965782720275</v>
       </c>
       <c r="Y44" s="359">
@@ -30927,7 +30954,7 @@
         <v>4.0693000000000001</v>
       </c>
       <c r="AA44" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.89664526129317978</v>
       </c>
       <c r="AB44" s="359">
@@ -30937,14 +30964,15 @@
         <v>4.0934999999999997</v>
       </c>
       <c r="AD44" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.8959733407386834</v>
       </c>
-      <c r="AF44" s="716">
-        <v>0.89925238689580866</v>
+      <c r="AF44" s="719">
+        <f t="shared" si="11"/>
+        <v>89.656300792062098</v>
       </c>
       <c r="AG44" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.89656300792062094</v>
       </c>
       <c r="AH44" s="619">
@@ -30954,7 +30982,7 @@
         <v>-0.10317118668388582</v>
       </c>
       <c r="AJ44" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99973419460450674</v>
       </c>
     </row>
@@ -30981,9 +31009,9 @@
       <c r="H45" s="307" t="s">
         <v>68</v>
       </c>
-      <c r="I45" s="717">
+      <c r="I45" s="635">
         <f t="shared" si="10"/>
-        <v>-2.5733927639415288E-3</v>
+        <v>-88.318113995376592</v>
       </c>
       <c r="J45" s="321"/>
       <c r="K45" s="321"/>
@@ -30995,7 +31023,7 @@
         <v>4.0510999999999999</v>
       </c>
       <c r="O45" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89058039961941005</v>
       </c>
       <c r="P45" s="359">
@@ -31005,7 +31033,7 @@
         <v>4.0854999999999997</v>
       </c>
       <c r="R45" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.89305327520806166</v>
       </c>
       <c r="S45" s="359">
@@ -31015,7 +31043,7 @@
         <v>4.1020000000000003</v>
       </c>
       <c r="U45" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.89243972672350536</v>
       </c>
       <c r="V45" s="359">
@@ -31025,7 +31053,7 @@
         <v>4.218</v>
       </c>
       <c r="X45" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.89152053036783574</v>
       </c>
       <c r="Y45" s="359">
@@ -31035,7 +31063,7 @@
         <v>4.0646000000000004</v>
       </c>
       <c r="AA45" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.89376660761736082</v>
       </c>
       <c r="AB45" s="359">
@@ -31045,14 +31073,15 @@
         <v>4.085</v>
       </c>
       <c r="AD45" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.89125242988058861</v>
       </c>
-      <c r="AF45" s="716">
-        <v>0.89467555433340196</v>
+      <c r="AF45" s="719">
+        <f t="shared" si="11"/>
+        <v>89.210216156946046</v>
       </c>
       <c r="AG45" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.89210216156946043</v>
       </c>
       <c r="AH45" s="5">
@@ -31062,7 +31091,7 @@
         <v>-0.10765533075046639</v>
       </c>
       <c r="AJ45" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99975749231992683</v>
       </c>
     </row>
@@ -31089,9 +31118,9 @@
       <c r="H46" s="307" t="s">
         <v>69</v>
       </c>
-      <c r="I46" s="717">
+      <c r="I46" s="635">
         <f t="shared" si="10"/>
-        <v>-2.765898294169733E-3</v>
+        <v>-87.868209119464623</v>
       </c>
       <c r="J46" s="321"/>
       <c r="K46" s="321"/>
@@ -31103,7 +31132,7 @@
         <v>4.0434999999999999</v>
       </c>
       <c r="O46" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.88632674763530528</v>
       </c>
       <c r="P46" s="359">
@@ -31113,7 +31142,7 @@
         <v>4.077</v>
       </c>
       <c r="R46" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.88846741776595139</v>
       </c>
       <c r="S46" s="359">
@@ -31123,7 +31152,7 @@
         <v>4.093</v>
       </c>
       <c r="U46" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.88747106318107394</v>
       </c>
       <c r="V46" s="359">
@@ -31133,7 +31162,7 @@
         <v>4.2111999999999998</v>
       </c>
       <c r="X46" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.88815226689478188</v>
       </c>
       <c r="Y46" s="359">
@@ -31143,7 +31172,7 @@
         <v>4.0547000000000004</v>
       </c>
       <c r="AA46" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.88834145261293196</v>
       </c>
       <c r="AB46" s="359">
@@ -31153,14 +31182,15 @@
         <v>4.0765000000000002</v>
       </c>
       <c r="AD46" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.88658705915023617</v>
       </c>
-      <c r="AF46" s="716">
-        <v>0.89032356616754971</v>
+      <c r="AF46" s="719">
+        <f t="shared" si="11"/>
+        <v>88.755766787338004</v>
       </c>
       <c r="AG46" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.88755766787337997</v>
       </c>
       <c r="AH46" s="619">
@@ -31170,7 +31200,7 @@
         <v>-0.11213947481704696</v>
       </c>
       <c r="AJ46" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99969714269042698</v>
       </c>
     </row>
@@ -31197,9 +31227,9 @@
       <c r="H47" s="307" t="s">
         <v>70</v>
       </c>
-      <c r="I47" s="717">
+      <c r="I47" s="635">
         <f t="shared" si="10"/>
-        <v>-3.0577971214587052E-3</v>
+        <v>-87.406221143059184</v>
       </c>
       <c r="J47" s="321"/>
       <c r="K47" s="321"/>
@@ -31211,7 +31241,7 @@
         <v>4.0350000000000001</v>
       </c>
       <c r="O47" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.88162534281076865</v>
       </c>
       <c r="P47" s="359">
@@ -31221,7 +31251,7 @@
         <v>4.0685000000000002</v>
       </c>
       <c r="R47" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.88359848270395747</v>
       </c>
       <c r="S47" s="359">
@@ -31231,7 +31261,7 @@
         <v>4.0850999999999997</v>
       </c>
       <c r="U47" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.88255886172435205</v>
       </c>
       <c r="V47" s="359">
@@ -31241,7 +31271,7 @@
         <v>4.2022000000000004</v>
       </c>
       <c r="X47" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.88334046193327653</v>
       </c>
       <c r="Y47" s="359">
@@ -31251,7 +31281,7 @@
         <v>4.0465</v>
       </c>
       <c r="AA47" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.88380203720106276</v>
       </c>
       <c r="AB47" s="359">
@@ -31261,14 +31291,15 @@
         <v>4.0690999999999997</v>
       </c>
       <c r="AD47" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.88242154956956376</v>
       </c>
-      <c r="AF47" s="716">
-        <v>0.88594891977862222</v>
+      <c r="AF47" s="719">
+        <f t="shared" si="11"/>
+        <v>88.289112265716355</v>
       </c>
       <c r="AG47" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.88289112265716352</v>
       </c>
       <c r="AH47" s="5">
@@ -31278,7 +31309,7 @@
         <v>-0.11662361888362753</v>
       </c>
       <c r="AJ47" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99951474154079101</v>
       </c>
     </row>
@@ -31305,9 +31336,9 @@
       <c r="H48" s="307" t="s">
         <v>71</v>
       </c>
-      <c r="I48" s="717">
+      <c r="I48" s="635">
         <f t="shared" si="10"/>
-        <v>-3.0478696450755294E-3</v>
+        <v>-86.973421998213851</v>
       </c>
       <c r="J48" s="321"/>
       <c r="K48" s="321"/>
@@ -31319,7 +31350,7 @@
         <v>4.0270000000000001</v>
       </c>
       <c r="O48" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.87703587619633983</v>
       </c>
       <c r="P48" s="359">
@@ -31329,7 +31360,7 @@
         <v>4.0620000000000003</v>
       </c>
       <c r="R48" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.87963539602559015</v>
       </c>
       <c r="S48" s="359">
@@ -31339,7 +31370,7 @@
         <v>4.0759999999999996</v>
       </c>
       <c r="U48" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.87798543278188679</v>
       </c>
       <c r="V48" s="359">
@@ -31349,7 +31380,7 @@
         <v>4.1951000000000001</v>
       </c>
       <c r="X48" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.87933062446535515</v>
       </c>
       <c r="Y48" s="359">
@@ -31359,7 +31390,7 @@
         <v>4.0385999999999997</v>
       </c>
       <c r="AA48" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.87948405668733376</v>
       </c>
       <c r="AB48" s="359">
@@ -31369,14 +31400,15 @@
         <v>4.0605000000000002</v>
       </c>
       <c r="AD48" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.87764509858372675</v>
       </c>
-      <c r="AF48" s="716">
-        <v>0.88156728376844773</v>
+      <c r="AF48" s="719">
+        <f t="shared" si="11"/>
+        <v>87.851941412337226</v>
       </c>
       <c r="AG48" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.8785194141233722</v>
       </c>
       <c r="AH48" s="619">
@@ -31386,7 +31418,7 @@
         <v>-0.1211077629502081</v>
       </c>
       <c r="AJ48" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99962717707358029</v>
       </c>
     </row>
@@ -31413,9 +31445,9 @@
       <c r="H49" s="307" t="s">
         <v>72</v>
       </c>
-      <c r="I49" s="717">
+      <c r="I49" s="635">
         <f t="shared" si="10"/>
-        <v>-3.0366542982562805E-3</v>
+        <v>-86.522073595181737</v>
       </c>
       <c r="J49" s="322"/>
       <c r="K49" s="322"/>
@@ -31427,7 +31459,7 @@
         <v>4.0186999999999999</v>
       </c>
       <c r="O49" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.87227850226674886</v>
       </c>
       <c r="P49" s="359">
@@ -31437,7 +31469,7 @@
         <v>4.0496999999999996</v>
       </c>
       <c r="R49" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.87340768838815563</v>
       </c>
       <c r="S49" s="359">
@@ -31447,7 +31479,7 @@
         <v>4.07</v>
       </c>
       <c r="U49" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.87459770763932032</v>
       </c>
       <c r="V49" s="359">
@@ -31457,7 +31489,7 @@
         <v>4.1863999999999999</v>
       </c>
       <c r="X49" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.875</v>
       </c>
       <c r="Y49" s="359">
@@ -31467,7 +31499,7 @@
         <v>4.0312999999999999</v>
       </c>
       <c r="AA49" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.87544286979627983</v>
       </c>
       <c r="AB49" s="359">
@@ -31477,14 +31509,15 @@
         <v>4.0525000000000002</v>
       </c>
       <c r="AD49" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.87303526798111653</v>
       </c>
-      <c r="AF49" s="716">
-        <v>0.87699699364352635</v>
+      <c r="AF49" s="719">
+        <f t="shared" si="11"/>
+        <v>87.396033934527011</v>
       </c>
       <c r="AG49" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.87396033934527007</v>
       </c>
       <c r="AH49" s="5">
@@ -31494,7 +31527,7 @@
         <v>-0.12559190701678868</v>
       </c>
       <c r="AJ49" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99955224636205875</v>
       </c>
     </row>
@@ -31521,9 +31554,9 @@
       <c r="H50" s="307" t="s">
         <v>73</v>
       </c>
-      <c r="I50" s="717">
+      <c r="I50" s="635">
         <f t="shared" si="10"/>
-        <v>-3.0400293187605731E-3</v>
+        <v>-86.09383503716613</v>
       </c>
       <c r="J50" s="322"/>
       <c r="K50" s="322"/>
@@ -31535,7 +31568,7 @@
         <v>4.0119999999999996</v>
       </c>
       <c r="O50" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.86852857222812996</v>
       </c>
       <c r="P50" s="359">
@@ -31545,7 +31578,7 @@
         <v>4.0431999999999997</v>
       </c>
       <c r="R50" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.86961444828171852</v>
       </c>
       <c r="S50" s="359">
@@ -31555,7 +31588,7 @@
         <v>4.0609999999999999</v>
       </c>
       <c r="U50" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.86934673366834159</v>
       </c>
       <c r="V50" s="359">
@@ -31565,7 +31598,7 @@
         <v>4.1792999999999996</v>
       </c>
       <c r="X50" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.87104362703165072</v>
       </c>
       <c r="Y50" s="359">
@@ -31575,7 +31608,7 @@
         <v>4.0223000000000004</v>
       </c>
       <c r="AA50" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.87046058458813136</v>
       </c>
       <c r="AB50" s="359">
@@ -31585,14 +31618,15 @@
         <v>4.0449999999999999</v>
       </c>
       <c r="AD50" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.86881421827270189</v>
       </c>
-      <c r="AF50" s="716">
-        <v>0.87267472666387291</v>
+      <c r="AF50" s="719">
+        <f t="shared" si="11"/>
+        <v>86.963469734511236</v>
       </c>
       <c r="AG50" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86963469734511234</v>
       </c>
       <c r="AH50" s="619">
@@ -31602,7 +31636,7 @@
         <v>-0.13007605108336925</v>
       </c>
       <c r="AJ50" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99971074842848162</v>
       </c>
     </row>
@@ -31629,9 +31663,9 @@
       <c r="H51" s="307" t="s">
         <v>74</v>
       </c>
-      <c r="I51" s="717">
+      <c r="I51" s="635">
         <f t="shared" si="10"/>
-        <v>-3.4034801410931514E-3</v>
+        <v>-85.62700657733582</v>
       </c>
       <c r="J51" s="322"/>
       <c r="K51" s="322"/>
@@ -31643,7 +31677,7 @@
         <v>4.0039999999999996</v>
       </c>
       <c r="O51" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.86393910561370113</v>
       </c>
       <c r="P51" s="359">
@@ -31653,7 +31687,7 @@
         <v>4.0353000000000003</v>
       </c>
       <c r="R51" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.86497197531563175</v>
       </c>
       <c r="S51" s="359">
@@ -31663,7 +31697,7 @@
         <v>4.0522</v>
       </c>
       <c r="U51" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.86449099429732923</v>
       </c>
       <c r="V51" s="359">
@@ -31673,7 +31707,7 @@
         <v>4.1715999999999998</v>
       </c>
       <c r="X51" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.86681993156544035</v>
       </c>
       <c r="Y51" s="359">
@@ -31683,7 +31717,7 @@
         <v>4.0137</v>
       </c>
       <c r="AA51" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.86558901682905232</v>
       </c>
       <c r="AB51" s="359">
@@ -31693,14 +31727,15 @@
         <v>4.0355999999999996</v>
       </c>
       <c r="AD51" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.86370452652041074</v>
       </c>
-      <c r="AF51" s="716">
-        <v>0.86832273849802066</v>
+      <c r="AF51" s="719">
+        <f t="shared" si="11"/>
+        <v>86.491925835692754</v>
       </c>
       <c r="AG51" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86491925835692751</v>
       </c>
       <c r="AH51" s="5">
@@ -31710,7 +31745,7 @@
         <v>-0.13456019514994982</v>
       </c>
       <c r="AJ51" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99947945350687739</v>
       </c>
     </row>
@@ -31737,9 +31772,9 @@
       <c r="H52" s="327" t="s">
         <v>75</v>
       </c>
-      <c r="I52" s="717">
+      <c r="I52" s="635">
         <f t="shared" si="10"/>
-        <v>-3.1519113916049779E-3</v>
+        <v>-85.206242007404853</v>
       </c>
       <c r="J52" s="322"/>
       <c r="K52" s="322"/>
@@ -31751,7 +31786,7 @@
         <v>3.9956</v>
       </c>
       <c r="O52" s="372">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.85934963899927264</v>
       </c>
       <c r="P52" s="361">
@@ -31761,7 +31796,7 @@
         <v>4.0275999999999996</v>
       </c>
       <c r="R52" s="372">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.86066919549340393</v>
       </c>
       <c r="S52" s="361">
@@ -31771,7 +31806,7 @@
         <v>4.0449999999999999</v>
       </c>
       <c r="U52" s="372">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.86042572412624907</v>
       </c>
       <c r="V52" s="361">
@@ -31781,7 +31816,7 @@
         <v>4.1639999999999997</v>
       </c>
       <c r="X52" s="372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.86264970059880219</v>
       </c>
       <c r="Y52" s="361">
@@ -31791,7 +31826,7 @@
         <v>4.0060000000000002</v>
       </c>
       <c r="AA52" s="372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.86149247121346328</v>
       </c>
       <c r="AB52" s="361">
@@ -31801,14 +31836,15 @@
         <v>4.0278</v>
       </c>
       <c r="AD52" s="372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.85942793668425443</v>
       </c>
-      <c r="AF52" s="716">
-        <v>0.8638210225775127</v>
+      <c r="AF52" s="719">
+        <f t="shared" si="11"/>
+        <v>86.066911118590767</v>
       </c>
       <c r="AG52" s="369">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86066911118590772</v>
       </c>
       <c r="AH52" s="619">
@@ -31818,13 +31854,13 @@
         <v>-0.13904433921653039</v>
       </c>
       <c r="AJ52" s="371">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.99971345040243809</v>
       </c>
     </row>
     <row r="53" spans="1:44" ht="15.75" thickBot="1"/>
     <row r="54" spans="1:44" ht="16.5" thickBot="1">
-      <c r="A54" s="701" t="s">
+      <c r="A54" s="702" t="s">
         <v>258</v>
       </c>
       <c r="B54" s="329" t="s">
@@ -31881,7 +31917,7 @@
       <c r="AR54" s="377"/>
     </row>
     <row r="55" spans="1:44" ht="15.75">
-      <c r="A55" s="702"/>
+      <c r="A55" s="703"/>
       <c r="B55" s="304">
         <v>0</v>
       </c>
@@ -31983,7 +32019,7 @@
       <c r="AO55" s="371"/>
     </row>
     <row r="56" spans="1:44" s="605" customFormat="1" ht="15.75">
-      <c r="A56" s="702"/>
+      <c r="A56" s="703"/>
       <c r="B56" s="598">
         <v>0</v>
       </c>
@@ -32016,50 +32052,50 @@
         <v>2.4350000000000001</v>
       </c>
       <c r="N56" s="603">
-        <f t="shared" ref="N56:N70" si="19">M56/M$55</f>
+        <f t="shared" ref="N56:N70" si="20">M56/M$55</f>
         <v>0.98983739837398377</v>
       </c>
       <c r="P56" s="604">
         <v>2.4813999999999998</v>
       </c>
       <c r="Q56" s="603">
-        <f t="shared" ref="Q56:Q70" si="20">P56/P$55</f>
+        <f t="shared" ref="Q56:Q70" si="21">P56/P$55</f>
         <v>0.98978859194256075</v>
       </c>
       <c r="S56" s="604">
         <v>2.4944999999999999</v>
       </c>
       <c r="T56" s="603">
-        <f t="shared" ref="T56:T70" si="21">S56/S$55</f>
+        <f t="shared" ref="T56:T70" si="22">S56/S$55</f>
         <v>0.98929208804283164</v>
       </c>
       <c r="V56" s="604">
         <v>2.5232000000000001</v>
       </c>
       <c r="W56" s="603">
-        <f t="shared" ref="W56:W70" si="22">V56/V$55</f>
+        <f t="shared" ref="W56:W70" si="23">V56/V$55</f>
         <v>0.98925742962440211</v>
       </c>
       <c r="Y56" s="604">
         <v>2.4239999999999999</v>
       </c>
       <c r="Z56" s="603">
-        <f t="shared" ref="Z56:Z70" si="23">Y56/Y$55</f>
+        <f t="shared" ref="Z56:Z70" si="24">Y56/Y$55</f>
         <v>0.98874204601076843</v>
       </c>
       <c r="AB56" s="604">
         <v>2.4554</v>
       </c>
       <c r="AC56" s="603">
-        <f t="shared" ref="AC56:AC70" si="24">AB56/AB$55</f>
+        <f t="shared" ref="AC56:AC70" si="25">AB56/AB$55</f>
         <v>0.98948216804352207</v>
       </c>
       <c r="AF56" s="371">
-        <f t="shared" ref="AF56:AF62" si="25">AG56-AG64</f>
+        <f t="shared" ref="AF56:AF62" si="26">AG56-AG64</f>
         <v>-8.3259627916457801E-2</v>
       </c>
       <c r="AG56" s="606">
-        <f t="shared" ref="AG56:AG70" si="26">AVERAGE(N56,Q56,T56,W56,Z56,AC56)</f>
+        <f t="shared" ref="AG56:AG70" si="27">AVERAGE(N56,Q56,T56,W56,Z56,AC56)</f>
         <v>0.98939995367301148</v>
       </c>
       <c r="AH56" s="605">
@@ -32069,7 +32105,7 @@
         <v>-1.0524209683873544E-2</v>
       </c>
       <c r="AJ56" s="606">
-        <f t="shared" ref="AJ56:AJ70" si="27">AG56-AI56</f>
+        <f t="shared" ref="AJ56:AJ70" si="28">AG56-AI56</f>
         <v>0.99992416335688505</v>
       </c>
       <c r="AL56" s="606">
@@ -32086,7 +32122,7 @@
       <c r="AO56" s="606"/>
     </row>
     <row r="57" spans="1:44" s="605" customFormat="1" ht="15.75">
-      <c r="A57" s="702"/>
+      <c r="A57" s="703"/>
       <c r="B57" s="598">
         <v>0</v>
       </c>
@@ -32103,7 +32139,7 @@
         <v>-2.1128451380552204E-2</v>
       </c>
       <c r="G57" s="600">
-        <f t="shared" ref="G57:G62" si="28">G56+1.05%</f>
+        <f t="shared" ref="G57:G62" si="29">G56+1.05%</f>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="H57" s="601" t="s">
@@ -32119,50 +32155,50 @@
         <v>2.407</v>
       </c>
       <c r="N57" s="603">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.97845528455284558</v>
       </c>
       <c r="P57" s="604">
         <v>2.4557000000000002</v>
       </c>
       <c r="Q57" s="603">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.97953729557239733</v>
       </c>
       <c r="S57" s="604">
         <v>2.4676999999999998</v>
       </c>
       <c r="T57" s="603">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.97866349395201258</v>
       </c>
       <c r="V57" s="604">
         <v>2.4954999999999998</v>
       </c>
       <c r="W57" s="603">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.97839723986512961</v>
       </c>
       <c r="Y57" s="604">
         <v>2.3992</v>
       </c>
       <c r="Z57" s="603">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.97862620329580685</v>
       </c>
       <c r="AB57" s="604">
         <v>2.4281999999999999</v>
       </c>
       <c r="AC57" s="603">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.97852105581301629</v>
       </c>
       <c r="AF57" s="371">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-8.3914712336133901E-2</v>
       </c>
       <c r="AG57" s="606">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.97870009550853476</v>
       </c>
       <c r="AH57" s="605">
@@ -32172,24 +32208,24 @@
         <v>-2.1128451380552204E-2</v>
       </c>
       <c r="AJ57" s="606">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.99982854688908696</v>
       </c>
       <c r="AL57" s="606">
         <v>0.97870009550853476</v>
       </c>
       <c r="AM57" s="606">
-        <f t="shared" ref="AM57:AM70" si="29">AG57-AL57</f>
+        <f t="shared" ref="AM57:AM70" si="30">AG57-AL57</f>
         <v>0</v>
       </c>
       <c r="AN57" s="607">
-        <f t="shared" ref="AN57:AN62" si="30">ABS(AL57/1.05%)</f>
+        <f t="shared" ref="AN57:AN62" si="31">ABS(AL57/1.05%)</f>
         <v>93.209532905574733</v>
       </c>
       <c r="AO57" s="606"/>
     </row>
     <row r="58" spans="1:44" ht="15.75">
-      <c r="A58" s="702"/>
+      <c r="A58" s="703"/>
       <c r="B58" s="304">
         <v>0</v>
       </c>
@@ -32206,7 +32242,7 @@
         <v>-3.1772709083633506E-2</v>
       </c>
       <c r="G58" s="375">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.15E-2</v>
       </c>
       <c r="H58" s="341" t="s">
@@ -32222,50 +32258,50 @@
         <v>2.3807999999999998</v>
       </c>
       <c r="N58" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.96780487804878046</v>
       </c>
       <c r="P58" s="230">
         <v>2.4272</v>
       </c>
       <c r="Q58" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.96816912644595132</v>
       </c>
       <c r="S58" s="230">
         <v>2.4405999999999999</v>
       </c>
       <c r="T58" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.96791592306166951</v>
       </c>
       <c r="V58" s="230">
         <v>2.468</v>
       </c>
       <c r="W58" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.96761546302830703</v>
       </c>
       <c r="Y58" s="230">
         <v>2.3719000000000001</v>
       </c>
       <c r="Z58" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.96749061837167571</v>
       </c>
       <c r="AB58" s="230">
         <v>2.4016000000000002</v>
       </c>
       <c r="AC58" s="372">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.96780173282288939</v>
       </c>
       <c r="AF58" s="371">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-8.4516465719214007E-2</v>
       </c>
       <c r="AG58" s="594">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.96779962362987881</v>
       </c>
       <c r="AH58" s="5">
@@ -32275,24 +32311,24 @@
         <v>-3.1772709083633506E-2</v>
       </c>
       <c r="AJ58" s="371">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.99957233271351231</v>
       </c>
       <c r="AL58" s="594">
         <v>0.96779962362987881</v>
       </c>
       <c r="AM58" s="371">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN58" s="379">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>92.171392726655114</v>
       </c>
       <c r="AO58" s="371"/>
     </row>
     <row r="59" spans="1:44" s="605" customFormat="1" ht="15.75">
-      <c r="A59" s="702"/>
+      <c r="A59" s="703"/>
       <c r="B59" s="598">
         <v>0</v>
       </c>
@@ -32309,7 +32345,7 @@
         <v>-4.2416966786714812E-2</v>
       </c>
       <c r="G59" s="600">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="H59" s="601" t="s">
@@ -32325,50 +32361,50 @@
         <v>2.3546</v>
       </c>
       <c r="N59" s="603">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.95715447154471545</v>
       </c>
       <c r="P59" s="604">
         <v>2.4</v>
       </c>
       <c r="Q59" s="603">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.95731950538492216</v>
       </c>
       <c r="S59" s="604">
         <v>2.4125999999999999</v>
       </c>
       <c r="T59" s="603">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.95681142177275424</v>
       </c>
       <c r="V59" s="604">
         <v>2.4403999999999999</v>
       </c>
       <c r="W59" s="603">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.95679447973025944</v>
       </c>
       <c r="Y59" s="604">
         <v>2.3441999999999998</v>
       </c>
       <c r="Z59" s="603">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.95619187469407729</v>
       </c>
       <c r="AB59" s="604">
         <v>2.3740000000000001</v>
       </c>
       <c r="AC59" s="603">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.95667942776546444</v>
       </c>
       <c r="AF59" s="371">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-8.5190512985997002E-2</v>
       </c>
       <c r="AG59" s="606">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.95682519681536549</v>
       </c>
       <c r="AH59" s="605">
@@ -32378,24 +32414,24 @@
         <v>-4.2416966786714812E-2</v>
       </c>
       <c r="AJ59" s="606">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.99924216360208029</v>
       </c>
       <c r="AL59" s="606">
         <v>0.95682519681536549</v>
       </c>
       <c r="AM59" s="606">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN59" s="607">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>91.126209220510987</v>
       </c>
       <c r="AO59" s="606"/>
     </row>
     <row r="60" spans="1:44" ht="15.75">
-      <c r="A60" s="702"/>
+      <c r="A60" s="703"/>
       <c r="B60" s="304">
         <v>0</v>
       </c>
@@ -32412,7 +32448,7 @@
         <v>-5.3021208483393471E-2</v>
       </c>
       <c r="G60" s="375">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>5.2500000000000005E-2</v>
       </c>
       <c r="H60" s="341" t="s">
@@ -32428,50 +32464,50 @@
         <v>2.3285999999999998</v>
       </c>
       <c r="N60" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.94658536585365849</v>
       </c>
       <c r="P60" s="230">
         <v>2.3723999999999998</v>
       </c>
       <c r="Q60" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.94631033107299556</v>
       </c>
       <c r="S60" s="230">
         <v>2.3851</v>
       </c>
       <c r="T60" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.94590521514971249</v>
       </c>
       <c r="V60" s="230">
         <v>2.4127000000000001</v>
       </c>
       <c r="W60" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.94593428997098716</v>
       </c>
       <c r="Y60" s="230">
         <v>2.3180000000000001</v>
       </c>
       <c r="Z60" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.94550497634198072</v>
       </c>
       <c r="AB60" s="230">
         <v>2.3472</v>
       </c>
       <c r="AC60" s="372">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.94587950836187784</v>
       </c>
       <c r="AF60" s="371">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-8.5602719817211459E-2</v>
       </c>
       <c r="AG60" s="594">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.9460199477918686</v>
       </c>
       <c r="AH60" s="605">
@@ -32481,24 +32517,24 @@
         <v>-5.3021208483393471E-2</v>
       </c>
       <c r="AJ60" s="371">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.99904115627526202</v>
       </c>
       <c r="AL60" s="594">
         <v>0.9460199477918686</v>
       </c>
       <c r="AM60" s="371">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN60" s="379">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>90.097137884939855</v>
       </c>
       <c r="AO60" s="371"/>
     </row>
     <row r="61" spans="1:44" ht="15.75">
-      <c r="A61" s="702"/>
+      <c r="A61" s="703"/>
       <c r="B61" s="304">
         <v>0</v>
       </c>
@@ -32515,7 +32551,7 @@
         <v>-6.3625450180072124E-2</v>
       </c>
       <c r="G61" s="375">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>6.3E-2</v>
       </c>
       <c r="H61" s="341" t="s">
@@ -32531,50 +32567,50 @@
         <v>2.3006000000000002</v>
       </c>
       <c r="N61" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.93520325203252042</v>
       </c>
       <c r="P61" s="230">
         <v>2.3452000000000002</v>
       </c>
       <c r="Q61" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.93546071001196651</v>
       </c>
       <c r="S61" s="230">
         <v>2.3576000000000001</v>
       </c>
       <c r="T61" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.93499900852667062</v>
       </c>
       <c r="V61" s="230">
         <v>2.3841999999999999</v>
       </c>
       <c r="W61" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.93476044852191631</v>
       </c>
       <c r="Y61" s="230">
         <v>2.2911999999999999</v>
       </c>
       <c r="Z61" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.93457333985968338</v>
       </c>
       <c r="AB61" s="230">
         <v>2.3195999999999999</v>
       </c>
       <c r="AC61" s="372">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.93475720330445289</v>
       </c>
       <c r="AF61" s="371">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-8.625834942112609E-2</v>
       </c>
       <c r="AG61" s="594">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.93495899370953495</v>
       </c>
       <c r="AH61" s="5">
@@ -32584,24 +32620,24 @@
         <v>-6.3625450180072124E-2</v>
       </c>
       <c r="AJ61" s="371">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.9985844438896071</v>
       </c>
       <c r="AL61" s="594">
         <v>0.93495899370953495</v>
       </c>
       <c r="AM61" s="371">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN61" s="379">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>89.043713686622368</v>
       </c>
       <c r="AO61" s="371"/>
     </row>
     <row r="62" spans="1:44" ht="15.75">
-      <c r="A62" s="702"/>
+      <c r="A62" s="703"/>
       <c r="B62" s="304">
         <v>0</v>
       </c>
@@ -32618,7 +32654,7 @@
         <v>-7.4029611844737914E-2</v>
       </c>
       <c r="G62" s="375">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>7.3499999999999996E-2</v>
       </c>
       <c r="H62" s="341" t="s">
@@ -32634,50 +32670,50 @@
         <v>2.274</v>
       </c>
       <c r="N62" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.92439024390243907</v>
       </c>
       <c r="P62" s="230">
         <v>2.3168000000000002</v>
       </c>
       <c r="Q62" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.9241324291982449</v>
       </c>
       <c r="S62" s="230">
         <v>2.3296000000000001</v>
       </c>
       <c r="T62" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.92389450723775535</v>
       </c>
       <c r="V62" s="230">
         <v>2.3561999999999999</v>
       </c>
       <c r="W62" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.92378263937896954</v>
       </c>
       <c r="Y62" s="230">
         <v>2.2631999999999999</v>
       </c>
       <c r="Z62" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.92315222711698475</v>
       </c>
       <c r="AB62" s="230">
         <v>2.2923</v>
       </c>
       <c r="AC62" s="372">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.92375579286721743</v>
       </c>
       <c r="AF62" s="371">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-8.6820194240607385E-2</v>
       </c>
       <c r="AG62" s="594">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.92385130661693504</v>
       </c>
       <c r="AH62" s="605">
@@ -32687,24 +32723,24 @@
         <v>-7.4029611844737914E-2</v>
       </c>
       <c r="AJ62" s="371">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0.99788091846167293</v>
       </c>
       <c r="AL62" s="594">
         <v>0.92385130661693504</v>
       </c>
       <c r="AM62" s="371">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN62" s="379">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>87.985838725422383</v>
       </c>
       <c r="AO62" s="371"/>
     </row>
     <row r="63" spans="1:44" s="605" customFormat="1" ht="15.75">
-      <c r="A63" s="702"/>
+      <c r="A63" s="703"/>
       <c r="B63" s="598">
         <v>1</v>
       </c>
@@ -32739,47 +32775,47 @@
         <v>2.6616</v>
       </c>
       <c r="N63" s="603">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0819512195121952</v>
       </c>
       <c r="P63" s="604">
         <v>2.7149999999999999</v>
       </c>
       <c r="Q63" s="603">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0829676904666932</v>
       </c>
       <c r="S63" s="604">
         <v>2.7307999999999999</v>
       </c>
       <c r="T63" s="603">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0830061471346419</v>
       </c>
       <c r="V63" s="604">
         <v>2.7606999999999999</v>
       </c>
       <c r="W63" s="603">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0823727750333254</v>
       </c>
       <c r="Y63" s="604">
         <v>2.6536</v>
       </c>
       <c r="Z63" s="603">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0823951705008974</v>
       </c>
       <c r="AB63" s="604">
         <v>2.6890000000000001</v>
       </c>
       <c r="AC63" s="603">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0836187789643361</v>
       </c>
       <c r="AF63" s="606"/>
       <c r="AG63" s="606">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0827186302686815</v>
       </c>
       <c r="AH63" s="605">
@@ -32789,14 +32825,14 @@
         <v>8.2032813125250126E-2</v>
       </c>
       <c r="AJ63" s="606">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.0006858171434314</v>
       </c>
       <c r="AL63" s="606">
         <v>1.0827186302686815</v>
       </c>
       <c r="AM63" s="606">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN63" s="607">
@@ -32806,7 +32842,7 @@
       <c r="AO63" s="606"/>
     </row>
     <row r="64" spans="1:44" ht="15.75">
-      <c r="A64" s="702"/>
+      <c r="A64" s="703"/>
       <c r="B64" s="304">
         <v>1</v>
       </c>
@@ -32823,7 +32859,7 @@
         <v>7.2428971588635468E-2</v>
       </c>
       <c r="G64" s="375">
-        <f t="shared" ref="G64:G70" si="31">F64-8.4%</f>
+        <f t="shared" ref="G64:G70" si="32">F64-8.4%</f>
         <v>-1.1571028411364537E-2</v>
       </c>
       <c r="H64" s="341" t="s">
@@ -32839,46 +32875,46 @@
         <v>2.6368</v>
       </c>
       <c r="N64" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0718699186991871</v>
       </c>
       <c r="P64" s="230">
         <v>2.69</v>
       </c>
       <c r="Q64" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0729956122856001</v>
       </c>
       <c r="S64" s="230">
         <v>2.7056</v>
       </c>
       <c r="T64" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0730120959746183</v>
       </c>
       <c r="V64" s="230">
         <v>2.7351000000000001</v>
       </c>
       <c r="W64" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.072335920959774</v>
       </c>
       <c r="Y64" s="230">
         <v>2.629</v>
       </c>
       <c r="Z64" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0723609071626692</v>
       </c>
       <c r="AB64" s="230">
         <v>2.6636000000000002</v>
       </c>
       <c r="AC64" s="372">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0733830344549669</v>
       </c>
       <c r="AG64" s="594">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0726595815894693</v>
       </c>
       <c r="AH64" s="5">
@@ -32888,24 +32924,24 @@
         <v>7.2428971588635468E-2</v>
       </c>
       <c r="AJ64" s="371">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.0002306100008338</v>
       </c>
       <c r="AL64" s="594">
         <v>1.0726595815894693</v>
       </c>
       <c r="AM64" s="371">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN64" s="379">
-        <f t="shared" ref="AN64:AN70" si="32">16-ABS(AL64/1.05%)</f>
+        <f t="shared" ref="AN64:AN70" si="33">16-ABS(AL64/1.05%)</f>
         <v>-86.158055389473262</v>
       </c>
       <c r="AO64" s="371"/>
     </row>
     <row r="65" spans="1:41" ht="15.75">
-      <c r="A65" s="702"/>
+      <c r="A65" s="703"/>
       <c r="B65" s="304">
         <v>1</v>
       </c>
@@ -32922,7 +32958,7 @@
         <v>6.2264905962384848E-2</v>
       </c>
       <c r="G65" s="375">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-2.1735094037615157E-2</v>
       </c>
       <c r="H65" s="341" t="s">
@@ -32938,46 +32974,46 @@
         <v>2.6122000000000001</v>
       </c>
       <c r="N65" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0618699186991871</v>
       </c>
       <c r="P65" s="230">
         <v>2.6654</v>
       </c>
       <c r="Q65" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0631830873554049</v>
       </c>
       <c r="S65" s="230">
         <v>2.6796000000000002</v>
       </c>
       <c r="T65" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0627007733491969</v>
       </c>
       <c r="V65" s="230">
         <v>2.7096</v>
       </c>
       <c r="W65" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0623382733474476</v>
       </c>
       <c r="Y65" s="230">
         <v>2.6048</v>
       </c>
       <c r="Z65" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0624898025779084</v>
       </c>
       <c r="AB65" s="230">
         <v>2.6381000000000001</v>
       </c>
       <c r="AC65" s="372">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0631069917388676</v>
       </c>
       <c r="AG65" s="594">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0626148078446687</v>
       </c>
       <c r="AH65" s="605">
@@ -32987,24 +33023,24 @@
         <v>6.2264905962384848E-2</v>
       </c>
       <c r="AJ65" s="371">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.0003499018822839</v>
       </c>
       <c r="AL65" s="594">
         <v>1.0626148078446687</v>
       </c>
       <c r="AM65" s="371">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN65" s="379">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-85.201410270920817</v>
       </c>
       <c r="AO65" s="371"/>
     </row>
     <row r="66" spans="1:41" ht="15.75">
-      <c r="A66" s="702"/>
+      <c r="A66" s="703"/>
       <c r="B66" s="304">
         <v>1</v>
       </c>
@@ -33021,7 +33057,7 @@
         <v>5.2020808323329289E-2</v>
       </c>
       <c r="G66" s="375">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-3.1979191676670717E-2</v>
       </c>
       <c r="H66" s="341" t="s">
@@ -33037,46 +33073,46 @@
         <v>2.5874000000000001</v>
       </c>
       <c r="N66" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0517886178861788</v>
       </c>
       <c r="P66" s="230">
         <v>2.64</v>
       </c>
       <c r="Q66" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0530514559234145</v>
       </c>
       <c r="S66" s="230">
         <v>2.653</v>
       </c>
       <c r="T66" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0521514971247272</v>
       </c>
       <c r="V66" s="230">
         <v>2.6833999999999998</v>
       </c>
       <c r="W66" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0520661805065472</v>
       </c>
       <c r="Y66" s="230">
         <v>2.5792999999999999</v>
       </c>
       <c r="Z66" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0520884320443791</v>
       </c>
       <c r="AB66" s="230">
         <v>2.6124000000000001</v>
       </c>
       <c r="AC66" s="372">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0527503526093089</v>
       </c>
       <c r="AG66" s="594">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0523160893490928</v>
       </c>
       <c r="AH66" s="605">
@@ -33086,24 +33122,24 @@
         <v>5.2020808323329289E-2</v>
       </c>
       <c r="AJ66" s="371">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.0002952810257635</v>
       </c>
       <c r="AL66" s="594">
         <v>1.0523160893490928</v>
       </c>
       <c r="AM66" s="371">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN66" s="379">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-84.220579938008839</v>
       </c>
       <c r="AO66" s="371"/>
     </row>
     <row r="67" spans="1:41" ht="15.75">
-      <c r="A67" s="702"/>
+      <c r="A67" s="703"/>
       <c r="B67" s="304">
         <v>1</v>
       </c>
@@ -33120,7 +33156,7 @@
         <v>4.1816726690676195E-2</v>
       </c>
       <c r="G67" s="375">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-4.218327330932381E-2</v>
       </c>
       <c r="H67" s="341" t="s">
@@ -33136,46 +33172,46 @@
         <v>2.5623</v>
       </c>
       <c r="N67" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0415853658536585</v>
       </c>
       <c r="P67" s="230">
         <v>2.6139999999999999</v>
       </c>
       <c r="Q67" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0426804946150776</v>
       </c>
       <c r="S67" s="230">
         <v>2.6269999999999998</v>
       </c>
       <c r="T67" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0418401744993058</v>
       </c>
       <c r="V67" s="230">
         <v>2.6577999999999999</v>
       </c>
       <c r="W67" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0420293264329961</v>
       </c>
       <c r="Y67" s="230">
         <v>2.5535999999999999</v>
       </c>
       <c r="Z67" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0416054821341165</v>
       </c>
       <c r="AB67" s="230">
         <v>2.5865999999999998</v>
       </c>
       <c r="AC67" s="372">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0423534152730203</v>
       </c>
       <c r="AG67" s="594">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0420157098013625</v>
       </c>
       <c r="AH67" s="5">
@@ -33185,24 +33221,24 @@
         <v>4.1816726690676195E-2</v>
       </c>
       <c r="AJ67" s="371">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.0001989831106863</v>
       </c>
       <c r="AL67" s="594">
         <v>1.0420157098013625</v>
       </c>
       <c r="AM67" s="371">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN67" s="379">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-83.239591409653571</v>
       </c>
       <c r="AO67" s="371"/>
     </row>
     <row r="68" spans="1:41" ht="15.75">
-      <c r="A68" s="702"/>
+      <c r="A68" s="703"/>
       <c r="B68" s="304">
         <v>1</v>
       </c>
@@ -33219,7 +33255,7 @@
         <v>3.1452581032412878E-2</v>
       </c>
       <c r="G68" s="375">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-5.2547418967587127E-2</v>
       </c>
       <c r="H68" s="341" t="s">
@@ -33235,46 +33271,46 @@
         <v>2.5369999999999999</v>
       </c>
       <c r="N68" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.03130081300813</v>
       </c>
       <c r="P68" s="230">
         <v>2.5884</v>
       </c>
       <c r="Q68" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0324690865576385</v>
       </c>
       <c r="S68" s="230">
         <v>2.6006999999999998</v>
       </c>
       <c r="T68" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0314098750743603</v>
       </c>
       <c r="V68" s="230">
         <v>2.6315</v>
       </c>
       <c r="W68" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.031718027130871</v>
       </c>
       <c r="Y68" s="230">
         <v>2.5280999999999998</v>
       </c>
       <c r="Z68" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0312041116005872</v>
       </c>
       <c r="AB68" s="230">
         <v>2.56</v>
       </c>
       <c r="AC68" s="372">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0316340922828935</v>
       </c>
       <c r="AG68" s="594">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0316226676090801</v>
       </c>
       <c r="AH68" s="605">
@@ -33284,24 +33320,24 @@
         <v>3.1452581032412878E-2</v>
       </c>
       <c r="AJ68" s="371">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.0001700865766672</v>
       </c>
       <c r="AL68" s="594">
         <v>1.0316226676090801</v>
       </c>
       <c r="AM68" s="371">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN68" s="379">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-82.249777867531421</v>
       </c>
       <c r="AO68" s="371"/>
     </row>
     <row r="69" spans="1:41" ht="15.75">
-      <c r="A69" s="702"/>
+      <c r="A69" s="703"/>
       <c r="B69" s="304">
         <v>1</v>
       </c>
@@ -33318,7 +33354,7 @@
         <v>2.1048419367747088E-2</v>
       </c>
       <c r="G69" s="375">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-6.2951580632252924E-2</v>
       </c>
       <c r="H69" s="341" t="s">
@@ -33334,46 +33370,46 @@
         <v>2.5112999999999999</v>
       </c>
       <c r="N69" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0208536585365853</v>
       </c>
       <c r="P69" s="230">
         <v>2.5625</v>
       </c>
       <c r="Q69" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0221380135620264</v>
       </c>
       <c r="S69" s="230">
         <v>2.5750000000000002</v>
       </c>
       <c r="T69" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0212175292484633</v>
       </c>
       <c r="V69" s="230">
         <v>2.6042000000000001</v>
       </c>
       <c r="W69" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.021014663216498</v>
       </c>
       <c r="Y69" s="230">
         <v>2.5026000000000002</v>
       </c>
       <c r="Z69" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0208027410670584</v>
       </c>
       <c r="AB69" s="230">
         <v>2.5343</v>
       </c>
       <c r="AC69" s="372">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0212774531533346</v>
       </c>
       <c r="AG69" s="594">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.021217343130661</v>
       </c>
       <c r="AH69" s="605">
@@ -33383,24 +33419,24 @@
         <v>2.1048419367747088E-2</v>
       </c>
       <c r="AJ69" s="371">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.0001689237629139</v>
       </c>
       <c r="AL69" s="594">
         <v>1.021217343130661</v>
       </c>
       <c r="AM69" s="371">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN69" s="379">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-81.258794583872472</v>
       </c>
       <c r="AO69" s="371"/>
     </row>
     <row r="70" spans="1:41" ht="15.75">
-      <c r="A70" s="702"/>
+      <c r="A70" s="703"/>
       <c r="B70" s="304">
         <v>1</v>
       </c>
@@ -33417,7 +33453,7 @@
         <v>1.0564225690276013E-2</v>
       </c>
       <c r="G70" s="375">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>-7.3435774309723992E-2</v>
       </c>
       <c r="H70" s="341" t="s">
@@ -33433,46 +33469,46 @@
         <v>2.4862000000000002</v>
       </c>
       <c r="N70" s="372">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0106504065040651</v>
       </c>
       <c r="P70" s="230">
         <v>2.5350000000000001</v>
       </c>
       <c r="Q70" s="372">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1.0111687275628241</v>
       </c>
       <c r="S70" s="230">
         <v>2.5486</v>
       </c>
       <c r="T70" s="372">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.0107475708903431</v>
       </c>
       <c r="V70" s="230">
         <v>2.5775000000000001</v>
       </c>
       <c r="W70" s="372">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1.0105465380694738</v>
       </c>
       <c r="Y70" s="230">
         <v>2.4763999999999999</v>
       </c>
       <c r="Z70" s="372">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1.0101158427149617</v>
       </c>
       <c r="AB70" s="230">
         <v>2.5083000000000002</v>
       </c>
       <c r="AC70" s="372">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.0107999194035866</v>
       </c>
       <c r="AG70" s="594">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.0106715008575424</v>
       </c>
       <c r="AH70" s="5">
@@ -33482,24 +33518,24 @@
         <v>1.0564225690276013E-2</v>
       </c>
       <c r="AJ70" s="371">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.0001072751672664</v>
       </c>
       <c r="AL70" s="594">
         <v>1.0106715008575424</v>
       </c>
       <c r="AM70" s="371">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AN70" s="379">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>-80.254428653099268</v>
       </c>
       <c r="AO70" s="371"/>
     </row>
     <row r="71" spans="1:41" ht="31.5">
-      <c r="A71" s="702"/>
+      <c r="A71" s="703"/>
       <c r="B71" s="258" t="s">
         <v>264</v>
       </c>
@@ -33532,7 +33568,7 @@
       </c>
     </row>
     <row r="72" spans="1:41" ht="15.75">
-      <c r="A72" s="702"/>
+      <c r="A72" s="703"/>
       <c r="B72" s="304">
         <v>0</v>
       </c>
@@ -33627,7 +33663,7 @@
       </c>
     </row>
     <row r="73" spans="1:41" s="619" customFormat="1" ht="15.75">
-      <c r="A73" s="702"/>
+      <c r="A73" s="703"/>
       <c r="B73" s="610">
         <v>0</v>
       </c>
@@ -33660,47 +33696,47 @@
         <v>2.4527999999999999</v>
       </c>
       <c r="N73" s="618">
-        <f t="shared" ref="N73:N87" si="33">M73/M$72</f>
+        <f t="shared" ref="N73:N87" si="34">M73/M$72</f>
         <v>0.99707317073170731</v>
       </c>
       <c r="P73" s="628">
         <v>2.5024999999999999</v>
       </c>
       <c r="Q73" s="618">
-        <f t="shared" ref="Q73:Q87" si="34">P73/P$72</f>
+        <f t="shared" ref="Q73:Q87" si="35">P73/P$72</f>
         <v>0.99740932642487046</v>
       </c>
       <c r="S73" s="628">
         <v>2.5129999999999999</v>
       </c>
       <c r="T73" s="618">
-        <f t="shared" ref="T73:T87" si="35">S73/S$72</f>
+        <f t="shared" ref="T73:T87" si="36">S73/S$72</f>
         <v>0.99722222222222212</v>
       </c>
       <c r="V73" s="628">
         <v>2.5432999999999999</v>
       </c>
       <c r="W73" s="618">
-        <f t="shared" ref="W73:W87" si="36">V73/V$72</f>
+        <f t="shared" ref="W73:W87" si="37">V73/V$72</f>
         <v>0.99705974596205105</v>
       </c>
       <c r="Y73" s="628">
         <v>2.4430000000000001</v>
       </c>
       <c r="Z73" s="618">
-        <f t="shared" ref="Z73:Z87" si="37">Y73/Y$72</f>
+        <f t="shared" ref="Z73:Z87" si="38">Y73/Y$72</f>
         <v>0.99722426320515956</v>
       </c>
       <c r="AB73" s="628">
         <v>2.4748000000000001</v>
       </c>
       <c r="AC73" s="618">
-        <f t="shared" ref="AC73:AC87" si="38">AB73/AB$72</f>
+        <f t="shared" ref="AC73:AC87" si="39">AB73/AB$72</f>
         <v>0.99705894202489831</v>
       </c>
       <c r="AF73" s="620"/>
       <c r="AG73" s="620">
-        <f t="shared" ref="AG73:AG87" si="39">AVERAGE(N73,Q73,T73,W73,Z73,AC73)</f>
+        <f t="shared" ref="AG73:AG87" si="40">AVERAGE(N73,Q73,T73,W73,Z73,AC73)</f>
         <v>0.99717461176181799</v>
       </c>
       <c r="AH73" s="619">
@@ -33710,7 +33746,7 @@
         <v>-2.8000000000000247E-3</v>
       </c>
       <c r="AJ73" s="620">
-        <f t="shared" ref="AJ73:AJ87" si="40">AG73-AI73</f>
+        <f t="shared" ref="AJ73:AJ87" si="41">AG73-AI73</f>
         <v>0.99997461176181801</v>
       </c>
       <c r="AL73" s="620">
@@ -33721,12 +33757,12 @@
         <v>0</v>
       </c>
       <c r="AN73" s="629">
-        <f t="shared" ref="AN73:AN79" si="41">ABS(AL73/0.29%)</f>
+        <f t="shared" ref="AN73:AN79" si="42">ABS(AL73/0.29%)</f>
         <v>343.85331440062691</v>
       </c>
     </row>
     <row r="74" spans="1:41" s="619" customFormat="1" ht="15.75">
-      <c r="A74" s="702"/>
+      <c r="A74" s="703"/>
       <c r="B74" s="610">
         <v>0</v>
       </c>
@@ -33743,7 +33779,7 @@
         <v>-5.7000000000000384E-3</v>
       </c>
       <c r="G74" s="626">
-        <f t="shared" ref="G74:G80" si="42">F74-F73</f>
+        <f t="shared" ref="G74:G80" si="43">F74-F73</f>
         <v>-2.9000000000000137E-3</v>
       </c>
       <c r="H74" s="613" t="s">
@@ -33759,47 +33795,47 @@
         <v>2.4462000000000002</v>
       </c>
       <c r="N74" s="618">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.99439024390243913</v>
       </c>
       <c r="P74" s="628">
         <v>2.4950999999999999</v>
       </c>
       <c r="Q74" s="618">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.9944599442008768</v>
       </c>
       <c r="S74" s="628">
         <v>2.5055999999999998</v>
       </c>
       <c r="T74" s="618">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.99428571428571422</v>
       </c>
       <c r="V74" s="628">
         <v>2.5360999999999998</v>
       </c>
       <c r="W74" s="618">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.99423710208561999</v>
       </c>
       <c r="Y74" s="628">
         <v>2.4359999999999999</v>
       </c>
       <c r="Z74" s="618">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.99436688709282384</v>
       </c>
       <c r="AB74" s="628">
         <v>2.4676999999999998</v>
       </c>
       <c r="AC74" s="618">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.99419846098062115</v>
       </c>
       <c r="AF74" s="620"/>
       <c r="AG74" s="620">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.99432305875801585</v>
       </c>
       <c r="AH74" s="5">
@@ -33809,23 +33845,23 @@
         <v>-5.7000000000000384E-3</v>
       </c>
       <c r="AJ74" s="620">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.0000230587580159</v>
       </c>
       <c r="AL74" s="620">
         <v>0.99432305875801585</v>
       </c>
       <c r="AM74" s="620">
-        <f t="shared" ref="AM74:AM87" si="43">AG74-AL74</f>
+        <f t="shared" ref="AM74:AM87" si="44">AG74-AL74</f>
         <v>0</v>
       </c>
       <c r="AN74" s="629">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>342.87002026138481</v>
       </c>
     </row>
     <row r="75" spans="1:41" ht="15.75">
-      <c r="A75" s="702"/>
+      <c r="A75" s="703"/>
       <c r="B75" s="304">
         <v>0</v>
       </c>
@@ -33842,7 +33878,7 @@
         <v>-8.600000000000052E-3</v>
       </c>
       <c r="G75" s="375">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-2.9000000000000137E-3</v>
       </c>
       <c r="H75" s="307" t="s">
@@ -33858,46 +33894,46 @@
         <v>2.4382000000000001</v>
       </c>
       <c r="N75" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.99113821138211389</v>
       </c>
       <c r="P75" s="230">
         <v>2.4874999999999998</v>
       </c>
       <c r="Q75" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.99143084894380229</v>
       </c>
       <c r="S75" s="230">
         <v>2.4996</v>
       </c>
       <c r="T75" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.99190476190476196</v>
       </c>
       <c r="V75" s="230">
         <v>2.5287999999999999</v>
       </c>
       <c r="W75" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.99137525482201649</v>
       </c>
       <c r="Y75" s="230">
         <v>2.4287000000000001</v>
       </c>
       <c r="Z75" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.99138705200424515</v>
       </c>
       <c r="AB75" s="230">
         <v>2.4601999999999999</v>
       </c>
       <c r="AC75" s="372">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.99117682607469482</v>
       </c>
       <c r="AG75" s="594">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.99140215918860575</v>
       </c>
       <c r="AH75" s="619">
@@ -33907,23 +33943,23 @@
         <v>-8.600000000000052E-3</v>
       </c>
       <c r="AJ75" s="371">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.0000021591886057</v>
       </c>
       <c r="AL75" s="594">
         <v>0.99140215918860575</v>
       </c>
       <c r="AM75" s="371">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AN75" s="379">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>341.86281351331235</v>
       </c>
     </row>
     <row r="76" spans="1:41" s="619" customFormat="1" ht="15.75">
-      <c r="A76" s="702"/>
+      <c r="A76" s="703"/>
       <c r="B76" s="610">
         <v>0</v>
       </c>
@@ -33940,7 +33976,7 @@
         <v>-1.1499999999999955E-2</v>
       </c>
       <c r="G76" s="626">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-2.8999999999999027E-3</v>
       </c>
       <c r="H76" s="613" t="s">
@@ -33956,47 +33992,47 @@
         <v>2.4319999999999999</v>
       </c>
       <c r="N76" s="618">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.98861788617886182</v>
       </c>
       <c r="P76" s="628">
         <v>2.4794</v>
       </c>
       <c r="Q76" s="618">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.98820247110402559</v>
       </c>
       <c r="S76" s="628">
         <v>2.4906000000000001</v>
       </c>
       <c r="T76" s="618">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.9883333333333334</v>
       </c>
       <c r="V76" s="628">
         <v>2.5215999999999998</v>
       </c>
       <c r="W76" s="618">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.98855261094558555</v>
       </c>
       <c r="Y76" s="628">
         <v>2.4222000000000001</v>
       </c>
       <c r="Z76" s="618">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.98873377418564778</v>
       </c>
       <c r="AB76" s="628">
         <v>2.4529999999999998</v>
       </c>
       <c r="AC76" s="618">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.98827605656500539</v>
       </c>
       <c r="AF76" s="620"/>
       <c r="AG76" s="620">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.98845268871874314</v>
       </c>
       <c r="AH76" s="5">
@@ -34006,23 +34042,23 @@
         <v>-1.1499999999999955E-2</v>
       </c>
       <c r="AJ76" s="620">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0.9999526887187431</v>
       </c>
       <c r="AL76" s="620">
         <v>0.98845268871874314</v>
       </c>
       <c r="AM76" s="620">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AN76" s="629">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>340.84575473060113</v>
       </c>
     </row>
     <row r="77" spans="1:41" ht="15.75">
-      <c r="A77" s="702"/>
+      <c r="A77" s="703"/>
       <c r="B77" s="304">
         <v>0</v>
       </c>
@@ -34039,7 +34075,7 @@
         <v>-1.4399999999999968E-2</v>
       </c>
       <c r="G77" s="375">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-2.9000000000000137E-3</v>
       </c>
       <c r="H77" s="307" t="s">
@@ -34055,46 +34091,46 @@
         <v>2.4249999999999998</v>
       </c>
       <c r="N77" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.98577235772357719</v>
       </c>
       <c r="P77" s="230">
         <v>2.4729999999999999</v>
       </c>
       <c r="Q77" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.98565165404543642</v>
       </c>
       <c r="S77" s="230">
         <v>2.484</v>
       </c>
       <c r="T77" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.98571428571428565</v>
       </c>
       <c r="V77" s="230">
         <v>2.5135999999999998</v>
       </c>
       <c r="W77" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.98541633997177347</v>
       </c>
       <c r="Y77" s="230">
         <v>2.4152999999999998</v>
       </c>
       <c r="Z77" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.98591721773205954</v>
       </c>
       <c r="AB77" s="230">
         <v>2.4456000000000002</v>
       </c>
       <c r="AC77" s="372">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.98529471012449144</v>
       </c>
       <c r="AG77" s="594">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.98562776088527071</v>
       </c>
       <c r="AH77" s="619">
@@ -34104,23 +34140,23 @@
         <v>-1.4399999999999968E-2</v>
       </c>
       <c r="AJ77" s="371">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.0000277608852706</v>
       </c>
       <c r="AL77" s="594">
         <v>0.98562776088527071</v>
       </c>
       <c r="AM77" s="371">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AN77" s="379">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>339.8716416845761</v>
       </c>
     </row>
     <row r="78" spans="1:41" ht="15.75">
-      <c r="A78" s="702"/>
+      <c r="A78" s="703"/>
       <c r="B78" s="304">
         <v>0</v>
       </c>
@@ -34137,7 +34173,7 @@
         <v>-1.7399999999999971E-2</v>
       </c>
       <c r="G78" s="375">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-3.0000000000000027E-3</v>
       </c>
       <c r="H78" s="307" t="s">
@@ -34153,46 +34189,46 @@
         <v>2.4180000000000001</v>
       </c>
       <c r="N78" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.98292682926829278</v>
       </c>
       <c r="P78" s="230">
         <v>2.4662000000000002</v>
       </c>
       <c r="Q78" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.98294141092068565</v>
       </c>
       <c r="S78" s="230">
         <v>2.4769999999999999</v>
       </c>
       <c r="T78" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.98293650793650789</v>
       </c>
       <c r="V78" s="230">
         <v>2.5063</v>
       </c>
       <c r="W78" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.98255449270816986</v>
       </c>
       <c r="Y78" s="230">
         <v>2.4079999999999999</v>
       </c>
       <c r="Z78" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.98293738264348096</v>
       </c>
       <c r="AB78" s="230">
         <v>2.4388000000000001</v>
       </c>
       <c r="AC78" s="372">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.9825550944764514</v>
       </c>
       <c r="AG78" s="594">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.98280861965893129</v>
       </c>
       <c r="AH78" s="5">
@@ -34202,23 +34238,23 @@
         <v>-1.7399999999999971E-2</v>
       </c>
       <c r="AJ78" s="371">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.0002086196589313</v>
       </c>
       <c r="AL78" s="594">
         <v>0.98280861965893129</v>
       </c>
       <c r="AM78" s="371">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AN78" s="379">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>338.89952402032117</v>
       </c>
     </row>
     <row r="79" spans="1:41" ht="15.75">
-      <c r="A79" s="702"/>
+      <c r="A79" s="703"/>
       <c r="B79" s="304">
         <v>0</v>
       </c>
@@ -34235,7 +34271,7 @@
         <v>-2.0199999999999996E-2</v>
       </c>
       <c r="G79" s="375">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>-2.8000000000000247E-3</v>
       </c>
       <c r="H79" s="307" t="s">
@@ -34251,46 +34287,46 @@
         <v>2.4117000000000002</v>
       </c>
       <c r="N79" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.98036585365853668</v>
       </c>
       <c r="P79" s="230">
         <v>2.4584999999999999</v>
       </c>
       <c r="Q79" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.97987245914707055</v>
       </c>
       <c r="S79" s="230">
         <v>2.4695</v>
       </c>
       <c r="T79" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0.97996031746031742</v>
       </c>
       <c r="V79" s="230">
         <v>2.4996</v>
       </c>
       <c r="W79" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.97992786576760227</v>
       </c>
       <c r="Y79" s="230">
         <v>2.4018000000000002</v>
       </c>
       <c r="Z79" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>0.98040656380112656</v>
       </c>
       <c r="AB79" s="230">
         <v>2.4316</v>
       </c>
       <c r="AC79" s="372">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.97965432496676197</v>
       </c>
       <c r="AG79" s="594">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.98003123080023602</v>
       </c>
       <c r="AH79" s="619">
@@ -34300,23 +34336,23 @@
         <v>-2.0199999999999996E-2</v>
       </c>
       <c r="AJ79" s="371">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.0002312308002361</v>
       </c>
       <c r="AL79" s="594">
         <v>0.98003123080023602</v>
       </c>
       <c r="AM79" s="371">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AN79" s="379">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>337.94180372421931</v>
       </c>
     </row>
     <row r="80" spans="1:41" s="619" customFormat="1" ht="15.75">
-      <c r="A80" s="702"/>
+      <c r="A80" s="703"/>
       <c r="B80" s="610">
         <v>1</v>
       </c>
@@ -34333,7 +34369,7 @@
         <v>2.3300000000000098E-2</v>
       </c>
       <c r="G80" s="626">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>4.3500000000000094E-2</v>
       </c>
       <c r="H80" s="613" t="s">
@@ -34349,47 +34385,47 @@
         <v>2.52</v>
       </c>
       <c r="N80" s="618">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.024390243902439</v>
       </c>
       <c r="P80" s="628">
         <v>2.5687000000000002</v>
       </c>
       <c r="Q80" s="618">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0237943403746514</v>
       </c>
       <c r="S80" s="628">
         <v>2.58</v>
       </c>
       <c r="T80" s="618">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0238095238095237</v>
       </c>
       <c r="V80" s="628">
         <v>2.6110000000000002</v>
       </c>
       <c r="W80" s="618">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0236004390779363</v>
       </c>
       <c r="Y80" s="628">
         <v>2.5085999999999999</v>
       </c>
       <c r="Z80" s="618">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.0240019593436198</v>
       </c>
       <c r="AB80" s="628">
         <v>2.5415999999999999</v>
       </c>
       <c r="AC80" s="618">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.0239716369203498</v>
       </c>
       <c r="AF80" s="620"/>
       <c r="AG80" s="620">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0239280239047532</v>
       </c>
       <c r="AH80" s="5">
@@ -34399,14 +34435,14 @@
         <v>2.3300000000000098E-2</v>
       </c>
       <c r="AJ80" s="620">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.0006280239047531</v>
       </c>
       <c r="AL80" s="620">
         <v>1.0239280239047532</v>
       </c>
       <c r="AM80" s="620">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AN80" s="629">
@@ -34415,7 +34451,7 @@
       </c>
     </row>
     <row r="81" spans="1:40" ht="15.75">
-      <c r="A81" s="702"/>
+      <c r="A81" s="703"/>
       <c r="B81" s="304">
         <v>1</v>
       </c>
@@ -34448,46 +34484,46 @@
         <v>2.5118</v>
       </c>
       <c r="N81" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0210569105691056</v>
       </c>
       <c r="P81" s="230">
         <v>2.5617000000000001</v>
       </c>
       <c r="Q81" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0210043842168195</v>
       </c>
       <c r="S81" s="230">
         <v>2.5743</v>
       </c>
       <c r="T81" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0215476190476191</v>
       </c>
       <c r="V81" s="230">
         <v>2.6030000000000002</v>
       </c>
       <c r="W81" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0204641681041242</v>
       </c>
       <c r="Y81" s="230">
         <v>2.5011999999999999</v>
       </c>
       <c r="Z81" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.0209813045962934</v>
       </c>
       <c r="AB81" s="230">
         <v>2.5339999999999998</v>
       </c>
       <c r="AC81" s="372">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.0209097135490108</v>
       </c>
       <c r="AG81" s="594">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0209940166804954</v>
       </c>
       <c r="AH81" s="619">
@@ -34497,23 +34533,23 @@
         <v>2.0399999999999974E-2</v>
       </c>
       <c r="AJ81" s="371">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.0005940166804954</v>
       </c>
       <c r="AL81" s="594">
         <v>1.0209940166804954</v>
       </c>
       <c r="AM81" s="371">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AN81" s="379">
-        <f t="shared" ref="AN81:AN87" si="44">16-ABS(AL81/0.29%)</f>
+        <f t="shared" ref="AN81:AN87" si="45">16-ABS(AL81/0.29%)</f>
         <v>-336.06690230361914</v>
       </c>
     </row>
     <row r="82" spans="1:40" ht="15.75">
-      <c r="A82" s="702"/>
+      <c r="A82" s="703"/>
       <c r="B82" s="304">
         <v>1</v>
       </c>
@@ -34530,7 +34566,7 @@
         <v>1.7500000000000071E-2</v>
       </c>
       <c r="G82" s="375">
-        <f t="shared" ref="G82:G87" si="45">F82-F81</f>
+        <f t="shared" ref="G82:G87" si="46">F82-F81</f>
         <v>-2.8999999999999027E-3</v>
       </c>
       <c r="H82" s="307" t="s">
@@ -34546,46 +34582,46 @@
         <v>2.5045999999999999</v>
       </c>
       <c r="N82" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.018130081300813</v>
       </c>
       <c r="P82" s="230">
         <v>2.5539999999999998</v>
       </c>
       <c r="Q82" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0179354324432044</v>
       </c>
       <c r="S82" s="230">
         <v>2.5672999999999999</v>
       </c>
       <c r="T82" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0187698412698412</v>
       </c>
       <c r="V82" s="230">
         <v>2.5949</v>
       </c>
       <c r="W82" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0172886937431393</v>
       </c>
       <c r="Y82" s="230">
         <v>2.4935999999999998</v>
       </c>
       <c r="Z82" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.0178790105314719</v>
       </c>
       <c r="AB82" s="230">
         <v>2.5264000000000002</v>
       </c>
       <c r="AC82" s="372">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.0178477901776721</v>
       </c>
       <c r="AG82" s="594">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0179751415776905</v>
       </c>
       <c r="AH82" s="5">
@@ -34595,23 +34631,23 @@
         <v>1.7500000000000071E-2</v>
       </c>
       <c r="AJ82" s="371">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.0004751415776905</v>
       </c>
       <c r="AL82" s="594">
         <v>1.0179751415776905</v>
       </c>
       <c r="AM82" s="371">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AN82" s="379">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-335.02591088885885</v>
       </c>
     </row>
     <row r="83" spans="1:40" ht="15.75">
-      <c r="A83" s="702"/>
+      <c r="A83" s="703"/>
       <c r="B83" s="304">
         <v>1</v>
       </c>
@@ -34628,7 +34664,7 @@
         <v>1.4599999999999946E-2</v>
       </c>
       <c r="G83" s="375">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-2.9000000000001247E-3</v>
       </c>
       <c r="H83" s="307" t="s">
@@ -34644,46 +34680,46 @@
         <v>2.4971000000000001</v>
       </c>
       <c r="N83" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0150813008130082</v>
       </c>
       <c r="P83" s="230">
         <v>2.5459999999999998</v>
       </c>
       <c r="Q83" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0147469111199681</v>
       </c>
       <c r="S83" s="230">
         <v>2.5579999999999998</v>
       </c>
       <c r="T83" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.015079365079365</v>
       </c>
       <c r="V83" s="230">
         <v>2.5878000000000001</v>
       </c>
       <c r="W83" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0145052532538812</v>
       </c>
       <c r="Y83" s="230">
         <v>2.4860000000000002</v>
       </c>
       <c r="Z83" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.0147767164666504</v>
       </c>
       <c r="AB83" s="230">
         <v>2.5182000000000002</v>
       </c>
       <c r="AC83" s="372">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.0145441360138594</v>
       </c>
       <c r="AG83" s="594">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0147889471244553</v>
       </c>
       <c r="AH83" s="619">
@@ -34693,23 +34729,23 @@
         <v>1.4599999999999946E-2</v>
       </c>
       <c r="AJ83" s="371">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.0001889471244554</v>
       </c>
       <c r="AL83" s="594">
         <v>1.0147889471244553</v>
       </c>
       <c r="AM83" s="371">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AN83" s="379">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-333.92722314636393</v>
       </c>
     </row>
     <row r="84" spans="1:40" ht="15.75">
-      <c r="A84" s="702"/>
+      <c r="A84" s="703"/>
       <c r="B84" s="304">
         <v>1</v>
       </c>
@@ -34726,7 +34762,7 @@
         <v>1.1700000000000044E-2</v>
       </c>
       <c r="G84" s="375">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-2.8999999999999027E-3</v>
       </c>
       <c r="H84" s="307" t="s">
@@ -34742,46 +34778,46 @@
         <v>2.4901</v>
       </c>
       <c r="N84" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0122357723577236</v>
       </c>
       <c r="P84" s="230">
         <v>2.5396000000000001</v>
       </c>
       <c r="Q84" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.012196094061379</v>
       </c>
       <c r="S84" s="230">
         <v>2.5503</v>
       </c>
       <c r="T84" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0120238095238094</v>
       </c>
       <c r="V84" s="230">
         <v>2.5804</v>
       </c>
       <c r="W84" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0116042026031049</v>
       </c>
       <c r="Y84" s="230">
         <v>2.4786999999999999</v>
       </c>
       <c r="Z84" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.0117968813780716</v>
       </c>
       <c r="AB84" s="230">
         <v>2.5110000000000001</v>
       </c>
       <c r="AC84" s="372">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.01164336650417</v>
       </c>
       <c r="AG84" s="594">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.011916687738043</v>
       </c>
       <c r="AH84" s="5">
@@ -34791,23 +34827,23 @@
         <v>1.1700000000000044E-2</v>
       </c>
       <c r="AJ84" s="371">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.000216687738043</v>
       </c>
       <c r="AL84" s="594">
         <v>1.011916687738043</v>
       </c>
       <c r="AM84" s="371">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AN84" s="379">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-332.93678887518729</v>
       </c>
     </row>
     <row r="85" spans="1:40" ht="15.75">
-      <c r="A85" s="702"/>
+      <c r="A85" s="703"/>
       <c r="B85" s="304">
         <v>1</v>
       </c>
@@ -34824,7 +34860,7 @@
         <v>8.799999999999919E-3</v>
       </c>
       <c r="G85" s="375">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-2.9000000000001247E-3</v>
       </c>
       <c r="H85" s="307" t="s">
@@ -34840,46 +34876,46 @@
         <v>2.4826999999999999</v>
       </c>
       <c r="N85" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0092276422764228</v>
       </c>
       <c r="P85" s="230">
         <v>2.5310999999999999</v>
       </c>
       <c r="Q85" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0088082901554405</v>
       </c>
       <c r="S85" s="230">
         <v>2.5432000000000001</v>
       </c>
       <c r="T85" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0092063492063492</v>
       </c>
       <c r="V85" s="230">
         <v>2.5724999999999998</v>
       </c>
       <c r="W85" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0085071350164652</v>
       </c>
       <c r="Y85" s="230">
         <v>2.4716</v>
       </c>
       <c r="Z85" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.0088986856069881</v>
       </c>
       <c r="AB85" s="230">
         <v>2.5036999999999998</v>
       </c>
       <c r="AC85" s="372">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.0087023085290681</v>
       </c>
       <c r="AG85" s="594">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0088917351317892</v>
       </c>
       <c r="AH85" s="619">
@@ -34889,23 +34925,23 @@
         <v>8.799999999999919E-3</v>
       </c>
       <c r="AJ85" s="371">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.0000917351317893</v>
       </c>
       <c r="AL85" s="594">
         <v>1.0088917351317892</v>
       </c>
       <c r="AM85" s="371">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AN85" s="379">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-331.89370176958249</v>
       </c>
     </row>
     <row r="86" spans="1:40" ht="15.75">
-      <c r="A86" s="702"/>
+      <c r="A86" s="703"/>
       <c r="B86" s="304">
         <v>1</v>
       </c>
@@ -34922,7 +34958,7 @@
         <v>5.9000000000000163E-3</v>
       </c>
       <c r="G86" s="375">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-2.8999999999999027E-3</v>
       </c>
       <c r="H86" s="307" t="s">
@@ -34938,46 +34974,46 @@
         <v>2.4752999999999998</v>
       </c>
       <c r="N86" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0062195121951218</v>
       </c>
       <c r="P86" s="230">
         <v>2.5230000000000001</v>
       </c>
       <c r="Q86" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0055799123156637</v>
       </c>
       <c r="S86" s="230">
         <v>2.5364</v>
       </c>
       <c r="T86" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0065079365079366</v>
       </c>
       <c r="V86" s="230">
         <v>2.5653000000000001</v>
       </c>
       <c r="W86" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0056844911400344</v>
       </c>
       <c r="Y86" s="230">
         <v>2.4645999999999999</v>
       </c>
       <c r="Z86" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.0060413094946525</v>
       </c>
       <c r="AB86" s="230">
         <v>2.4965000000000002</v>
       </c>
       <c r="AC86" s="372">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.0058015390193789</v>
       </c>
       <c r="AG86" s="594">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0059724501121314</v>
       </c>
       <c r="AH86" s="5">
@@ -34987,23 +35023,23 @@
         <v>5.9000000000000163E-3</v>
       </c>
       <c r="AJ86" s="371">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.0000724501121314</v>
       </c>
       <c r="AL86" s="594">
         <v>1.0059724501121314</v>
       </c>
       <c r="AM86" s="371">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AN86" s="379">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-330.88705176280399</v>
       </c>
     </row>
     <row r="87" spans="1:40" ht="16.5" thickBot="1">
-      <c r="A87" s="703"/>
+      <c r="A87" s="704"/>
       <c r="B87" s="351">
         <v>1</v>
       </c>
@@ -35020,7 +35056,7 @@
         <v>2.9999999999998916E-3</v>
       </c>
       <c r="G87" s="375">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>-2.9000000000001247E-3</v>
       </c>
       <c r="H87" s="327" t="s">
@@ -35036,46 +35072,46 @@
         <v>2.468</v>
       </c>
       <c r="N87" s="372">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.0032520325203251</v>
       </c>
       <c r="P87" s="235">
         <v>2.5167999999999999</v>
       </c>
       <c r="Q87" s="372">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.0031088082901554</v>
       </c>
       <c r="S87" s="235">
         <v>2.5280999999999998</v>
       </c>
       <c r="T87" s="372">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>1.0032142857142856</v>
       </c>
       <c r="V87" s="235">
         <v>2.5579000000000001</v>
       </c>
       <c r="W87" s="372">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.0027834404892582</v>
       </c>
       <c r="Y87" s="235">
         <v>2.4571999999999998</v>
       </c>
       <c r="Z87" s="372">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.0030206547473262</v>
       </c>
       <c r="AB87" s="235">
         <v>2.4895999999999998</v>
       </c>
       <c r="AC87" s="372">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>1.0030216349059264</v>
       </c>
       <c r="AG87" s="594">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>1.0030668094445463</v>
       </c>
       <c r="AH87" s="619">
@@ -35085,18 +35121,18 @@
         <v>2.9999999999998916E-3</v>
       </c>
       <c r="AJ87" s="371">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.0000668094445464</v>
       </c>
       <c r="AL87" s="594">
         <v>1.0030668094445463</v>
       </c>
       <c r="AM87" s="371">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AN87" s="379">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>-329.88510670501597</v>
       </c>
     </row>
@@ -35123,12 +35159,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet4!F11:F11</xm:f>
-              <xm:sqref>BE22</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>Sheet4!F12:F12</xm:f>
-              <xm:sqref>BE23</xm:sqref>
+              <xm:f>Sheet4!F11:F12</xm:f>
+              <xm:sqref>BA39</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -35143,8 +35175,12 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>Sheet4!F11:F12</xm:f>
-              <xm:sqref>BA39</xm:sqref>
+              <xm:f>Sheet4!F11:F11</xm:f>
+              <xm:sqref>BE22</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>Sheet4!F12:F12</xm:f>
+              <xm:sqref>BE23</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -39430,10 +39466,10 @@
       <c r="B4" s="230">
         <v>1</v>
       </c>
-      <c r="C4" s="704">
-        <v>1</v>
-      </c>
-      <c r="D4" s="706">
+      <c r="C4" s="705">
+        <v>1</v>
+      </c>
+      <c r="D4" s="707">
         <v>1</v>
       </c>
       <c r="E4" s="248">
@@ -39454,8 +39490,8 @@
     <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="214"/>
       <c r="B5" s="230"/>
-      <c r="C5" s="704"/>
-      <c r="D5" s="706"/>
+      <c r="C5" s="705"/>
+      <c r="D5" s="707"/>
       <c r="E5" s="248">
         <v>0</v>
       </c>
@@ -39474,8 +39510,8 @@
     <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="214"/>
       <c r="B6" s="230"/>
-      <c r="C6" s="704"/>
-      <c r="D6" s="706"/>
+      <c r="C6" s="705"/>
+      <c r="D6" s="707"/>
       <c r="E6" s="248">
         <v>1</v>
       </c>
@@ -39494,8 +39530,8 @@
     <row r="7" spans="1:9" ht="16.5" thickBot="1">
       <c r="A7" s="214"/>
       <c r="B7" s="230"/>
-      <c r="C7" s="705"/>
-      <c r="D7" s="707"/>
+      <c r="C7" s="706"/>
+      <c r="D7" s="708"/>
       <c r="E7" s="287">
         <v>1</v>
       </c>
@@ -39516,10 +39552,10 @@
       <c r="B8" s="226">
         <v>2</v>
       </c>
-      <c r="C8" s="708">
-        <v>1</v>
-      </c>
-      <c r="D8" s="710">
+      <c r="C8" s="709">
+        <v>1</v>
+      </c>
+      <c r="D8" s="711">
         <v>1</v>
       </c>
       <c r="E8" s="240">
@@ -39540,8 +39576,8 @@
     <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="214"/>
       <c r="B9" s="230"/>
-      <c r="C9" s="704"/>
-      <c r="D9" s="706"/>
+      <c r="C9" s="705"/>
+      <c r="D9" s="707"/>
       <c r="E9" s="248">
         <v>0</v>
       </c>
@@ -39560,8 +39596,8 @@
     <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="214"/>
       <c r="B10" s="230"/>
-      <c r="C10" s="704"/>
-      <c r="D10" s="706"/>
+      <c r="C10" s="705"/>
+      <c r="D10" s="707"/>
       <c r="E10" s="248">
         <v>1</v>
       </c>
@@ -39580,8 +39616,8 @@
     <row r="11" spans="1:9" ht="16.5" thickBot="1">
       <c r="A11" s="214"/>
       <c r="B11" s="235"/>
-      <c r="C11" s="709"/>
-      <c r="D11" s="711"/>
+      <c r="C11" s="710"/>
+      <c r="D11" s="712"/>
       <c r="E11" s="259">
         <v>1</v>
       </c>
@@ -40337,10 +40373,10 @@
       <c r="B2" s="218" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="712" t="s">
+      <c r="C2" s="713" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="712"/>
+      <c r="D2" s="713"/>
       <c r="E2" s="219" t="s">
         <v>213</v>
       </c>
@@ -40363,13 +40399,13 @@
     </row>
     <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="226"/>
-      <c r="B3" s="704">
-        <v>0</v>
-      </c>
-      <c r="C3" s="706">
-        <v>1</v>
-      </c>
-      <c r="D3" s="706"/>
+      <c r="B3" s="705">
+        <v>0</v>
+      </c>
+      <c r="C3" s="707">
+        <v>1</v>
+      </c>
+      <c r="D3" s="707"/>
       <c r="E3" s="227" t="s">
         <v>221</v>
       </c>
@@ -40384,9 +40420,9 @@
       <c r="A4" s="230">
         <v>1</v>
       </c>
-      <c r="B4" s="704"/>
-      <c r="C4" s="706"/>
-      <c r="D4" s="706"/>
+      <c r="B4" s="705"/>
+      <c r="C4" s="707"/>
+      <c r="D4" s="707"/>
       <c r="E4" s="227" t="s">
         <v>223</v>
       </c>
@@ -40399,9 +40435,9 @@
     </row>
     <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="230"/>
-      <c r="B5" s="704"/>
-      <c r="C5" s="706"/>
-      <c r="D5" s="706"/>
+      <c r="B5" s="705"/>
+      <c r="C5" s="707"/>
+      <c r="D5" s="707"/>
       <c r="E5" s="227" t="s">
         <v>225</v>
       </c>
@@ -40414,9 +40450,9 @@
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1">
       <c r="A6" s="235"/>
-      <c r="B6" s="709"/>
-      <c r="C6" s="711"/>
-      <c r="D6" s="711"/>
+      <c r="B6" s="710"/>
+      <c r="C6" s="712"/>
+      <c r="D6" s="712"/>
       <c r="E6" s="236" t="s">
         <v>226</v>
       </c>
@@ -40444,13 +40480,13 @@
     </row>
     <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="226"/>
-      <c r="B7" s="704">
-        <v>0</v>
-      </c>
-      <c r="C7" s="706">
-        <v>1</v>
-      </c>
-      <c r="D7" s="706"/>
+      <c r="B7" s="705">
+        <v>0</v>
+      </c>
+      <c r="C7" s="707">
+        <v>1</v>
+      </c>
+      <c r="D7" s="707"/>
       <c r="E7" s="227" t="s">
         <v>221</v>
       </c>
@@ -40465,9 +40501,9 @@
       <c r="A8" s="230">
         <v>2</v>
       </c>
-      <c r="B8" s="704"/>
-      <c r="C8" s="706"/>
-      <c r="D8" s="706"/>
+      <c r="B8" s="705"/>
+      <c r="C8" s="707"/>
+      <c r="D8" s="707"/>
       <c r="E8" s="227" t="s">
         <v>223</v>
       </c>
@@ -40480,9 +40516,9 @@
     </row>
     <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="230"/>
-      <c r="B9" s="704"/>
-      <c r="C9" s="706"/>
-      <c r="D9" s="706"/>
+      <c r="B9" s="705"/>
+      <c r="C9" s="707"/>
+      <c r="D9" s="707"/>
       <c r="E9" s="227" t="s">
         <v>225</v>
       </c>
@@ -40495,9 +40531,9 @@
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1">
       <c r="A10" s="235"/>
-      <c r="B10" s="709"/>
-      <c r="C10" s="711"/>
-      <c r="D10" s="711"/>
+      <c r="B10" s="710"/>
+      <c r="C10" s="712"/>
+      <c r="D10" s="712"/>
       <c r="E10" s="236" t="s">
         <v>226</v>
       </c>
@@ -40525,13 +40561,13 @@
     </row>
     <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="226"/>
-      <c r="B11" s="704">
-        <v>0</v>
-      </c>
-      <c r="C11" s="706">
-        <v>1</v>
-      </c>
-      <c r="D11" s="706"/>
+      <c r="B11" s="705">
+        <v>0</v>
+      </c>
+      <c r="C11" s="707">
+        <v>1</v>
+      </c>
+      <c r="D11" s="707"/>
       <c r="E11" s="227" t="s">
         <v>221</v>
       </c>
@@ -40546,9 +40582,9 @@
       <c r="A12" s="230">
         <v>3</v>
       </c>
-      <c r="B12" s="704"/>
-      <c r="C12" s="706"/>
-      <c r="D12" s="706"/>
+      <c r="B12" s="705"/>
+      <c r="C12" s="707"/>
+      <c r="D12" s="707"/>
       <c r="E12" s="227" t="s">
         <v>223</v>
       </c>
@@ -40561,9 +40597,9 @@
     </row>
     <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="230"/>
-      <c r="B13" s="704"/>
-      <c r="C13" s="706"/>
-      <c r="D13" s="706"/>
+      <c r="B13" s="705"/>
+      <c r="C13" s="707"/>
+      <c r="D13" s="707"/>
       <c r="E13" s="227" t="s">
         <v>225</v>
       </c>
@@ -40576,9 +40612,9 @@
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1">
       <c r="A14" s="235"/>
-      <c r="B14" s="709"/>
-      <c r="C14" s="711"/>
-      <c r="D14" s="711"/>
+      <c r="B14" s="710"/>
+      <c r="C14" s="712"/>
+      <c r="D14" s="712"/>
       <c r="E14" s="236" t="s">
         <v>226</v>
       </c>
@@ -40606,13 +40642,13 @@
     </row>
     <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="226"/>
-      <c r="B15" s="704">
-        <v>0</v>
-      </c>
-      <c r="C15" s="706">
-        <v>1</v>
-      </c>
-      <c r="D15" s="706"/>
+      <c r="B15" s="705">
+        <v>0</v>
+      </c>
+      <c r="C15" s="707">
+        <v>1</v>
+      </c>
+      <c r="D15" s="707"/>
       <c r="E15" s="227" t="s">
         <v>221</v>
       </c>
@@ -40627,9 +40663,9 @@
       <c r="A16" s="230">
         <v>4</v>
       </c>
-      <c r="B16" s="704"/>
-      <c r="C16" s="706"/>
-      <c r="D16" s="706"/>
+      <c r="B16" s="705"/>
+      <c r="C16" s="707"/>
+      <c r="D16" s="707"/>
       <c r="E16" s="227" t="s">
         <v>223</v>
       </c>
@@ -40642,9 +40678,9 @@
     </row>
     <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="230"/>
-      <c r="B17" s="704"/>
-      <c r="C17" s="706"/>
-      <c r="D17" s="706"/>
+      <c r="B17" s="705"/>
+      <c r="C17" s="707"/>
+      <c r="D17" s="707"/>
       <c r="E17" s="227" t="s">
         <v>225</v>
       </c>
@@ -40657,9 +40693,9 @@
     </row>
     <row r="18" spans="1:11" ht="16.5" thickBot="1">
       <c r="A18" s="235"/>
-      <c r="B18" s="709"/>
-      <c r="C18" s="711"/>
-      <c r="D18" s="711"/>
+      <c r="B18" s="710"/>
+      <c r="C18" s="712"/>
+      <c r="D18" s="712"/>
       <c r="E18" s="236" t="s">
         <v>226</v>
       </c>
@@ -40687,13 +40723,13 @@
     </row>
     <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="226"/>
-      <c r="B19" s="704">
-        <v>0</v>
-      </c>
-      <c r="C19" s="706">
-        <v>1</v>
-      </c>
-      <c r="D19" s="706"/>
+      <c r="B19" s="705">
+        <v>0</v>
+      </c>
+      <c r="C19" s="707">
+        <v>1</v>
+      </c>
+      <c r="D19" s="707"/>
       <c r="E19" s="227" t="s">
         <v>221</v>
       </c>
@@ -40708,9 +40744,9 @@
       <c r="A20" s="230">
         <v>5</v>
       </c>
-      <c r="B20" s="704"/>
-      <c r="C20" s="706"/>
-      <c r="D20" s="706"/>
+      <c r="B20" s="705"/>
+      <c r="C20" s="707"/>
+      <c r="D20" s="707"/>
       <c r="E20" s="227" t="s">
         <v>223</v>
       </c>
@@ -40723,9 +40759,9 @@
     </row>
     <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="230"/>
-      <c r="B21" s="704"/>
-      <c r="C21" s="706"/>
-      <c r="D21" s="706"/>
+      <c r="B21" s="705"/>
+      <c r="C21" s="707"/>
+      <c r="D21" s="707"/>
       <c r="E21" s="227" t="s">
         <v>225</v>
       </c>
@@ -40738,9 +40774,9 @@
     </row>
     <row r="22" spans="1:11" ht="16.5" thickBot="1">
       <c r="A22" s="235"/>
-      <c r="B22" s="709"/>
-      <c r="C22" s="711"/>
-      <c r="D22" s="711"/>
+      <c r="B22" s="710"/>
+      <c r="C22" s="712"/>
+      <c r="D22" s="712"/>
       <c r="E22" s="236" t="s">
         <v>226</v>
       </c>
@@ -40768,13 +40804,13 @@
     </row>
     <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="226"/>
-      <c r="B23" s="704">
-        <v>0</v>
-      </c>
-      <c r="C23" s="706">
-        <v>1</v>
-      </c>
-      <c r="D23" s="706"/>
+      <c r="B23" s="705">
+        <v>0</v>
+      </c>
+      <c r="C23" s="707">
+        <v>1</v>
+      </c>
+      <c r="D23" s="707"/>
       <c r="E23" s="227" t="s">
         <v>221</v>
       </c>
@@ -40799,9 +40835,9 @@
       <c r="A24" s="230">
         <v>6</v>
       </c>
-      <c r="B24" s="704"/>
-      <c r="C24" s="706"/>
-      <c r="D24" s="706"/>
+      <c r="B24" s="705"/>
+      <c r="C24" s="707"/>
+      <c r="D24" s="707"/>
       <c r="E24" s="227" t="s">
         <v>223</v>
       </c>
@@ -40824,9 +40860,9 @@
     </row>
     <row r="25" spans="1:11" ht="15.75">
       <c r="A25" s="230"/>
-      <c r="B25" s="704"/>
-      <c r="C25" s="706"/>
-      <c r="D25" s="706"/>
+      <c r="B25" s="705"/>
+      <c r="C25" s="707"/>
+      <c r="D25" s="707"/>
       <c r="E25" s="227" t="s">
         <v>225</v>
       </c>
@@ -40849,9 +40885,9 @@
     </row>
     <row r="26" spans="1:11" ht="16.5" thickBot="1">
       <c r="A26" s="235"/>
-      <c r="B26" s="709"/>
-      <c r="C26" s="711"/>
-      <c r="D26" s="711"/>
+      <c r="B26" s="710"/>
+      <c r="C26" s="712"/>
+      <c r="D26" s="712"/>
       <c r="E26" s="236" t="s">
         <v>226</v>
       </c>
@@ -40879,13 +40915,13 @@
     </row>
     <row r="27" spans="1:11" ht="15.75">
       <c r="A27" s="226"/>
-      <c r="B27" s="704">
-        <v>0</v>
-      </c>
-      <c r="C27" s="706">
-        <v>1</v>
-      </c>
-      <c r="D27" s="706"/>
+      <c r="B27" s="705">
+        <v>0</v>
+      </c>
+      <c r="C27" s="707">
+        <v>1</v>
+      </c>
+      <c r="D27" s="707"/>
       <c r="E27" s="227" t="s">
         <v>221</v>
       </c>
@@ -40910,9 +40946,9 @@
       <c r="A28" s="230">
         <v>7</v>
       </c>
-      <c r="B28" s="704"/>
-      <c r="C28" s="706"/>
-      <c r="D28" s="706"/>
+      <c r="B28" s="705"/>
+      <c r="C28" s="707"/>
+      <c r="D28" s="707"/>
       <c r="E28" s="227" t="s">
         <v>223</v>
       </c>
@@ -40935,9 +40971,9 @@
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="230"/>
-      <c r="B29" s="704"/>
-      <c r="C29" s="706"/>
-      <c r="D29" s="706"/>
+      <c r="B29" s="705"/>
+      <c r="C29" s="707"/>
+      <c r="D29" s="707"/>
       <c r="E29" s="227" t="s">
         <v>225</v>
       </c>
@@ -40960,9 +40996,9 @@
     </row>
     <row r="30" spans="1:11" ht="16.5" thickBot="1">
       <c r="A30" s="235"/>
-      <c r="B30" s="709"/>
-      <c r="C30" s="711"/>
-      <c r="D30" s="711"/>
+      <c r="B30" s="710"/>
+      <c r="C30" s="712"/>
+      <c r="D30" s="712"/>
       <c r="E30" s="236" t="s">
         <v>226</v>
       </c>
@@ -40990,13 +41026,13 @@
     </row>
     <row r="31" spans="1:11" ht="15.75">
       <c r="A31" s="226"/>
-      <c r="B31" s="704">
-        <v>0</v>
-      </c>
-      <c r="C31" s="706">
-        <v>1</v>
-      </c>
-      <c r="D31" s="706"/>
+      <c r="B31" s="705">
+        <v>0</v>
+      </c>
+      <c r="C31" s="707">
+        <v>1</v>
+      </c>
+      <c r="D31" s="707"/>
       <c r="E31" s="227" t="s">
         <v>221</v>
       </c>
@@ -41021,9 +41057,9 @@
       <c r="A32" s="230">
         <v>8</v>
       </c>
-      <c r="B32" s="704"/>
-      <c r="C32" s="706"/>
-      <c r="D32" s="706"/>
+      <c r="B32" s="705"/>
+      <c r="C32" s="707"/>
+      <c r="D32" s="707"/>
       <c r="E32" s="227" t="s">
         <v>223</v>
       </c>
@@ -41046,9 +41082,9 @@
     </row>
     <row r="33" spans="1:11" ht="15.75">
       <c r="A33" s="230"/>
-      <c r="B33" s="704"/>
-      <c r="C33" s="706"/>
-      <c r="D33" s="706"/>
+      <c r="B33" s="705"/>
+      <c r="C33" s="707"/>
+      <c r="D33" s="707"/>
       <c r="E33" s="227" t="s">
         <v>225</v>
       </c>
@@ -41071,9 +41107,9 @@
     </row>
     <row r="34" spans="1:11" ht="16.5" thickBot="1">
       <c r="A34" s="235"/>
-      <c r="B34" s="709"/>
-      <c r="C34" s="711"/>
-      <c r="D34" s="711"/>
+      <c r="B34" s="710"/>
+      <c r="C34" s="712"/>
+      <c r="D34" s="712"/>
       <c r="E34" s="236" t="s">
         <v>226</v>
       </c>
@@ -41101,13 +41137,13 @@
     </row>
     <row r="35" spans="1:11" ht="15.75">
       <c r="A35" s="226"/>
-      <c r="B35" s="704">
-        <v>0</v>
-      </c>
-      <c r="C35" s="706">
-        <v>1</v>
-      </c>
-      <c r="D35" s="706"/>
+      <c r="B35" s="705">
+        <v>0</v>
+      </c>
+      <c r="C35" s="707">
+        <v>1</v>
+      </c>
+      <c r="D35" s="707"/>
       <c r="E35" s="227" t="s">
         <v>221</v>
       </c>
@@ -41132,9 +41168,9 @@
       <c r="A36" s="230">
         <v>9</v>
       </c>
-      <c r="B36" s="704"/>
-      <c r="C36" s="706"/>
-      <c r="D36" s="706"/>
+      <c r="B36" s="705"/>
+      <c r="C36" s="707"/>
+      <c r="D36" s="707"/>
       <c r="E36" s="227" t="s">
         <v>223</v>
       </c>
@@ -41157,9 +41193,9 @@
     </row>
     <row r="37" spans="1:11" ht="15.75">
       <c r="A37" s="230"/>
-      <c r="B37" s="704"/>
-      <c r="C37" s="706"/>
-      <c r="D37" s="706"/>
+      <c r="B37" s="705"/>
+      <c r="C37" s="707"/>
+      <c r="D37" s="707"/>
       <c r="E37" s="227" t="s">
         <v>225</v>
       </c>
@@ -41182,9 +41218,9 @@
     </row>
     <row r="38" spans="1:11" ht="16.5" thickBot="1">
       <c r="A38" s="235"/>
-      <c r="B38" s="709"/>
-      <c r="C38" s="711"/>
-      <c r="D38" s="711"/>
+      <c r="B38" s="710"/>
+      <c r="C38" s="712"/>
+      <c r="D38" s="712"/>
       <c r="E38" s="236" t="s">
         <v>226</v>
       </c>
@@ -41212,13 +41248,13 @@
     </row>
     <row r="39" spans="1:11" ht="15.75">
       <c r="A39" s="226"/>
-      <c r="B39" s="704">
-        <v>0</v>
-      </c>
-      <c r="C39" s="706">
-        <v>1</v>
-      </c>
-      <c r="D39" s="706"/>
+      <c r="B39" s="705">
+        <v>0</v>
+      </c>
+      <c r="C39" s="707">
+        <v>1</v>
+      </c>
+      <c r="D39" s="707"/>
       <c r="E39" s="227" t="s">
         <v>221</v>
       </c>
@@ -41243,9 +41279,9 @@
       <c r="A40" s="230">
         <v>10</v>
       </c>
-      <c r="B40" s="704"/>
-      <c r="C40" s="706"/>
-      <c r="D40" s="706"/>
+      <c r="B40" s="705"/>
+      <c r="C40" s="707"/>
+      <c r="D40" s="707"/>
       <c r="E40" s="227" t="s">
         <v>223</v>
       </c>
@@ -41268,9 +41304,9 @@
     </row>
     <row r="41" spans="1:11" ht="15.75">
       <c r="A41" s="230"/>
-      <c r="B41" s="704"/>
-      <c r="C41" s="706"/>
-      <c r="D41" s="706"/>
+      <c r="B41" s="705"/>
+      <c r="C41" s="707"/>
+      <c r="D41" s="707"/>
       <c r="E41" s="227" t="s">
         <v>225</v>
       </c>
@@ -41293,9 +41329,9 @@
     </row>
     <row r="42" spans="1:11" ht="16.5" thickBot="1">
       <c r="A42" s="235"/>
-      <c r="B42" s="709"/>
-      <c r="C42" s="711"/>
-      <c r="D42" s="711"/>
+      <c r="B42" s="710"/>
+      <c r="C42" s="712"/>
+      <c r="D42" s="712"/>
       <c r="E42" s="236" t="s">
         <v>226</v>
       </c>
@@ -41336,6 +41372,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:D6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:D10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:D14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:D18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:D22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="C23:D26"/>
     <mergeCell ref="B39:B42"/>
@@ -41346,17 +41393,6 @@
     <mergeCell ref="C31:D34"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="C35:D38"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:D14"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:D18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:D22"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:D6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
